--- a/Code/Data/DAX30/Efficient Portfolios with Prediction/Manual Recurrence/input 250/DAX30_efficient_portfolios_and_returns_with_prediction_quarter.xlsx
+++ b/Code/Data/DAX30/Efficient Portfolios with Prediction/Manual Recurrence/input 250/DAX30_efficient_portfolios_and_returns_with_prediction_quarter.xlsx
@@ -595,79 +595,79 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.1637436744768319</v>
+        <v>0.1670819774239086</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1102326197983317</v>
+        <v>0.07756665981227581</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0209753592902732</v>
+        <v>0.02441219472993085</v>
       </c>
       <c r="H2" t="n">
-        <v>0.09099298723198974</v>
+        <v>0.02676580093926154</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03705116361157379</v>
+        <v>0.08439143798327654</v>
       </c>
       <c r="J2" t="n">
-        <v>0.008349121018108063</v>
+        <v>0.01024281058179404</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0454435374582717</v>
+        <v>0.09286070491916014</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0783579569768809</v>
+        <v>0.05416429884994779</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02137894702755614</v>
+        <v>0.004156837349026675</v>
       </c>
       <c r="N2" t="n">
-        <v>0.01046440666978858</v>
+        <v>0.08804864098701061</v>
       </c>
       <c r="O2" t="n">
-        <v>0.08170669189021212</v>
+        <v>0.08034344453680037</v>
       </c>
       <c r="P2" t="n">
-        <v>0.07484038784813081</v>
+        <v>0.00332001973841961</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.04099737925695049</v>
+        <v>0.08963805251748762</v>
       </c>
       <c r="R2" t="n">
-        <v>0.01606496990289683</v>
+        <v>0.0645400342023419</v>
       </c>
       <c r="S2" t="n">
-        <v>0.06901530098614249</v>
+        <v>0.03547160373865887</v>
       </c>
       <c r="T2" t="n">
-        <v>0.04405907793489423</v>
+        <v>0.02394484572957364</v>
       </c>
       <c r="U2" t="n">
-        <v>0.03995072337490761</v>
+        <v>0.04712972991211857</v>
       </c>
       <c r="V2" t="n">
-        <v>0.006501132532838293</v>
+        <v>0.002399177812387495</v>
       </c>
       <c r="W2" t="n">
-        <v>0.08672340850421506</v>
+        <v>0.007064370922564308</v>
       </c>
       <c r="X2" t="n">
-        <v>0.04367705883898796</v>
+        <v>0.01713633102985572</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.01491083512676175</v>
+        <v>0.001601196798782049</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.008762837512072932</v>
+        <v>0.01050815894633122</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.0317847511368984</v>
+        <v>0.08806639808028401</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.01775934607131709</v>
+        <v>0.06622724988271041</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.1197493168274526</v>
+        <v>0.1295766007657061</v>
       </c>
     </row>
     <row r="3">
@@ -690,79 +690,79 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.2547363506148163</v>
+        <v>0.2933083112914303</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0005515280042811929</v>
+        <v>0.06737970530226123</v>
       </c>
       <c r="G3" t="n">
-        <v>0.08574481596390783</v>
+        <v>0.01201916148458424</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1011883680577596</v>
+        <v>0.02464127276746458</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05809172809806432</v>
+        <v>0.02631318148512065</v>
       </c>
       <c r="J3" t="n">
-        <v>0.03429576841952728</v>
+        <v>0.06175100350639744</v>
       </c>
       <c r="K3" t="n">
-        <v>0.05471014583209006</v>
+        <v>0.1043145765211808</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01329460671046621</v>
+        <v>0.02233188021515146</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02657370863254628</v>
+        <v>0.002916930913191724</v>
       </c>
       <c r="N3" t="n">
-        <v>0.004763507493701837</v>
+        <v>0.01277070988934018</v>
       </c>
       <c r="O3" t="n">
-        <v>0.06561744098554699</v>
+        <v>0.03565774048797051</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1018364652749927</v>
+        <v>0.04620075436402885</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.01027261278376497</v>
+        <v>0.06021420266430069</v>
       </c>
       <c r="R3" t="n">
-        <v>0.06900417722989097</v>
+        <v>0.003941496829612162</v>
       </c>
       <c r="S3" t="n">
-        <v>0.08735064137574471</v>
+        <v>0.07942617639266725</v>
       </c>
       <c r="T3" t="n">
-        <v>0.02828881966648477</v>
+        <v>0.01049701574913806</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05327443425272551</v>
+        <v>0.09193535144991173</v>
       </c>
       <c r="V3" t="n">
-        <v>0.1015129318890128</v>
+        <v>0.1123430576865947</v>
       </c>
       <c r="W3" t="n">
-        <v>0.04877980573760676</v>
+        <v>0.01882830020197717</v>
       </c>
       <c r="X3" t="n">
-        <v>0.026111984685367</v>
+        <v>0.08559298585080873</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.019898554194792</v>
+        <v>0.02625717559713701</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.003964363610962456</v>
+        <v>0.0243488847502867</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.004281748047071156</v>
+        <v>0.04712978858695815</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.0005918430536927541</v>
+        <v>0.02318864730391603</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.09409004060242046</v>
+        <v>0.08654585096470094</v>
       </c>
     </row>
     <row r="4">
@@ -785,79 +785,79 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.2371733238026772</v>
+        <v>0.2344664536625135</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04266283022263738</v>
+        <v>0.07315990334827811</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0167593940781825</v>
+        <v>0.04670995273633788</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00295880823361621</v>
+        <v>0.01412891554880163</v>
       </c>
       <c r="I4" t="n">
-        <v>0.003632097356122794</v>
+        <v>0.04486658264756781</v>
       </c>
       <c r="J4" t="n">
-        <v>0.08125042541937275</v>
+        <v>0.0401974270261063</v>
       </c>
       <c r="K4" t="n">
-        <v>0.08965903539647156</v>
+        <v>0.07101730045087908</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03784841328945542</v>
+        <v>0.05062209464530293</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01902171900193651</v>
+        <v>0.01136106552643475</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0844642539578824</v>
+        <v>0.02245091891293199</v>
       </c>
       <c r="O4" t="n">
-        <v>0.07356317429522109</v>
+        <v>0.07089398989110428</v>
       </c>
       <c r="P4" t="n">
-        <v>0.07196118043652132</v>
+        <v>0.0640134845651239</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.04580323694072639</v>
+        <v>0.05495758917092457</v>
       </c>
       <c r="R4" t="n">
-        <v>0.0192946564858328</v>
+        <v>0.01247687170572869</v>
       </c>
       <c r="S4" t="n">
-        <v>0.008464681441920203</v>
+        <v>0.01298382809817435</v>
       </c>
       <c r="T4" t="n">
-        <v>0.02264706978307565</v>
+        <v>0.02071984342788574</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0590109369230233</v>
+        <v>0.08730014700404247</v>
       </c>
       <c r="V4" t="n">
-        <v>0.04261112631637938</v>
+        <v>0.05234485388528599</v>
       </c>
       <c r="W4" t="n">
-        <v>0.04538355091590153</v>
+        <v>0.002831808967450227</v>
       </c>
       <c r="X4" t="n">
-        <v>0.05767823818466799</v>
+        <v>0.05984067182478386</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.01612411496851154</v>
+        <v>0.07964001869711035</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.08856673559304139</v>
+        <v>0.08147820744253274</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.06249894381431791</v>
+        <v>0.02423586171921914</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.008135376945181792</v>
+        <v>0.001768662757993126</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.0449143360926891</v>
+        <v>-0.01514577055578493</v>
       </c>
     </row>
     <row r="5">
@@ -880,79 +880,79 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.6537976674018252</v>
+        <v>0.4134454205240228</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1134202452884945</v>
+        <v>0.06789508976221918</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01805648158210525</v>
+        <v>0.0416513725432127</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1162605322741269</v>
+        <v>0.0741585348746449</v>
       </c>
       <c r="I5" t="n">
-        <v>0.03899185664987746</v>
+        <v>0.07611537132883268</v>
       </c>
       <c r="J5" t="n">
-        <v>0.006222610069887967</v>
+        <v>0.02568385782832087</v>
       </c>
       <c r="K5" t="n">
-        <v>0.06154060600790386</v>
+        <v>0.05311146250345137</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0800865396648406</v>
+        <v>0.05594425949775238</v>
       </c>
       <c r="M5" t="n">
-        <v>0.09095977630038868</v>
+        <v>0.01022669010613135</v>
       </c>
       <c r="N5" t="n">
-        <v>0.04730445083975595</v>
+        <v>0.03457073420538945</v>
       </c>
       <c r="O5" t="n">
-        <v>0.06054323509631575</v>
+        <v>0.07476546372268919</v>
       </c>
       <c r="P5" t="n">
-        <v>0.08329748642033113</v>
+        <v>0.04537029378144574</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.04317004211233788</v>
+        <v>0.02926747212102447</v>
       </c>
       <c r="R5" t="n">
-        <v>0.007954920405181504</v>
+        <v>9.116520364564784e-05</v>
       </c>
       <c r="S5" t="n">
-        <v>0.001181141515705264</v>
+        <v>0.01121439598590304</v>
       </c>
       <c r="T5" t="n">
-        <v>0.01601765518020374</v>
+        <v>0.001811433317578437</v>
       </c>
       <c r="U5" t="n">
-        <v>0.02047998331264571</v>
+        <v>0.07482365811237511</v>
       </c>
       <c r="V5" t="n">
-        <v>0.008551582776034837</v>
+        <v>0.01457915087817122</v>
       </c>
       <c r="W5" t="n">
-        <v>0.03261035979505567</v>
+        <v>0.07490348809630537</v>
       </c>
       <c r="X5" t="n">
-        <v>0.01649469466166231</v>
+        <v>0.05913640637592183</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.06708496329431898</v>
+        <v>0.05818949368445525</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.01196168707244655</v>
+        <v>0.04598779234468203</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.05770556392839204</v>
+        <v>0.0659277060377423</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.0001035857519875735</v>
+        <v>0.004574707688105454</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.06275058998964467</v>
+        <v>-0.01055607088495581</v>
       </c>
     </row>
     <row r="6">
@@ -975,79 +975,79 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.1521566632569086</v>
+        <v>0.1558052748231052</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08281497523693838</v>
+        <v>0.01046401252157369</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05798174838747124</v>
+        <v>0.03299482217904116</v>
       </c>
       <c r="H6" t="n">
-        <v>0.04853231206165817</v>
+        <v>0.006083942032969763</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0009587968073742735</v>
+        <v>0.04432912649551581</v>
       </c>
       <c r="J6" t="n">
-        <v>0.03603345225934904</v>
+        <v>0.09274626671597304</v>
       </c>
       <c r="K6" t="n">
-        <v>0.003176531741126394</v>
+        <v>0.006308709672764428</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04853510970726871</v>
+        <v>0.03414760722843448</v>
       </c>
       <c r="M6" t="n">
-        <v>0.07935229656284598</v>
+        <v>0.03569367846038696</v>
       </c>
       <c r="N6" t="n">
-        <v>0.07244699491372683</v>
+        <v>0.07698259636155894</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0186694257512664</v>
+        <v>0.03713126003938239</v>
       </c>
       <c r="P6" t="n">
-        <v>0.05796778886211621</v>
+        <v>0.0510582212767882</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.06463179357730528</v>
+        <v>0.1019475766683703</v>
       </c>
       <c r="R6" t="n">
-        <v>0.0555728910240169</v>
+        <v>0.0343602781680399</v>
       </c>
       <c r="S6" t="n">
-        <v>0.045321346241946</v>
+        <v>0.01303247770182249</v>
       </c>
       <c r="T6" t="n">
-        <v>0.05253420441172235</v>
+        <v>0.06107381681532587</v>
       </c>
       <c r="U6" t="n">
-        <v>0.00750849439990291</v>
+        <v>0.02543969882892446</v>
       </c>
       <c r="V6" t="n">
-        <v>0.08095822180233862</v>
+        <v>0.08710107538628968</v>
       </c>
       <c r="W6" t="n">
-        <v>0.03090544335524324</v>
+        <v>0.03609605939932839</v>
       </c>
       <c r="X6" t="n">
-        <v>0.05161354923730277</v>
+        <v>0.03292699411185015</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.05793845551894147</v>
+        <v>0.05756192651682634</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.01559122705693698</v>
+        <v>0.1005291179288366</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.02762434109229692</v>
+        <v>0.01978810286929186</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.003330599990904891</v>
+        <v>0.002202632620705138</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.05546451696386624</v>
+        <v>0.0102587413743002</v>
       </c>
     </row>
     <row r="7">
@@ -1070,79 +1070,79 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.437320609623648</v>
+        <v>0.4579814704376808</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04006310089874498</v>
+        <v>0.02129711010132211</v>
       </c>
       <c r="G7" t="n">
-        <v>0.002849192863484943</v>
+        <v>0.06058297235986221</v>
       </c>
       <c r="H7" t="n">
-        <v>0.08307476752662543</v>
+        <v>0.007054617763300211</v>
       </c>
       <c r="I7" t="n">
-        <v>0.08985328286836068</v>
+        <v>0.01622048324037332</v>
       </c>
       <c r="J7" t="n">
-        <v>0.03648085791939586</v>
+        <v>0.03336014933581395</v>
       </c>
       <c r="K7" t="n">
-        <v>0.02863752957485144</v>
+        <v>0.04511275830807716</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02832711340817859</v>
+        <v>0.03567932350203451</v>
       </c>
       <c r="M7" t="n">
-        <v>0.07545845948582826</v>
+        <v>0.006249916904381777</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1117667491543414</v>
+        <v>0.0591769948448022</v>
       </c>
       <c r="O7" t="n">
-        <v>0.006945994753812165</v>
+        <v>0.04507888753295666</v>
       </c>
       <c r="P7" t="n">
-        <v>0.05865557850963814</v>
+        <v>0.1261375189516558</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.02332607507040413</v>
+        <v>0.01547951118968166</v>
       </c>
       <c r="R7" t="n">
-        <v>0.02496060669814251</v>
+        <v>0.02329777073134006</v>
       </c>
       <c r="S7" t="n">
-        <v>0.007609077100361672</v>
+        <v>0.006585109041818025</v>
       </c>
       <c r="T7" t="n">
-        <v>0.001618703087406014</v>
+        <v>0.04516504956945683</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03730519752647771</v>
+        <v>0.003829182619318009</v>
       </c>
       <c r="V7" t="n">
-        <v>0.06428907498062159</v>
+        <v>0.09646704094268291</v>
       </c>
       <c r="W7" t="n">
-        <v>0.05589610026260423</v>
+        <v>0.0356773015072928</v>
       </c>
       <c r="X7" t="n">
-        <v>0.02377123971706472</v>
+        <v>0.04482157082099378</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.05520507198939492</v>
+        <v>0.02016272740208545</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.003559522765380384</v>
+        <v>0.113119657085771</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.02811418938868848</v>
+        <v>0.01954589097391301</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.1122325144501915</v>
+        <v>0.1198984552710665</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.05520408009282254</v>
+        <v>-0.01844930161503396</v>
       </c>
     </row>
     <row r="8">
@@ -1165,79 +1165,79 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.1877354238670883</v>
+        <v>0.1960743353491466</v>
       </c>
       <c r="F8" t="n">
-        <v>0.005415868582889984</v>
+        <v>0.03848041309579588</v>
       </c>
       <c r="G8" t="n">
-        <v>0.08096469473641089</v>
+        <v>0.07479623267437932</v>
       </c>
       <c r="H8" t="n">
-        <v>0.007202291849685945</v>
+        <v>0.02988287658434186</v>
       </c>
       <c r="I8" t="n">
-        <v>0.002220637575204309</v>
+        <v>0.01022463653330513</v>
       </c>
       <c r="J8" t="n">
-        <v>0.07698864079043947</v>
+        <v>0.09461762462587499</v>
       </c>
       <c r="K8" t="n">
-        <v>0.06368668662705167</v>
+        <v>0.1000598414921423</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02213969850233598</v>
+        <v>0.01813000943977395</v>
       </c>
       <c r="M8" t="n">
-        <v>0.02259605514899169</v>
+        <v>0.02751047724025885</v>
       </c>
       <c r="N8" t="n">
-        <v>0.002348226673027129</v>
+        <v>0.02554694025378803</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0816171459299162</v>
+        <v>0.04848343798573491</v>
       </c>
       <c r="P8" t="n">
-        <v>0.01631996584789603</v>
+        <v>0.002104861264269136</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.007211656946124949</v>
+        <v>0.003191238493490796</v>
       </c>
       <c r="R8" t="n">
-        <v>0.009916021219701952</v>
+        <v>0.1015498606028027</v>
       </c>
       <c r="S8" t="n">
-        <v>0.06866673887844786</v>
+        <v>0.03725050485550727</v>
       </c>
       <c r="T8" t="n">
-        <v>0.07874533041361755</v>
+        <v>0.0324906141450287</v>
       </c>
       <c r="U8" t="n">
-        <v>0.04612328409463191</v>
+        <v>0.06134141274509319</v>
       </c>
       <c r="V8" t="n">
-        <v>0.01977878009360069</v>
+        <v>0.02553912045287691</v>
       </c>
       <c r="W8" t="n">
-        <v>0.1041359496820609</v>
+        <v>0.04905525947451377</v>
       </c>
       <c r="X8" t="n">
-        <v>0.02867822718064603</v>
+        <v>0.0408786620891284</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.001156337146286785</v>
+        <v>0.002008196434426616</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.08144477630285593</v>
+        <v>0.05137494890067361</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.1047266507249269</v>
+        <v>0.05330088280171076</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.0679163350532492</v>
+        <v>0.07218194781508297</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0.1205229170516643</v>
+        <v>-0.1285538300994089</v>
       </c>
     </row>
     <row r="9">
@@ -1260,79 +1260,79 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.5880490125813863</v>
+        <v>0.6201523804299082</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00854484837284916</v>
+        <v>0.01014530047475549</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01775052523330687</v>
+        <v>0.09571651075150427</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03918159751190702</v>
+        <v>0.00239903504235091</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03491340810130984</v>
+        <v>0.01204187572870776</v>
       </c>
       <c r="J9" t="n">
-        <v>0.002603897895188376</v>
+        <v>0.05701363583293464</v>
       </c>
       <c r="K9" t="n">
-        <v>0.09754937876445993</v>
+        <v>0.007310694118963017</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0005919179846656346</v>
+        <v>0.01936539148923347</v>
       </c>
       <c r="M9" t="n">
-        <v>0.04013933058426027</v>
+        <v>0.01421066109753419</v>
       </c>
       <c r="N9" t="n">
-        <v>0.115282011398447</v>
+        <v>0.01714651656056714</v>
       </c>
       <c r="O9" t="n">
-        <v>0.09006634997890334</v>
+        <v>0.004979965383102298</v>
       </c>
       <c r="P9" t="n">
-        <v>0.02081919827277229</v>
+        <v>0.002859426469399323</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.103871977070932</v>
+        <v>0.1099401792467413</v>
       </c>
       <c r="R9" t="n">
-        <v>0.005796130974301139</v>
+        <v>0.08708257998742561</v>
       </c>
       <c r="S9" t="n">
-        <v>0.003839256706023329</v>
+        <v>0.01663722017864619</v>
       </c>
       <c r="T9" t="n">
-        <v>0.08907208661362224</v>
+        <v>0.05744058957144381</v>
       </c>
       <c r="U9" t="n">
-        <v>0.04295397416874246</v>
+        <v>0.1025234567750993</v>
       </c>
       <c r="V9" t="n">
-        <v>0.003143988827544505</v>
+        <v>0.09084868871846478</v>
       </c>
       <c r="W9" t="n">
-        <v>0.09445000664485455</v>
+        <v>0.01037970115871476</v>
       </c>
       <c r="X9" t="n">
-        <v>0.03380293531938575</v>
+        <v>0.0500292168952424</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.001374226994379933</v>
+        <v>0.01886060621433285</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.01845881883854715</v>
+        <v>0.04251774020608017</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.06603375518011229</v>
+        <v>0.1030182031107306</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.06976037856348474</v>
+        <v>0.06753280498802577</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.113916525224731</v>
+        <v>-0.1578205217684469</v>
       </c>
     </row>
     <row r="10">
@@ -1355,79 +1355,79 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.1689557259418146</v>
+        <v>0.1726270135575957</v>
       </c>
       <c r="F10" t="n">
-        <v>0.09262468006110154</v>
+        <v>0.07698311277978757</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0001145352710978077</v>
+        <v>0.02147338084269563</v>
       </c>
       <c r="H10" t="n">
-        <v>0.06878841991310894</v>
+        <v>0.06365539322426479</v>
       </c>
       <c r="I10" t="n">
-        <v>0.02965650629427809</v>
+        <v>0.05416669460877277</v>
       </c>
       <c r="J10" t="n">
-        <v>0.008756750502755052</v>
+        <v>0.04931307855434305</v>
       </c>
       <c r="K10" t="n">
-        <v>0.05943856952811125</v>
+        <v>0.01312177387439916</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0006514358322495835</v>
+        <v>0.03248203982413173</v>
       </c>
       <c r="M10" t="n">
-        <v>0.003074258233319158</v>
+        <v>0.0112826776735428</v>
       </c>
       <c r="N10" t="n">
-        <v>0.001791403049921604</v>
+        <v>0.004561078864525742</v>
       </c>
       <c r="O10" t="n">
-        <v>0.02555728746596471</v>
+        <v>0.07099583704993084</v>
       </c>
       <c r="P10" t="n">
-        <v>0.09213592068553064</v>
+        <v>0.06924721336708579</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.008892345696995263</v>
+        <v>0.0033438252228305</v>
       </c>
       <c r="R10" t="n">
-        <v>0.05528976133893106</v>
+        <v>0.06122353828311942</v>
       </c>
       <c r="S10" t="n">
-        <v>0.04812993311655402</v>
+        <v>0.05323509322857859</v>
       </c>
       <c r="T10" t="n">
-        <v>0.09276137661342329</v>
+        <v>0.06592538923757775</v>
       </c>
       <c r="U10" t="n">
-        <v>0.01153634437973631</v>
+        <v>0.04694766482805007</v>
       </c>
       <c r="V10" t="n">
-        <v>0.004393672360057722</v>
+        <v>0.01609417545997369</v>
       </c>
       <c r="W10" t="n">
-        <v>0.1077394641509392</v>
+        <v>0.06282869097120534</v>
       </c>
       <c r="X10" t="n">
-        <v>0.105292083509995</v>
+        <v>0.03547579358947874</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.07890126724274817</v>
+        <v>0.01872203484557755</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.09186938947725269</v>
+        <v>0.07252515567808716</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.01147284616162996</v>
+        <v>0.06453255470800842</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.001131749114298768</v>
+        <v>0.03186380328403274</v>
       </c>
       <c r="AC10" t="n">
-        <v>-0.07823967872484268</v>
+        <v>-0.08622343307281512</v>
       </c>
     </row>
     <row r="11">
@@ -1450,79 +1450,79 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.2077788829928437</v>
+        <v>0.2525757810560675</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02298926804156145</v>
+        <v>0.006048981877171507</v>
       </c>
       <c r="G11" t="n">
-        <v>0.06151136636393668</v>
+        <v>0.02633798533557146</v>
       </c>
       <c r="H11" t="n">
-        <v>0.04680389120790598</v>
+        <v>0.05796009115371456</v>
       </c>
       <c r="I11" t="n">
-        <v>0.101407459745768</v>
+        <v>0.01650268565747234</v>
       </c>
       <c r="J11" t="n">
-        <v>0.024205216940932</v>
+        <v>0.04122174041918564</v>
       </c>
       <c r="K11" t="n">
-        <v>0.015455756450821</v>
+        <v>0.01598989411911518</v>
       </c>
       <c r="L11" t="n">
-        <v>0.009877306650524694</v>
+        <v>0.155149861088314</v>
       </c>
       <c r="M11" t="n">
-        <v>0.004319351746682785</v>
+        <v>0.0307817623681057</v>
       </c>
       <c r="N11" t="n">
-        <v>0.01323732813450085</v>
+        <v>0.01052467062078461</v>
       </c>
       <c r="O11" t="n">
-        <v>0.04877614955107072</v>
+        <v>0.03905902667219717</v>
       </c>
       <c r="P11" t="n">
-        <v>0.001863928829130808</v>
+        <v>0.01475325778099678</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.0877775745330676</v>
+        <v>0.02986435706098506</v>
       </c>
       <c r="R11" t="n">
-        <v>0.05947323777655174</v>
+        <v>0.04508851263777747</v>
       </c>
       <c r="S11" t="n">
-        <v>0.05084774604350297</v>
+        <v>0.0006052965415772716</v>
       </c>
       <c r="T11" t="n">
-        <v>0.03953164383415925</v>
+        <v>0.002763397209903882</v>
       </c>
       <c r="U11" t="n">
-        <v>0.06199981258999027</v>
+        <v>0.02684071600042464</v>
       </c>
       <c r="V11" t="n">
-        <v>0.009076562217540309</v>
+        <v>0.02550479764592371</v>
       </c>
       <c r="W11" t="n">
-        <v>0.1046388515183716</v>
+        <v>0.08988205117830442</v>
       </c>
       <c r="X11" t="n">
-        <v>0.03135486334741656</v>
+        <v>0.002408516568286075</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.02684749079702318</v>
+        <v>0.109630324168293</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.05046734491128861</v>
+        <v>0.0529554471570666</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.02566088425978222</v>
+        <v>0.07875589432424457</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.1018769645084708</v>
+        <v>0.1213707324145843</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.07576146355128005</v>
+        <v>-0.09963493035276311</v>
       </c>
     </row>
     <row r="12">
@@ -1545,79 +1545,79 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.1757145895059495</v>
+        <v>0.1752974230715342</v>
       </c>
       <c r="F12" t="n">
-        <v>0.07984708210259571</v>
+        <v>0.0003025248065571748</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02262603341458926</v>
+        <v>0.03576083991522606</v>
       </c>
       <c r="H12" t="n">
-        <v>0.06285422272479069</v>
+        <v>0.09140597399188431</v>
       </c>
       <c r="I12" t="n">
-        <v>0.06898188839864726</v>
+        <v>0.06908034718492749</v>
       </c>
       <c r="J12" t="n">
-        <v>0.07321168677538971</v>
+        <v>0.08098194586110397</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0357000186571298</v>
+        <v>0.03549658963543966</v>
       </c>
       <c r="L12" t="n">
-        <v>0.006421455145047079</v>
+        <v>0.01797995947337936</v>
       </c>
       <c r="M12" t="n">
-        <v>0.06739111189909419</v>
+        <v>0.01709407124269373</v>
       </c>
       <c r="N12" t="n">
-        <v>0.07831951896277939</v>
+        <v>0.02015479304823145</v>
       </c>
       <c r="O12" t="n">
-        <v>0.03981729277047954</v>
+        <v>0.04774373853598667</v>
       </c>
       <c r="P12" t="n">
-        <v>0.03691651143695001</v>
+        <v>0.06581293176854383</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.08076084468203583</v>
+        <v>0.05288855554756965</v>
       </c>
       <c r="R12" t="n">
-        <v>0.04419959860767242</v>
+        <v>0.06833388751048351</v>
       </c>
       <c r="S12" t="n">
-        <v>0.03534182572236629</v>
+        <v>0.08200364376222165</v>
       </c>
       <c r="T12" t="n">
-        <v>0.03130469861124047</v>
+        <v>0.02121745321300945</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01340783867439695</v>
+        <v>0.02553791183768416</v>
       </c>
       <c r="V12" t="n">
-        <v>0.04934109998492254</v>
+        <v>0.03164281448678465</v>
       </c>
       <c r="W12" t="n">
-        <v>0.0743473128199596</v>
+        <v>0.07630753763792576</v>
       </c>
       <c r="X12" t="n">
-        <v>0.02909038995497692</v>
+        <v>0.06746755015705024</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.00501186186905461</v>
+        <v>0.06324592924948773</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.03323191774655791</v>
+        <v>0.02400532872901008</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.02380496708350491</v>
+        <v>0.001328482079600163</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.008070821955818663</v>
+        <v>0.004207190325199259</v>
       </c>
       <c r="AC12" t="n">
-        <v>-0.4359457038871791</v>
+        <v>-0.3428913147196478</v>
       </c>
     </row>
     <row r="13">
@@ -1640,79 +1640,79 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.3570644436962073</v>
+        <v>0.3521648418098368</v>
       </c>
       <c r="F13" t="n">
-        <v>0.03868064061346257</v>
+        <v>0.0037901221280549</v>
       </c>
       <c r="G13" t="n">
-        <v>0.00346454679412873</v>
+        <v>0.04254938065261718</v>
       </c>
       <c r="H13" t="n">
-        <v>0.06645565256931371</v>
+        <v>0.02882940213481561</v>
       </c>
       <c r="I13" t="n">
-        <v>0.05552315202358734</v>
+        <v>0.08975949789106014</v>
       </c>
       <c r="J13" t="n">
-        <v>0.01589996112499564</v>
+        <v>0.04910916224377485</v>
       </c>
       <c r="K13" t="n">
-        <v>0.01554052704626049</v>
+        <v>0.06471932483397554</v>
       </c>
       <c r="L13" t="n">
-        <v>0.05814584792173903</v>
+        <v>0.0963812775347945</v>
       </c>
       <c r="M13" t="n">
-        <v>0.03222169464411916</v>
+        <v>0.05608660600613143</v>
       </c>
       <c r="N13" t="n">
-        <v>0.01873481459111442</v>
+        <v>0.004869419963789953</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0731517761354131</v>
+        <v>0.02602561533849366</v>
       </c>
       <c r="P13" t="n">
-        <v>0.02261964885415745</v>
+        <v>0.02886915211650922</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.1014947337423308</v>
+        <v>0.04009848598873414</v>
       </c>
       <c r="R13" t="n">
-        <v>0.05639969820032463</v>
+        <v>0.03580484971333025</v>
       </c>
       <c r="S13" t="n">
-        <v>0.003758425026756304</v>
+        <v>0.05164148608650312</v>
       </c>
       <c r="T13" t="n">
-        <v>0.008257300268053224</v>
+        <v>0.005559023410304221</v>
       </c>
       <c r="U13" t="n">
-        <v>0.008834134432115053</v>
+        <v>0.07500750221648865</v>
       </c>
       <c r="V13" t="n">
-        <v>0.002317640829580375</v>
+        <v>0.009155661691894402</v>
       </c>
       <c r="W13" t="n">
-        <v>0.09744596200450707</v>
+        <v>0.08372449099228205</v>
       </c>
       <c r="X13" t="n">
-        <v>0.02478085382875749</v>
+        <v>0.01844331419044286</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.0944674911212743</v>
+        <v>0.02557520037303252</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.008859024184363752</v>
+        <v>0.02381399009336613</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.09914765768480865</v>
+        <v>0.03290625286343551</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.09379881635883676</v>
+        <v>0.107280781536169</v>
       </c>
       <c r="AC13" t="n">
-        <v>-0.3614476157031623</v>
+        <v>-0.4179487337133465</v>
       </c>
     </row>
     <row r="14">
@@ -1735,79 +1735,79 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.2551146183390351</v>
+        <v>0.2572670161572928</v>
       </c>
       <c r="F14" t="n">
-        <v>0.08605322978786512</v>
+        <v>0.07652867575351774</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04530225534736475</v>
+        <v>0.002223303422482973</v>
       </c>
       <c r="H14" t="n">
-        <v>0.04499395044496068</v>
+        <v>0.05185147788054958</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0737191729910221</v>
+        <v>0.04300631800299879</v>
       </c>
       <c r="J14" t="n">
-        <v>0.009517113194448873</v>
+        <v>0.0238707788561275</v>
       </c>
       <c r="K14" t="n">
-        <v>0.05067976109673863</v>
+        <v>0.05067325608664776</v>
       </c>
       <c r="L14" t="n">
-        <v>0.02701526063376978</v>
+        <v>0.02193349754395348</v>
       </c>
       <c r="M14" t="n">
-        <v>0.004579690123542021</v>
+        <v>0.06086875310585008</v>
       </c>
       <c r="N14" t="n">
-        <v>0.007952014756614586</v>
+        <v>0.007517373150902319</v>
       </c>
       <c r="O14" t="n">
-        <v>0.03080242470164313</v>
+        <v>0.005035610333540123</v>
       </c>
       <c r="P14" t="n">
-        <v>0.03784989760366726</v>
+        <v>0.01890848513019612</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.03852439274580821</v>
+        <v>0.001766058702225001</v>
       </c>
       <c r="R14" t="n">
-        <v>0.07108559234850308</v>
+        <v>0.05998386569608573</v>
       </c>
       <c r="S14" t="n">
-        <v>0.05480000413212465</v>
+        <v>0.06523004220129901</v>
       </c>
       <c r="T14" t="n">
-        <v>0.0496775614478736</v>
+        <v>0.07276064573383244</v>
       </c>
       <c r="U14" t="n">
-        <v>0.05939877408318128</v>
+        <v>0.05500472242814646</v>
       </c>
       <c r="V14" t="n">
-        <v>0.01260220014812526</v>
+        <v>0.01605572468993922</v>
       </c>
       <c r="W14" t="n">
-        <v>0.08582821797526274</v>
+        <v>0.06572040769247789</v>
       </c>
       <c r="X14" t="n">
-        <v>0.07009621792968128</v>
+        <v>0.07263975913249579</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.03082514957254598</v>
+        <v>0.07175731211412242</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.02041091475984748</v>
+        <v>0.06726541591605086</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.01168367028448295</v>
+        <v>0.03758422128446601</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.07660253389092669</v>
+        <v>0.05181429514209277</v>
       </c>
       <c r="AC14" t="n">
-        <v>-0.06422460485261033</v>
+        <v>-0.04262981171984808</v>
       </c>
     </row>
     <row r="15">
@@ -1830,79 +1830,79 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.3665395752743411</v>
+        <v>0.3865899890442813</v>
       </c>
       <c r="F15" t="n">
-        <v>0.04094072258939286</v>
+        <v>0.09545911969897322</v>
       </c>
       <c r="G15" t="n">
-        <v>0.01369819355693485</v>
+        <v>0.08555306824473291</v>
       </c>
       <c r="H15" t="n">
-        <v>0.03102200993647488</v>
+        <v>0.01872391997221009</v>
       </c>
       <c r="I15" t="n">
-        <v>0.05637823460146224</v>
+        <v>0.02862563131520824</v>
       </c>
       <c r="J15" t="n">
-        <v>0.05090477489038795</v>
+        <v>0.02870467651532926</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1065337653550364</v>
+        <v>0.08472054218184007</v>
       </c>
       <c r="L15" t="n">
-        <v>0.02651874670619815</v>
+        <v>0.04915665205941042</v>
       </c>
       <c r="M15" t="n">
-        <v>0.01139814648365373</v>
+        <v>0.04766769483902353</v>
       </c>
       <c r="N15" t="n">
-        <v>0.1036210828751031</v>
+        <v>0.09984226601106137</v>
       </c>
       <c r="O15" t="n">
-        <v>0.03176019873548716</v>
+        <v>0.03878068415813381</v>
       </c>
       <c r="P15" t="n">
-        <v>0.001018633147318812</v>
+        <v>0.02953411078654211</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.08546829175994458</v>
+        <v>0.06573786470495505</v>
       </c>
       <c r="R15" t="n">
-        <v>0.04189810836311351</v>
+        <v>0.02285192211619451</v>
       </c>
       <c r="S15" t="n">
-        <v>0.05273713882168855</v>
+        <v>0.009291623469750919</v>
       </c>
       <c r="T15" t="n">
-        <v>0.002319938760298756</v>
+        <v>0.01928323617412286</v>
       </c>
       <c r="U15" t="n">
-        <v>0.07655185581552316</v>
+        <v>0.007490305780987127</v>
       </c>
       <c r="V15" t="n">
-        <v>0.01343102486037961</v>
+        <v>0.08998010084458501</v>
       </c>
       <c r="W15" t="n">
-        <v>0.02863835905623209</v>
+        <v>0.007337704525932931</v>
       </c>
       <c r="X15" t="n">
-        <v>0.05478921699200259</v>
+        <v>0.006709987135082456</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.02376983672759277</v>
+        <v>0.09047427527237958</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.06938061079942813</v>
+        <v>0.06155930748447416</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.07165032602318774</v>
+        <v>0.01087929707977373</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.005570783143158364</v>
+        <v>0.001636009629296587</v>
       </c>
       <c r="AC15" t="n">
-        <v>-0.05307300403143506</v>
+        <v>0.010575109525961</v>
       </c>
     </row>
     <row r="16">
@@ -1925,79 +1925,79 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.2696192092735222</v>
+        <v>0.2675611685262928</v>
       </c>
       <c r="F16" t="n">
-        <v>0.01124919562999219</v>
+        <v>0.03445624411778509</v>
       </c>
       <c r="G16" t="n">
-        <v>0.01020163498443327</v>
+        <v>0.02372352960807097</v>
       </c>
       <c r="H16" t="n">
-        <v>0.02172136185607097</v>
+        <v>0.02002070434352299</v>
       </c>
       <c r="I16" t="n">
-        <v>0.01139804990625831</v>
+        <v>0.0148238333826127</v>
       </c>
       <c r="J16" t="n">
-        <v>0.09705497820273561</v>
+        <v>0.002336748366662205</v>
       </c>
       <c r="K16" t="n">
-        <v>0.002610536218860717</v>
+        <v>0.08258946084832686</v>
       </c>
       <c r="L16" t="n">
-        <v>0.004420323071112319</v>
+        <v>0.0008301365272593008</v>
       </c>
       <c r="M16" t="n">
-        <v>0.09017432758387255</v>
+        <v>0.038548909197667</v>
       </c>
       <c r="N16" t="n">
-        <v>0.0178903931921472</v>
+        <v>0.01194259236238815</v>
       </c>
       <c r="O16" t="n">
-        <v>0.02097309099772984</v>
+        <v>0.04312341360150065</v>
       </c>
       <c r="P16" t="n">
-        <v>0.03490040879105339</v>
+        <v>0.07379682984818305</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.08254379224214699</v>
+        <v>0.07618346824319726</v>
       </c>
       <c r="R16" t="n">
-        <v>0.06955282298064536</v>
+        <v>0.1023205225866188</v>
       </c>
       <c r="S16" t="n">
-        <v>0.1138904238784873</v>
+        <v>0.07577306827028568</v>
       </c>
       <c r="T16" t="n">
-        <v>0.03108555215003104</v>
+        <v>0.03005377675111437</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04693508053500074</v>
+        <v>0.08333590249462845</v>
       </c>
       <c r="V16" t="n">
-        <v>0.001944533151046138</v>
+        <v>0.009723257502173002</v>
       </c>
       <c r="W16" t="n">
-        <v>0.07316742824339299</v>
+        <v>0.01026457361410414</v>
       </c>
       <c r="X16" t="n">
-        <v>0.0494952837308393</v>
+        <v>0.06399293979853567</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.05742524443064884</v>
+        <v>0.04107273170853572</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.06703829515653936</v>
+        <v>0.1048433533461616</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.02273473514729218</v>
+        <v>0.01543017494099657</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.06159250791966352</v>
+        <v>0.04081382853966966</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.08776478096556131</v>
+        <v>0.1226285622704251</v>
       </c>
     </row>
     <row r="17">
@@ -2020,79 +2020,79 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.4597145498075099</v>
+        <v>0.4518873680578537</v>
       </c>
       <c r="F17" t="n">
-        <v>0.002859835476387424</v>
+        <v>0.006054078359647708</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0378463671491473</v>
+        <v>0.02060354093540774</v>
       </c>
       <c r="H17" t="n">
-        <v>0.02147650080484157</v>
+        <v>0.006758435676465041</v>
       </c>
       <c r="I17" t="n">
-        <v>0.007600872119412725</v>
+        <v>0.04946474806346672</v>
       </c>
       <c r="J17" t="n">
-        <v>0.08321119484212211</v>
+        <v>0.007605154133669017</v>
       </c>
       <c r="K17" t="n">
-        <v>0.02353442632970808</v>
+        <v>0.011474420287612</v>
       </c>
       <c r="L17" t="n">
-        <v>0.02898569615272572</v>
+        <v>0.0008372003322715289</v>
       </c>
       <c r="M17" t="n">
-        <v>0.01093656779406605</v>
+        <v>0.1016346375137079</v>
       </c>
       <c r="N17" t="n">
-        <v>0.1129087768082378</v>
+        <v>0.1030095917441248</v>
       </c>
       <c r="O17" t="n">
-        <v>0.002309779810178516</v>
+        <v>0.01660383640873841</v>
       </c>
       <c r="P17" t="n">
-        <v>0.1132328778015846</v>
+        <v>0.02683901343282173</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.02456798529219731</v>
+        <v>0.01043776258208553</v>
       </c>
       <c r="R17" t="n">
-        <v>0.01630723685130299</v>
+        <v>0.07802514438172883</v>
       </c>
       <c r="S17" t="n">
-        <v>0.0371869713157995</v>
+        <v>0.0552000288322587</v>
       </c>
       <c r="T17" t="n">
-        <v>0.07339962544847849</v>
+        <v>0.1062144320954802</v>
       </c>
       <c r="U17" t="n">
-        <v>0.003830611783794968</v>
+        <v>0.02891327370566665</v>
       </c>
       <c r="V17" t="n">
-        <v>0.1231396267142609</v>
+        <v>0.1148230590588856</v>
       </c>
       <c r="W17" t="n">
-        <v>0.09696862621616026</v>
+        <v>0.08607568413674548</v>
       </c>
       <c r="X17" t="n">
-        <v>0.01390463309799809</v>
+        <v>0.08381309114821651</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.06155524103062884</v>
+        <v>0.02613446165751285</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.000192071785629968</v>
+        <v>0.04715701522387695</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.03823085681021274</v>
+        <v>0.01230001588843233</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.06581361856512402</v>
+        <v>2.137440117760795e-05</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.1578866408666411</v>
+        <v>0.1111008878412645</v>
       </c>
     </row>
     <row r="18">
@@ -2115,79 +2115,79 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.2672323162730496</v>
+        <v>0.2733924683030108</v>
       </c>
       <c r="F18" t="n">
-        <v>0.07457074541008815</v>
+        <v>0.01647022213236586</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02648013884363292</v>
+        <v>0.01006211891196905</v>
       </c>
       <c r="H18" t="n">
-        <v>0.006230628646535182</v>
+        <v>0.00509172824821637</v>
       </c>
       <c r="I18" t="n">
-        <v>0.07934079720793684</v>
+        <v>0.06604917216423453</v>
       </c>
       <c r="J18" t="n">
-        <v>0.008194613403080159</v>
+        <v>0.005422652865025771</v>
       </c>
       <c r="K18" t="n">
-        <v>0.01985070834366868</v>
+        <v>0.01727403077899856</v>
       </c>
       <c r="L18" t="n">
-        <v>0.00719515537800555</v>
+        <v>0.001182068345274402</v>
       </c>
       <c r="M18" t="n">
-        <v>0.00964652921983444</v>
+        <v>0.01020727973881361</v>
       </c>
       <c r="N18" t="n">
-        <v>0.003799444718277141</v>
+        <v>0.02682660398923516</v>
       </c>
       <c r="O18" t="n">
-        <v>0.03329196734410649</v>
+        <v>0.06971429160366291</v>
       </c>
       <c r="P18" t="n">
-        <v>0.08385538809458912</v>
+        <v>0.05917335587843501</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.02549729664545855</v>
+        <v>0.02098978900070878</v>
       </c>
       <c r="R18" t="n">
-        <v>0.09978811945255704</v>
+        <v>0.06106054693376634</v>
       </c>
       <c r="S18" t="n">
-        <v>0.04213638201899875</v>
+        <v>0.05364122356535992</v>
       </c>
       <c r="T18" t="n">
-        <v>0.08133812475721389</v>
+        <v>0.08841209626010436</v>
       </c>
       <c r="U18" t="n">
-        <v>0.09412591584360012</v>
+        <v>0.08437545545346276</v>
       </c>
       <c r="V18" t="n">
-        <v>0.008339466980441317</v>
+        <v>0.00265527760211678</v>
       </c>
       <c r="W18" t="n">
-        <v>0.07434537174665179</v>
+        <v>0.1066317908947096</v>
       </c>
       <c r="X18" t="n">
-        <v>0.0271292435965716</v>
+        <v>0.09682604163071044</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.004623059099611064</v>
+        <v>0.08742935160958218</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.06123724888958935</v>
+        <v>0.01995640194387865</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.04645075101062412</v>
+        <v>0.04000916717856585</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.08253290334892759</v>
+        <v>0.05053933327080291</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.1543332824488824</v>
+        <v>0.1473807317572547</v>
       </c>
     </row>
     <row r="19">
@@ -2210,79 +2210,79 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.3492780148348866</v>
+        <v>0.3463235352687999</v>
       </c>
       <c r="F19" t="n">
-        <v>0.03661105326573598</v>
+        <v>0.05610877902603024</v>
       </c>
       <c r="G19" t="n">
-        <v>0.08201418210326279</v>
+        <v>0.002008883672982903</v>
       </c>
       <c r="H19" t="n">
-        <v>0.03451709435266019</v>
+        <v>0.1105578451875303</v>
       </c>
       <c r="I19" t="n">
-        <v>0.01770279335776345</v>
+        <v>0.08628205276983056</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0007850348372341041</v>
+        <v>0.003514606430500365</v>
       </c>
       <c r="K19" t="n">
-        <v>0.06390226669401122</v>
+        <v>0.01880435729645598</v>
       </c>
       <c r="L19" t="n">
-        <v>0.03715263400414844</v>
+        <v>0.002040038682267876</v>
       </c>
       <c r="M19" t="n">
-        <v>0.003844480835625134</v>
+        <v>0.06151619563094943</v>
       </c>
       <c r="N19" t="n">
-        <v>0.1076669630282545</v>
+        <v>0.0529823351349541</v>
       </c>
       <c r="O19" t="n">
-        <v>0.0003021554400794296</v>
+        <v>0.01806348236029503</v>
       </c>
       <c r="P19" t="n">
-        <v>0.1112653659663688</v>
+        <v>0.0007540301662285665</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.007393747494899038</v>
+        <v>0.01507109026888613</v>
       </c>
       <c r="R19" t="n">
-        <v>0.02664678823643778</v>
+        <v>0.02036904038241811</v>
       </c>
       <c r="S19" t="n">
-        <v>0.05663358282695493</v>
+        <v>0.01135252813495758</v>
       </c>
       <c r="T19" t="n">
-        <v>0.032131696142872</v>
+        <v>0.0601394929531616</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01083139831680347</v>
+        <v>0.05389645030575346</v>
       </c>
       <c r="V19" t="n">
-        <v>0.106027623929996</v>
+        <v>0.1205194140673672</v>
       </c>
       <c r="W19" t="n">
-        <v>0.08721155476228847</v>
+        <v>0.1185103875227963</v>
       </c>
       <c r="X19" t="n">
-        <v>0.07939622846579762</v>
+        <v>0.008351343046163943</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.006407580101688926</v>
+        <v>0.0002470227833262815</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.05519766267242078</v>
+        <v>0.02833496649028296</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.009233745979198899</v>
+        <v>0.04410437423782748</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.02712436718549812</v>
+        <v>0.1064712834490336</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.1250114376894809</v>
+        <v>0.1324612766226856</v>
       </c>
     </row>
     <row r="20">
@@ -2305,79 +2305,79 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.28801049264426</v>
+        <v>0.2959134206078271</v>
       </c>
       <c r="F20" t="n">
-        <v>0.03360345729983862</v>
+        <v>0.08399528269833335</v>
       </c>
       <c r="G20" t="n">
-        <v>0.04848332550219108</v>
+        <v>0.02280733800442451</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0300624115402319</v>
+        <v>0.07168366433315748</v>
       </c>
       <c r="I20" t="n">
-        <v>0.01347396577389417</v>
+        <v>0.05360396099489069</v>
       </c>
       <c r="J20" t="n">
-        <v>0.02235714557772226</v>
+        <v>0.01230835661298745</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0003078704199455766</v>
+        <v>0.02765940711642217</v>
       </c>
       <c r="L20" t="n">
-        <v>0.02374109422198953</v>
+        <v>0.01501286389207425</v>
       </c>
       <c r="M20" t="n">
-        <v>0.02475390975363462</v>
+        <v>0.05629247764464752</v>
       </c>
       <c r="N20" t="n">
-        <v>0.01389360559114881</v>
+        <v>0.003674281078992915</v>
       </c>
       <c r="O20" t="n">
-        <v>0.03521914780891604</v>
+        <v>8.20991985529408e-05</v>
       </c>
       <c r="P20" t="n">
-        <v>0.1035664573751488</v>
+        <v>0.04511036283860073</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.004202470334227742</v>
+        <v>0.0703904923371716</v>
       </c>
       <c r="R20" t="n">
-        <v>0.08885416814776653</v>
+        <v>0.06121124032413103</v>
       </c>
       <c r="S20" t="n">
-        <v>0.04123851495446337</v>
+        <v>0.08116276924238412</v>
       </c>
       <c r="T20" t="n">
-        <v>0.02083557543875212</v>
+        <v>0.01622116521770157</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03373573143472857</v>
+        <v>0.04941659724476534</v>
       </c>
       <c r="V20" t="n">
-        <v>0.01994017820520339</v>
+        <v>0.02232466663549693</v>
       </c>
       <c r="W20" t="n">
-        <v>0.09820312049974335</v>
+        <v>0.08500880507446881</v>
       </c>
       <c r="X20" t="n">
-        <v>0.0001349538577947767</v>
+        <v>0.004268391232937862</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.08963826110405086</v>
+        <v>0.01848124840078666</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.09167239911103542</v>
+        <v>0.06495643835907172</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.06100974448024174</v>
+        <v>0.05367203037980715</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.1010724915673308</v>
+        <v>0.08065606113819331</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.02740529800151141</v>
+        <v>0.04549785822051627</v>
       </c>
     </row>
     <row r="21">
@@ -2400,79 +2400,79 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.3334483311883705</v>
+        <v>0.3445606782232704</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07206219976459978</v>
+        <v>0.08275115590853369</v>
       </c>
       <c r="G21" t="n">
-        <v>0.006153923384415856</v>
+        <v>0.002137823520165631</v>
       </c>
       <c r="H21" t="n">
-        <v>0.01276661952031263</v>
+        <v>0.07545946408456146</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1042484847173992</v>
+        <v>0.04648949378076797</v>
       </c>
       <c r="J21" t="n">
-        <v>0.04039964924965016</v>
+        <v>0.0258370025927666</v>
       </c>
       <c r="K21" t="n">
-        <v>0.05936590786920413</v>
+        <v>0.04597890989463772</v>
       </c>
       <c r="L21" t="n">
-        <v>0.05437964617498867</v>
+        <v>0.008002979206223461</v>
       </c>
       <c r="M21" t="n">
-        <v>0.02420475146391025</v>
+        <v>8.824483243070107e-05</v>
       </c>
       <c r="N21" t="n">
-        <v>0.01674059708449397</v>
+        <v>0.04599149832033939</v>
       </c>
       <c r="O21" t="n">
-        <v>0.001659674200499059</v>
+        <v>0.008661633399601937</v>
       </c>
       <c r="P21" t="n">
-        <v>0.002719737906269997</v>
+        <v>0.0210260433406201</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.1006529443704019</v>
+        <v>0.08771598886175724</v>
       </c>
       <c r="R21" t="n">
-        <v>0.03517746939784748</v>
+        <v>0.002707625738345344</v>
       </c>
       <c r="S21" t="n">
-        <v>0.02569804581064131</v>
+        <v>0.02069646578628599</v>
       </c>
       <c r="T21" t="n">
-        <v>0.03970162468652919</v>
+        <v>0.01808655514220728</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05930713075699773</v>
+        <v>0.1002193503173372</v>
       </c>
       <c r="V21" t="n">
-        <v>0.0977352969976219</v>
+        <v>0.1004212562355448</v>
       </c>
       <c r="W21" t="n">
-        <v>0.07654656216103174</v>
+        <v>0.01955511665064459</v>
       </c>
       <c r="X21" t="n">
-        <v>0.007544956803504348</v>
+        <v>0.007190119686351693</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.01272890518583102</v>
+        <v>0.03583934546587041</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.002950725051993306</v>
+        <v>0.1030262265127783</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.03079365774665355</v>
+        <v>0.04775017095802221</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.1164614896952029</v>
+        <v>0.09436752976420618</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.0530029266514608</v>
+        <v>0.06738738007493135</v>
       </c>
     </row>
     <row r="22">
@@ -2495,76 +2495,76 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.345607549869893</v>
+        <v>0.3527103808654091</v>
       </c>
       <c r="F22" t="n">
-        <v>0.01771747720481091</v>
+        <v>0.008725324625631239</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04867781433150432</v>
+        <v>0.02976355329145794</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0189988411394135</v>
+        <v>0.03749838267144303</v>
       </c>
       <c r="I22" t="n">
-        <v>0.06903470369856908</v>
+        <v>0.07058136785869532</v>
       </c>
       <c r="J22" t="n">
-        <v>0.02826176534076793</v>
+        <v>0.03600149332240642</v>
       </c>
       <c r="K22" t="n">
-        <v>0.003272290245781637</v>
+        <v>0.05516394895764958</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0644140591084489</v>
+        <v>0.02306280968950999</v>
       </c>
       <c r="M22" t="n">
-        <v>0.02338354333698247</v>
+        <v>0.04830142758842514</v>
       </c>
       <c r="N22" t="n">
-        <v>0.008763748405451332</v>
+        <v>0.06344714405415983</v>
       </c>
       <c r="O22" t="n">
-        <v>0.04435670254856769</v>
+        <v>0.05995145858134084</v>
       </c>
       <c r="P22" t="n">
-        <v>0.1126254218105349</v>
+        <v>0.08598630684231434</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.08876483101279067</v>
+        <v>0.07110354479009406</v>
       </c>
       <c r="R22" t="n">
-        <v>0.08194588279786506</v>
+        <v>0.06640827922409399</v>
       </c>
       <c r="S22" t="n">
-        <v>0.01877448814626378</v>
+        <v>0.02006163407052893</v>
       </c>
       <c r="T22" t="n">
-        <v>0.03923873333506481</v>
+        <v>0.008234036933884633</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01301969276376642</v>
+        <v>0.02786605989039322</v>
       </c>
       <c r="V22" t="n">
-        <v>0.03598436932218542</v>
+        <v>0.0126654902134724</v>
       </c>
       <c r="W22" t="n">
-        <v>0.03599342506900975</v>
+        <v>0.08690696117237476</v>
       </c>
       <c r="X22" t="n">
-        <v>0.07344604977132017</v>
+        <v>0.06272917639924883</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.07596779751916281</v>
+        <v>0.03488381006269636</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.02954067530517633</v>
+        <v>0.04605616805055631</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.01815709422249498</v>
+        <v>0.02116621264821884</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.04966059356406715</v>
+        <v>0.02343540906140418</v>
       </c>
       <c r="AC22" t="inlineStr"/>
     </row>
@@ -2588,76 +2588,76 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.4326668764365857</v>
+        <v>0.3935929454987067</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0186129906925626</v>
+        <v>0.06614801026888147</v>
       </c>
       <c r="G23" t="n">
-        <v>0.01546536804510825</v>
+        <v>0.01601484877970181</v>
       </c>
       <c r="H23" t="n">
-        <v>0.01577742740243187</v>
+        <v>0.04530870410054458</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1239215879039866</v>
+        <v>0.01792906907717776</v>
       </c>
       <c r="J23" t="n">
-        <v>0.119606906035116</v>
+        <v>0.04936845278595482</v>
       </c>
       <c r="K23" t="n">
-        <v>0.06006795039457799</v>
+        <v>0.05460062648144185</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0414703878590723</v>
+        <v>0.06227071787446162</v>
       </c>
       <c r="M23" t="n">
-        <v>0.00247131473647318</v>
+        <v>0.001018396966813913</v>
       </c>
       <c r="N23" t="n">
-        <v>0.09694088918966398</v>
+        <v>0.02638258674790561</v>
       </c>
       <c r="O23" t="n">
-        <v>0.02922255143972183</v>
+        <v>0.0649358591954262</v>
       </c>
       <c r="P23" t="n">
-        <v>0.03647310909885067</v>
+        <v>0.04716286038967148</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.007880909294008103</v>
+        <v>0.01295630762472376</v>
       </c>
       <c r="R23" t="n">
-        <v>0.02172672522939718</v>
+        <v>0.06220531132891654</v>
       </c>
       <c r="S23" t="n">
-        <v>0.01834869389031331</v>
+        <v>0.02419014142525001</v>
       </c>
       <c r="T23" t="n">
-        <v>0.0243962084482198</v>
+        <v>0.03820860944182725</v>
       </c>
       <c r="U23" t="n">
-        <v>0.01769564156263226</v>
+        <v>0.01788970477004856</v>
       </c>
       <c r="V23" t="n">
-        <v>0.1224820003048848</v>
+        <v>0.09940131630212495</v>
       </c>
       <c r="W23" t="n">
-        <v>0.04900182419166001</v>
+        <v>0.08380094919584793</v>
       </c>
       <c r="X23" t="n">
-        <v>0.0006085334730008343</v>
+        <v>0.05720212167565757</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.03561480896036544</v>
+        <v>0.033929059158498</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.01882058142779806</v>
+        <v>0.002737873187308052</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.07742837357738605</v>
+        <v>0.04586863751243201</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.04596521684276885</v>
+        <v>0.0704698357093842</v>
       </c>
       <c r="AC23" t="inlineStr"/>
     </row>
@@ -2681,79 +2681,79 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.3047233259224756</v>
+        <v>0.3104667678379062</v>
       </c>
       <c r="F24" t="n">
-        <v>0.04964774929544771</v>
+        <v>0.0666775983635199</v>
       </c>
       <c r="G24" t="n">
-        <v>0.08191867559621671</v>
+        <v>0.08264361299766178</v>
       </c>
       <c r="H24" t="n">
-        <v>0.002404517083584456</v>
+        <v>0.03662794299612302</v>
       </c>
       <c r="I24" t="n">
-        <v>0.02375488378380076</v>
+        <v>0.05682635902321097</v>
       </c>
       <c r="J24" t="n">
-        <v>0.02323060126434304</v>
+        <v>0.01944659181341059</v>
       </c>
       <c r="K24" t="n">
-        <v>0.008179541150409442</v>
+        <v>0.01973752217669831</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0543161462093502</v>
+        <v>0.02818440424512043</v>
       </c>
       <c r="M24" t="n">
-        <v>0.07799618700335315</v>
+        <v>0.02318531284566816</v>
       </c>
       <c r="N24" t="n">
-        <v>0.001130314273905522</v>
+        <v>0.04876415970160435</v>
       </c>
       <c r="O24" t="n">
-        <v>0.02487956244492364</v>
+        <v>0.001788006129885371</v>
       </c>
       <c r="P24" t="n">
-        <v>0.0378376103423648</v>
+        <v>0.03357051245399796</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.0320032874011962</v>
+        <v>0.05183685271764472</v>
       </c>
       <c r="R24" t="n">
-        <v>0.06513959272194789</v>
+        <v>0.07145254691558015</v>
       </c>
       <c r="S24" t="n">
-        <v>0.05179203931302931</v>
+        <v>0.0846571293240735</v>
       </c>
       <c r="T24" t="n">
-        <v>0.03640142935801473</v>
+        <v>0.007754249652915968</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04684601647533169</v>
+        <v>0.03204406321008097</v>
       </c>
       <c r="V24" t="n">
-        <v>0.001994009431227558</v>
+        <v>0.002912467750409679</v>
       </c>
       <c r="W24" t="n">
-        <v>0.07096147208239159</v>
+        <v>0.05735800161763713</v>
       </c>
       <c r="X24" t="n">
-        <v>0.07940446452619554</v>
+        <v>0.07594401413034553</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.08362616512685331</v>
+        <v>0.06211432911762783</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.06757276607840326</v>
+        <v>0.0918784242510654</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.02805740148633131</v>
+        <v>0.0005894244103345052</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.05090556755137801</v>
+        <v>0.04400647415538386</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.0884409006020935</v>
+        <v>0.07912888497988632</v>
       </c>
     </row>
     <row r="25">
@@ -2776,79 +2776,79 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.4229908755483324</v>
+        <v>0.3868125269690503</v>
       </c>
       <c r="F25" t="n">
-        <v>0.03809162778518801</v>
+        <v>0.02793063466385209</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0917583711330026</v>
+        <v>0.04870021017745189</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1181779832094783</v>
+        <v>0.1118619917117313</v>
       </c>
       <c r="I25" t="n">
-        <v>0.005098276912054214</v>
+        <v>0.02503137616410742</v>
       </c>
       <c r="J25" t="n">
-        <v>0.01054126618972163</v>
+        <v>0.03289034876673919</v>
       </c>
       <c r="K25" t="n">
-        <v>0.002284733782143374</v>
+        <v>0.003440246470193694</v>
       </c>
       <c r="L25" t="n">
-        <v>0.07675420834474157</v>
+        <v>0.0542881804593208</v>
       </c>
       <c r="M25" t="n">
-        <v>0.01297660676950577</v>
+        <v>0.03210768910017696</v>
       </c>
       <c r="N25" t="n">
-        <v>0.021939826073386</v>
+        <v>0.05096297512921224</v>
       </c>
       <c r="O25" t="n">
-        <v>0.0757396980350476</v>
+        <v>0.02832926953924393</v>
       </c>
       <c r="P25" t="n">
-        <v>0.008102050174621582</v>
+        <v>0.05909630072630785</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.01527630235525095</v>
+        <v>0.0101083115712218</v>
       </c>
       <c r="R25" t="n">
-        <v>0.03334798126324379</v>
+        <v>0.05147290352174608</v>
       </c>
       <c r="S25" t="n">
-        <v>0.0251042458238088</v>
+        <v>0.03203843611760279</v>
       </c>
       <c r="T25" t="n">
-        <v>0.1116480583187138</v>
+        <v>0.06608057968718051</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01670423906133874</v>
+        <v>0.01544521806217026</v>
       </c>
       <c r="V25" t="n">
-        <v>0.1126691063207174</v>
+        <v>0.101364237946452</v>
       </c>
       <c r="W25" t="n">
-        <v>0.01566429283638222</v>
+        <v>0.007130866915685916</v>
       </c>
       <c r="X25" t="n">
-        <v>0.03071842034708817</v>
+        <v>0.04813304897246069</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.04464000668286879</v>
+        <v>0.01289466460170292</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.03059435861923886</v>
+        <v>0.07410874452874086</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.03179127711314988</v>
+        <v>0.0295075552468746</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.07037706284930784</v>
+        <v>0.07707620991982432</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.1922456780277791</v>
+        <v>0.1737047210155188</v>
       </c>
     </row>
     <row r="26">
@@ -2871,79 +2871,79 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.3861865290107449</v>
+        <v>0.3463278646095606</v>
       </c>
       <c r="F26" t="n">
-        <v>0.03538839541275982</v>
+        <v>0.009666017175134873</v>
       </c>
       <c r="G26" t="n">
-        <v>0.08042166650881551</v>
+        <v>0.03191963277296232</v>
       </c>
       <c r="H26" t="n">
-        <v>0.001243112966398651</v>
+        <v>0.02343259693563183</v>
       </c>
       <c r="I26" t="n">
-        <v>0.04756249832455465</v>
+        <v>0.06774962481881992</v>
       </c>
       <c r="J26" t="n">
-        <v>0.006453990171077573</v>
+        <v>0.01822410771797111</v>
       </c>
       <c r="K26" t="n">
-        <v>0.1002959428373524</v>
+        <v>0.01086256968565366</v>
       </c>
       <c r="L26" t="n">
-        <v>0.02434081982357908</v>
+        <v>0.0006391311953954774</v>
       </c>
       <c r="M26" t="n">
-        <v>0.02352544145913492</v>
+        <v>0.02595472319231824</v>
       </c>
       <c r="N26" t="n">
-        <v>0.04230470742344198</v>
+        <v>0.08889389077807301</v>
       </c>
       <c r="O26" t="n">
-        <v>0.06714887534652172</v>
+        <v>0.01758517922606336</v>
       </c>
       <c r="P26" t="n">
-        <v>0.07412392734940629</v>
+        <v>0.09131510028388318</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.03244775117653412</v>
+        <v>0.01947737969368439</v>
       </c>
       <c r="R26" t="n">
-        <v>0.07750780592554309</v>
+        <v>0.08824425757063446</v>
       </c>
       <c r="S26" t="n">
-        <v>0.06755855939672269</v>
+        <v>0.06827455025931194</v>
       </c>
       <c r="T26" t="n">
-        <v>0.0551319675647779</v>
+        <v>0.056633328129403</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04087645275609003</v>
+        <v>0.03116518490572036</v>
       </c>
       <c r="V26" t="n">
-        <v>0.006937601326102411</v>
+        <v>0.01440471924327057</v>
       </c>
       <c r="W26" t="n">
-        <v>0.0006042699596234781</v>
+        <v>0.08151820618701951</v>
       </c>
       <c r="X26" t="n">
-        <v>0.1001994588855554</v>
+        <v>0.07568312079126126</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.065969780013685</v>
+        <v>0.06582385251317087</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.02253949621544317</v>
+        <v>0.08903428461312086</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.001375949219874064</v>
+        <v>0.004167833842517652</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.02604152993700617</v>
+        <v>0.0193307084689781</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.07184998831852972</v>
+        <v>0.08933131092336503</v>
       </c>
     </row>
     <row r="27">
@@ -2966,79 +2966,79 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.6494958245807834</v>
+        <v>0.6119887424054614</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09240310353659052</v>
+        <v>0.08431459773251498</v>
       </c>
       <c r="G27" t="n">
-        <v>0.07120352478581249</v>
+        <v>0.02034620248111174</v>
       </c>
       <c r="H27" t="n">
-        <v>0.02484911357002071</v>
+        <v>0.02517166511743908</v>
       </c>
       <c r="I27" t="n">
-        <v>0.05256781160638882</v>
+        <v>0.05790996878768962</v>
       </c>
       <c r="J27" t="n">
-        <v>0.002752576872941005</v>
+        <v>0.0006551657152258638</v>
       </c>
       <c r="K27" t="n">
-        <v>0.04943321008704298</v>
+        <v>0.03063001220592482</v>
       </c>
       <c r="L27" t="n">
-        <v>0.07271377689152049</v>
+        <v>0.06758691080106947</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0769557176082688</v>
+        <v>0.04428565686540011</v>
       </c>
       <c r="N27" t="n">
-        <v>0.02690117747380556</v>
+        <v>0.07090949804436868</v>
       </c>
       <c r="O27" t="n">
-        <v>0.08752891287120387</v>
+        <v>0.06259479823140739</v>
       </c>
       <c r="P27" t="n">
-        <v>0.06710242551139331</v>
+        <v>0.06743777382689387</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.08525624095171462</v>
+        <v>0.08292499180786818</v>
       </c>
       <c r="R27" t="n">
-        <v>0.02058177190900983</v>
+        <v>0.06272959905601157</v>
       </c>
       <c r="S27" t="n">
-        <v>0.03009182547802208</v>
+        <v>0.05784358799970353</v>
       </c>
       <c r="T27" t="n">
-        <v>0.04868188344615763</v>
+        <v>0.02486078353788707</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05206050778645516</v>
+        <v>0.02506089805564107</v>
       </c>
       <c r="V27" t="n">
-        <v>0.003965686330198752</v>
+        <v>0.0001158267274282997</v>
       </c>
       <c r="W27" t="n">
-        <v>0.0209577542839979</v>
+        <v>0.0764403363992877</v>
       </c>
       <c r="X27" t="n">
-        <v>0.01981406315603293</v>
+        <v>0.05069224153480432</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.01298708327954901</v>
+        <v>0.0406000992351729</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.05599323902753119</v>
+        <v>0.001823677721776438</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.006716027851013169</v>
+        <v>0.005374801681774535</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.01848256568532932</v>
+        <v>0.03969090643359894</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.07111611940151225</v>
+        <v>0.07132575000409781</v>
       </c>
     </row>
     <row r="28">
@@ -3061,79 +3061,79 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.2175436233487581</v>
+        <v>0.2154771978752377</v>
       </c>
       <c r="F28" t="n">
-        <v>0.01517093521333631</v>
+        <v>0.07671722882384964</v>
       </c>
       <c r="G28" t="n">
-        <v>0.05199218246489797</v>
+        <v>0.03576360154726799</v>
       </c>
       <c r="H28" t="n">
-        <v>0.04621388525133257</v>
+        <v>0.008080630284342551</v>
       </c>
       <c r="I28" t="n">
-        <v>0.08603917836688774</v>
+        <v>0.0652302188365161</v>
       </c>
       <c r="J28" t="n">
-        <v>0.07399590214563692</v>
+        <v>0.01633642753348827</v>
       </c>
       <c r="K28" t="n">
-        <v>0.007699202850017185</v>
+        <v>0.05273414254697443</v>
       </c>
       <c r="L28" t="n">
-        <v>0.006958719100558683</v>
+        <v>0.03493588888509876</v>
       </c>
       <c r="M28" t="n">
-        <v>0.04117881921487979</v>
+        <v>0.03011904002464162</v>
       </c>
       <c r="N28" t="n">
-        <v>0.04343474894508433</v>
+        <v>0.05670318216196663</v>
       </c>
       <c r="O28" t="n">
-        <v>0.01873860167271858</v>
+        <v>0.02217694677393902</v>
       </c>
       <c r="P28" t="n">
-        <v>0.02786784842470636</v>
+        <v>0.0658426254056915</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.03991139165171574</v>
+        <v>0.01193307330639405</v>
       </c>
       <c r="R28" t="n">
-        <v>0.005966961523795554</v>
+        <v>0.0003714846151833878</v>
       </c>
       <c r="S28" t="n">
-        <v>0.06897054509046646</v>
+        <v>0.04119643391829503</v>
       </c>
       <c r="T28" t="n">
-        <v>0.02657092105185929</v>
+        <v>0.07485908616909689</v>
       </c>
       <c r="U28" t="n">
-        <v>0.09390355381997156</v>
+        <v>0.07710148316155142</v>
       </c>
       <c r="V28" t="n">
-        <v>0.004557927720220336</v>
+        <v>0.02054310467796608</v>
       </c>
       <c r="W28" t="n">
-        <v>0.06132108748931921</v>
+        <v>0.06500092343593092</v>
       </c>
       <c r="X28" t="n">
-        <v>0.06466844097046238</v>
+        <v>0.06381045862705488</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.04106187401352005</v>
+        <v>0.03681014842254476</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.07547910096429453</v>
+        <v>0.05482209156816654</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.0933735222728285</v>
+        <v>0.05281083854840967</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.004924649781489945</v>
+        <v>0.03610094072562988</v>
       </c>
       <c r="AC28" t="n">
-        <v>-0.246665397308988</v>
+        <v>-0.2573594666503971</v>
       </c>
     </row>
     <row r="29">
@@ -3156,79 +3156,79 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.393911003349809</v>
+        <v>0.291938850610488</v>
       </c>
       <c r="F29" t="n">
-        <v>0.08736033332537484</v>
+        <v>0.07289641935911827</v>
       </c>
       <c r="G29" t="n">
-        <v>0.01928193696603065</v>
+        <v>0.06882912753315941</v>
       </c>
       <c r="H29" t="n">
-        <v>0.08427317405769971</v>
+        <v>0.0047139728861435</v>
       </c>
       <c r="I29" t="n">
-        <v>0.01468966792591173</v>
+        <v>0.02718180519496542</v>
       </c>
       <c r="J29" t="n">
-        <v>0.04048526973474668</v>
+        <v>0.1005965599183845</v>
       </c>
       <c r="K29" t="n">
-        <v>0.06932428513774046</v>
+        <v>0.09968485414313741</v>
       </c>
       <c r="L29" t="n">
-        <v>0.0558758279565024</v>
+        <v>0.07410976864269082</v>
       </c>
       <c r="M29" t="n">
-        <v>0.01322972390424271</v>
+        <v>0.09370087713304702</v>
       </c>
       <c r="N29" t="n">
-        <v>0.004470288578659633</v>
+        <v>0.003340032290430391</v>
       </c>
       <c r="O29" t="n">
-        <v>0.04562112893352956</v>
+        <v>0.0364986989026424</v>
       </c>
       <c r="P29" t="n">
-        <v>0.0009844688942277822</v>
+        <v>0.02189541960568715</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.04853050021990685</v>
+        <v>0.01665678364264722</v>
       </c>
       <c r="R29" t="n">
-        <v>0.006285772379277886</v>
+        <v>0.002619950178537919</v>
       </c>
       <c r="S29" t="n">
-        <v>0.07938195509669775</v>
+        <v>0.07184417168656798</v>
       </c>
       <c r="T29" t="n">
-        <v>0.008812751970571981</v>
+        <v>0.02345771677860518</v>
       </c>
       <c r="U29" t="n">
-        <v>0.0718419410635204</v>
+        <v>0.0006263164348249703</v>
       </c>
       <c r="V29" t="n">
-        <v>0.07819594597940457</v>
+        <v>0.02516617770081501</v>
       </c>
       <c r="W29" t="n">
-        <v>0.06638446016575439</v>
+        <v>0.01704723994246318</v>
       </c>
       <c r="X29" t="n">
-        <v>0.01752961284490055</v>
+        <v>0.04735890273697317</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.009625196830037926</v>
+        <v>0.00834063204209369</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.0520320277746553</v>
+        <v>0.005594829606179466</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.04323071684793206</v>
+        <v>0.07541319726424293</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.08255301341267424</v>
+        <v>0.1024265463766429</v>
       </c>
       <c r="AC29" t="n">
-        <v>-0.2151331312142257</v>
+        <v>-0.2338037909518537</v>
       </c>
     </row>
     <row r="30">
@@ -3251,79 +3251,79 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.1960944428983989</v>
+        <v>0.1942475398693118</v>
       </c>
       <c r="F30" t="n">
-        <v>0.06456397121198243</v>
+        <v>0.0281362752510762</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03504640378174802</v>
+        <v>0.0133033927819309</v>
       </c>
       <c r="H30" t="n">
-        <v>0.06336358987635496</v>
+        <v>0.08393248635523633</v>
       </c>
       <c r="I30" t="n">
-        <v>0.0857285028831006</v>
+        <v>0.07734636514878081</v>
       </c>
       <c r="J30" t="n">
-        <v>0.01615128225969492</v>
+        <v>6.15581633157001e-05</v>
       </c>
       <c r="K30" t="n">
-        <v>0.006577233877268561</v>
+        <v>0.03840423726107482</v>
       </c>
       <c r="L30" t="n">
-        <v>0.000346004017068609</v>
+        <v>0.01072111003356634</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0337144500256713</v>
+        <v>0.02863811690342769</v>
       </c>
       <c r="N30" t="n">
-        <v>0.06019499182637233</v>
+        <v>0.03922306765860276</v>
       </c>
       <c r="O30" t="n">
-        <v>0.03586445046395115</v>
+        <v>0.04797472101489236</v>
       </c>
       <c r="P30" t="n">
-        <v>0.07769617120648503</v>
+        <v>0.08561650788535588</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.0004994646919335971</v>
+        <v>0.03352351883601368</v>
       </c>
       <c r="R30" t="n">
-        <v>0.07421255896890075</v>
+        <v>0.06514098575360805</v>
       </c>
       <c r="S30" t="n">
-        <v>0.06192502508086138</v>
+        <v>0.05690389883981675</v>
       </c>
       <c r="T30" t="n">
-        <v>0.0276596328906607</v>
+        <v>0.07751520676292062</v>
       </c>
       <c r="U30" t="n">
-        <v>0.03540521648937994</v>
+        <v>0.0356328389749912</v>
       </c>
       <c r="V30" t="n">
-        <v>0.01634847533676176</v>
+        <v>0.01812752869642672</v>
       </c>
       <c r="W30" t="n">
-        <v>0.02973095625670946</v>
+        <v>0.08628483307099025</v>
       </c>
       <c r="X30" t="n">
-        <v>0.07924518104472308</v>
+        <v>0.05515077317171836</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.05874284064517932</v>
+        <v>0.01666456123611557</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.06900219568095962</v>
+        <v>0.07936831412537759</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.04279489453823301</v>
+        <v>0.01194846952981639</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.02518650694599944</v>
+        <v>0.0103812325449451</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.05771427593684087</v>
+        <v>0.07063171359994788</v>
       </c>
     </row>
     <row r="31">
@@ -3346,79 +3346,79 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.3293635724802311</v>
+        <v>0.2837735524297332</v>
       </c>
       <c r="F31" t="n">
-        <v>0.03510609853107279</v>
+        <v>0.005400564065358286</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05690110369925985</v>
+        <v>0.03740522902391138</v>
       </c>
       <c r="H31" t="n">
-        <v>0.006814662503683623</v>
+        <v>0.02293358758425857</v>
       </c>
       <c r="I31" t="n">
-        <v>0.04924670504572294</v>
+        <v>0.03545225711548201</v>
       </c>
       <c r="J31" t="n">
-        <v>0.08375222874800904</v>
+        <v>0.05282650085403731</v>
       </c>
       <c r="K31" t="n">
-        <v>0.07683750253576287</v>
+        <v>0.06937591393986492</v>
       </c>
       <c r="L31" t="n">
-        <v>0.03968919769153312</v>
+        <v>0.0691060680863561</v>
       </c>
       <c r="M31" t="n">
-        <v>0.02011982384956785</v>
+        <v>0.03353268133706795</v>
       </c>
       <c r="N31" t="n">
-        <v>0.01042687009914577</v>
+        <v>0.008042797395506949</v>
       </c>
       <c r="O31" t="n">
-        <v>0.004490275617509067</v>
+        <v>0.01320962608164093</v>
       </c>
       <c r="P31" t="n">
-        <v>0.01554367968938271</v>
+        <v>0.004053441489559369</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.0163495575941376</v>
+        <v>0.01266231511157301</v>
       </c>
       <c r="R31" t="n">
-        <v>0.07923133592234735</v>
+        <v>0.0105770230002112</v>
       </c>
       <c r="S31" t="n">
-        <v>0.08926849756135838</v>
+        <v>0.08055729422947694</v>
       </c>
       <c r="T31" t="n">
-        <v>0.0234646921538848</v>
+        <v>0.07901816544751315</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08797622500334316</v>
+        <v>0.02387636933590835</v>
       </c>
       <c r="V31" t="n">
-        <v>0.08015079160616226</v>
+        <v>0.09709193603494236</v>
       </c>
       <c r="W31" t="n">
-        <v>0.00774140034348405</v>
+        <v>0.07622670527320612</v>
       </c>
       <c r="X31" t="n">
-        <v>0.03398409078423477</v>
+        <v>0.02071082262897472</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.00197241014946514</v>
+        <v>0.000514473947479098</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.02871837190387659</v>
+        <v>0.09687722274601107</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.05789103989612967</v>
+        <v>0.06714867687457469</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.09432343907092683</v>
+        <v>0.08340032839708533</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.02099465616432311</v>
+        <v>0.03297166118520949</v>
       </c>
     </row>
     <row r="32">
@@ -3441,79 +3441,79 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.2038614189256622</v>
+        <v>0.199954941954702</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0970608056029653</v>
+        <v>0.1168764630332159</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0004237919456554671</v>
+        <v>0.01275914551327046</v>
       </c>
       <c r="H32" t="n">
-        <v>0.09983083907729359</v>
+        <v>0.02384015512116831</v>
       </c>
       <c r="I32" t="n">
-        <v>0.07900427975953467</v>
+        <v>0.06711332895510466</v>
       </c>
       <c r="J32" t="n">
-        <v>0.005716436739565678</v>
+        <v>0.03412306799487889</v>
       </c>
       <c r="K32" t="n">
-        <v>0.04283546258389775</v>
+        <v>0.000978213982687437</v>
       </c>
       <c r="L32" t="n">
-        <v>0.02699541059407708</v>
+        <v>0.05767011370004474</v>
       </c>
       <c r="M32" t="n">
-        <v>0.008320358284000825</v>
+        <v>0.01546549709707181</v>
       </c>
       <c r="N32" t="n">
-        <v>0.01063353818748957</v>
+        <v>0.006782873295592715</v>
       </c>
       <c r="O32" t="n">
-        <v>0.06654307162716892</v>
+        <v>0.05582203302172659</v>
       </c>
       <c r="P32" t="n">
-        <v>0.07805050226966526</v>
+        <v>0.07855990557002823</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.03656218222071096</v>
+        <v>0.01694951184766629</v>
       </c>
       <c r="R32" t="n">
-        <v>0.0896523240380689</v>
+        <v>0.08558964046418614</v>
       </c>
       <c r="S32" t="n">
-        <v>0.1032620509301066</v>
+        <v>0.06300463953286778</v>
       </c>
       <c r="T32" t="n">
-        <v>0.01637504409611702</v>
+        <v>0.009075405942822126</v>
       </c>
       <c r="U32" t="n">
-        <v>0.01498306939735404</v>
+        <v>0.01487746249707296</v>
       </c>
       <c r="V32" t="n">
-        <v>0.01882744521045411</v>
+        <v>0.0421992431864729</v>
       </c>
       <c r="W32" t="n">
-        <v>0.06803472800217071</v>
+        <v>0.07886040002180039</v>
       </c>
       <c r="X32" t="n">
-        <v>0.01912561503308396</v>
+        <v>0.09860228667762548</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.04074402770735729</v>
+        <v>0.05546009009832123</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.01725766205542649</v>
+        <v>0.01876247545401613</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.04765213312114627</v>
+        <v>0.03585337596349126</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.01210922151668967</v>
+        <v>0.01077467102886759</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.08980643909445955</v>
+        <v>0.097275197777203</v>
       </c>
     </row>
     <row r="33">
@@ -3536,79 +3536,79 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.2355128731317135</v>
+        <v>0.2326373395494615</v>
       </c>
       <c r="F33" t="n">
-        <v>0.08425379022397007</v>
+        <v>0.06907131278728244</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03361168018949628</v>
+        <v>0.1142830638507892</v>
       </c>
       <c r="H33" t="n">
-        <v>0.01499617691542847</v>
+        <v>0.03286025052803621</v>
       </c>
       <c r="I33" t="n">
-        <v>0.007879928658452924</v>
+        <v>0.002907927396342326</v>
       </c>
       <c r="J33" t="n">
-        <v>0.07021040569708775</v>
+        <v>0.01119868628255847</v>
       </c>
       <c r="K33" t="n">
-        <v>0.05667375231083665</v>
+        <v>0.1017298295583026</v>
       </c>
       <c r="L33" t="n">
-        <v>0.0136851179936604</v>
+        <v>0.005910306070606844</v>
       </c>
       <c r="M33" t="n">
-        <v>0.003646049418983883</v>
+        <v>0.1250118954625936</v>
       </c>
       <c r="N33" t="n">
-        <v>0.08174355866121798</v>
+        <v>0.00205459786416423</v>
       </c>
       <c r="O33" t="n">
-        <v>0.09469225435813805</v>
+        <v>0.01887771490368691</v>
       </c>
       <c r="P33" t="n">
-        <v>0.05262051691858845</v>
+        <v>0.03887730390668023</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.009354398999373912</v>
+        <v>0.006413143447818429</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1107556947135887</v>
+        <v>0.1198969942445293</v>
       </c>
       <c r="S33" t="n">
-        <v>0.0139003145261368</v>
+        <v>0.001666899098647574</v>
       </c>
       <c r="T33" t="n">
-        <v>0.06435740157097876</v>
+        <v>0.00187948688954159</v>
       </c>
       <c r="U33" t="n">
-        <v>0.08271427493035244</v>
+        <v>0.01677261588839514</v>
       </c>
       <c r="V33" t="n">
-        <v>0.06547938387694587</v>
+        <v>0.0831725277312895</v>
       </c>
       <c r="W33" t="n">
-        <v>0.04776321282705354</v>
+        <v>0.1384197267556281</v>
       </c>
       <c r="X33" t="n">
-        <v>0.001332778830470937</v>
+        <v>0.07068783506456841</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.01901888363677478</v>
+        <v>0.01482440850290781</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.02164974627550383</v>
+        <v>0.004116934295436621</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.03389372712922862</v>
+        <v>0.003698900381872332</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.01576695133773074</v>
+        <v>0.0156676390883221</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.1387519776497756</v>
+        <v>0.1263673864480193</v>
       </c>
     </row>
     <row r="34">
@@ -3631,79 +3631,79 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.2470114641879066</v>
+        <v>0.2385492437529069</v>
       </c>
       <c r="F34" t="n">
-        <v>0.03243172131797321</v>
+        <v>0.053335016840837</v>
       </c>
       <c r="G34" t="n">
-        <v>0.05203627846379028</v>
+        <v>0.04137155432109943</v>
       </c>
       <c r="H34" t="n">
-        <v>0.009517407877559102</v>
+        <v>0.05368767883796176</v>
       </c>
       <c r="I34" t="n">
-        <v>0.06898391823880609</v>
+        <v>0.03637759567130944</v>
       </c>
       <c r="J34" t="n">
-        <v>0.04903064265229172</v>
+        <v>0.03654284905882289</v>
       </c>
       <c r="K34" t="n">
-        <v>0.03853589461477233</v>
+        <v>0.03252236554043176</v>
       </c>
       <c r="L34" t="n">
-        <v>0.08668667007378211</v>
+        <v>0.003867385345541826</v>
       </c>
       <c r="M34" t="n">
-        <v>0.02737572840304479</v>
+        <v>0.08660363333188832</v>
       </c>
       <c r="N34" t="n">
-        <v>0.02532425864068392</v>
+        <v>0.00205916827260476</v>
       </c>
       <c r="O34" t="n">
-        <v>0.07508967874015961</v>
+        <v>0.06482675532708231</v>
       </c>
       <c r="P34" t="n">
-        <v>0.07301058227071675</v>
+        <v>0.08810770347846511</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.03891673079440447</v>
+        <v>0.04165971226736193</v>
       </c>
       <c r="R34" t="n">
-        <v>0.05014428406890723</v>
+        <v>0.02814170581242665</v>
       </c>
       <c r="S34" t="n">
-        <v>0.06636659514364857</v>
+        <v>0.0761559142059363</v>
       </c>
       <c r="T34" t="n">
-        <v>0.03034904379596627</v>
+        <v>0.01915358744451515</v>
       </c>
       <c r="U34" t="n">
-        <v>0.003724236291311547</v>
+        <v>0.001523776289340896</v>
       </c>
       <c r="V34" t="n">
-        <v>0.001480528761460194</v>
+        <v>0.05729559937413729</v>
       </c>
       <c r="W34" t="n">
-        <v>0.01134382854618486</v>
+        <v>0.01138734083343191</v>
       </c>
       <c r="X34" t="n">
-        <v>0.0680292732760764</v>
+        <v>0.07193201306200531</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.02525227741576841</v>
+        <v>0.04891244348784857</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.09122297177864054</v>
+        <v>0.08972049006567964</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.05062303643141822</v>
+        <v>0.003137637892863421</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.02452441240263344</v>
+        <v>0.05167807323840826</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.03343628239965776</v>
+        <v>0.009951934715990065</v>
       </c>
     </row>
     <row r="35">
@@ -3726,79 +3726,79 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.7466804271081567</v>
+        <v>0.7141889646133686</v>
       </c>
       <c r="F35" t="n">
-        <v>0.02453996174856402</v>
+        <v>0.1135749275726683</v>
       </c>
       <c r="G35" t="n">
-        <v>0.06129603375286283</v>
+        <v>0.004180148042184924</v>
       </c>
       <c r="H35" t="n">
-        <v>0.05485070760850749</v>
+        <v>0.02604207994212458</v>
       </c>
       <c r="I35" t="n">
-        <v>0.06659824308081358</v>
+        <v>0.0707318244047826</v>
       </c>
       <c r="J35" t="n">
-        <v>0.01854844940619338</v>
+        <v>0.07997009067949276</v>
       </c>
       <c r="K35" t="n">
-        <v>0.009369938941516005</v>
+        <v>0.0978455365527346</v>
       </c>
       <c r="L35" t="n">
-        <v>0.01592413882565646</v>
+        <v>0.0887428413606736</v>
       </c>
       <c r="M35" t="n">
-        <v>0.006440011553549963</v>
+        <v>0.05287700780319726</v>
       </c>
       <c r="N35" t="n">
-        <v>0.008754119926396849</v>
+        <v>0.02268741983641982</v>
       </c>
       <c r="O35" t="n">
-        <v>0.1051603037112939</v>
+        <v>0.07160777481705533</v>
       </c>
       <c r="P35" t="n">
-        <v>0.1100440323214963</v>
+        <v>0.06974558626880062</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.08606612701497675</v>
+        <v>0.02050588397542206</v>
       </c>
       <c r="R35" t="n">
-        <v>0.01928660344003096</v>
+        <v>0.001938468821452697</v>
       </c>
       <c r="S35" t="n">
-        <v>0.06001579331532277</v>
+        <v>0.03522142184259686</v>
       </c>
       <c r="T35" t="n">
-        <v>0.03499368131593673</v>
+        <v>0.01564881309826072</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1142525828194212</v>
+        <v>0.1083860659909461</v>
       </c>
       <c r="V35" t="n">
-        <v>0.001610550201661902</v>
+        <v>0.009571555962079335</v>
       </c>
       <c r="W35" t="n">
-        <v>0.02134996901288562</v>
+        <v>0.009355402810701526</v>
       </c>
       <c r="X35" t="n">
-        <v>0.01070968169681538</v>
+        <v>0.01850016153722967</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.003860004212601533</v>
+        <v>0.02321071800940307</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.08954604748154035</v>
+        <v>0.02978871714718053</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.0279491344606425</v>
+        <v>0.01747526692524646</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.04883388415131357</v>
+        <v>0.01239228659934641</v>
       </c>
       <c r="AC35" t="n">
-        <v>0.05434627356166202</v>
+        <v>0.01078005874187858</v>
       </c>
     </row>
     <row r="36">
@@ -3821,79 +3821,79 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.2445793110581331</v>
+        <v>0.2407604469570188</v>
       </c>
       <c r="F36" t="n">
-        <v>0.02500072511543832</v>
+        <v>0.009110212944013584</v>
       </c>
       <c r="G36" t="n">
-        <v>0.06311318220129933</v>
+        <v>0.0489340270751281</v>
       </c>
       <c r="H36" t="n">
-        <v>0.00640097758951041</v>
+        <v>0.03392720584134849</v>
       </c>
       <c r="I36" t="n">
-        <v>0.01041175660119019</v>
+        <v>0.01287828161818209</v>
       </c>
       <c r="J36" t="n">
-        <v>0.04155406328210116</v>
+        <v>0.06053717166250959</v>
       </c>
       <c r="K36" t="n">
-        <v>0.00767533247941233</v>
+        <v>0.004903938186968639</v>
       </c>
       <c r="L36" t="n">
-        <v>0.01703684760309547</v>
+        <v>0.07271915102337806</v>
       </c>
       <c r="M36" t="n">
-        <v>0.06145891986836968</v>
+        <v>0.05979091774749169</v>
       </c>
       <c r="N36" t="n">
-        <v>0.02404639354009061</v>
+        <v>0.01908728046510901</v>
       </c>
       <c r="O36" t="n">
-        <v>0.05728968840884804</v>
+        <v>0.04739894810734611</v>
       </c>
       <c r="P36" t="n">
-        <v>0.05243239776877687</v>
+        <v>0.07824716306290656</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.0436079686318081</v>
+        <v>0.07870680986810057</v>
       </c>
       <c r="R36" t="n">
-        <v>0.04461752443229208</v>
+        <v>0.02577954042258774</v>
       </c>
       <c r="S36" t="n">
-        <v>0.02272461573525435</v>
+        <v>0.0376225552190983</v>
       </c>
       <c r="T36" t="n">
-        <v>0.04110838769835307</v>
+        <v>0.003708992565708595</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01256970781940069</v>
+        <v>0.02453778235288661</v>
       </c>
       <c r="V36" t="n">
-        <v>0.06538634926064779</v>
+        <v>0.0492510056062723</v>
       </c>
       <c r="W36" t="n">
-        <v>0.05601157542593717</v>
+        <v>0.04079939062789329</v>
       </c>
       <c r="X36" t="n">
-        <v>0.07346356246176854</v>
+        <v>0.0818773055901995</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.07458881117626913</v>
+        <v>0.08112353303499321</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.09199962340400601</v>
+        <v>0.06266863378607318</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.09981108760632293</v>
+        <v>0.06021620159145057</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.007690501889807477</v>
+        <v>0.006173951600354087</v>
       </c>
       <c r="AC36" t="n">
-        <v>0.06383686488772938</v>
+        <v>0.04612902812932372</v>
       </c>
     </row>
     <row r="37">
@@ -3916,79 +3916,79 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.3734168663635777</v>
+        <v>0.354821892744216</v>
       </c>
       <c r="F37" t="n">
-        <v>0.02315094549689374</v>
+        <v>0.03517371407698204</v>
       </c>
       <c r="G37" t="n">
-        <v>0.09794723716808308</v>
+        <v>0.07910897505664469</v>
       </c>
       <c r="H37" t="n">
-        <v>0.02989993773932224</v>
+        <v>0.02688456844056403</v>
       </c>
       <c r="I37" t="n">
-        <v>0.0197793271820801</v>
+        <v>0.03582963329968053</v>
       </c>
       <c r="J37" t="n">
-        <v>0.04175462801896489</v>
+        <v>0.07059599162051954</v>
       </c>
       <c r="K37" t="n">
-        <v>0.02173324590682502</v>
+        <v>0.04035095842954455</v>
       </c>
       <c r="L37" t="n">
-        <v>0.01437819866432902</v>
+        <v>0.04416229200198703</v>
       </c>
       <c r="M37" t="n">
-        <v>0.07199258550559789</v>
+        <v>0.01331802299475969</v>
       </c>
       <c r="N37" t="n">
-        <v>0.03787069170973302</v>
+        <v>0.00515674975558968</v>
       </c>
       <c r="O37" t="n">
-        <v>0.06802720991505888</v>
+        <v>0.06504033230078116</v>
       </c>
       <c r="P37" t="n">
-        <v>0.01013374656916261</v>
+        <v>0.01073201549500394</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.03962198300720663</v>
+        <v>0.0598409025166564</v>
       </c>
       <c r="R37" t="n">
-        <v>0.01090926339707535</v>
+        <v>0.0366871150409525</v>
       </c>
       <c r="S37" t="n">
-        <v>0.0199687888228541</v>
+        <v>0.06837254520144501</v>
       </c>
       <c r="T37" t="n">
-        <v>0.02755393738333718</v>
+        <v>0.01696817795082032</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1224277761369839</v>
+        <v>0.1102272506137849</v>
       </c>
       <c r="V37" t="n">
-        <v>0.0732198936219524</v>
+        <v>0.0660804136139596</v>
       </c>
       <c r="W37" t="n">
-        <v>0.06792120035904499</v>
+        <v>0.01468004673443762</v>
       </c>
       <c r="X37" t="n">
-        <v>0.04770410153323207</v>
+        <v>0.03350912361455891</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.004612867148186128</v>
+        <v>0.04920532086692285</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.05284391683647755</v>
+        <v>0.003361899423746718</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.0767295852476446</v>
+        <v>0.09754010660892883</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.01981893262995452</v>
+        <v>0.01717384434172944</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.08843140702663697</v>
+        <v>0.06105204567560074</v>
       </c>
     </row>
     <row r="38">
@@ -4011,79 +4011,79 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.2555304606214256</v>
+        <v>0.2457698348468555</v>
       </c>
       <c r="F38" t="n">
-        <v>0.05137521454570261</v>
+        <v>0.0384645258003885</v>
       </c>
       <c r="G38" t="n">
-        <v>0.04542985167729255</v>
+        <v>0.05384106690570788</v>
       </c>
       <c r="H38" t="n">
-        <v>0.06487660799864395</v>
+        <v>0.07329057707757769</v>
       </c>
       <c r="I38" t="n">
-        <v>0.005247482634820881</v>
+        <v>0.001025866666392374</v>
       </c>
       <c r="J38" t="n">
-        <v>0.05543323489371071</v>
+        <v>0.02805622215308148</v>
       </c>
       <c r="K38" t="n">
-        <v>0.01195555181815801</v>
+        <v>0.008242013500076339</v>
       </c>
       <c r="L38" t="n">
-        <v>0.0102313186509664</v>
+        <v>0.04399620089105481</v>
       </c>
       <c r="M38" t="n">
-        <v>0.05348141468564983</v>
+        <v>0.0787578949531656</v>
       </c>
       <c r="N38" t="n">
-        <v>0.01745951313965402</v>
+        <v>0.03608271429251558</v>
       </c>
       <c r="O38" t="n">
-        <v>0.06905209223867737</v>
+        <v>0.0886202516945564</v>
       </c>
       <c r="P38" t="n">
-        <v>0.05464272716737932</v>
+        <v>0.07683040968622318</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.04990249796463324</v>
+        <v>0.01063920602690778</v>
       </c>
       <c r="R38" t="n">
-        <v>0.07601141681391117</v>
+        <v>0.008132085411019908</v>
       </c>
       <c r="S38" t="n">
-        <v>0.08475578835514075</v>
+        <v>0.1023386129561836</v>
       </c>
       <c r="T38" t="n">
-        <v>0.05732447347744721</v>
+        <v>0.09933705060662341</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04377321858516996</v>
+        <v>0.04567570720505133</v>
       </c>
       <c r="V38" t="n">
-        <v>0.03647780480234018</v>
+        <v>0.02348668916010916</v>
       </c>
       <c r="W38" t="n">
-        <v>0.01909864420597563</v>
+        <v>0.004755770674555431</v>
       </c>
       <c r="X38" t="n">
-        <v>0.01325908582897132</v>
+        <v>0.002376883249237409</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.05690956133790282</v>
+        <v>0.01840235830486275</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.05827554832217231</v>
+        <v>0.07866578640555789</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.05379385447658258</v>
+        <v>0.07180052837174618</v>
       </c>
       <c r="AB38" t="n">
-        <v>0.01123309637909741</v>
+        <v>0.007181578007405476</v>
       </c>
       <c r="AC38" t="n">
-        <v>0.01621259436514512</v>
+        <v>0.02943902727003059</v>
       </c>
     </row>
     <row r="39">
@@ -4106,79 +4106,79 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.5757792144333137</v>
+        <v>0.7065145557335145</v>
       </c>
       <c r="F39" t="n">
-        <v>0.03402580327547339</v>
+        <v>0.0004554021259370233</v>
       </c>
       <c r="G39" t="n">
-        <v>0.01832863747670489</v>
+        <v>0.05656958445359302</v>
       </c>
       <c r="H39" t="n">
-        <v>0.06909833632239896</v>
+        <v>0.0417120917064091</v>
       </c>
       <c r="I39" t="n">
-        <v>0.01076862112514732</v>
+        <v>0.006515581129257045</v>
       </c>
       <c r="J39" t="n">
-        <v>0.006754386063205595</v>
+        <v>0.05004894610814322</v>
       </c>
       <c r="K39" t="n">
-        <v>0.007261337618620487</v>
+        <v>0.01423711561352682</v>
       </c>
       <c r="L39" t="n">
-        <v>0.05384429913974641</v>
+        <v>0.04262588249955759</v>
       </c>
       <c r="M39" t="n">
-        <v>0.00264372584723351</v>
+        <v>0.09046547192978018</v>
       </c>
       <c r="N39" t="n">
-        <v>0.07529729954977323</v>
+        <v>0.05322839645806166</v>
       </c>
       <c r="O39" t="n">
-        <v>0.07578806223405486</v>
+        <v>0.0823295899898306</v>
       </c>
       <c r="P39" t="n">
-        <v>0.002878682996020863</v>
+        <v>0.006116621883921398</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.02811323306671218</v>
+        <v>0.05699419430795284</v>
       </c>
       <c r="R39" t="n">
-        <v>0.02029672692863146</v>
+        <v>0.02031258688243736</v>
       </c>
       <c r="S39" t="n">
-        <v>0.01329613216138345</v>
+        <v>0.04825355763296443</v>
       </c>
       <c r="T39" t="n">
-        <v>0.06437019077927483</v>
+        <v>0.09278271435777662</v>
       </c>
       <c r="U39" t="n">
-        <v>0.0001445948044441158</v>
+        <v>0.003028534418152363</v>
       </c>
       <c r="V39" t="n">
-        <v>0.1138777455290562</v>
+        <v>0.108326272074936</v>
       </c>
       <c r="W39" t="n">
-        <v>0.02686893368135383</v>
+        <v>0.008243635148331832</v>
       </c>
       <c r="X39" t="n">
-        <v>0.02436369319372062</v>
+        <v>0.01339506016527515</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.05915752588487543</v>
+        <v>0.009406838491111895</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.09851237560238209</v>
+        <v>0.07477086918778168</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.1011339117341131</v>
+        <v>0.003988771335894144</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.09317574498567312</v>
+        <v>0.1161922820993679</v>
       </c>
       <c r="AC39" t="n">
-        <v>-0.01381116351335859</v>
+        <v>-0.006968889235226058</v>
       </c>
     </row>
     <row r="40">
@@ -4201,79 +4201,79 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.2302847690140535</v>
+        <v>0.2344152480352873</v>
       </c>
       <c r="F40" t="n">
-        <v>0.06028564885826729</v>
+        <v>0.01140538423038076</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0006237931204074144</v>
+        <v>0.03925430508963586</v>
       </c>
       <c r="H40" t="n">
-        <v>0.08411909014565708</v>
+        <v>0.04059508408660718</v>
       </c>
       <c r="I40" t="n">
-        <v>0.05618986745412718</v>
+        <v>0.04490260481034411</v>
       </c>
       <c r="J40" t="n">
-        <v>0.039478572736277</v>
+        <v>0.06286620350198142</v>
       </c>
       <c r="K40" t="n">
-        <v>0.01105386362057374</v>
+        <v>0.004957390583585661</v>
       </c>
       <c r="L40" t="n">
-        <v>0.04842013575765702</v>
+        <v>0.08652713399472108</v>
       </c>
       <c r="M40" t="n">
-        <v>0.08002495065158834</v>
+        <v>0.05004252009099312</v>
       </c>
       <c r="N40" t="n">
-        <v>0.009344067175797752</v>
+        <v>0.009961822090139157</v>
       </c>
       <c r="O40" t="n">
-        <v>0.01263852447899093</v>
+        <v>0.0233458366056178</v>
       </c>
       <c r="P40" t="n">
-        <v>0.0304205994972804</v>
+        <v>0.004597911463976975</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.03212234944317848</v>
+        <v>0.0865302633862897</v>
       </c>
       <c r="R40" t="n">
-        <v>0.0687961060609257</v>
+        <v>0.06786950453339707</v>
       </c>
       <c r="S40" t="n">
-        <v>0.05341163297174241</v>
+        <v>0.04821963105168152</v>
       </c>
       <c r="T40" t="n">
-        <v>0.01046024823972547</v>
+        <v>0.05371180873500282</v>
       </c>
       <c r="U40" t="n">
-        <v>0.02350757938262856</v>
+        <v>0.009026770387546448</v>
       </c>
       <c r="V40" t="n">
-        <v>0.07716826225314544</v>
+        <v>0.05086634005636683</v>
       </c>
       <c r="W40" t="n">
-        <v>0.08511390764173682</v>
+        <v>0.08030701298135051</v>
       </c>
       <c r="X40" t="n">
-        <v>0.00300301871566946</v>
+        <v>0.000831014026805535</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.05100548224073359</v>
+        <v>0.03901753669108592</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.05068144824016006</v>
+        <v>0.0855979574300661</v>
       </c>
       <c r="AA40" t="n">
-        <v>0.06422432180520719</v>
+        <v>0.05346394025275839</v>
       </c>
       <c r="AB40" t="n">
-        <v>0.04790652950852266</v>
+        <v>0.04610202391966592</v>
       </c>
       <c r="AC40" t="n">
-        <v>0.003562427437617433</v>
+        <v>-0.001498239553577904</v>
       </c>
     </row>
     <row r="41">
@@ -4296,79 +4296,79 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.6891324091684966</v>
+        <v>0.6504285822052692</v>
       </c>
       <c r="F41" t="n">
-        <v>0.06890811519707478</v>
+        <v>0.08569114870557232</v>
       </c>
       <c r="G41" t="n">
-        <v>0.09855146420393331</v>
+        <v>0.1001005450662634</v>
       </c>
       <c r="H41" t="n">
-        <v>0.03856321096351769</v>
+        <v>0.0232724536079369</v>
       </c>
       <c r="I41" t="n">
-        <v>0.08086818491868024</v>
+        <v>0.07178986607319314</v>
       </c>
       <c r="J41" t="n">
-        <v>0.02790662181378835</v>
+        <v>0.05351079220707181</v>
       </c>
       <c r="K41" t="n">
-        <v>0.01700329884224167</v>
+        <v>0.05379949673522266</v>
       </c>
       <c r="L41" t="n">
-        <v>0.0493981722662012</v>
+        <v>0.00713583949642892</v>
       </c>
       <c r="M41" t="n">
-        <v>0.04001296808803665</v>
+        <v>0.04462548336144195</v>
       </c>
       <c r="N41" t="n">
-        <v>0.01189521558254205</v>
+        <v>0.03123940554457337</v>
       </c>
       <c r="O41" t="n">
-        <v>0.004514586236056336</v>
+        <v>0.03089850420212265</v>
       </c>
       <c r="P41" t="n">
-        <v>0.08034232059261771</v>
+        <v>0.08120949288042151</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.06614658960195359</v>
+        <v>0.02161086170500213</v>
       </c>
       <c r="R41" t="n">
-        <v>0.03442989484191428</v>
+        <v>0.05794886435612353</v>
       </c>
       <c r="S41" t="n">
-        <v>0.003060544778757766</v>
+        <v>0.007003669024451035</v>
       </c>
       <c r="T41" t="n">
-        <v>0.07362801686008495</v>
+        <v>0.01840754792409787</v>
       </c>
       <c r="U41" t="n">
-        <v>0.01315990292908022</v>
+        <v>0.004418340297703358</v>
       </c>
       <c r="V41" t="n">
-        <v>0.001618323951009295</v>
+        <v>0.03238622535912822</v>
       </c>
       <c r="W41" t="n">
-        <v>0.09455728251021235</v>
+        <v>0.02903735652618436</v>
       </c>
       <c r="X41" t="n">
-        <v>0.09912938825892777</v>
+        <v>0.09237807686753063</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.03490653390933721</v>
+        <v>0.01943257214951542</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.001685266687716069</v>
+        <v>0.03832707004554611</v>
       </c>
       <c r="AA41" t="n">
-        <v>0.0515027042783774</v>
+        <v>0.07958464345131362</v>
       </c>
       <c r="AB41" t="n">
-        <v>0.008211392687939053</v>
+        <v>0.0161917444131553</v>
       </c>
       <c r="AC41" t="n">
-        <v>-0.005947545630098874</v>
+        <v>0.01033712871504971</v>
       </c>
     </row>
     <row r="42">
@@ -4391,79 +4391,79 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.2196597721867695</v>
+        <v>0.2283703305980061</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09362340745583059</v>
+        <v>0.03430862315761803</v>
       </c>
       <c r="G42" t="n">
-        <v>0.01968357978502088</v>
+        <v>0.01056860908704696</v>
       </c>
       <c r="H42" t="n">
-        <v>0.01681551972307834</v>
+        <v>0.02527745064009609</v>
       </c>
       <c r="I42" t="n">
-        <v>0.03897374759608743</v>
+        <v>0.01276952758727325</v>
       </c>
       <c r="J42" t="n">
-        <v>0.004879577651404833</v>
+        <v>0.0567153201441567</v>
       </c>
       <c r="K42" t="n">
-        <v>0.001548608790998653</v>
+        <v>0.008670427975813627</v>
       </c>
       <c r="L42" t="n">
-        <v>0.02368599953438288</v>
+        <v>0.02774984813148727</v>
       </c>
       <c r="M42" t="n">
-        <v>0.008509962217201758</v>
+        <v>0.0107343381593985</v>
       </c>
       <c r="N42" t="n">
-        <v>0.0170552057838876</v>
+        <v>0.009444578632373848</v>
       </c>
       <c r="O42" t="n">
-        <v>0.0436093739660529</v>
+        <v>0.009527395477135922</v>
       </c>
       <c r="P42" t="n">
-        <v>0.09026580632971934</v>
+        <v>0.03876881104019101</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.07743164905956668</v>
+        <v>0.06279442479844873</v>
       </c>
       <c r="R42" t="n">
-        <v>0.0654551064356691</v>
+        <v>0.06468212729279393</v>
       </c>
       <c r="S42" t="n">
-        <v>0.07219782285861211</v>
+        <v>0.09605597117388025</v>
       </c>
       <c r="T42" t="n">
-        <v>0.01837770276074337</v>
+        <v>0.02431817406531179</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01056508621272996</v>
+        <v>0.02497125642456969</v>
       </c>
       <c r="V42" t="n">
-        <v>0.06649631371266176</v>
+        <v>0.09585812267890362</v>
       </c>
       <c r="W42" t="n">
-        <v>0.06605581293411189</v>
+        <v>0.05691181148158754</v>
       </c>
       <c r="X42" t="n">
-        <v>0.09324510973253199</v>
+        <v>0.08960936342701636</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.01843035267400859</v>
+        <v>0.06366083251308005</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.07172338322177055</v>
+        <v>0.06406644810134661</v>
       </c>
       <c r="AA42" t="n">
-        <v>0.07680394677099235</v>
+        <v>0.08933474572766252</v>
       </c>
       <c r="AB42" t="n">
-        <v>0.004566924792936436</v>
+        <v>0.02320179228280785</v>
       </c>
       <c r="AC42" t="n">
-        <v>0.1409771025731819</v>
+        <v>0.143523481285987</v>
       </c>
     </row>
     <row r="43">
@@ -4486,79 +4486,79 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.6410025268352473</v>
+        <v>0.516736532519693</v>
       </c>
       <c r="F43" t="n">
-        <v>0.05138215381816226</v>
+        <v>0.06946463700883901</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01960862790230288</v>
+        <v>0.03536409048218662</v>
       </c>
       <c r="H43" t="n">
-        <v>0.03215077337966561</v>
+        <v>0.002320832785594674</v>
       </c>
       <c r="I43" t="n">
-        <v>0.007990483285300307</v>
+        <v>0.004130387737140209</v>
       </c>
       <c r="J43" t="n">
-        <v>0.1318139274789883</v>
+        <v>0.06552126391122169</v>
       </c>
       <c r="K43" t="n">
-        <v>0.02133172909604142</v>
+        <v>0.01201698277973765</v>
       </c>
       <c r="L43" t="n">
-        <v>0.02906310608816414</v>
+        <v>0.04144436846219397</v>
       </c>
       <c r="M43" t="n">
-        <v>0.1307530966183492</v>
+        <v>0.1079219355977011</v>
       </c>
       <c r="N43" t="n">
-        <v>0.02024017656144426</v>
+        <v>0.01663046561350933</v>
       </c>
       <c r="O43" t="n">
-        <v>0.01352487689175778</v>
+        <v>0.02440417971117541</v>
       </c>
       <c r="P43" t="n">
-        <v>0.03696620666981566</v>
+        <v>0.09410733788430851</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.08328481476341565</v>
+        <v>0.09217350569778705</v>
       </c>
       <c r="R43" t="n">
-        <v>0.030394155293704</v>
+        <v>0.01369609402579345</v>
       </c>
       <c r="S43" t="n">
-        <v>0.0004749519330915045</v>
+        <v>0.03221200726527466</v>
       </c>
       <c r="T43" t="n">
-        <v>0.03396339584053119</v>
+        <v>0.05760081533707963</v>
       </c>
       <c r="U43" t="n">
-        <v>0.02435991407282535</v>
+        <v>0.002301384933463999</v>
       </c>
       <c r="V43" t="n">
-        <v>0.04428082060316565</v>
+        <v>0.03804206739980921</v>
       </c>
       <c r="W43" t="n">
-        <v>0.03352461084637125</v>
+        <v>0.004278715616250099</v>
       </c>
       <c r="X43" t="n">
-        <v>0.04311361941412257</v>
+        <v>0.0484636353127362</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.08927182374416169</v>
+        <v>0.03747308782485136</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.06129307460948222</v>
+        <v>0.106897219970573</v>
       </c>
       <c r="AA43" t="n">
-        <v>0.05385439314845959</v>
+        <v>0.05703583564918695</v>
       </c>
       <c r="AB43" t="n">
-        <v>0.007359267940677486</v>
+        <v>0.03649914899358637</v>
       </c>
       <c r="AC43" t="n">
-        <v>0.1411239637638103</v>
+        <v>0.1416298539810153</v>
       </c>
     </row>
     <row r="44">
@@ -4581,79 +4581,79 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.1944981723951542</v>
+        <v>0.2133000196814956</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06228381567801209</v>
+        <v>0.09172021005998786</v>
       </c>
       <c r="G44" t="n">
-        <v>0.04520984629402592</v>
+        <v>0.02300962725974889</v>
       </c>
       <c r="H44" t="n">
-        <v>0.06449821856005021</v>
+        <v>0.0917311607301815</v>
       </c>
       <c r="I44" t="n">
-        <v>0.008929467170445819</v>
+        <v>0.02813469402796579</v>
       </c>
       <c r="J44" t="n">
-        <v>0.01590307814307857</v>
+        <v>0.005650488163040631</v>
       </c>
       <c r="K44" t="n">
-        <v>0.002113261314271176</v>
+        <v>0.007985345112658691</v>
       </c>
       <c r="L44" t="n">
-        <v>0.0068526369814235</v>
+        <v>0.008883124554678917</v>
       </c>
       <c r="M44" t="n">
-        <v>0.06860812270403313</v>
+        <v>0.04096968728262381</v>
       </c>
       <c r="N44" t="n">
-        <v>0.02021214252243014</v>
+        <v>0.03015072604853431</v>
       </c>
       <c r="O44" t="n">
-        <v>0.05936440924502429</v>
+        <v>0.05187170038426036</v>
       </c>
       <c r="P44" t="n">
-        <v>0.05988987429139862</v>
+        <v>0.004806614163230589</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.08632038244107708</v>
+        <v>0.04493408932346658</v>
       </c>
       <c r="R44" t="n">
-        <v>0.05412849226148645</v>
+        <v>0.0800049916875866</v>
       </c>
       <c r="S44" t="n">
-        <v>0.001045598507733155</v>
+        <v>0.001785880615313014</v>
       </c>
       <c r="T44" t="n">
-        <v>0.06975411030997745</v>
+        <v>0.07452291185456458</v>
       </c>
       <c r="U44" t="n">
-        <v>0.0477851181596468</v>
+        <v>0.03924527360623675</v>
       </c>
       <c r="V44" t="n">
-        <v>0.009221143819572826</v>
+        <v>0.07314775421745272</v>
       </c>
       <c r="W44" t="n">
-        <v>0.01460874916418828</v>
+        <v>0.01431178842424793</v>
       </c>
       <c r="X44" t="n">
-        <v>0.07377169982350119</v>
+        <v>0.04208118580322573</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.004919562204277642</v>
+        <v>0.08415942742674314</v>
       </c>
       <c r="Z44" t="n">
-        <v>0.06208067069581386</v>
+        <v>0.04137901083866698</v>
       </c>
       <c r="AA44" t="n">
-        <v>0.08871003008443869</v>
+        <v>0.07409000442613338</v>
       </c>
       <c r="AB44" t="n">
-        <v>0.07378956962409303</v>
+        <v>0.04542430398945133</v>
       </c>
       <c r="AC44" t="n">
-        <v>-0.005988947169177176</v>
+        <v>0.004278316780011757</v>
       </c>
     </row>
     <row r="45">
@@ -4676,79 +4676,79 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.3257518019292663</v>
+        <v>0.2379671423437318</v>
       </c>
       <c r="F45" t="n">
-        <v>0.007644579774989009</v>
+        <v>0.06067926490213518</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0607760285065212</v>
+        <v>0.05484385507516885</v>
       </c>
       <c r="H45" t="n">
-        <v>0.04397280271177746</v>
+        <v>0.01250790648259357</v>
       </c>
       <c r="I45" t="n">
-        <v>0.06475442898933143</v>
+        <v>0.04956510514322984</v>
       </c>
       <c r="J45" t="n">
-        <v>0.1213901565610416</v>
+        <v>0.02593628499961501</v>
       </c>
       <c r="K45" t="n">
-        <v>0.000591743219979556</v>
+        <v>0.001312802004359351</v>
       </c>
       <c r="L45" t="n">
-        <v>0.05373930241093458</v>
+        <v>0.003229472358635313</v>
       </c>
       <c r="M45" t="n">
-        <v>0.02841924621463155</v>
+        <v>0.0781187734397399</v>
       </c>
       <c r="N45" t="n">
-        <v>0.1146346270819442</v>
+        <v>0.08359060604826678</v>
       </c>
       <c r="O45" t="n">
-        <v>0.01846235822038027</v>
+        <v>0.03982473783098045</v>
       </c>
       <c r="P45" t="n">
-        <v>0.06040060360777712</v>
+        <v>0.07716579351844603</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.03335867589687908</v>
+        <v>0.05726707106879917</v>
       </c>
       <c r="R45" t="n">
-        <v>0.03912860720298048</v>
+        <v>0.05224414511532313</v>
       </c>
       <c r="S45" t="n">
-        <v>0.0006980097941515043</v>
+        <v>0.0005823000468713719</v>
       </c>
       <c r="T45" t="n">
-        <v>0.05339282393969052</v>
+        <v>0.04990993808732339</v>
       </c>
       <c r="U45" t="n">
-        <v>0.003205492760644558</v>
+        <v>0.03320047329951663</v>
       </c>
       <c r="V45" t="n">
-        <v>0.04868842029770062</v>
+        <v>0.07675377698247193</v>
       </c>
       <c r="W45" t="n">
-        <v>0.03254555927002228</v>
+        <v>0.06344797153537536</v>
       </c>
       <c r="X45" t="n">
-        <v>0.01924192470857897</v>
+        <v>0.04456306185273169</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.04178706205740366</v>
+        <v>0.003270615410989857</v>
       </c>
       <c r="Z45" t="n">
-        <v>0.03299458715764165</v>
+        <v>0.002296429053669209</v>
       </c>
       <c r="AA45" t="n">
-        <v>0.04605386711435298</v>
+        <v>0.08332638549536173</v>
       </c>
       <c r="AB45" t="n">
-        <v>0.07411909250064555</v>
+        <v>0.04636323024839614</v>
       </c>
       <c r="AC45" t="n">
-        <v>0.01114119939866815</v>
+        <v>-0.01443886878337824</v>
       </c>
     </row>
     <row r="46">
@@ -4771,79 +4771,79 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.1823129445034198</v>
+        <v>0.1798765626967552</v>
       </c>
       <c r="F46" t="n">
-        <v>0.08940287295596785</v>
+        <v>0.04495186291144911</v>
       </c>
       <c r="G46" t="n">
-        <v>0.07341516914337703</v>
+        <v>0.0705931457784232</v>
       </c>
       <c r="H46" t="n">
-        <v>0.07573467548556985</v>
+        <v>0.05809462456386375</v>
       </c>
       <c r="I46" t="n">
-        <v>0.06124136623085497</v>
+        <v>0.0835924814994229</v>
       </c>
       <c r="J46" t="n">
-        <v>0.008509727406681026</v>
+        <v>0.01133828403921831</v>
       </c>
       <c r="K46" t="n">
-        <v>0.08252025600474808</v>
+        <v>0.03535181659922228</v>
       </c>
       <c r="L46" t="n">
-        <v>0.0001934781570082371</v>
+        <v>0.003877734535214184</v>
       </c>
       <c r="M46" t="n">
-        <v>0.0009690869931646476</v>
+        <v>0.005828248848260738</v>
       </c>
       <c r="N46" t="n">
-        <v>0.004559732003077166</v>
+        <v>0.05417993947921914</v>
       </c>
       <c r="O46" t="n">
-        <v>0.02858247279419298</v>
+        <v>0.08415781759552594</v>
       </c>
       <c r="P46" t="n">
-        <v>0.07265029283311833</v>
+        <v>0.05809520530367297</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.009501175933538821</v>
+        <v>0.0059025649098159</v>
       </c>
       <c r="R46" t="n">
-        <v>0.07697327911233671</v>
+        <v>0.0546813289078358</v>
       </c>
       <c r="S46" t="n">
-        <v>0.05410061664421042</v>
+        <v>0.08685157401764218</v>
       </c>
       <c r="T46" t="n">
-        <v>0.007151628480712803</v>
+        <v>0.0009388523724106159</v>
       </c>
       <c r="U46" t="n">
-        <v>0.001304940338923647</v>
+        <v>0.01568563508639052</v>
       </c>
       <c r="V46" t="n">
-        <v>0.01930135315055787</v>
+        <v>0.00614619028166263</v>
       </c>
       <c r="W46" t="n">
-        <v>0.0956898893071184</v>
+        <v>0.07579413028671356</v>
       </c>
       <c r="X46" t="n">
-        <v>0.0258839247879921</v>
+        <v>0.05918756772462515</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.09440324301103623</v>
+        <v>0.07632830913035615</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.09454077329565128</v>
+        <v>0.06469481481457538</v>
       </c>
       <c r="AA46" t="n">
-        <v>0.01599062585958559</v>
+        <v>0.0305718688937631</v>
       </c>
       <c r="AB46" t="n">
-        <v>0.007379420070576061</v>
+        <v>0.01315600242071665</v>
       </c>
       <c r="AC46" t="n">
-        <v>-0.005286424869530028</v>
+        <v>-0.007487949896170274</v>
       </c>
     </row>
     <row r="47">
@@ -4866,79 +4866,79 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.2204396854721991</v>
+        <v>0.2034842581995374</v>
       </c>
       <c r="F47" t="n">
-        <v>0.02160845940281619</v>
+        <v>0.0593679988084112</v>
       </c>
       <c r="G47" t="n">
-        <v>0.02955924157136411</v>
+        <v>0.002673181232596366</v>
       </c>
       <c r="H47" t="n">
-        <v>0.01025467903763867</v>
+        <v>0.08864895997146803</v>
       </c>
       <c r="I47" t="n">
-        <v>0.07896568686442719</v>
+        <v>0.09141027559512861</v>
       </c>
       <c r="J47" t="n">
-        <v>0.008382608582806993</v>
+        <v>0.01598361052749585</v>
       </c>
       <c r="K47" t="n">
-        <v>0.08159114306828764</v>
+        <v>0.0997721053360721</v>
       </c>
       <c r="L47" t="n">
-        <v>0.02234532467980007</v>
+        <v>0.06327186259585892</v>
       </c>
       <c r="M47" t="n">
-        <v>0.04749404614806185</v>
+        <v>0.03422347231545281</v>
       </c>
       <c r="N47" t="n">
-        <v>0.0001911366459403778</v>
+        <v>0.01940867326487377</v>
       </c>
       <c r="O47" t="n">
-        <v>0.08098100191623933</v>
+        <v>0.09623447072933444</v>
       </c>
       <c r="P47" t="n">
-        <v>0.08727446304455408</v>
+        <v>0.04171905369772454</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.03514029086169722</v>
+        <v>0.01681907827367719</v>
       </c>
       <c r="R47" t="n">
-        <v>0.003612940034670154</v>
+        <v>0.01146550262833119</v>
       </c>
       <c r="S47" t="n">
-        <v>0.085960932701479</v>
+        <v>0.04199924509150892</v>
       </c>
       <c r="T47" t="n">
-        <v>0.007667397811712945</v>
+        <v>0.007454162303695229</v>
       </c>
       <c r="U47" t="n">
-        <v>0.08800752713015286</v>
+        <v>0.03796917884760279</v>
       </c>
       <c r="V47" t="n">
-        <v>0.05600456800508358</v>
+        <v>0.04788664209578623</v>
       </c>
       <c r="W47" t="n">
-        <v>0.0327579876766918</v>
+        <v>0.05509872873288831</v>
       </c>
       <c r="X47" t="n">
-        <v>0.06573957245475191</v>
+        <v>0.08945651467698061</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.02104723622911102</v>
+        <v>0.01582378475817403</v>
       </c>
       <c r="Z47" t="n">
-        <v>0.07474342263570898</v>
+        <v>0.03012611334716316</v>
       </c>
       <c r="AA47" t="n">
-        <v>0.04958109844779549</v>
+        <v>0.01998431405713664</v>
       </c>
       <c r="AB47" t="n">
-        <v>0.01108923504920839</v>
+        <v>0.01320307111263895</v>
       </c>
       <c r="AC47" t="n">
-        <v>-0.002615250901735257</v>
+        <v>-0.02997099399722834</v>
       </c>
     </row>
     <row r="48">
@@ -4961,79 +4961,79 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.1426474951411936</v>
+        <v>0.1476301834154049</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07157619207157515</v>
+        <v>0.06264812223998899</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02078135033283222</v>
+        <v>0.03135442863529703</v>
       </c>
       <c r="H48" t="n">
-        <v>0.08483984379359567</v>
+        <v>0.0732078742214842</v>
       </c>
       <c r="I48" t="n">
-        <v>0.09437580112695605</v>
+        <v>0.0543684358643915</v>
       </c>
       <c r="J48" t="n">
-        <v>0.0218935011288861</v>
+        <v>0.04530788998408108</v>
       </c>
       <c r="K48" t="n">
-        <v>0.0199951719426299</v>
+        <v>0.04531638409818841</v>
       </c>
       <c r="L48" t="n">
-        <v>0.01072897201663411</v>
+        <v>0.05665069296757411</v>
       </c>
       <c r="M48" t="n">
-        <v>0.08472019052380834</v>
+        <v>0.06672557894250006</v>
       </c>
       <c r="N48" t="n">
-        <v>0.02533899869569807</v>
+        <v>0.03173214429901273</v>
       </c>
       <c r="O48" t="n">
-        <v>0.01258449071735469</v>
+        <v>0.02092733566439767</v>
       </c>
       <c r="P48" t="n">
-        <v>0.0303360319920357</v>
+        <v>0.007891641211813641</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.0004709267910014004</v>
+        <v>0.0001539473917122986</v>
       </c>
       <c r="R48" t="n">
-        <v>0.06762375941429283</v>
+        <v>0.08713408023349488</v>
       </c>
       <c r="S48" t="n">
-        <v>0.05998709182194135</v>
+        <v>0.06401571771054471</v>
       </c>
       <c r="T48" t="n">
-        <v>0.09202556233619874</v>
+        <v>0.05804016596577454</v>
       </c>
       <c r="U48" t="n">
-        <v>0.04031250250659684</v>
+        <v>0.008078377249623226</v>
       </c>
       <c r="V48" t="n">
-        <v>0.02975332561005034</v>
+        <v>0.03303434391304635</v>
       </c>
       <c r="W48" t="n">
-        <v>0.004342502409372817</v>
+        <v>0.01657007819346001</v>
       </c>
       <c r="X48" t="n">
-        <v>0.09311863634896568</v>
+        <v>0.05354678207158338</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.01020442878629144</v>
+        <v>0.06764249259053311</v>
       </c>
       <c r="Z48" t="n">
-        <v>0.0772821209938062</v>
+        <v>0.09063420109944179</v>
       </c>
       <c r="AA48" t="n">
-        <v>0.009750047306437245</v>
+        <v>0.009621572714014709</v>
       </c>
       <c r="AB48" t="n">
-        <v>0.03795855133303912</v>
+        <v>0.01539771273804157</v>
       </c>
       <c r="AC48" t="n">
-        <v>0.04898783060084991</v>
+        <v>0.03631718205628851</v>
       </c>
     </row>
     <row r="49">
@@ -5056,79 +5056,79 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.1793762408549877</v>
+        <v>0.1667053744264977</v>
       </c>
       <c r="F49" t="n">
-        <v>0.03036415513786988</v>
+        <v>0.0575023763214477</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02128048828401794</v>
+        <v>0.04112727675500365</v>
       </c>
       <c r="H49" t="n">
-        <v>0.03989181053782593</v>
+        <v>0.04714741690421798</v>
       </c>
       <c r="I49" t="n">
-        <v>0.09177244552906795</v>
+        <v>0.0547045855180724</v>
       </c>
       <c r="J49" t="n">
-        <v>0.006073869658411547</v>
+        <v>0.0596771898378077</v>
       </c>
       <c r="K49" t="n">
-        <v>0.06645719784324131</v>
+        <v>0.05467460091748517</v>
       </c>
       <c r="L49" t="n">
-        <v>0.05615377612650856</v>
+        <v>0.07448773040248637</v>
       </c>
       <c r="M49" t="n">
-        <v>0.08710679382724856</v>
+        <v>0.06988588322345718</v>
       </c>
       <c r="N49" t="n">
-        <v>0.009363753876832781</v>
+        <v>0.009467601530951927</v>
       </c>
       <c r="O49" t="n">
-        <v>0.03091893452899729</v>
+        <v>0.06324395047048431</v>
       </c>
       <c r="P49" t="n">
-        <v>0.07548140473285893</v>
+        <v>0.0749118447428674</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.001981486590166259</v>
+        <v>0.001315092580900327</v>
       </c>
       <c r="R49" t="n">
-        <v>0.04635449758843288</v>
+        <v>0.07442141085149186</v>
       </c>
       <c r="S49" t="n">
-        <v>0.1007241497772448</v>
+        <v>0.004923030291996523</v>
       </c>
       <c r="T49" t="n">
-        <v>0.007434636521732109</v>
+        <v>0.03365423156008088</v>
       </c>
       <c r="U49" t="n">
-        <v>0.05234227040990694</v>
+        <v>0.008738846074911696</v>
       </c>
       <c r="V49" t="n">
-        <v>0.08865720868033668</v>
+        <v>0.07304814499015044</v>
       </c>
       <c r="W49" t="n">
-        <v>0.04273987626332001</v>
+        <v>0.06309047049162297</v>
       </c>
       <c r="X49" t="n">
-        <v>0.06760393094947099</v>
+        <v>0.0249784908835123</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.003148097790616216</v>
+        <v>0.01643862510379782</v>
       </c>
       <c r="Z49" t="n">
-        <v>0.002422699207469842</v>
+        <v>0.02020141598705493</v>
       </c>
       <c r="AA49" t="n">
-        <v>0.02619414996170075</v>
+        <v>0.0600835701322291</v>
       </c>
       <c r="AB49" t="n">
-        <v>0.04553236617672186</v>
+        <v>0.01227621442796943</v>
       </c>
       <c r="AC49" t="n">
-        <v>0.07931305521572928</v>
+        <v>0.05966364319624113</v>
       </c>
     </row>
     <row r="50">
@@ -5151,79 +5151,79 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.1616863169525767</v>
+        <v>0.1647435814115233</v>
       </c>
       <c r="F50" t="n">
-        <v>0.03899393791102541</v>
+        <v>0.08125239518867473</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04150511208114745</v>
+        <v>0.07637407981089342</v>
       </c>
       <c r="H50" t="n">
-        <v>0.08424795600911494</v>
+        <v>0.0340835855950067</v>
       </c>
       <c r="I50" t="n">
-        <v>0.003520297169764086</v>
+        <v>0.01329613481808122</v>
       </c>
       <c r="J50" t="n">
-        <v>0.08633421479967797</v>
+        <v>0.01102272574533514</v>
       </c>
       <c r="K50" t="n">
-        <v>0.03800504434669136</v>
+        <v>0.06087322519374767</v>
       </c>
       <c r="L50" t="n">
-        <v>0.02033180281086145</v>
+        <v>0.06752821548218327</v>
       </c>
       <c r="M50" t="n">
-        <v>0.03892745264173685</v>
+        <v>0.04949072790165676</v>
       </c>
       <c r="N50" t="n">
-        <v>0.02705667452725338</v>
+        <v>0.07717599816960048</v>
       </c>
       <c r="O50" t="n">
-        <v>0.02621989262248263</v>
+        <v>0.008876588854758267</v>
       </c>
       <c r="P50" t="n">
-        <v>0.04455753847994913</v>
+        <v>0.04857629784050877</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.0009958509644577883</v>
+        <v>0.06443304892188673</v>
       </c>
       <c r="R50" t="n">
-        <v>0.0006790703886170045</v>
+        <v>0.0007429295403496207</v>
       </c>
       <c r="S50" t="n">
-        <v>0.02813757507854216</v>
+        <v>0.003713444666916604</v>
       </c>
       <c r="T50" t="n">
-        <v>0.08037450961836136</v>
+        <v>0.02442008216013429</v>
       </c>
       <c r="U50" t="n">
-        <v>0.05638336157555878</v>
+        <v>0.04360433029321319</v>
       </c>
       <c r="V50" t="n">
-        <v>0.04785502424574492</v>
+        <v>0.06124432965653624</v>
       </c>
       <c r="W50" t="n">
-        <v>0.003152195860886962</v>
+        <v>0.003554392800980021</v>
       </c>
       <c r="X50" t="n">
-        <v>0.08819686939771156</v>
+        <v>0.07808963874193026</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.02422174861693527</v>
+        <v>0.0151421594640142</v>
       </c>
       <c r="Z50" t="n">
-        <v>0.0544086788191936</v>
+        <v>0.06483653554776096</v>
       </c>
       <c r="AA50" t="n">
-        <v>0.09517190743255011</v>
+        <v>0.08826321811156074</v>
       </c>
       <c r="AB50" t="n">
-        <v>0.07072328460173571</v>
+        <v>0.02340591549427044</v>
       </c>
       <c r="AC50" t="n">
-        <v>0.1584518777414163</v>
+        <v>0.1477215052010647</v>
       </c>
     </row>
     <row r="51">
@@ -5246,79 +5246,79 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.2546392095994731</v>
+        <v>0.3109993559886838</v>
       </c>
       <c r="F51" t="n">
-        <v>0.03907998581224431</v>
+        <v>0.01683511809449188</v>
       </c>
       <c r="G51" t="n">
-        <v>0.08290853126494624</v>
+        <v>0.02231184763477935</v>
       </c>
       <c r="H51" t="n">
-        <v>0.05265391742286123</v>
+        <v>0.004942412795148173</v>
       </c>
       <c r="I51" t="n">
-        <v>0.008369679218151937</v>
+        <v>0.03705596437837756</v>
       </c>
       <c r="J51" t="n">
-        <v>0.002975678526420902</v>
+        <v>0.01672863719554347</v>
       </c>
       <c r="K51" t="n">
-        <v>0.008148568687975527</v>
+        <v>0.01182233400388546</v>
       </c>
       <c r="L51" t="n">
-        <v>0.06666159553642496</v>
+        <v>0.02788046721132023</v>
       </c>
       <c r="M51" t="n">
-        <v>0.007020974109618987</v>
+        <v>0.09320247100616504</v>
       </c>
       <c r="N51" t="n">
-        <v>0.0241470263477095</v>
+        <v>0.09468171658103622</v>
       </c>
       <c r="O51" t="n">
-        <v>0.02113035406265986</v>
+        <v>0.09284693860522078</v>
       </c>
       <c r="P51" t="n">
-        <v>0.04652684850818115</v>
+        <v>0.1136503598197734</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.06287194985859337</v>
+        <v>0.04384274829632987</v>
       </c>
       <c r="R51" t="n">
-        <v>0.006201110224038516</v>
+        <v>0.02188913530633248</v>
       </c>
       <c r="S51" t="n">
-        <v>0.01829484260351298</v>
+        <v>0.01485793915659618</v>
       </c>
       <c r="T51" t="n">
-        <v>0.04717370801292232</v>
+        <v>0.002724540952844358</v>
       </c>
       <c r="U51" t="n">
-        <v>0.1012178851540207</v>
+        <v>0.1134985437283539</v>
       </c>
       <c r="V51" t="n">
-        <v>0.01233714528831951</v>
+        <v>0.01179359001255765</v>
       </c>
       <c r="W51" t="n">
-        <v>0.09732464974364205</v>
+        <v>0.1214337411631928</v>
       </c>
       <c r="X51" t="n">
-        <v>0.008836409543180676</v>
+        <v>0.0009477136261007175</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.08114481547859741</v>
+        <v>0.01451305080846002</v>
       </c>
       <c r="Z51" t="n">
-        <v>0.08727280115482784</v>
+        <v>0.0001712746298060964</v>
       </c>
       <c r="AA51" t="n">
-        <v>0.01857666092778633</v>
+        <v>0.01250268195292682</v>
       </c>
       <c r="AB51" t="n">
-        <v>0.09912486251336361</v>
+        <v>0.1098667730407574</v>
       </c>
       <c r="AC51" t="n">
-        <v>0.1481014604544856</v>
+        <v>0.172421096467501</v>
       </c>
     </row>
     <row r="52">
@@ -5341,79 +5341,79 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.3792846839759044</v>
+        <v>0.3988171559016219</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09056383454975392</v>
+        <v>0.05494732592620184</v>
       </c>
       <c r="G52" t="n">
-        <v>0.02402836895727795</v>
+        <v>0.001944797099829063</v>
       </c>
       <c r="H52" t="n">
-        <v>0.0392935795850768</v>
+        <v>0.03804295025635318</v>
       </c>
       <c r="I52" t="n">
-        <v>0.002295195679850582</v>
+        <v>0.0963562365310859</v>
       </c>
       <c r="J52" t="n">
-        <v>0.09096675140721026</v>
+        <v>0.05066954576019729</v>
       </c>
       <c r="K52" t="n">
-        <v>0.05787599444143405</v>
+        <v>0.05857572782142126</v>
       </c>
       <c r="L52" t="n">
-        <v>0.02114748376349345</v>
+        <v>0.006041950529084932</v>
       </c>
       <c r="M52" t="n">
-        <v>0.004025035100538765</v>
+        <v>0.001430346351981159</v>
       </c>
       <c r="N52" t="n">
-        <v>0.04308171959660218</v>
+        <v>0.004971048397157935</v>
       </c>
       <c r="O52" t="n">
-        <v>0.04795560336282783</v>
+        <v>0.08830086402353701</v>
       </c>
       <c r="P52" t="n">
-        <v>0.01077404222405688</v>
+        <v>0.008175613374275326</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.01617037099545668</v>
+        <v>0.05829487370157427</v>
       </c>
       <c r="R52" t="n">
-        <v>0.05407688230853962</v>
+        <v>0.05361986346746481</v>
       </c>
       <c r="S52" t="n">
-        <v>0.01830856603639754</v>
+        <v>0.04592626473565863</v>
       </c>
       <c r="T52" t="n">
-        <v>0.0561295481596549</v>
+        <v>0.1022539730176618</v>
       </c>
       <c r="U52" t="n">
-        <v>0.09084841560533927</v>
+        <v>0.01289283805752358</v>
       </c>
       <c r="V52" t="n">
-        <v>0.007332710903226469</v>
+        <v>0.005032587843399257</v>
       </c>
       <c r="W52" t="n">
-        <v>0.0006058384981230012</v>
+        <v>0.005904418680771419</v>
       </c>
       <c r="X52" t="n">
-        <v>0.09439842570086808</v>
+        <v>0.0976070601125161</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.1037800122225501</v>
+        <v>0.05958260581611799</v>
       </c>
       <c r="Z52" t="n">
-        <v>0.07156187273788174</v>
+        <v>0.0537019999623365</v>
       </c>
       <c r="AA52" t="n">
-        <v>0.04887015662248862</v>
+        <v>0.08582474857772665</v>
       </c>
       <c r="AB52" t="n">
-        <v>0.005909591541351488</v>
+        <v>0.009902359956124202</v>
       </c>
       <c r="AC52" t="n">
-        <v>-0.1929942609715967</v>
+        <v>-0.1686432639670065</v>
       </c>
     </row>
     <row r="53">
@@ -5436,79 +5436,79 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.6660807397679922</v>
+        <v>1.115837492353913</v>
       </c>
       <c r="F53" t="n">
-        <v>0.09206605266175213</v>
+        <v>0.01819122472292821</v>
       </c>
       <c r="G53" t="n">
-        <v>0.009297948377302447</v>
+        <v>0.0009694070510876815</v>
       </c>
       <c r="H53" t="n">
-        <v>0.01876073793453231</v>
+        <v>0.004918425175785125</v>
       </c>
       <c r="I53" t="n">
-        <v>0.09419932715875502</v>
+        <v>0.09883310778427822</v>
       </c>
       <c r="J53" t="n">
-        <v>0.0757882752718423</v>
+        <v>0.07939605711437475</v>
       </c>
       <c r="K53" t="n">
-        <v>0.04312192897878138</v>
+        <v>0.007799315610650722</v>
       </c>
       <c r="L53" t="n">
-        <v>0.01692734554973366</v>
+        <v>0.03530454684500155</v>
       </c>
       <c r="M53" t="n">
-        <v>0.009199294574813615</v>
+        <v>0.06694334496352047</v>
       </c>
       <c r="N53" t="n">
-        <v>0.02228897678633819</v>
+        <v>0.02422426099991779</v>
       </c>
       <c r="O53" t="n">
-        <v>0.04005862890322977</v>
+        <v>0.01539515936092714</v>
       </c>
       <c r="P53" t="n">
-        <v>0.105419506951511</v>
+        <v>0.1096256110418764</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.06824854266192369</v>
+        <v>0.02381712716403668</v>
       </c>
       <c r="R53" t="n">
-        <v>0.111788963526403</v>
+        <v>0.09225688290696024</v>
       </c>
       <c r="S53" t="n">
-        <v>0.006408393427525312</v>
+        <v>0.1023281664564821</v>
       </c>
       <c r="T53" t="n">
-        <v>0.02112010738048718</v>
+        <v>0.06146709431667172</v>
       </c>
       <c r="U53" t="n">
-        <v>0.03576144844883215</v>
+        <v>0.06208338623570417</v>
       </c>
       <c r="V53" t="n">
-        <v>3.883208552897295e-05</v>
+        <v>0.001525368636851403</v>
       </c>
       <c r="W53" t="n">
-        <v>0.03906417291162465</v>
+        <v>0.08334460897178529</v>
       </c>
       <c r="X53" t="n">
-        <v>0.02195538996850084</v>
+        <v>0.001502182062678395</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.03577166558312733</v>
+        <v>0.00602744401889671</v>
       </c>
       <c r="Z53" t="n">
-        <v>0.08649350357806143</v>
+        <v>0.04468763881493824</v>
       </c>
       <c r="AA53" t="n">
-        <v>0.02839137214771221</v>
+        <v>0.007835475556249801</v>
       </c>
       <c r="AB53" t="n">
-        <v>0.01782958513168128</v>
+        <v>0.05152416418839718</v>
       </c>
       <c r="AC53" t="n">
-        <v>-0.1822104374352929</v>
+        <v>-0.1317493171948181</v>
       </c>
     </row>
     <row r="54">
@@ -5531,79 +5531,79 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.1732017501147524</v>
+        <v>0.1749070979960163</v>
       </c>
       <c r="F54" t="n">
-        <v>0.05538798555657549</v>
+        <v>0.008292114885615091</v>
       </c>
       <c r="G54" t="n">
-        <v>0.08020680939187975</v>
+        <v>0.07898351158916908</v>
       </c>
       <c r="H54" t="n">
-        <v>0.04721450444531235</v>
+        <v>0.08347050037910621</v>
       </c>
       <c r="I54" t="n">
-        <v>0.01178604734675019</v>
+        <v>0.06778811377647954</v>
       </c>
       <c r="J54" t="n">
-        <v>0.01635481572518371</v>
+        <v>0.01402640218918891</v>
       </c>
       <c r="K54" t="n">
-        <v>0.04024832615527756</v>
+        <v>0.01171827589730732</v>
       </c>
       <c r="L54" t="n">
-        <v>0.05981548732075627</v>
+        <v>0.04139381125668838</v>
       </c>
       <c r="M54" t="n">
-        <v>0.05369130287818041</v>
+        <v>0.08153982294453153</v>
       </c>
       <c r="N54" t="n">
-        <v>0.01678539705033241</v>
+        <v>0.001711664821724219</v>
       </c>
       <c r="O54" t="n">
-        <v>0.03224404636338272</v>
+        <v>0.0474805532620397</v>
       </c>
       <c r="P54" t="n">
-        <v>0.07943854618943133</v>
+        <v>0.02559835346521848</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.05961345413554855</v>
+        <v>0.0651636738309246</v>
       </c>
       <c r="R54" t="n">
-        <v>0.04622144426948613</v>
+        <v>0.05576912551066027</v>
       </c>
       <c r="S54" t="n">
-        <v>0.08192095264294443</v>
+        <v>0.03384154312520272</v>
       </c>
       <c r="T54" t="n">
-        <v>0.007491954450739319</v>
+        <v>0.01200733945980264</v>
       </c>
       <c r="U54" t="n">
-        <v>0.06837365814391327</v>
+        <v>0.06631971270622801</v>
       </c>
       <c r="V54" t="n">
-        <v>0.06887662877267152</v>
+        <v>0.04613147719950959</v>
       </c>
       <c r="W54" t="n">
-        <v>0.009950090737583191</v>
+        <v>0.03984208124906786</v>
       </c>
       <c r="X54" t="n">
-        <v>0.04245232007175519</v>
+        <v>0.05631252399195531</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.01502391458894182</v>
+        <v>0.007587763890066973</v>
       </c>
       <c r="Z54" t="n">
-        <v>0.03978503456197776</v>
+        <v>0.07570149581308416</v>
       </c>
       <c r="AA54" t="n">
-        <v>0.02937342834178162</v>
+        <v>0.0643283910195267</v>
       </c>
       <c r="AB54" t="n">
-        <v>0.03774385085959508</v>
+        <v>0.01499174773690281</v>
       </c>
       <c r="AC54" t="n">
-        <v>0.1069727187909158</v>
+        <v>0.09058584982275487</v>
       </c>
     </row>
     <row r="55">
@@ -5626,79 +5626,79 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.2243512074177856</v>
+        <v>0.2070530941457587</v>
       </c>
       <c r="F55" t="n">
-        <v>0.01501797912773033</v>
+        <v>0.06834344721375178</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1010558401704548</v>
+        <v>0.08167275467241156</v>
       </c>
       <c r="H55" t="n">
-        <v>0.008397595841227597</v>
+        <v>0.02097534388268351</v>
       </c>
       <c r="I55" t="n">
-        <v>0.1124757777300856</v>
+        <v>0.09180151894938393</v>
       </c>
       <c r="J55" t="n">
-        <v>0.05335125546968068</v>
+        <v>0.01072363607892908</v>
       </c>
       <c r="K55" t="n">
-        <v>0.03923452856878139</v>
+        <v>0.04633787154849528</v>
       </c>
       <c r="L55" t="n">
-        <v>0.002439096593183478</v>
+        <v>0.07972262998995576</v>
       </c>
       <c r="M55" t="n">
-        <v>0.02044155417905029</v>
+        <v>0.07438830284007605</v>
       </c>
       <c r="N55" t="n">
-        <v>0.007761719656525523</v>
+        <v>0.01344610772004127</v>
       </c>
       <c r="O55" t="n">
-        <v>0.07149236115555199</v>
+        <v>0.01859150992736094</v>
       </c>
       <c r="P55" t="n">
-        <v>0.1268829121381849</v>
+        <v>0.02903146831288898</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.03257975728247402</v>
+        <v>0.0149118130957484</v>
       </c>
       <c r="R55" t="n">
-        <v>0.02262428289673979</v>
+        <v>0.08409100655457108</v>
       </c>
       <c r="S55" t="n">
-        <v>0.0385824959156031</v>
+        <v>0.000427396145022737</v>
       </c>
       <c r="T55" t="n">
-        <v>0.0290773282601569</v>
+        <v>0.01628079905016339</v>
       </c>
       <c r="U55" t="n">
-        <v>0.01122918920498321</v>
+        <v>0.08412522665710299</v>
       </c>
       <c r="V55" t="n">
-        <v>0.06894808060755157</v>
+        <v>0.01513080569747932</v>
       </c>
       <c r="W55" t="n">
-        <v>0.1343490968456068</v>
+        <v>0.09673746159671351</v>
       </c>
       <c r="X55" t="n">
-        <v>0.0393994069344696</v>
+        <v>0.08747899090785795</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.007976130002582944</v>
+        <v>0.02415214750213689</v>
       </c>
       <c r="Z55" t="n">
-        <v>0.01264378136383209</v>
+        <v>0.02791714227625947</v>
       </c>
       <c r="AA55" t="n">
-        <v>0.00416531287002281</v>
+        <v>0.004494903897288603</v>
       </c>
       <c r="AB55" t="n">
-        <v>0.03987451718552058</v>
+        <v>0.009217715483677297</v>
       </c>
       <c r="AC55" t="n">
-        <v>0.100832555388634</v>
+        <v>0.1089275019187739</v>
       </c>
     </row>
     <row r="56">
@@ -5721,79 +5721,79 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0.1861196066001436</v>
+        <v>0.1911419471896348</v>
       </c>
       <c r="F56" t="n">
-        <v>0.06206217123607525</v>
+        <v>0.0714932851389551</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04300215376703439</v>
+        <v>0.05459180852216347</v>
       </c>
       <c r="H56" t="n">
-        <v>0.08272158783602689</v>
+        <v>0.06164731053793635</v>
       </c>
       <c r="I56" t="n">
-        <v>0.061783723499247</v>
+        <v>0.02990953316122299</v>
       </c>
       <c r="J56" t="n">
-        <v>0.003096508916248181</v>
+        <v>0.05482346253793377</v>
       </c>
       <c r="K56" t="n">
-        <v>0.00834993360612224</v>
+        <v>0.003062474409591501</v>
       </c>
       <c r="L56" t="n">
-        <v>0.03447856900494825</v>
+        <v>0.005057851450306024</v>
       </c>
       <c r="M56" t="n">
-        <v>0.0009113774203688376</v>
+        <v>0.01107660652924104</v>
       </c>
       <c r="N56" t="n">
-        <v>0.03505542308903659</v>
+        <v>0.03882142440426548</v>
       </c>
       <c r="O56" t="n">
-        <v>0.03239928032324857</v>
+        <v>0.07005395945059889</v>
       </c>
       <c r="P56" t="n">
-        <v>0.003207546415467364</v>
+        <v>0.02490353524208337</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.05838795972244255</v>
+        <v>0.06475403230489699</v>
       </c>
       <c r="R56" t="n">
-        <v>0.08725827399315039</v>
+        <v>0.05411583404680382</v>
       </c>
       <c r="S56" t="n">
-        <v>0.03410470009338547</v>
+        <v>0.08123247938148392</v>
       </c>
       <c r="T56" t="n">
-        <v>0.03806632287598856</v>
+        <v>0.03187678650274142</v>
       </c>
       <c r="U56" t="n">
-        <v>0.08962222237405103</v>
+        <v>0.07340209445780889</v>
       </c>
       <c r="V56" t="n">
-        <v>0.02792575580926438</v>
+        <v>0.01645782711415433</v>
       </c>
       <c r="W56" t="n">
-        <v>0.03790002150461295</v>
+        <v>0.06603369215837269</v>
       </c>
       <c r="X56" t="n">
-        <v>0.08597571216551311</v>
+        <v>0.06709708183109994</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.05791462976638673</v>
+        <v>0.03594507938664025</v>
       </c>
       <c r="Z56" t="n">
-        <v>0.01951483173072252</v>
+        <v>0.00398690760233894</v>
       </c>
       <c r="AA56" t="n">
-        <v>0.03744736037733667</v>
+        <v>0.06286061571190471</v>
       </c>
       <c r="AB56" t="n">
-        <v>0.0588139344733221</v>
+        <v>0.01679631811745611</v>
       </c>
       <c r="AC56" t="n">
-        <v>0.004923632021493431</v>
+        <v>0.004812471240225346</v>
       </c>
     </row>
     <row r="57">
@@ -5816,79 +5816,79 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.3578231133409683</v>
+        <v>0.3590396385719408</v>
       </c>
       <c r="F57" t="n">
-        <v>0.08631878024012785</v>
+        <v>0.1184057290664361</v>
       </c>
       <c r="G57" t="n">
-        <v>0.05691754033194814</v>
+        <v>0.003373344922648914</v>
       </c>
       <c r="H57" t="n">
-        <v>0.0545765392731162</v>
+        <v>0.0002685777011484417</v>
       </c>
       <c r="I57" t="n">
-        <v>0.07250319339706927</v>
+        <v>0.02073954039266312</v>
       </c>
       <c r="J57" t="n">
-        <v>0.04565224091112289</v>
+        <v>0.09181375223689367</v>
       </c>
       <c r="K57" t="n">
-        <v>0.1022855099432662</v>
+        <v>0.09296712026543588</v>
       </c>
       <c r="L57" t="n">
-        <v>0.01436291630790702</v>
+        <v>0.1077911382362489</v>
       </c>
       <c r="M57" t="n">
-        <v>0.02020094108929799</v>
+        <v>0.0437170458138618</v>
       </c>
       <c r="N57" t="n">
-        <v>0.01155344599652457</v>
+        <v>0.01623472964468929</v>
       </c>
       <c r="O57" t="n">
-        <v>0.01343642882153209</v>
+        <v>0.01135269941283285</v>
       </c>
       <c r="P57" t="n">
-        <v>0.06606149745019527</v>
+        <v>0.0387933419908466</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.03962502670703169</v>
+        <v>0.01667466890060786</v>
       </c>
       <c r="R57" t="n">
-        <v>0.08718540870979652</v>
+        <v>0.09605483521485296</v>
       </c>
       <c r="S57" t="n">
-        <v>0.01804721039643875</v>
+        <v>0.01006582329622409</v>
       </c>
       <c r="T57" t="n">
-        <v>0.01332560871077982</v>
+        <v>0.00061561497575791</v>
       </c>
       <c r="U57" t="n">
-        <v>0.09488178768030059</v>
+        <v>0.04240092031085188</v>
       </c>
       <c r="V57" t="n">
-        <v>0.01251191059402519</v>
+        <v>0.07244979295318735</v>
       </c>
       <c r="W57" t="n">
-        <v>0.07609692969405149</v>
+        <v>0.05223191387233902</v>
       </c>
       <c r="X57" t="n">
-        <v>0.05785102652391227</v>
+        <v>0.09611564197318259</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.0100767422058203</v>
+        <v>0.007065268411167595</v>
       </c>
       <c r="Z57" t="n">
-        <v>0.02474082473503367</v>
+        <v>0.04537798081788844</v>
       </c>
       <c r="AA57" t="n">
-        <v>0.0005553413410197761</v>
+        <v>0.01181995261999655</v>
       </c>
       <c r="AB57" t="n">
-        <v>0.02123314893968235</v>
+        <v>0.003670566970237949</v>
       </c>
       <c r="AC57" t="n">
-        <v>-0.01630037575706811</v>
+        <v>-0.03797900105718639</v>
       </c>
     </row>
     <row r="58">
@@ -5911,79 +5911,79 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>0.2028408421548664</v>
+        <v>0.2016319521656291</v>
       </c>
       <c r="F58" t="n">
-        <v>0.001602020391271379</v>
+        <v>0.001465609806863712</v>
       </c>
       <c r="G58" t="n">
-        <v>0.05145132398288706</v>
+        <v>0.05628739021915955</v>
       </c>
       <c r="H58" t="n">
-        <v>0.08264975367822285</v>
+        <v>0.07036925923802183</v>
       </c>
       <c r="I58" t="n">
-        <v>0.02092992505673416</v>
+        <v>0.06989104918288754</v>
       </c>
       <c r="J58" t="n">
-        <v>0.07178627666995491</v>
+        <v>0.01748046083530414</v>
       </c>
       <c r="K58" t="n">
-        <v>0.06244321211244227</v>
+        <v>0.05095225136731839</v>
       </c>
       <c r="L58" t="n">
-        <v>0.02871345583901202</v>
+        <v>0.06527627009592062</v>
       </c>
       <c r="M58" t="n">
-        <v>0.06795896472060428</v>
+        <v>0.07259037372794189</v>
       </c>
       <c r="N58" t="n">
-        <v>0.03887424191402711</v>
+        <v>0.002180196479578774</v>
       </c>
       <c r="O58" t="n">
-        <v>0.07565680898672782</v>
+        <v>0.07266486393252428</v>
       </c>
       <c r="P58" t="n">
-        <v>0.01297466050896078</v>
+        <v>0.01315899981441996</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.05479385861276335</v>
+        <v>0.02627437002342579</v>
       </c>
       <c r="R58" t="n">
-        <v>0.05420696994946531</v>
+        <v>0.01353315392420031</v>
       </c>
       <c r="S58" t="n">
-        <v>0.01752904570074563</v>
+        <v>0.03224296298938611</v>
       </c>
       <c r="T58" t="n">
-        <v>0.01351615391888602</v>
+        <v>0.005962454484109928</v>
       </c>
       <c r="U58" t="n">
-        <v>0.07046050440967973</v>
+        <v>0.05671863954205048</v>
       </c>
       <c r="V58" t="n">
-        <v>0.0382939276756212</v>
+        <v>0.0548732804794315</v>
       </c>
       <c r="W58" t="n">
-        <v>0.07293625903332396</v>
+        <v>0.07449215053135098</v>
       </c>
       <c r="X58" t="n">
-        <v>0.05011907277913899</v>
+        <v>0.07481793216730649</v>
       </c>
       <c r="Y58" t="n">
-        <v>0.01532063701070245</v>
+        <v>0.04867279796832852</v>
       </c>
       <c r="Z58" t="n">
-        <v>0.02183284077241608</v>
+        <v>0.07376603027315358</v>
       </c>
       <c r="AA58" t="n">
-        <v>0.05760527463621419</v>
+        <v>0.03366886013000881</v>
       </c>
       <c r="AB58" t="n">
-        <v>0.01834481164019848</v>
+        <v>0.01266064278730704</v>
       </c>
       <c r="AC58" t="n">
-        <v>0.02824676148257806</v>
+        <v>0.04343918477082789</v>
       </c>
     </row>
     <row r="59">
@@ -6006,79 +6006,79 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>1.273463472595254</v>
+        <v>0.3222791729281901</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09379473357430534</v>
+        <v>0.02080556840034753</v>
       </c>
       <c r="G59" t="n">
-        <v>0.1070613239946337</v>
+        <v>0.03989780137398138</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1106262233214851</v>
+        <v>0.1055565089028909</v>
       </c>
       <c r="I59" t="n">
-        <v>0.007039021287494845</v>
+        <v>0.009171534552676329</v>
       </c>
       <c r="J59" t="n">
-        <v>0.03114645895126304</v>
+        <v>0.002262277081717413</v>
       </c>
       <c r="K59" t="n">
-        <v>0.0435695176378469</v>
+        <v>0.03185327358767517</v>
       </c>
       <c r="L59" t="n">
-        <v>0.00697704687473188</v>
+        <v>0.02869003529078084</v>
       </c>
       <c r="M59" t="n">
-        <v>0.1064713984189307</v>
+        <v>0.05711396897234723</v>
       </c>
       <c r="N59" t="n">
-        <v>0.0008133068996424585</v>
+        <v>0.008307897029443444</v>
       </c>
       <c r="O59" t="n">
-        <v>0.03069893655840929</v>
+        <v>0.05122223097249601</v>
       </c>
       <c r="P59" t="n">
-        <v>0.002381691362371054</v>
+        <v>0.09544627325686272</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.004483584197194622</v>
+        <v>0.04118337586915345</v>
       </c>
       <c r="R59" t="n">
-        <v>0.006299012280595647</v>
+        <v>0.0006022736587124678</v>
       </c>
       <c r="S59" t="n">
-        <v>0.09058019832305687</v>
+        <v>0.03444734309021283</v>
       </c>
       <c r="T59" t="n">
-        <v>0.04219008444741544</v>
+        <v>0.00929531148702371</v>
       </c>
       <c r="U59" t="n">
-        <v>0.07894831277517642</v>
+        <v>0.08885887071774549</v>
       </c>
       <c r="V59" t="n">
-        <v>0.09663489639577275</v>
+        <v>0.1157300846739718</v>
       </c>
       <c r="W59" t="n">
-        <v>0.02177681410503498</v>
+        <v>0.007227670643060635</v>
       </c>
       <c r="X59" t="n">
-        <v>0.007788631739089157</v>
+        <v>0.02878448445376711</v>
       </c>
       <c r="Y59" t="n">
-        <v>0.01693945644375232</v>
+        <v>0.02123595873043838</v>
       </c>
       <c r="Z59" t="n">
-        <v>0.04784097463231006</v>
+        <v>0.08369367938446259</v>
       </c>
       <c r="AA59" t="n">
-        <v>0.04389610194685251</v>
+        <v>0.09945104236146192</v>
       </c>
       <c r="AB59" t="n">
-        <v>0.002042273832634983</v>
+        <v>0.01916253550877041</v>
       </c>
       <c r="AC59" t="n">
-        <v>0.0655265927162898</v>
+        <v>0.06198573640409088</v>
       </c>
     </row>
     <row r="60">
@@ -6101,79 +6101,79 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>0.2267710463977448</v>
+        <v>0.2326542265422616</v>
       </c>
       <c r="F60" t="n">
-        <v>0.003791492542803093</v>
+        <v>0.005753173113807085</v>
       </c>
       <c r="G60" t="n">
-        <v>0.01582063464026092</v>
+        <v>0.006494589442421207</v>
       </c>
       <c r="H60" t="n">
-        <v>0.08526569725246569</v>
+        <v>0.0508922215096725</v>
       </c>
       <c r="I60" t="n">
-        <v>0.08479951672211347</v>
+        <v>0.04391920860543529</v>
       </c>
       <c r="J60" t="n">
-        <v>0.08562622885792091</v>
+        <v>0.007939086483875655</v>
       </c>
       <c r="K60" t="n">
-        <v>0.02697340521228304</v>
+        <v>0.0601430311313965</v>
       </c>
       <c r="L60" t="n">
-        <v>0.009365836144425264</v>
+        <v>0.06589276639207138</v>
       </c>
       <c r="M60" t="n">
-        <v>0.08437963306014529</v>
+        <v>0.08603748687129555</v>
       </c>
       <c r="N60" t="n">
-        <v>0.02263283941318552</v>
+        <v>0.01347133919913203</v>
       </c>
       <c r="O60" t="n">
-        <v>0.03511068024637985</v>
+        <v>0.01847771564900709</v>
       </c>
       <c r="P60" t="n">
-        <v>0.01360558139232206</v>
+        <v>0.08742598897854577</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.06043866455053677</v>
+        <v>0.07198294183505805</v>
       </c>
       <c r="R60" t="n">
-        <v>0.0208487954449863</v>
+        <v>0.00988662759149268</v>
       </c>
       <c r="S60" t="n">
-        <v>0.06168632996522379</v>
+        <v>0.06697924120359228</v>
       </c>
       <c r="T60" t="n">
-        <v>0.03484847446120901</v>
+        <v>0.04235560677547955</v>
       </c>
       <c r="U60" t="n">
-        <v>0.04773850635866225</v>
+        <v>0.04740070595665914</v>
       </c>
       <c r="V60" t="n">
-        <v>0.01780884015301944</v>
+        <v>0.0132962813130655</v>
       </c>
       <c r="W60" t="n">
-        <v>0.08367203271744487</v>
+        <v>0.08230513272023858</v>
       </c>
       <c r="X60" t="n">
-        <v>0.08891732440467122</v>
+        <v>0.09031093169753697</v>
       </c>
       <c r="Y60" t="n">
-        <v>0.04027396467766518</v>
+        <v>0.00464652858598304</v>
       </c>
       <c r="Z60" t="n">
-        <v>0.01115224198149592</v>
+        <v>0.03311941422372717</v>
       </c>
       <c r="AA60" t="n">
-        <v>0.06394623344041482</v>
+        <v>0.03891703527810194</v>
       </c>
       <c r="AB60" t="n">
-        <v>0.001297046360365176</v>
+        <v>0.05235294544240518</v>
       </c>
       <c r="AC60" t="n">
-        <v>0.07130899358934917</v>
+        <v>0.06911924485010899</v>
       </c>
     </row>
     <row r="61">
@@ -6196,79 +6196,79 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>0.2686642427227636</v>
+        <v>0.2921581154985051</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0001465672639245996</v>
+        <v>0.005409811015911004</v>
       </c>
       <c r="G61" t="n">
-        <v>0.01394203707379832</v>
+        <v>0.04379684903957554</v>
       </c>
       <c r="H61" t="n">
-        <v>0.007497555024036807</v>
+        <v>0.01844580954527076</v>
       </c>
       <c r="I61" t="n">
-        <v>0.02500070313941545</v>
+        <v>0.02054730709395466</v>
       </c>
       <c r="J61" t="n">
-        <v>0.01287134446417163</v>
+        <v>0.06379385752728398</v>
       </c>
       <c r="K61" t="n">
-        <v>0.01224717838167769</v>
+        <v>0.1113637263434375</v>
       </c>
       <c r="L61" t="n">
-        <v>0.08996077258945798</v>
+        <v>0.02885968666010475</v>
       </c>
       <c r="M61" t="n">
-        <v>0.07498756724024376</v>
+        <v>0.02716385934368157</v>
       </c>
       <c r="N61" t="n">
-        <v>0.07592310984965925</v>
+        <v>0.004982267642223846</v>
       </c>
       <c r="O61" t="n">
-        <v>0.009490513985532549</v>
+        <v>0.01508820547300324</v>
       </c>
       <c r="P61" t="n">
-        <v>0.05059775377331626</v>
+        <v>0.003863699094186705</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.07926720377914583</v>
+        <v>0.0691712711456362</v>
       </c>
       <c r="R61" t="n">
-        <v>0.002719813965106006</v>
+        <v>0.01394775515676719</v>
       </c>
       <c r="S61" t="n">
-        <v>0.03867106744677999</v>
+        <v>0.07194203442943814</v>
       </c>
       <c r="T61" t="n">
-        <v>0.1003443981738573</v>
+        <v>0.00810745424189842</v>
       </c>
       <c r="U61" t="n">
-        <v>0.09777945244044788</v>
+        <v>0.09647700925791104</v>
       </c>
       <c r="V61" t="n">
-        <v>0.1087483940714881</v>
+        <v>0.11424343379429</v>
       </c>
       <c r="W61" t="n">
-        <v>0.02418949993307401</v>
+        <v>0.02769499536225743</v>
       </c>
       <c r="X61" t="n">
-        <v>0.06113172141099533</v>
+        <v>0.04588679134832167</v>
       </c>
       <c r="Y61" t="n">
-        <v>0.003229021015721891</v>
+        <v>0.02728159376526985</v>
       </c>
       <c r="Z61" t="n">
-        <v>0.001414477214422323</v>
+        <v>0.02234025129135157</v>
       </c>
       <c r="AA61" t="n">
-        <v>0.1080557688434958</v>
+        <v>0.1028846939523502</v>
       </c>
       <c r="AB61" t="n">
-        <v>0.00178407892023119</v>
+        <v>0.0567076374758747</v>
       </c>
       <c r="AC61" t="n">
-        <v>0.07980826136044668</v>
+        <v>0.05555100145432924</v>
       </c>
     </row>
     <row r="62">
@@ -6291,79 +6291,79 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>0.2181427199439663</v>
+        <v>0.2180660668450117</v>
       </c>
       <c r="F62" t="n">
-        <v>0.008608335495325262</v>
+        <v>0.0131955831700368</v>
       </c>
       <c r="G62" t="n">
-        <v>0.06706810766037412</v>
+        <v>0.03599175143061097</v>
       </c>
       <c r="H62" t="n">
-        <v>0.003022276120305785</v>
+        <v>0.03795747520797841</v>
       </c>
       <c r="I62" t="n">
-        <v>0.05505194690111411</v>
+        <v>0.005278145867876521</v>
       </c>
       <c r="J62" t="n">
-        <v>0.03628086628491569</v>
+        <v>0.00254645096633092</v>
       </c>
       <c r="K62" t="n">
-        <v>0.09383742590436929</v>
+        <v>0.01684125513701272</v>
       </c>
       <c r="L62" t="n">
-        <v>0.06219322214333597</v>
+        <v>0.08532707218953869</v>
       </c>
       <c r="M62" t="n">
-        <v>0.04778591880469962</v>
+        <v>0.08954849746227093</v>
       </c>
       <c r="N62" t="n">
-        <v>0.01761442355066023</v>
+        <v>0.01123239108274761</v>
       </c>
       <c r="O62" t="n">
-        <v>0.01362316383116636</v>
+        <v>0.006541670598852335</v>
       </c>
       <c r="P62" t="n">
-        <v>0.0809557155265281</v>
+        <v>0.03786859382781795</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.02836031722640712</v>
+        <v>0.08850486302730819</v>
       </c>
       <c r="R62" t="n">
-        <v>0.01419205773402365</v>
+        <v>0.0905374189580245</v>
       </c>
       <c r="S62" t="n">
-        <v>0.04544983465835242</v>
+        <v>0.09197758812870323</v>
       </c>
       <c r="T62" t="n">
-        <v>0.03233430858186613</v>
+        <v>0.01159211553479352</v>
       </c>
       <c r="U62" t="n">
-        <v>0.06956963438188213</v>
+        <v>0.06163313130247815</v>
       </c>
       <c r="V62" t="n">
-        <v>0.004768360430946277</v>
+        <v>0.005248477544290445</v>
       </c>
       <c r="W62" t="n">
-        <v>0.05672875563383075</v>
+        <v>0.0530487788855469</v>
       </c>
       <c r="X62" t="n">
-        <v>0.06980847010394969</v>
+        <v>0.0356000578651061</v>
       </c>
       <c r="Y62" t="n">
-        <v>0.02249249809094729</v>
+        <v>0.04212838208608381</v>
       </c>
       <c r="Z62" t="n">
-        <v>0.07043413323661842</v>
+        <v>0.08892194130036177</v>
       </c>
       <c r="AA62" t="n">
-        <v>0.08609369745118933</v>
+        <v>0.0833181602566469</v>
       </c>
       <c r="AB62" t="n">
-        <v>0.01372653024719225</v>
+        <v>0.005160198169582861</v>
       </c>
       <c r="AC62" t="n">
-        <v>0.05843377121074094</v>
+        <v>0.05800430210312708</v>
       </c>
     </row>
     <row r="63">
@@ -6386,79 +6386,79 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>0.2786302318127957</v>
+        <v>0.3248326255972837</v>
       </c>
       <c r="F63" t="n">
-        <v>0.05402389986739187</v>
+        <v>0.113418845423026</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04002961629112824</v>
+        <v>0.0006793911986712831</v>
       </c>
       <c r="H63" t="n">
-        <v>0.02092184491710079</v>
+        <v>0.01846513534346845</v>
       </c>
       <c r="I63" t="n">
-        <v>0.001703250616965051</v>
+        <v>0.03955628977331686</v>
       </c>
       <c r="J63" t="n">
-        <v>0.04235706947316364</v>
+        <v>0.04287854914103568</v>
       </c>
       <c r="K63" t="n">
-        <v>0.02262307303540705</v>
+        <v>0.07965608414537026</v>
       </c>
       <c r="L63" t="n">
-        <v>0.007248117956988645</v>
+        <v>0.04716023197116612</v>
       </c>
       <c r="M63" t="n">
-        <v>0.07117838922320857</v>
+        <v>0.03575435467638037</v>
       </c>
       <c r="N63" t="n">
-        <v>0.007161691463005257</v>
+        <v>0.001928777894948775</v>
       </c>
       <c r="O63" t="n">
-        <v>0.1134845566839767</v>
+        <v>0.1152720247925341</v>
       </c>
       <c r="P63" t="n">
-        <v>0.00106759443919402</v>
+        <v>0.05418376149451661</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.02427055692317335</v>
+        <v>0.009710752962535013</v>
       </c>
       <c r="R63" t="n">
-        <v>0.06816316752863877</v>
+        <v>0.08127403920147115</v>
       </c>
       <c r="S63" t="n">
-        <v>0.07894983313008137</v>
+        <v>0.03944190476944868</v>
       </c>
       <c r="T63" t="n">
-        <v>0.03888796866478132</v>
+        <v>0.07140484808767593</v>
       </c>
       <c r="U63" t="n">
-        <v>0.01748583608674574</v>
+        <v>0.01371419944598445</v>
       </c>
       <c r="V63" t="n">
-        <v>0.02763910503103076</v>
+        <v>0.0760637870095814</v>
       </c>
       <c r="W63" t="n">
-        <v>0.07613390241022833</v>
+        <v>0.05360687168252118</v>
       </c>
       <c r="X63" t="n">
-        <v>0.05355894193141272</v>
+        <v>0.03233807388261937</v>
       </c>
       <c r="Y63" t="n">
-        <v>0.03232053405394142</v>
+        <v>0.01970486855667205</v>
       </c>
       <c r="Z63" t="n">
-        <v>0.08637024505449782</v>
+        <v>0.01708683270993909</v>
       </c>
       <c r="AA63" t="n">
-        <v>0.1116319584938393</v>
+        <v>0.00498973443245735</v>
       </c>
       <c r="AB63" t="n">
-        <v>0.00278884672409945</v>
+        <v>0.03171064140465995</v>
       </c>
       <c r="AC63" t="n">
-        <v>0.0680399440531255</v>
+        <v>0.06075397396511949</v>
       </c>
     </row>
     <row r="64">
@@ -6481,79 +6481,79 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>0.2236570704720996</v>
+        <v>0.2220073966143828</v>
       </c>
       <c r="F64" t="n">
-        <v>0.006068853974963889</v>
+        <v>0.08629919445622822</v>
       </c>
       <c r="G64" t="n">
-        <v>0.07222988108926374</v>
+        <v>0.01512347240469016</v>
       </c>
       <c r="H64" t="n">
-        <v>0.01832582472104577</v>
+        <v>0.001293363846420727</v>
       </c>
       <c r="I64" t="n">
-        <v>0.08362346405342039</v>
+        <v>0.09262750963243717</v>
       </c>
       <c r="J64" t="n">
-        <v>0.08496111155856252</v>
+        <v>0.03626629884423854</v>
       </c>
       <c r="K64" t="n">
-        <v>0.08148038493791943</v>
+        <v>0.01551151274161077</v>
       </c>
       <c r="L64" t="n">
-        <v>0.01429851596824101</v>
+        <v>0.06503332445612117</v>
       </c>
       <c r="M64" t="n">
-        <v>0.07550494229593886</v>
+        <v>0.05030603064936224</v>
       </c>
       <c r="N64" t="n">
-        <v>0.07183082931356873</v>
+        <v>0.06052044026228577</v>
       </c>
       <c r="O64" t="n">
-        <v>0.02066442795470184</v>
+        <v>0.01477676092239419</v>
       </c>
       <c r="P64" t="n">
-        <v>0.0421101360199142</v>
+        <v>0.09086109979552268</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.07109174071381243</v>
+        <v>0.04908291948510431</v>
       </c>
       <c r="R64" t="n">
-        <v>0.07180639928966513</v>
+        <v>0.07294590990794114</v>
       </c>
       <c r="S64" t="n">
-        <v>0.07812829302482306</v>
+        <v>0.02686048140960597</v>
       </c>
       <c r="T64" t="n">
-        <v>0.01443418992669288</v>
+        <v>0.04855074431765248</v>
       </c>
       <c r="U64" t="n">
-        <v>0.04400206296157486</v>
+        <v>0.07750018374678191</v>
       </c>
       <c r="V64" t="n">
-        <v>0.004797950249627927</v>
+        <v>0.007174743991013414</v>
       </c>
       <c r="W64" t="n">
-        <v>0.02845628861111001</v>
+        <v>0.007117242239112962</v>
       </c>
       <c r="X64" t="n">
-        <v>0.05770417654173817</v>
+        <v>0.06528277726030317</v>
       </c>
       <c r="Y64" t="n">
-        <v>0.007507365472753471</v>
+        <v>0.041412562835935</v>
       </c>
       <c r="Z64" t="n">
-        <v>0.02008530308697221</v>
+        <v>0.003023493346703931</v>
       </c>
       <c r="AA64" t="n">
-        <v>0.02510575194184391</v>
+        <v>0.03862580004607503</v>
       </c>
       <c r="AB64" t="n">
-        <v>0.005782106291845411</v>
+        <v>0.03380413340245907</v>
       </c>
       <c r="AC64" t="n">
-        <v>-0.03579513733142891</v>
+        <v>-0.03076785143736567</v>
       </c>
     </row>
     <row r="65">
@@ -6576,79 +6576,79 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>0.392222418329416</v>
+        <v>0.3638204171066392</v>
       </c>
       <c r="F65" t="n">
-        <v>0.09609098160261909</v>
+        <v>0.09227877401361663</v>
       </c>
       <c r="G65" t="n">
-        <v>0.04522741279410598</v>
+        <v>0.01534838864534029</v>
       </c>
       <c r="H65" t="n">
-        <v>0.07060217727033853</v>
+        <v>0.03316570075349076</v>
       </c>
       <c r="I65" t="n">
-        <v>0.005813705116125761</v>
+        <v>0.03666050319910728</v>
       </c>
       <c r="J65" t="n">
-        <v>0.04456297267610047</v>
+        <v>0.01988458969829734</v>
       </c>
       <c r="K65" t="n">
-        <v>0.03077043209182373</v>
+        <v>0.02760227082188618</v>
       </c>
       <c r="L65" t="n">
-        <v>0.07470148536073609</v>
+        <v>0.007350284828897572</v>
       </c>
       <c r="M65" t="n">
-        <v>0.005964354658621829</v>
+        <v>0.0007260421700660089</v>
       </c>
       <c r="N65" t="n">
-        <v>0.007013540558285681</v>
+        <v>0.003015005497801398</v>
       </c>
       <c r="O65" t="n">
-        <v>0.08047646478369348</v>
+        <v>0.08473522289612517</v>
       </c>
       <c r="P65" t="n">
-        <v>0.003287682684493097</v>
+        <v>0.06034914309410754</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.01290128380122591</v>
+        <v>0.009439198411304493</v>
       </c>
       <c r="R65" t="n">
-        <v>0.05409500374156942</v>
+        <v>0.03658698251831824</v>
       </c>
       <c r="S65" t="n">
-        <v>0.0383909285943296</v>
+        <v>0.1117612463551381</v>
       </c>
       <c r="T65" t="n">
-        <v>0.01833937266745603</v>
+        <v>0.09980966625029578</v>
       </c>
       <c r="U65" t="n">
-        <v>0.04115495563230871</v>
+        <v>0.01422241926826317</v>
       </c>
       <c r="V65" t="n">
-        <v>0.09527279373381341</v>
+        <v>0.07234909985160089</v>
       </c>
       <c r="W65" t="n">
-        <v>0.07253299368296602</v>
+        <v>0.08032317519208387</v>
       </c>
       <c r="X65" t="n">
-        <v>0.005123005335345873</v>
+        <v>0.004529428891688751</v>
       </c>
       <c r="Y65" t="n">
-        <v>0.1102017786340547</v>
+        <v>0.09141160754820801</v>
       </c>
       <c r="Z65" t="n">
-        <v>0.01444990689985662</v>
+        <v>0.04705510464942609</v>
       </c>
       <c r="AA65" t="n">
-        <v>0.03086313886793354</v>
+        <v>0.04012102057610423</v>
       </c>
       <c r="AB65" t="n">
-        <v>0.04216362881219629</v>
+        <v>0.0112751248688322</v>
       </c>
       <c r="AC65" t="n">
-        <v>-0.0003166914960423001</v>
+        <v>-0.00724295378970915</v>
       </c>
     </row>
     <row r="66">
@@ -6671,79 +6671,79 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>0.1790345914364676</v>
+        <v>0.1801437041092235</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0704594480957217</v>
+        <v>0.06570371642704327</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0602011113118</v>
+        <v>0.00592976476366024</v>
       </c>
       <c r="H66" t="n">
-        <v>0.03500348141369659</v>
+        <v>0.04970008108202327</v>
       </c>
       <c r="I66" t="n">
-        <v>0.0378570053421091</v>
+        <v>0.03709419664394991</v>
       </c>
       <c r="J66" t="n">
-        <v>0.04759982055744456</v>
+        <v>0.08148194248228646</v>
       </c>
       <c r="K66" t="n">
-        <v>0.02605282307662175</v>
+        <v>0.08777371911101761</v>
       </c>
       <c r="L66" t="n">
-        <v>0.009558931679768828</v>
+        <v>0.0206103969770078</v>
       </c>
       <c r="M66" t="n">
-        <v>0.02115935399862369</v>
+        <v>0.04694503899326691</v>
       </c>
       <c r="N66" t="n">
-        <v>0.001673518952481814</v>
+        <v>0.007900865111981565</v>
       </c>
       <c r="O66" t="n">
-        <v>0.009330031087696807</v>
+        <v>0.006157184666623333</v>
       </c>
       <c r="P66" t="n">
-        <v>0.07329483705674905</v>
+        <v>0.05290124863654579</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.01236302350713544</v>
+        <v>0.05302708681674348</v>
       </c>
       <c r="R66" t="n">
-        <v>0.1047382207618664</v>
+        <v>0.06342953613251065</v>
       </c>
       <c r="S66" t="n">
-        <v>0.07842844309690671</v>
+        <v>0.03315513054269829</v>
       </c>
       <c r="T66" t="n">
-        <v>0.07404218550004753</v>
+        <v>0.04501213656259478</v>
       </c>
       <c r="U66" t="n">
-        <v>0.09500471309793361</v>
+        <v>0.08829516861034296</v>
       </c>
       <c r="V66" t="n">
-        <v>0.007042584405721558</v>
+        <v>0.01310821458635345</v>
       </c>
       <c r="W66" t="n">
-        <v>0.03339580412450722</v>
+        <v>0.04499934991533225</v>
       </c>
       <c r="X66" t="n">
-        <v>0.1036881632270849</v>
+        <v>0.0660398870257642</v>
       </c>
       <c r="Y66" t="n">
-        <v>0.01109392861179592</v>
+        <v>0.007813445411578673</v>
       </c>
       <c r="Z66" t="n">
-        <v>0.01036713302880842</v>
+        <v>0.07984935681435579</v>
       </c>
       <c r="AA66" t="n">
-        <v>0.05222881851875634</v>
+        <v>0.0106760696374997</v>
       </c>
       <c r="AB66" t="n">
-        <v>0.02541661954672213</v>
+        <v>0.03239646304881969</v>
       </c>
       <c r="AC66" t="n">
-        <v>0.0279789849180543</v>
+        <v>0.04269997272669277</v>
       </c>
     </row>
     <row r="67">
@@ -6766,79 +6766,79 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>0.3176772710505908</v>
+        <v>0.3039537540672959</v>
       </c>
       <c r="F67" t="n">
-        <v>0.02677469478760744</v>
+        <v>0.09479853061993852</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04530941090528724</v>
+        <v>0.0467773466110482</v>
       </c>
       <c r="H67" t="n">
-        <v>0.006571762526415181</v>
+        <v>0.07012399641211389</v>
       </c>
       <c r="I67" t="n">
-        <v>0.02628183086471413</v>
+        <v>0.02490058264229274</v>
       </c>
       <c r="J67" t="n">
-        <v>0.09665017768027302</v>
+        <v>0.01079888701906946</v>
       </c>
       <c r="K67" t="n">
-        <v>0.08020184229180818</v>
+        <v>0.04421722516734096</v>
       </c>
       <c r="L67" t="n">
-        <v>0.04008129929191431</v>
+        <v>0.03548556628623102</v>
       </c>
       <c r="M67" t="n">
-        <v>0.07854637197642642</v>
+        <v>0.04633184276879073</v>
       </c>
       <c r="N67" t="n">
-        <v>0.04346920603412072</v>
+        <v>0.004226934178551144</v>
       </c>
       <c r="O67" t="n">
-        <v>0.1202023918473171</v>
+        <v>0.1106173975487613</v>
       </c>
       <c r="P67" t="n">
-        <v>0.05651299470286757</v>
+        <v>0.03567737396791112</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.001331921813468003</v>
+        <v>0.009434501120474295</v>
       </c>
       <c r="R67" t="n">
-        <v>0.01530358635602521</v>
+        <v>0.01100347861733706</v>
       </c>
       <c r="S67" t="n">
-        <v>0.01613402108055156</v>
+        <v>0.1036752846912097</v>
       </c>
       <c r="T67" t="n">
-        <v>0.01429333120413325</v>
+        <v>0.02250338309732943</v>
       </c>
       <c r="U67" t="n">
-        <v>0.09765421566169212</v>
+        <v>0.04706065487558843</v>
       </c>
       <c r="V67" t="n">
-        <v>0.02867933685684517</v>
+        <v>0.01138198958353503</v>
       </c>
       <c r="W67" t="n">
-        <v>0.01961715703486579</v>
+        <v>0.06596330296736588</v>
       </c>
       <c r="X67" t="n">
-        <v>0.1195464588456112</v>
+        <v>0.07879861831932153</v>
       </c>
       <c r="Y67" t="n">
-        <v>0.00241256229727574</v>
+        <v>0.01954703760832539</v>
       </c>
       <c r="Z67" t="n">
-        <v>0.02315180912453673</v>
+        <v>0.0166112460189868</v>
       </c>
       <c r="AA67" t="n">
-        <v>0.00387237104336461</v>
+        <v>0.06503300632082733</v>
       </c>
       <c r="AB67" t="n">
-        <v>0.03740124577287929</v>
+        <v>0.02503181355765012</v>
       </c>
       <c r="AC67" t="n">
-        <v>0.07068974773054358</v>
+        <v>0.0284804414586097</v>
       </c>
     </row>
     <row r="68">
@@ -6861,79 +6861,79 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>0.166954346145214</v>
+        <v>0.1681718125814957</v>
       </c>
       <c r="F68" t="n">
-        <v>0.05042279700219053</v>
+        <v>0.02152037528037096</v>
       </c>
       <c r="G68" t="n">
-        <v>0.00894175342444414</v>
+        <v>0.002574631500835448</v>
       </c>
       <c r="H68" t="n">
-        <v>0.02943348935636309</v>
+        <v>0.0487864773215184</v>
       </c>
       <c r="I68" t="n">
-        <v>0.07672705217836223</v>
+        <v>0.08148270081730623</v>
       </c>
       <c r="J68" t="n">
-        <v>0.05274025417883051</v>
+        <v>0.03901676753062722</v>
       </c>
       <c r="K68" t="n">
-        <v>0.00449076743832658</v>
+        <v>0.002746683395657527</v>
       </c>
       <c r="L68" t="n">
-        <v>0.05377567740347709</v>
+        <v>0.03260492803091718</v>
       </c>
       <c r="M68" t="n">
-        <v>0.01565073641596513</v>
+        <v>0.08342105143943522</v>
       </c>
       <c r="N68" t="n">
-        <v>0.02580565836823313</v>
+        <v>0.01936663790806428</v>
       </c>
       <c r="O68" t="n">
-        <v>0.01808016924764259</v>
+        <v>0.01636955714324458</v>
       </c>
       <c r="P68" t="n">
-        <v>0.06178628759946701</v>
+        <v>0.03698043355516897</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.03069275545615271</v>
+        <v>0.01258747266177559</v>
       </c>
       <c r="R68" t="n">
-        <v>0.04594222088004424</v>
+        <v>0.07403718639094543</v>
       </c>
       <c r="S68" t="n">
-        <v>0.08068886415473904</v>
+        <v>0.05055494034212513</v>
       </c>
       <c r="T68" t="n">
-        <v>0.08641883425970305</v>
+        <v>0.05551840424445927</v>
       </c>
       <c r="U68" t="n">
-        <v>0.06812349593119783</v>
+        <v>0.06913460712653469</v>
       </c>
       <c r="V68" t="n">
-        <v>0.01504410721622796</v>
+        <v>0.007748670311109374</v>
       </c>
       <c r="W68" t="n">
-        <v>0.06736868274894731</v>
+        <v>0.08114681967329267</v>
       </c>
       <c r="X68" t="n">
-        <v>0.08611504457621157</v>
+        <v>0.07632099631250495</v>
       </c>
       <c r="Y68" t="n">
-        <v>0.05451571359598848</v>
+        <v>0.06102035466332316</v>
       </c>
       <c r="Z68" t="n">
-        <v>0.0298951223795571</v>
+        <v>0.03589031215293476</v>
       </c>
       <c r="AA68" t="n">
-        <v>0.01300693427638055</v>
+        <v>0.08510175820010692</v>
       </c>
       <c r="AB68" t="n">
-        <v>0.02433358191154815</v>
+        <v>0.006068233997741803</v>
       </c>
       <c r="AC68" t="n">
-        <v>-0.01425436922215807</v>
+        <v>-0.01210071706313794</v>
       </c>
     </row>
     <row r="69">
@@ -6956,79 +6956,79 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0.2709017945623123</v>
+        <v>0.3117246892193802</v>
       </c>
       <c r="F69" t="n">
-        <v>0.007414215515487212</v>
+        <v>0.01243297450524349</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0486538817049892</v>
+        <v>0.1218749769740568</v>
       </c>
       <c r="H69" t="n">
-        <v>0.04954292498649705</v>
+        <v>0.01049248489916147</v>
       </c>
       <c r="I69" t="n">
-        <v>0.01057294050435313</v>
+        <v>0.02180838464810279</v>
       </c>
       <c r="J69" t="n">
-        <v>0.03480744377605734</v>
+        <v>0.06436585566097645</v>
       </c>
       <c r="K69" t="n">
-        <v>0.1076384158166328</v>
+        <v>0.1289661453438448</v>
       </c>
       <c r="L69" t="n">
-        <v>0.01620034514021148</v>
+        <v>0.01531660321921116</v>
       </c>
       <c r="M69" t="n">
-        <v>0.03134427052609259</v>
+        <v>0.04575907537112073</v>
       </c>
       <c r="N69" t="n">
-        <v>0.02900386565585984</v>
+        <v>0.0558656087904293</v>
       </c>
       <c r="O69" t="n">
-        <v>0.003232387733372278</v>
+        <v>0.009043454697606722</v>
       </c>
       <c r="P69" t="n">
-        <v>0.0632475085073306</v>
+        <v>0.06300551546306726</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.06516153576336366</v>
+        <v>0.07631481529049854</v>
       </c>
       <c r="R69" t="n">
-        <v>0.0674657766450571</v>
+        <v>0.0008913771673889289</v>
       </c>
       <c r="S69" t="n">
-        <v>0.01535797720954491</v>
+        <v>0.01831753512782087</v>
       </c>
       <c r="T69" t="n">
-        <v>0.02723359317837132</v>
+        <v>0.003154057059207232</v>
       </c>
       <c r="U69" t="n">
-        <v>0.07362932216768302</v>
+        <v>0.01100699438404059</v>
       </c>
       <c r="V69" t="n">
-        <v>0.03288199272924888</v>
+        <v>0.006850990309541881</v>
       </c>
       <c r="W69" t="n">
-        <v>0.02380781772208694</v>
+        <v>0.001001925516734785</v>
       </c>
       <c r="X69" t="n">
-        <v>0.0349536505710148</v>
+        <v>0.03871267746370498</v>
       </c>
       <c r="Y69" t="n">
-        <v>0.06907632100392014</v>
+        <v>0.04955962448653983</v>
       </c>
       <c r="Z69" t="n">
-        <v>0.06785657616099018</v>
+        <v>0.05781129179151634</v>
       </c>
       <c r="AA69" t="n">
-        <v>0.02767883787216317</v>
+        <v>0.08009279652016263</v>
       </c>
       <c r="AB69" t="n">
-        <v>0.09323839910967234</v>
+        <v>0.1073548353100224</v>
       </c>
       <c r="AC69" t="n">
-        <v>-0.00879637558109664</v>
+        <v>-0.005801458495430863</v>
       </c>
     </row>
     <row r="70">
@@ -7051,79 +7051,79 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0.1596601926974432</v>
+        <v>0.1618679027237789</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0430389127522122</v>
+        <v>0.09636642200795532</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03161329835712005</v>
+        <v>0.05058733761491128</v>
       </c>
       <c r="H70" t="n">
-        <v>0.009405465132074181</v>
+        <v>0.06016078980555399</v>
       </c>
       <c r="I70" t="n">
-        <v>0.07975224859597345</v>
+        <v>0.03139023794128967</v>
       </c>
       <c r="J70" t="n">
-        <v>0.08670124248444139</v>
+        <v>0.06972513360999978</v>
       </c>
       <c r="K70" t="n">
-        <v>0.01632573644474356</v>
+        <v>0.02624916737587153</v>
       </c>
       <c r="L70" t="n">
-        <v>0.05118828085958476</v>
+        <v>0.0007635203282651918</v>
       </c>
       <c r="M70" t="n">
-        <v>0.006641587578585559</v>
+        <v>0.002019512846243898</v>
       </c>
       <c r="N70" t="n">
-        <v>0.02386672779589087</v>
+        <v>0.007549482020953852</v>
       </c>
       <c r="O70" t="n">
-        <v>0.07030290269839459</v>
+        <v>0.04089932353768812</v>
       </c>
       <c r="P70" t="n">
-        <v>0.09095678583454067</v>
+        <v>0.05126169556988814</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.004202010190578364</v>
+        <v>0.05001432610136931</v>
       </c>
       <c r="R70" t="n">
-        <v>0.08034268962685646</v>
+        <v>0.06424639767925143</v>
       </c>
       <c r="S70" t="n">
-        <v>0.06045028778903504</v>
+        <v>0.04675251457713947</v>
       </c>
       <c r="T70" t="n">
-        <v>0.09598113482022173</v>
+        <v>0.1027213433215234</v>
       </c>
       <c r="U70" t="n">
-        <v>0.05501423260784704</v>
+        <v>0.06439954235095274</v>
       </c>
       <c r="V70" t="n">
-        <v>0.01732949147124059</v>
+        <v>0.01321499625549986</v>
       </c>
       <c r="W70" t="n">
-        <v>0.07226521374876668</v>
+        <v>0.08578544970507819</v>
       </c>
       <c r="X70" t="n">
-        <v>0.003295764870436252</v>
+        <v>0.01693276386179345</v>
       </c>
       <c r="Y70" t="n">
-        <v>0.002521994325128806</v>
+        <v>0.009781129766917841</v>
       </c>
       <c r="Z70" t="n">
-        <v>0.01099327376776196</v>
+        <v>0.05518838541738965</v>
       </c>
       <c r="AA70" t="n">
-        <v>0.03842963776465803</v>
+        <v>0.0001041340827513341</v>
       </c>
       <c r="AB70" t="n">
-        <v>0.04938108048390787</v>
+        <v>0.05388639422171265</v>
       </c>
       <c r="AC70" t="n">
-        <v>-0.07582215419321287</v>
+        <v>-0.05202482494236257</v>
       </c>
     </row>
     <row r="71">
@@ -7146,79 +7146,79 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>0.2522154620956443</v>
+        <v>0.2726808232554859</v>
       </c>
       <c r="F71" t="n">
-        <v>0.04623419855880004</v>
+        <v>0.06694332503407152</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03993399837998821</v>
+        <v>0.0909254947101566</v>
       </c>
       <c r="H71" t="n">
-        <v>0.05394029146836329</v>
+        <v>0.006282021271784712</v>
       </c>
       <c r="I71" t="n">
-        <v>0.06739552437616599</v>
+        <v>0.05673026804575308</v>
       </c>
       <c r="J71" t="n">
-        <v>0.07274740708764017</v>
+        <v>0.04188877204541096</v>
       </c>
       <c r="K71" t="n">
-        <v>0.02397295449102039</v>
+        <v>0.05191725753932259</v>
       </c>
       <c r="L71" t="n">
-        <v>0.04871863187391757</v>
+        <v>0.04369103541803485</v>
       </c>
       <c r="M71" t="n">
-        <v>0.0002509414458256634</v>
+        <v>0.0006488047386902356</v>
       </c>
       <c r="N71" t="n">
-        <v>0.04342062457053508</v>
+        <v>0.02166309584029092</v>
       </c>
       <c r="O71" t="n">
-        <v>0.01016068510407991</v>
+        <v>0.107679510878118</v>
       </c>
       <c r="P71" t="n">
-        <v>0.05712200004995883</v>
+        <v>0.02590976227450926</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.03497637188889584</v>
+        <v>0.01514610698946124</v>
       </c>
       <c r="R71" t="n">
-        <v>0.06139319884913134</v>
+        <v>0.02754630432897359</v>
       </c>
       <c r="S71" t="n">
-        <v>0.01557056239763759</v>
+        <v>0.06485894537793921</v>
       </c>
       <c r="T71" t="n">
-        <v>0.008889084827289825</v>
+        <v>0.007738567242291953</v>
       </c>
       <c r="U71" t="n">
-        <v>0.07957829052203663</v>
+        <v>0.04730430292029893</v>
       </c>
       <c r="V71" t="n">
-        <v>0.08695222097649349</v>
+        <v>0.01832137775002592</v>
       </c>
       <c r="W71" t="n">
-        <v>0.03665450884057175</v>
+        <v>0.08057575704017507</v>
       </c>
       <c r="X71" t="n">
-        <v>0.08833011797364976</v>
+        <v>0.1053476729593965</v>
       </c>
       <c r="Y71" t="n">
-        <v>0.01698384401487464</v>
+        <v>0.02073793275569773</v>
       </c>
       <c r="Z71" t="n">
-        <v>0.0276070348237526</v>
+        <v>0.03364744457884034</v>
       </c>
       <c r="AA71" t="n">
-        <v>0.01801911887942839</v>
+        <v>0.02717907757291879</v>
       </c>
       <c r="AB71" t="n">
-        <v>0.06114838859994302</v>
+        <v>0.03731716268783806</v>
       </c>
       <c r="AC71" t="n">
-        <v>-0.0632386532396865</v>
+        <v>-0.0648519845702232</v>
       </c>
     </row>
     <row r="72">
@@ -7241,79 +7241,79 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>0.1329076000405608</v>
+        <v>0.131807582070078</v>
       </c>
       <c r="F72" t="n">
-        <v>0.002342002681422969</v>
+        <v>0.02672308084295389</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0208673393429894</v>
+        <v>0.0007205862223525569</v>
       </c>
       <c r="H72" t="n">
-        <v>0.001373688562543431</v>
+        <v>0.003476514812091806</v>
       </c>
       <c r="I72" t="n">
-        <v>0.067824661489729</v>
+        <v>0.06361276423525275</v>
       </c>
       <c r="J72" t="n">
-        <v>0.03229691432637716</v>
+        <v>0.03823894524700697</v>
       </c>
       <c r="K72" t="n">
-        <v>0.009812432986772208</v>
+        <v>0.08028860434515846</v>
       </c>
       <c r="L72" t="n">
-        <v>0.07224973237743852</v>
+        <v>0.07457978633083971</v>
       </c>
       <c r="M72" t="n">
-        <v>0.01296313921464884</v>
+        <v>0.01387528682398775</v>
       </c>
       <c r="N72" t="n">
-        <v>0.03014919823398379</v>
+        <v>0.03144218383258109</v>
       </c>
       <c r="O72" t="n">
-        <v>0.03737956094364669</v>
+        <v>0.05497833516863119</v>
       </c>
       <c r="P72" t="n">
-        <v>0.08439998916185953</v>
+        <v>0.07310484773319204</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.06425358059135243</v>
+        <v>0.04081545190590791</v>
       </c>
       <c r="R72" t="n">
-        <v>0.01665602741521073</v>
+        <v>0.005232014166429716</v>
       </c>
       <c r="S72" t="n">
-        <v>0.004736994576804075</v>
+        <v>0.02563970794159504</v>
       </c>
       <c r="T72" t="n">
-        <v>0.05122992680843562</v>
+        <v>0.09359052028360432</v>
       </c>
       <c r="U72" t="n">
-        <v>0.07083335573416295</v>
+        <v>0.0675388797637593</v>
       </c>
       <c r="V72" t="n">
-        <v>0.02249029250475165</v>
+        <v>0.003251627438184617</v>
       </c>
       <c r="W72" t="n">
-        <v>0.06118360652398753</v>
+        <v>0.06344613193838844</v>
       </c>
       <c r="X72" t="n">
-        <v>0.07625401451713847</v>
+        <v>0.07428774015364474</v>
       </c>
       <c r="Y72" t="n">
-        <v>0.01812394115728805</v>
+        <v>0.01151766869516464</v>
       </c>
       <c r="Z72" t="n">
-        <v>0.06951671262341633</v>
+        <v>0.03612990164656449</v>
       </c>
       <c r="AA72" t="n">
-        <v>0.08722681414329464</v>
+        <v>0.05324866950863138</v>
       </c>
       <c r="AB72" t="n">
-        <v>0.08583607408274606</v>
+        <v>0.0642607509640771</v>
       </c>
       <c r="AC72" t="n">
-        <v>-0.1252955008065331</v>
+        <v>-0.1502832689040412</v>
       </c>
     </row>
     <row r="73">
@@ -7336,79 +7336,79 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>0.2167207516146434</v>
+        <v>0.2172915829292472</v>
       </c>
       <c r="F73" t="n">
-        <v>0.088444396032596</v>
+        <v>0.03108375494103302</v>
       </c>
       <c r="G73" t="n">
-        <v>0.02406911194200636</v>
+        <v>0.01900564768146305</v>
       </c>
       <c r="H73" t="n">
-        <v>0.009608324517364238</v>
+        <v>0.0001609212043083823</v>
       </c>
       <c r="I73" t="n">
-        <v>0.03694748036414202</v>
+        <v>0.008932171470383497</v>
       </c>
       <c r="J73" t="n">
-        <v>0.09243691881547562</v>
+        <v>0.03382833636458262</v>
       </c>
       <c r="K73" t="n">
-        <v>0.03763045880154004</v>
+        <v>0.02157102994432311</v>
       </c>
       <c r="L73" t="n">
-        <v>0.05423074553362919</v>
+        <v>0.04481432658644239</v>
       </c>
       <c r="M73" t="n">
-        <v>0.08728324284661826</v>
+        <v>0.05920935030288639</v>
       </c>
       <c r="N73" t="n">
-        <v>0.010804226675002</v>
+        <v>0.04324517962910955</v>
       </c>
       <c r="O73" t="n">
-        <v>0.06756122703624971</v>
+        <v>0.0129824017014809</v>
       </c>
       <c r="P73" t="n">
-        <v>0.001078223895262616</v>
+        <v>0.07533517668157388</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.0566352570932852</v>
+        <v>0.101738099334797</v>
       </c>
       <c r="R73" t="n">
-        <v>0.01878572494441991</v>
+        <v>0.07895618589534711</v>
       </c>
       <c r="S73" t="n">
-        <v>0.0232804465918905</v>
+        <v>0.005251199192052296</v>
       </c>
       <c r="T73" t="n">
-        <v>0.01207354877797412</v>
+        <v>0.01681396839712717</v>
       </c>
       <c r="U73" t="n">
-        <v>0.02211230039258493</v>
+        <v>0.02084100525909067</v>
       </c>
       <c r="V73" t="n">
-        <v>0.07951532695959371</v>
+        <v>0.03305673348901023</v>
       </c>
       <c r="W73" t="n">
-        <v>0.01863566886474516</v>
+        <v>0.0265298812635508</v>
       </c>
       <c r="X73" t="n">
-        <v>0.01744508847458343</v>
+        <v>0.007648225737834938</v>
       </c>
       <c r="Y73" t="n">
-        <v>0.09754082430814014</v>
+        <v>0.1287733250220062</v>
       </c>
       <c r="Z73" t="n">
-        <v>0.04128452085307841</v>
+        <v>0.02739457387543871</v>
       </c>
       <c r="AA73" t="n">
-        <v>0.004119627649866763</v>
+        <v>0.07278784913073046</v>
       </c>
       <c r="AB73" t="n">
-        <v>0.09847730862995167</v>
+        <v>0.1300406568954278</v>
       </c>
       <c r="AC73" t="n">
-        <v>-0.1639546993171845</v>
+        <v>-0.1390408027452464</v>
       </c>
     </row>
     <row r="74">
@@ -7431,79 +7431,79 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.1234699894231464</v>
+        <v>0.1250818706310367</v>
       </c>
       <c r="F74" t="n">
-        <v>0.05966636830652412</v>
+        <v>0.03005973653269939</v>
       </c>
       <c r="G74" t="n">
-        <v>0.007561903964562519</v>
+        <v>0.08753397933765183</v>
       </c>
       <c r="H74" t="n">
-        <v>0.05889479249574744</v>
+        <v>0.05534631241366413</v>
       </c>
       <c r="I74" t="n">
-        <v>0.0305533527991487</v>
+        <v>0.0305067710880577</v>
       </c>
       <c r="J74" t="n">
-        <v>0.08363171972485099</v>
+        <v>0.05994323213013233</v>
       </c>
       <c r="K74" t="n">
-        <v>0.0168813206081074</v>
+        <v>0.02698920672652712</v>
       </c>
       <c r="L74" t="n">
-        <v>0.04384784016842994</v>
+        <v>0.05617568833025376</v>
       </c>
       <c r="M74" t="n">
-        <v>0.01508856828610343</v>
+        <v>0.01455594852904883</v>
       </c>
       <c r="N74" t="n">
-        <v>0.001664723399680279</v>
+        <v>0.0157978984757759</v>
       </c>
       <c r="O74" t="n">
-        <v>0.009318910726433151</v>
+        <v>0.02278111776328346</v>
       </c>
       <c r="P74" t="n">
-        <v>0.0874679034698566</v>
+        <v>0.08638620901282107</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.008740234570735592</v>
+        <v>0.03854868756511762</v>
       </c>
       <c r="R74" t="n">
-        <v>0.01972389761345666</v>
+        <v>0.02831961156944582</v>
       </c>
       <c r="S74" t="n">
-        <v>0.0657039164952712</v>
+        <v>0.02165715859920173</v>
       </c>
       <c r="T74" t="n">
-        <v>0.03905920974099925</v>
+        <v>0.03882333038638716</v>
       </c>
       <c r="U74" t="n">
-        <v>0.06559718123162979</v>
+        <v>0.08746063957701979</v>
       </c>
       <c r="V74" t="n">
-        <v>0.02854511927935999</v>
+        <v>0.03189629273282886</v>
       </c>
       <c r="W74" t="n">
-        <v>0.06981581662920164</v>
+        <v>0.07419747248191512</v>
       </c>
       <c r="X74" t="n">
-        <v>0.08536562751557548</v>
+        <v>0.07042249502976068</v>
       </c>
       <c r="Y74" t="n">
-        <v>0.02780994594383304</v>
+        <v>0.06675382723525602</v>
       </c>
       <c r="Z74" t="n">
-        <v>0.07924786927136457</v>
+        <v>0.03452578186941226</v>
       </c>
       <c r="AA74" t="n">
-        <v>0.02876228792472032</v>
+        <v>0.01389458043866756</v>
       </c>
       <c r="AB74" t="n">
-        <v>0.06705148983440794</v>
+        <v>0.007424022175071985</v>
       </c>
       <c r="AC74" t="n">
-        <v>0.1354121129876777</v>
+        <v>0.131317032404888</v>
       </c>
     </row>
     <row r="75">
@@ -7526,79 +7526,79 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>0.1565870792861952</v>
+        <v>0.1639254509414888</v>
       </c>
       <c r="F75" t="n">
-        <v>0.05077606879901254</v>
+        <v>0.1014817952633994</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02696491413521209</v>
+        <v>0.03033003586332883</v>
       </c>
       <c r="H75" t="n">
-        <v>0.01360471561258286</v>
+        <v>0.001902289963621591</v>
       </c>
       <c r="I75" t="n">
-        <v>0.00605088895681376</v>
+        <v>0.01065305852745695</v>
       </c>
       <c r="J75" t="n">
-        <v>0.04145991059598939</v>
+        <v>0.08209634519382206</v>
       </c>
       <c r="K75" t="n">
-        <v>0.0151834962727671</v>
+        <v>0.06104491874993777</v>
       </c>
       <c r="L75" t="n">
-        <v>0.003011581576395409</v>
+        <v>0.05807687443799076</v>
       </c>
       <c r="M75" t="n">
-        <v>0.1003627564715929</v>
+        <v>0.1077133862066159</v>
       </c>
       <c r="N75" t="n">
-        <v>0.05496393532580872</v>
+        <v>0.01320245714332619</v>
       </c>
       <c r="O75" t="n">
-        <v>0.004935621399936001</v>
+        <v>0.008580076484319972</v>
       </c>
       <c r="P75" t="n">
-        <v>0.01609510498917418</v>
+        <v>0.02584403674692099</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.05489357515794141</v>
+        <v>0.02246737361318648</v>
       </c>
       <c r="R75" t="n">
-        <v>0.01221573001094088</v>
+        <v>0.03401849194213658</v>
       </c>
       <c r="S75" t="n">
-        <v>0.01300807767159195</v>
+        <v>0.01669794137046775</v>
       </c>
       <c r="T75" t="n">
-        <v>0.01445535707314925</v>
+        <v>0.02873926530982527</v>
       </c>
       <c r="U75" t="n">
-        <v>0.04219684615160532</v>
+        <v>0.004281898678488496</v>
       </c>
       <c r="V75" t="n">
-        <v>0.0423721586432023</v>
+        <v>0.06498259984346878</v>
       </c>
       <c r="W75" t="n">
-        <v>0.04505818364212907</v>
+        <v>0.0493846948809323</v>
       </c>
       <c r="X75" t="n">
-        <v>0.05693858404300382</v>
+        <v>0.05134309221727768</v>
       </c>
       <c r="Y75" t="n">
-        <v>0.1112235902426263</v>
+        <v>0.03112367962356457</v>
       </c>
       <c r="Z75" t="n">
-        <v>0.09512855860608742</v>
+        <v>0.05051405344829094</v>
       </c>
       <c r="AA75" t="n">
-        <v>0.1082344376352706</v>
+        <v>0.1056160908509003</v>
       </c>
       <c r="AB75" t="n">
-        <v>0.07086590698716663</v>
+        <v>0.03990554364072062</v>
       </c>
       <c r="AC75" t="n">
-        <v>0.1346158322860068</v>
+        <v>0.1557779351866707</v>
       </c>
     </row>
     <row r="76">
@@ -7621,79 +7621,79 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>0.130262111188535</v>
+        <v>0.1318247499285172</v>
       </c>
       <c r="F76" t="n">
-        <v>0.02461788155647648</v>
+        <v>0.06636977177085822</v>
       </c>
       <c r="G76" t="n">
-        <v>0.01224248956190161</v>
+        <v>0.05576122289242865</v>
       </c>
       <c r="H76" t="n">
-        <v>0.01714651612168832</v>
+        <v>0.00670375946908442</v>
       </c>
       <c r="I76" t="n">
-        <v>0.07796463812263536</v>
+        <v>0.06933585275944142</v>
       </c>
       <c r="J76" t="n">
-        <v>0.03722546748116113</v>
+        <v>0.0269594784156984</v>
       </c>
       <c r="K76" t="n">
-        <v>0.008036259753024222</v>
+        <v>0.02164696809847374</v>
       </c>
       <c r="L76" t="n">
-        <v>0.04794995404685706</v>
+        <v>0.02635896391474738</v>
       </c>
       <c r="M76" t="n">
-        <v>0.08782427342401995</v>
+        <v>0.06597544208595411</v>
       </c>
       <c r="N76" t="n">
-        <v>0.01765688440738406</v>
+        <v>0.05406152913235422</v>
       </c>
       <c r="O76" t="n">
-        <v>0.05870919312100795</v>
+        <v>0.0641887283189784</v>
       </c>
       <c r="P76" t="n">
-        <v>0.07549320238730865</v>
+        <v>0.0630844172185251</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.04622512879377663</v>
+        <v>0.06534492600148174</v>
       </c>
       <c r="R76" t="n">
-        <v>0.0238708407291679</v>
+        <v>0.03937659106022039</v>
       </c>
       <c r="S76" t="n">
-        <v>0.08167252782340108</v>
+        <v>0.05810605453504834</v>
       </c>
       <c r="T76" t="n">
-        <v>0.02124310018493435</v>
+        <v>0.01284770167838344</v>
       </c>
       <c r="U76" t="n">
-        <v>0.07172051218243003</v>
+        <v>0.04980040273262802</v>
       </c>
       <c r="V76" t="n">
-        <v>0.0008414607204193668</v>
+        <v>0.01331589964672961</v>
       </c>
       <c r="W76" t="n">
-        <v>0.07937983461237096</v>
+        <v>0.05455973383930435</v>
       </c>
       <c r="X76" t="n">
-        <v>0.0002791807988054887</v>
+        <v>0.001546665867107341</v>
       </c>
       <c r="Y76" t="n">
-        <v>0.04387167022987608</v>
+        <v>0.009498027341283917</v>
       </c>
       <c r="Z76" t="n">
-        <v>0.0211471388950187</v>
+        <v>0.06071155007696731</v>
       </c>
       <c r="AA76" t="n">
-        <v>0.06762253185803373</v>
+        <v>0.04470856333503914</v>
       </c>
       <c r="AB76" t="n">
-        <v>0.07725931318830072</v>
+        <v>0.06973774980926239</v>
       </c>
       <c r="AC76" t="n">
-        <v>-0.04559335776640556</v>
+        <v>-0.05050397108185651</v>
       </c>
     </row>
     <row r="77">
@@ -7716,79 +7716,79 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>0.3998739761125126</v>
+        <v>0.3713087793402865</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0359949607277708</v>
+        <v>0.03193992460105397</v>
       </c>
       <c r="G77" t="n">
-        <v>0.07706430288323181</v>
+        <v>0.01367785716560877</v>
       </c>
       <c r="H77" t="n">
-        <v>0.06423352334422534</v>
+        <v>0.1107784238266481</v>
       </c>
       <c r="I77" t="n">
-        <v>0.02418401811516887</v>
+        <v>0.009349911149301591</v>
       </c>
       <c r="J77" t="n">
-        <v>0.084585792560931</v>
+        <v>0.07794016774015625</v>
       </c>
       <c r="K77" t="n">
-        <v>0.01664037804477538</v>
+        <v>0.01840185557091721</v>
       </c>
       <c r="L77" t="n">
-        <v>0.0535221943119513</v>
+        <v>0.02945200932223957</v>
       </c>
       <c r="M77" t="n">
-        <v>0.01348961576505255</v>
+        <v>0.01235344025703631</v>
       </c>
       <c r="N77" t="n">
-        <v>0.03101443127490934</v>
+        <v>0.007508868395436606</v>
       </c>
       <c r="O77" t="n">
-        <v>0.05325223572280856</v>
+        <v>0.02770176098447706</v>
       </c>
       <c r="P77" t="n">
-        <v>0.0860805983439378</v>
+        <v>0.09999793099787921</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.05843266527090115</v>
+        <v>0.077730399824395</v>
       </c>
       <c r="R77" t="n">
-        <v>0.006424181820996462</v>
+        <v>0.001753820365832856</v>
       </c>
       <c r="S77" t="n">
-        <v>0.07518851879087825</v>
+        <v>0.02018852097428728</v>
       </c>
       <c r="T77" t="n">
-        <v>0.007774497055015736</v>
+        <v>0.0526785755675161</v>
       </c>
       <c r="U77" t="n">
-        <v>0.03690642417899212</v>
+        <v>0.1060142810693131</v>
       </c>
       <c r="V77" t="n">
-        <v>0.004224364652213254</v>
+        <v>0.01205980372895363</v>
       </c>
       <c r="W77" t="n">
-        <v>0.02483947561096442</v>
+        <v>0.07772602807753945</v>
       </c>
       <c r="X77" t="n">
-        <v>0.08659207810078745</v>
+        <v>0.08088241823187325</v>
       </c>
       <c r="Y77" t="n">
-        <v>0.07351441149072406</v>
+        <v>0.04033913716904194</v>
       </c>
       <c r="Z77" t="n">
-        <v>0.01411544846363602</v>
+        <v>0.01473836769848513</v>
       </c>
       <c r="AA77" t="n">
-        <v>0.05022268278381954</v>
+        <v>0.03981474439448195</v>
       </c>
       <c r="AB77" t="n">
-        <v>0.02170320068630866</v>
+        <v>0.0369717528875256</v>
       </c>
       <c r="AC77" t="n">
-        <v>-0.06938144825028818</v>
+        <v>-0.06871238910363191</v>
       </c>
     </row>
     <row r="78">
@@ -7811,79 +7811,79 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>0.131717302004054</v>
+        <v>0.1306487772681302</v>
       </c>
       <c r="F78" t="n">
-        <v>0.06345157752976653</v>
+        <v>0.02788966503722053</v>
       </c>
       <c r="G78" t="n">
-        <v>0.06448466970756377</v>
+        <v>0.08653663233841206</v>
       </c>
       <c r="H78" t="n">
-        <v>0.02295429866560281</v>
+        <v>0.0502912963409504</v>
       </c>
       <c r="I78" t="n">
-        <v>0.02044046236348098</v>
+        <v>0.008318442309923919</v>
       </c>
       <c r="J78" t="n">
-        <v>0.04752843852107469</v>
+        <v>0.04738179242583831</v>
       </c>
       <c r="K78" t="n">
-        <v>0.02027627863644949</v>
+        <v>0.067296979812105</v>
       </c>
       <c r="L78" t="n">
-        <v>0.001611068204502424</v>
+        <v>0.01088447153897314</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01604815187882936</v>
+        <v>0.008231575311940629</v>
       </c>
       <c r="N78" t="n">
-        <v>0.01431156023184899</v>
+        <v>0.05737606095109062</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01070871737385337</v>
+        <v>0.000825069876137621</v>
       </c>
       <c r="P78" t="n">
-        <v>0.08304010088384167</v>
+        <v>0.08574093215716697</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.07868684713737943</v>
+        <v>0.08519068173184578</v>
       </c>
       <c r="R78" t="n">
-        <v>0.08010545279823772</v>
+        <v>0.06536428959467261</v>
       </c>
       <c r="S78" t="n">
-        <v>0.04233938307085765</v>
+        <v>0.03998156424830545</v>
       </c>
       <c r="T78" t="n">
-        <v>0.06962075853482204</v>
+        <v>0.02642147965456725</v>
       </c>
       <c r="U78" t="n">
-        <v>0.0939756197938786</v>
+        <v>0.07633480353585384</v>
       </c>
       <c r="V78" t="n">
-        <v>0.03108941908030494</v>
+        <v>0.002365269166905351</v>
       </c>
       <c r="W78" t="n">
-        <v>0.02437703658481018</v>
+        <v>0.08567266829397162</v>
       </c>
       <c r="X78" t="n">
-        <v>0.04129138632760439</v>
+        <v>0.07893913825492703</v>
       </c>
       <c r="Y78" t="n">
-        <v>0.006255325232463446</v>
+        <v>0.00822020922076188</v>
       </c>
       <c r="Z78" t="n">
-        <v>0.05301385648313237</v>
+        <v>0.05390952847997622</v>
       </c>
       <c r="AA78" t="n">
-        <v>0.0964517319614457</v>
+        <v>0.001767663005553604</v>
       </c>
       <c r="AB78" t="n">
-        <v>0.01793785899824938</v>
+        <v>0.02505978671290004</v>
       </c>
       <c r="AC78" t="n">
-        <v>0.09692548007300361</v>
+        <v>0.08092177855064224</v>
       </c>
     </row>
     <row r="79">
@@ -7906,79 +7906,79 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>0.1726507409365113</v>
+        <v>0.1687743165317377</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0347416183081847</v>
+        <v>0.04927118288038695</v>
       </c>
       <c r="G79" t="n">
-        <v>0.06179788137127135</v>
+        <v>0.04134324338747993</v>
       </c>
       <c r="H79" t="n">
-        <v>0.0002957321045160247</v>
+        <v>0.09476165316660748</v>
       </c>
       <c r="I79" t="n">
-        <v>0.003963523725064744</v>
+        <v>0.002097479167308147</v>
       </c>
       <c r="J79" t="n">
-        <v>0.004796585350669641</v>
+        <v>0.02208907093129274</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01033190579045027</v>
+        <v>0.008450954913951932</v>
       </c>
       <c r="L79" t="n">
-        <v>0.002681333150865575</v>
+        <v>0.04132141292062659</v>
       </c>
       <c r="M79" t="n">
-        <v>0.1087456028787689</v>
+        <v>0.1219148366569361</v>
       </c>
       <c r="N79" t="n">
-        <v>0.01567896754044958</v>
+        <v>0.03115779945579284</v>
       </c>
       <c r="O79" t="n">
-        <v>0.00369727992426046</v>
+        <v>0.02301109283916959</v>
       </c>
       <c r="P79" t="n">
-        <v>0.006203762296721603</v>
+        <v>0.08979017072920951</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.09766809003586097</v>
+        <v>0.0716180876966352</v>
       </c>
       <c r="R79" t="n">
-        <v>0.1080480680754451</v>
+        <v>0.003359812053358137</v>
       </c>
       <c r="S79" t="n">
-        <v>0.01221154993105884</v>
+        <v>0.006382557863807556</v>
       </c>
       <c r="T79" t="n">
-        <v>0.01204158171977922</v>
+        <v>0.03854605977966905</v>
       </c>
       <c r="U79" t="n">
-        <v>0.02624521323204272</v>
+        <v>0.02289917068396279</v>
       </c>
       <c r="V79" t="n">
-        <v>0.008227364030475633</v>
+        <v>0.007779602386666656</v>
       </c>
       <c r="W79" t="n">
-        <v>0.06185523425572755</v>
+        <v>0.01611632831773296</v>
       </c>
       <c r="X79" t="n">
-        <v>0.06580358977197083</v>
+        <v>0.06416620275761624</v>
       </c>
       <c r="Y79" t="n">
-        <v>0.06364008861346314</v>
+        <v>0.03793273759510821</v>
       </c>
       <c r="Z79" t="n">
-        <v>0.09437386008212638</v>
+        <v>0.06549386999104716</v>
       </c>
       <c r="AA79" t="n">
-        <v>0.1008185789859548</v>
+        <v>0.1003608272752384</v>
       </c>
       <c r="AB79" t="n">
-        <v>0.09613258882487201</v>
+        <v>0.04013584655039596</v>
       </c>
       <c r="AC79" t="n">
-        <v>0.1070193167554522</v>
+        <v>0.09686152802431476</v>
       </c>
     </row>
     <row r="80">
@@ -8001,79 +8001,79 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>0.1884652271619035</v>
+        <v>0.1788027211598396</v>
       </c>
       <c r="F80" t="n">
-        <v>0.03884556097277261</v>
+        <v>0.03440269761809352</v>
       </c>
       <c r="G80" t="n">
-        <v>0.006680105608518293</v>
+        <v>0.02045866846400035</v>
       </c>
       <c r="H80" t="n">
-        <v>0.07073049863586182</v>
+        <v>0.08485767613117724</v>
       </c>
       <c r="I80" t="n">
-        <v>0.004555112890940197</v>
+        <v>0.06414036142529984</v>
       </c>
       <c r="J80" t="n">
-        <v>0.06403899763854921</v>
+        <v>0.03914583518279284</v>
       </c>
       <c r="K80" t="n">
-        <v>0.07348056213235868</v>
+        <v>0.01020428968879864</v>
       </c>
       <c r="L80" t="n">
-        <v>0.0270105585336227</v>
+        <v>0.04355820295173631</v>
       </c>
       <c r="M80" t="n">
-        <v>0.06975643204086311</v>
+        <v>0.08605226494688333</v>
       </c>
       <c r="N80" t="n">
-        <v>0.04102972943326536</v>
+        <v>0.04274300528915193</v>
       </c>
       <c r="O80" t="n">
-        <v>0.003081664633550597</v>
+        <v>0.004369484026026221</v>
       </c>
       <c r="P80" t="n">
-        <v>0.07782476844770497</v>
+        <v>0.07763699853446708</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.04706656589405975</v>
+        <v>0.08688205421472245</v>
       </c>
       <c r="R80" t="n">
-        <v>0.07800937392473384</v>
+        <v>0.03637437673343592</v>
       </c>
       <c r="S80" t="n">
-        <v>0.04037793576411838</v>
+        <v>0.05732969018973992</v>
       </c>
       <c r="T80" t="n">
-        <v>0.05737541850417751</v>
+        <v>0.01722960987696555</v>
       </c>
       <c r="U80" t="n">
-        <v>0.03006363258622448</v>
+        <v>0.07245769606171919</v>
       </c>
       <c r="V80" t="n">
-        <v>0.02481235240946142</v>
+        <v>0.02412396274695425</v>
       </c>
       <c r="W80" t="n">
-        <v>0.05460696815768729</v>
+        <v>0.04565990255081238</v>
       </c>
       <c r="X80" t="n">
-        <v>0.05286064601870858</v>
+        <v>0.0008073217571121566</v>
       </c>
       <c r="Y80" t="n">
-        <v>0.077863749759697</v>
+        <v>0.06621235318949081</v>
       </c>
       <c r="Z80" t="n">
-        <v>0.05531711549544249</v>
+        <v>0.0822239194190761</v>
       </c>
       <c r="AA80" t="n">
-        <v>0.002807403017372255</v>
+        <v>0.002087660798258172</v>
       </c>
       <c r="AB80" t="n">
-        <v>0.001804847500309538</v>
+        <v>0.001041968203286058</v>
       </c>
       <c r="AC80" t="n">
-        <v>-0.1781848583050959</v>
+        <v>-0.1572107916526153</v>
       </c>
     </row>
     <row r="81">
@@ -8096,79 +8096,79 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>0.4683633157932188</v>
+        <v>0.4375576886785035</v>
       </c>
       <c r="F81" t="n">
-        <v>0.02846947632458243</v>
+        <v>0.03522383061011596</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01143057023195318</v>
+        <v>0.01421513705704247</v>
       </c>
       <c r="H81" t="n">
-        <v>0.02323489670050839</v>
+        <v>0.01253395660875146</v>
       </c>
       <c r="I81" t="n">
-        <v>0.009769452574831907</v>
+        <v>0.09864461568302149</v>
       </c>
       <c r="J81" t="n">
-        <v>0.02722491030490233</v>
+        <v>0.03641911053557941</v>
       </c>
       <c r="K81" t="n">
-        <v>0.02956229280179322</v>
+        <v>0.02091496069665555</v>
       </c>
       <c r="L81" t="n">
-        <v>0.07610348129586682</v>
+        <v>0.06102779043145678</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01951515600147248</v>
+        <v>0.07350513482777916</v>
       </c>
       <c r="N81" t="n">
-        <v>0.1003687638976694</v>
+        <v>0.008390637314456148</v>
       </c>
       <c r="O81" t="n">
-        <v>0.08777479186974022</v>
+        <v>0.08180931662804369</v>
       </c>
       <c r="P81" t="n">
-        <v>0.002214269106742196</v>
+        <v>0.07366439298071517</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.02070503887393123</v>
+        <v>0.042075711921748</v>
       </c>
       <c r="R81" t="n">
-        <v>0.001701274439504678</v>
+        <v>0.04023564183307848</v>
       </c>
       <c r="S81" t="n">
-        <v>0.01120180102963071</v>
+        <v>0.006662276911466844</v>
       </c>
       <c r="T81" t="n">
-        <v>0.02399989372976778</v>
+        <v>0.01983795019966504</v>
       </c>
       <c r="U81" t="n">
-        <v>0.003486155736478505</v>
+        <v>0.00611221306289198</v>
       </c>
       <c r="V81" t="n">
-        <v>0.004871876982324111</v>
+        <v>0.003085344991638478</v>
       </c>
       <c r="W81" t="n">
-        <v>0.1161512227990111</v>
+        <v>0.04652017802844709</v>
       </c>
       <c r="X81" t="n">
-        <v>0.09053426696340443</v>
+        <v>0.01167886111394334</v>
       </c>
       <c r="Y81" t="n">
-        <v>0.0442551879612057</v>
+        <v>0.0848332730182097</v>
       </c>
       <c r="Z81" t="n">
-        <v>0.09577004837129691</v>
+        <v>0.06991075529105163</v>
       </c>
       <c r="AA81" t="n">
-        <v>0.05635557983982324</v>
+        <v>0.04860325475342887</v>
       </c>
       <c r="AB81" t="n">
-        <v>0.1152995921635591</v>
+        <v>0.1040956555008131</v>
       </c>
       <c r="AC81" t="n">
-        <v>-0.2183511399597783</v>
+        <v>-0.1896877460649929</v>
       </c>
     </row>
     <row r="82">
@@ -8191,79 +8191,79 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>0.2062888633118564</v>
+        <v>0.2021984923997237</v>
       </c>
       <c r="F82" t="n">
-        <v>0.06639556909639732</v>
+        <v>0.0991836051553948</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02065295067072344</v>
+        <v>0.03375316841925734</v>
       </c>
       <c r="H82" t="n">
-        <v>0.07769492640666813</v>
+        <v>0.06427795993828912</v>
       </c>
       <c r="I82" t="n">
-        <v>0.05706362976418888</v>
+        <v>0.0224402869510316</v>
       </c>
       <c r="J82" t="n">
-        <v>0.02369213302765677</v>
+        <v>0.01549283163845746</v>
       </c>
       <c r="K82" t="n">
-        <v>0.06792069339648805</v>
+        <v>0.005694134057981834</v>
       </c>
       <c r="L82" t="n">
-        <v>0.02331966814174244</v>
+        <v>0.04688536442187336</v>
       </c>
       <c r="M82" t="n">
-        <v>0.06249725481199503</v>
+        <v>0.02939277270316487</v>
       </c>
       <c r="N82" t="n">
-        <v>0.01238484557176451</v>
+        <v>0.009216580626796695</v>
       </c>
       <c r="O82" t="n">
-        <v>0.03860889111374086</v>
+        <v>0.0009031926958789582</v>
       </c>
       <c r="P82" t="n">
-        <v>0.0604204488298527</v>
+        <v>0.05288472557756373</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.07686134794479282</v>
+        <v>0.07583146237971024</v>
       </c>
       <c r="R82" t="n">
-        <v>0.06456620720000308</v>
+        <v>0.1013126748388036</v>
       </c>
       <c r="S82" t="n">
-        <v>0.01216426040410473</v>
+        <v>0.04312542714566298</v>
       </c>
       <c r="T82" t="n">
-        <v>0.02795609160346951</v>
+        <v>0.01669310353114026</v>
       </c>
       <c r="U82" t="n">
-        <v>0.05438415278482304</v>
+        <v>0.09153747601969757</v>
       </c>
       <c r="V82" t="n">
-        <v>0.0220084176994403</v>
+        <v>0.001529196290054477</v>
       </c>
       <c r="W82" t="n">
-        <v>0.07689232256279738</v>
+        <v>0.04866245148825413</v>
       </c>
       <c r="X82" t="n">
-        <v>0.03106610074246425</v>
+        <v>0.0545262672638241</v>
       </c>
       <c r="Y82" t="n">
-        <v>0.07836783580400122</v>
+        <v>0.08023013428373432</v>
       </c>
       <c r="Z82" t="n">
-        <v>0.0006666136391624264</v>
+        <v>0.07966714796705214</v>
       </c>
       <c r="AA82" t="n">
-        <v>0.03388338528501909</v>
+        <v>0.02255847056383933</v>
       </c>
       <c r="AB82" t="n">
-        <v>0.0105322534987042</v>
+        <v>0.004201566042536946</v>
       </c>
       <c r="AC82" t="n">
-        <v>0.164540218499897</v>
+        <v>0.1614688025380438</v>
       </c>
     </row>
     <row r="83">
@@ -8286,79 +8286,79 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>0.2343839823217147</v>
+        <v>0.2421274728068334</v>
       </c>
       <c r="F83" t="n">
-        <v>0.07769371255591026</v>
+        <v>0.04696256723940189</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02710828863340646</v>
+        <v>0.001841627183312507</v>
       </c>
       <c r="H83" t="n">
-        <v>0.07288871395559554</v>
+        <v>0.03185167479139998</v>
       </c>
       <c r="I83" t="n">
-        <v>0.07721034353185756</v>
+        <v>0.0546401621258892</v>
       </c>
       <c r="J83" t="n">
-        <v>0.01383070030176776</v>
+        <v>0.06177720469067053</v>
       </c>
       <c r="K83" t="n">
-        <v>0.0457946053710574</v>
+        <v>0.08707558717530536</v>
       </c>
       <c r="L83" t="n">
-        <v>0.05786167056945742</v>
+        <v>0.05200324789965451</v>
       </c>
       <c r="M83" t="n">
-        <v>0.05704410297807763</v>
+        <v>0.06093477228128732</v>
       </c>
       <c r="N83" t="n">
-        <v>0.02051099352860019</v>
+        <v>0.00308357918795835</v>
       </c>
       <c r="O83" t="n">
-        <v>0.03693181105793976</v>
+        <v>0.02880858796947281</v>
       </c>
       <c r="P83" t="n">
-        <v>0.08178145780584689</v>
+        <v>0.03404557838734086</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.01619100800926082</v>
+        <v>0.06778770354286601</v>
       </c>
       <c r="R83" t="n">
-        <v>0.05578676004287279</v>
+        <v>0.0339530549008918</v>
       </c>
       <c r="S83" t="n">
-        <v>1.281248895439307e-05</v>
+        <v>4.525715595453532e-06</v>
       </c>
       <c r="T83" t="n">
-        <v>0.05370963906855142</v>
+        <v>0.07055253029927541</v>
       </c>
       <c r="U83" t="n">
-        <v>0.0007276715290551299</v>
+        <v>0.04088671745514991</v>
       </c>
       <c r="V83" t="n">
-        <v>0.03297739873917759</v>
+        <v>0.0466328487874058</v>
       </c>
       <c r="W83" t="n">
-        <v>0.06422876529032755</v>
+        <v>0.01519670373558914</v>
       </c>
       <c r="X83" t="n">
-        <v>0.00229337365262652</v>
+        <v>0.01455890592633742</v>
       </c>
       <c r="Y83" t="n">
-        <v>0.05647663880212968</v>
+        <v>0.05322603124392111</v>
       </c>
       <c r="Z83" t="n">
-        <v>0.03234368915856432</v>
+        <v>0.0717110830978953</v>
       </c>
       <c r="AA83" t="n">
-        <v>0.08247976096325019</v>
+        <v>0.07837386296462318</v>
       </c>
       <c r="AB83" t="n">
-        <v>0.03411608196571293</v>
+        <v>0.04409144339875605</v>
       </c>
       <c r="AC83" t="n">
-        <v>0.1928114930999246</v>
+        <v>0.2027966317101158</v>
       </c>
     </row>
     <row r="84">
@@ -8381,79 +8381,79 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>0.2550453352432863</v>
+        <v>0.2506411093528227</v>
       </c>
       <c r="F84" t="n">
-        <v>0.03373298380685563</v>
+        <v>0.03517917694755512</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0592887797657539</v>
+        <v>0.06038050831887696</v>
       </c>
       <c r="H84" t="n">
-        <v>0.05638564585960994</v>
+        <v>0.06212986692728236</v>
       </c>
       <c r="I84" t="n">
-        <v>0.02798934784588344</v>
+        <v>0.002792894355847344</v>
       </c>
       <c r="J84" t="n">
-        <v>0.06857173717023622</v>
+        <v>0.04365803822350464</v>
       </c>
       <c r="K84" t="n">
-        <v>0.005575398258076607</v>
+        <v>0.080598138186665</v>
       </c>
       <c r="L84" t="n">
-        <v>0.01690787022704227</v>
+        <v>0.01080707230148647</v>
       </c>
       <c r="M84" t="n">
-        <v>0.03147569584034788</v>
+        <v>0.009479860182195229</v>
       </c>
       <c r="N84" t="n">
-        <v>0.07159359340946274</v>
+        <v>0.00704473863743498</v>
       </c>
       <c r="O84" t="n">
-        <v>0.02732434909630345</v>
+        <v>0.01178631615891532</v>
       </c>
       <c r="P84" t="n">
-        <v>0.0776658549414046</v>
+        <v>0.07100974401844343</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.08076089962837203</v>
+        <v>0.0931388811890614</v>
       </c>
       <c r="R84" t="n">
-        <v>0.06957474370750219</v>
+        <v>0.09364127979764539</v>
       </c>
       <c r="S84" t="n">
-        <v>0.01094307226555873</v>
+        <v>0.002123939441189978</v>
       </c>
       <c r="T84" t="n">
-        <v>0.02116982112953388</v>
+        <v>0.06885348183969883</v>
       </c>
       <c r="U84" t="n">
-        <v>0.05956259861755454</v>
+        <v>0.08408522344561604</v>
       </c>
       <c r="V84" t="n">
-        <v>0.0139014329159606</v>
+        <v>0.01321693391640145</v>
       </c>
       <c r="W84" t="n">
-        <v>0.08204397323639342</v>
+        <v>0.09346528485000506</v>
       </c>
       <c r="X84" t="n">
-        <v>0.0380918826895685</v>
+        <v>0.02130720511233511</v>
       </c>
       <c r="Y84" t="n">
-        <v>0.05155162425374387</v>
+        <v>0.05718094225560095</v>
       </c>
       <c r="Z84" t="n">
-        <v>0.02882019269515347</v>
+        <v>0.0248158175944292</v>
       </c>
       <c r="AA84" t="n">
-        <v>0.03417332707240423</v>
+        <v>0.04291231508979571</v>
       </c>
       <c r="AB84" t="n">
-        <v>0.03289517556727788</v>
+        <v>0.01039234121001409</v>
       </c>
       <c r="AC84" t="n">
-        <v>0.0635445178198311</v>
+        <v>0.08727317799695559</v>
       </c>
     </row>
     <row r="85">
@@ -8476,79 +8476,79 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>0.3051825469908379</v>
+        <v>0.3329584404976331</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0510084271993868</v>
+        <v>0.0749748768262513</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0816244906241595</v>
+        <v>0.05167977311539999</v>
       </c>
       <c r="H85" t="n">
-        <v>0.03563889679025008</v>
+        <v>0.04298024775842322</v>
       </c>
       <c r="I85" t="n">
-        <v>0.0855624082376662</v>
+        <v>0.02677152191451702</v>
       </c>
       <c r="J85" t="n">
-        <v>0.04138826405379057</v>
+        <v>0.008526451550286978</v>
       </c>
       <c r="K85" t="n">
-        <v>0.06483752776139873</v>
+        <v>0.05487067177972164</v>
       </c>
       <c r="L85" t="n">
-        <v>0.05284870428742385</v>
+        <v>0.02611757009368831</v>
       </c>
       <c r="M85" t="n">
-        <v>0.05974204296457587</v>
+        <v>0.07877833272049702</v>
       </c>
       <c r="N85" t="n">
-        <v>0.0423946771206132</v>
+        <v>0.07628983887661928</v>
       </c>
       <c r="O85" t="n">
-        <v>0.04796058053561273</v>
+        <v>0.006962595354083303</v>
       </c>
       <c r="P85" t="n">
-        <v>0.007613073891912555</v>
+        <v>0.004217441689136521</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.07568825210122349</v>
+        <v>0.07544803573446067</v>
       </c>
       <c r="R85" t="n">
-        <v>0.01518272043851971</v>
+        <v>0.007194162449638688</v>
       </c>
       <c r="S85" t="n">
-        <v>8.177637551052985e-06</v>
+        <v>3.81925577238015e-06</v>
       </c>
       <c r="T85" t="n">
-        <v>0.04650270780052335</v>
+        <v>0.06848269417098807</v>
       </c>
       <c r="U85" t="n">
-        <v>0.04599515067864673</v>
+        <v>0.05512421250326797</v>
       </c>
       <c r="V85" t="n">
-        <v>0.07252923623435724</v>
+        <v>0.07510392236765993</v>
       </c>
       <c r="W85" t="n">
-        <v>0.0360791108890296</v>
+        <v>0.04661953899280796</v>
       </c>
       <c r="X85" t="n">
-        <v>0.005968108161369065</v>
+        <v>0.06500613046078541</v>
       </c>
       <c r="Y85" t="n">
-        <v>0.08874264145830159</v>
+        <v>0.01742347976545804</v>
       </c>
       <c r="Z85" t="n">
-        <v>0.02720755500211394</v>
+        <v>0.03026044666421184</v>
       </c>
       <c r="AA85" t="n">
-        <v>0.008741470906201093</v>
+        <v>0.0594918913432713</v>
       </c>
       <c r="AB85" t="n">
-        <v>0.006735775225373336</v>
+        <v>0.04767234461305328</v>
       </c>
       <c r="AC85" t="n">
-        <v>0.08461954117860172</v>
+        <v>0.08356361445977097</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Data/DAX30/Efficient Portfolios with Prediction/Manual Recurrence/input 250/DAX30_efficient_portfolios_and_returns_with_prediction_quarter.xlsx
+++ b/Code/Data/DAX30/Efficient Portfolios with Prediction/Manual Recurrence/input 250/DAX30_efficient_portfolios_and_returns_with_prediction_quarter.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -595,79 +595,79 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.1670819774239086</v>
+        <v>0.1539092869578282</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07756665981227581</v>
+        <v>0.08045568345468446</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02441219472993085</v>
+        <v>0.0494340394198532</v>
       </c>
       <c r="H2" t="n">
-        <v>0.02676580093926154</v>
+        <v>0.0654136712858122</v>
       </c>
       <c r="I2" t="n">
-        <v>0.08439143798327654</v>
+        <v>0.07980935051191598</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01024281058179404</v>
+        <v>0.06077363658331471</v>
       </c>
       <c r="K2" t="n">
-        <v>0.09286070491916014</v>
+        <v>0.1036763367003995</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05416429884994779</v>
+        <v>0.004948736015853072</v>
       </c>
       <c r="M2" t="n">
-        <v>0.004156837349026675</v>
+        <v>0.03518403189620743</v>
       </c>
       <c r="N2" t="n">
-        <v>0.08804864098701061</v>
+        <v>0.08022410505165635</v>
       </c>
       <c r="O2" t="n">
-        <v>0.08034344453680037</v>
+        <v>0.004264117258612982</v>
       </c>
       <c r="P2" t="n">
-        <v>0.00332001973841961</v>
+        <v>0.03474081077250239</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.08963805251748762</v>
+        <v>0.0513296275568541</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0645400342023419</v>
+        <v>0.05282921225832131</v>
       </c>
       <c r="S2" t="n">
-        <v>0.03547160373865887</v>
+        <v>0.001422879567178617</v>
       </c>
       <c r="T2" t="n">
-        <v>0.02394484572957364</v>
+        <v>0.01287405298508974</v>
       </c>
       <c r="U2" t="n">
-        <v>0.04712972991211857</v>
+        <v>0.02812044415033253</v>
       </c>
       <c r="V2" t="n">
-        <v>0.002399177812387495</v>
+        <v>0.0003407725172900829</v>
       </c>
       <c r="W2" t="n">
-        <v>0.007064370922564308</v>
+        <v>0.1050038944882513</v>
       </c>
       <c r="X2" t="n">
-        <v>0.01713633102985572</v>
+        <v>0.02310526124595871</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.001601196798782049</v>
+        <v>0.00442918048081175</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.01050815894633122</v>
+        <v>0.003509613762984985</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.08806639808028401</v>
+        <v>0.09962068533151311</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.06622724988271041</v>
+        <v>0.01848985670460138</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.1295766007657061</v>
+        <v>0.1248129826832061</v>
       </c>
     </row>
     <row r="3">
@@ -690,79 +690,79 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.2933083112914303</v>
+        <v>0.2856260046618208</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06737970530226123</v>
+        <v>0.02011135926821449</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01201916148458424</v>
+        <v>0.0348981343736059</v>
       </c>
       <c r="H3" t="n">
-        <v>0.02464127276746458</v>
+        <v>0.05310353609462578</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02631318148512065</v>
+        <v>0.07929220751657505</v>
       </c>
       <c r="J3" t="n">
-        <v>0.06175100350639744</v>
+        <v>0.06051936326375303</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1043145765211808</v>
+        <v>0.03142072052591835</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02233188021515146</v>
+        <v>0.0001049406356265113</v>
       </c>
       <c r="M3" t="n">
-        <v>0.002916930913191724</v>
+        <v>0.03212908897282751</v>
       </c>
       <c r="N3" t="n">
-        <v>0.01277070988934018</v>
+        <v>0.08508610505907339</v>
       </c>
       <c r="O3" t="n">
-        <v>0.03565774048797051</v>
+        <v>0.05733312336427369</v>
       </c>
       <c r="P3" t="n">
-        <v>0.04620075436402885</v>
+        <v>0.07846321549102445</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.06021420266430069</v>
+        <v>0.01893641508783405</v>
       </c>
       <c r="R3" t="n">
-        <v>0.003941496829612162</v>
+        <v>0.008384486587528524</v>
       </c>
       <c r="S3" t="n">
-        <v>0.07942617639266725</v>
+        <v>0.04911996015363914</v>
       </c>
       <c r="T3" t="n">
-        <v>0.01049701574913806</v>
+        <v>0.01699459182311456</v>
       </c>
       <c r="U3" t="n">
-        <v>0.09193535144991173</v>
+        <v>0.01776134825714322</v>
       </c>
       <c r="V3" t="n">
-        <v>0.1123430576865947</v>
+        <v>0.1138249967518358</v>
       </c>
       <c r="W3" t="n">
-        <v>0.01882830020197717</v>
+        <v>0.05394200819099881</v>
       </c>
       <c r="X3" t="n">
-        <v>0.08559298585080873</v>
+        <v>0.04830308314496469</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.02625717559713701</v>
+        <v>0.003494726648451911</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.0243488847502867</v>
+        <v>0.01912316581134113</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.04712978858695815</v>
+        <v>0.01961527955372747</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.02318864730391603</v>
+        <v>0.09803814342390252</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.08654585096470094</v>
+        <v>0.1128152156774726</v>
       </c>
     </row>
     <row r="4">
@@ -785,79 +785,79 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.2344664536625135</v>
+        <v>0.2566712366155421</v>
       </c>
       <c r="F4" t="n">
-        <v>0.07315990334827811</v>
+        <v>0.01863869012718716</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04670995273633788</v>
+        <v>0.04134466555288252</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01412891554880163</v>
+        <v>0.02267023204711533</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04486658264756781</v>
+        <v>0.03815110011962339</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0401974270261063</v>
+        <v>0.03505610794607199</v>
       </c>
       <c r="K4" t="n">
-        <v>0.07101730045087908</v>
+        <v>0.08215570665667624</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05062209464530293</v>
+        <v>0.003505391096619632</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01136106552643475</v>
+        <v>3.401097703149182e-05</v>
       </c>
       <c r="N4" t="n">
-        <v>0.02245091891293199</v>
+        <v>0.09369771310681349</v>
       </c>
       <c r="O4" t="n">
-        <v>0.07089398989110428</v>
+        <v>0.08823177269226501</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0640134845651239</v>
+        <v>0.0981321120895141</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.05495758917092457</v>
+        <v>0.00202721354834931</v>
       </c>
       <c r="R4" t="n">
-        <v>0.01247687170572869</v>
+        <v>0.03090780729456761</v>
       </c>
       <c r="S4" t="n">
-        <v>0.01298382809817435</v>
+        <v>0.01447954037171316</v>
       </c>
       <c r="T4" t="n">
-        <v>0.02071984342788574</v>
+        <v>0.03238143619989365</v>
       </c>
       <c r="U4" t="n">
-        <v>0.08730014700404247</v>
+        <v>0.04058488651419626</v>
       </c>
       <c r="V4" t="n">
-        <v>0.05234485388528599</v>
+        <v>0.01154034768390746</v>
       </c>
       <c r="W4" t="n">
-        <v>0.002831808967450227</v>
+        <v>0.04842658709393906</v>
       </c>
       <c r="X4" t="n">
-        <v>0.05984067182478386</v>
+        <v>0.07254859225327677</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.07964001869711035</v>
+        <v>0.03685586250686147</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.08147820744253274</v>
+        <v>0.09407284269238121</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.02423586171921914</v>
+        <v>0.08264991822276804</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.001768662757993126</v>
+        <v>0.01190746320634567</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.01514577055578493</v>
+        <v>-0.03401434637986158</v>
       </c>
     </row>
     <row r="5">
@@ -880,79 +880,79 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.4134454205240228</v>
+        <v>0.5156259205434235</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06789508976221918</v>
+        <v>0.03038470545046025</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0416513725432127</v>
+        <v>0.08117264048079025</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0741585348746449</v>
+        <v>0.02746338432403122</v>
       </c>
       <c r="I5" t="n">
-        <v>0.07611537132883268</v>
+        <v>0.02127837362868254</v>
       </c>
       <c r="J5" t="n">
-        <v>0.02568385782832087</v>
+        <v>0.06104484666695392</v>
       </c>
       <c r="K5" t="n">
-        <v>0.05311146250345137</v>
+        <v>0.0946902821092849</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05594425949775238</v>
+        <v>0.07351604750459514</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01022669010613135</v>
+        <v>0.02556765461615968</v>
       </c>
       <c r="N5" t="n">
-        <v>0.03457073420538945</v>
+        <v>0.01992271448218321</v>
       </c>
       <c r="O5" t="n">
-        <v>0.07476546372268919</v>
+        <v>0.003612452765386691</v>
       </c>
       <c r="P5" t="n">
-        <v>0.04537029378144574</v>
+        <v>0.05531949250442137</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.02926747212102447</v>
+        <v>0.03730960610043973</v>
       </c>
       <c r="R5" t="n">
-        <v>9.116520364564784e-05</v>
+        <v>0.009347155591824502</v>
       </c>
       <c r="S5" t="n">
-        <v>0.01121439598590304</v>
+        <v>0.1015806754003789</v>
       </c>
       <c r="T5" t="n">
-        <v>0.001811433317578437</v>
+        <v>0.0007414645709133082</v>
       </c>
       <c r="U5" t="n">
-        <v>0.07482365811237511</v>
+        <v>0.01215573695534339</v>
       </c>
       <c r="V5" t="n">
-        <v>0.01457915087817122</v>
+        <v>0.08746197123972192</v>
       </c>
       <c r="W5" t="n">
-        <v>0.07490348809630537</v>
+        <v>0.008454008508964363</v>
       </c>
       <c r="X5" t="n">
-        <v>0.05913640637592183</v>
+        <v>0.07700491387328451</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.05818949368445525</v>
+        <v>0.03759017819694704</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.04598779234468203</v>
+        <v>0.005313704809864519</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.0659277060377423</v>
+        <v>0.1018762693973627</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.004574707688105454</v>
+        <v>0.02719172082200605</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.01055607088495581</v>
+        <v>-0.0357385225873159</v>
       </c>
     </row>
     <row r="6">
@@ -975,79 +975,79 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.1558052748231052</v>
+        <v>0.1570117333683825</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01046401252157369</v>
+        <v>0.06206261963734799</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03299482217904116</v>
+        <v>0.05057218603758486</v>
       </c>
       <c r="H6" t="n">
-        <v>0.006083942032969763</v>
+        <v>0.05749781990797784</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04432912649551581</v>
+        <v>0.009295861981981301</v>
       </c>
       <c r="J6" t="n">
-        <v>0.09274626671597304</v>
+        <v>0.0005496233015256831</v>
       </c>
       <c r="K6" t="n">
-        <v>0.006308709672764428</v>
+        <v>0.01121517340597758</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03414760722843448</v>
+        <v>0.03566034687920713</v>
       </c>
       <c r="M6" t="n">
-        <v>0.03569367846038696</v>
+        <v>0.05151643620979156</v>
       </c>
       <c r="N6" t="n">
-        <v>0.07698259636155894</v>
+        <v>0.0735023073582375</v>
       </c>
       <c r="O6" t="n">
-        <v>0.03713126003938239</v>
+        <v>0.0426872944370358</v>
       </c>
       <c r="P6" t="n">
-        <v>0.0510582212767882</v>
+        <v>0.04409258935497217</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.1019475766683703</v>
+        <v>0.07094346050378537</v>
       </c>
       <c r="R6" t="n">
-        <v>0.0343602781680399</v>
+        <v>0.04174400619054026</v>
       </c>
       <c r="S6" t="n">
-        <v>0.01303247770182249</v>
+        <v>0.05120412920021557</v>
       </c>
       <c r="T6" t="n">
-        <v>0.06107381681532587</v>
+        <v>0.07148667209021739</v>
       </c>
       <c r="U6" t="n">
-        <v>0.02543969882892446</v>
+        <v>0.04380014712053652</v>
       </c>
       <c r="V6" t="n">
-        <v>0.08710107538628968</v>
+        <v>0.06762941850445459</v>
       </c>
       <c r="W6" t="n">
-        <v>0.03609605939932839</v>
+        <v>0.01515281256264792</v>
       </c>
       <c r="X6" t="n">
-        <v>0.03292699411185015</v>
+        <v>0.04854299354163389</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.05756192651682634</v>
+        <v>0.05505658077845017</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.1005291179288366</v>
+        <v>0.03617637133790554</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.01978810286929186</v>
+        <v>0.05323963241939148</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.002202632620705138</v>
+        <v>0.006371517238581763</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.0102587413743002</v>
+        <v>0.05021042629983954</v>
       </c>
     </row>
     <row r="7">
@@ -1070,79 +1070,79 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.4579814704376808</v>
+        <v>0.1619836736879962</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02129711010132211</v>
+        <v>0.01186001743118159</v>
       </c>
       <c r="G7" t="n">
-        <v>0.06058297235986221</v>
+        <v>0.0945548034419247</v>
       </c>
       <c r="H7" t="n">
-        <v>0.007054617763300211</v>
+        <v>0.001302425150622759</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01622048324037332</v>
+        <v>0.06494413095298744</v>
       </c>
       <c r="J7" t="n">
-        <v>0.03336014933581395</v>
+        <v>0.0339512442696433</v>
       </c>
       <c r="K7" t="n">
-        <v>0.04511275830807716</v>
+        <v>0.02734659495788939</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03567932350203451</v>
+        <v>0.06690338807549766</v>
       </c>
       <c r="M7" t="n">
-        <v>0.006249916904381777</v>
+        <v>0.07094323843519929</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0591769948448022</v>
+        <v>0.1061803052797015</v>
       </c>
       <c r="O7" t="n">
-        <v>0.04507888753295666</v>
+        <v>0.008973058873323538</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1261375189516558</v>
+        <v>0.007869936175573697</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.01547951118968166</v>
+        <v>0.04271863969858482</v>
       </c>
       <c r="R7" t="n">
-        <v>0.02329777073134006</v>
+        <v>0.02680783101178466</v>
       </c>
       <c r="S7" t="n">
-        <v>0.006585109041818025</v>
+        <v>0.04460744234647704</v>
       </c>
       <c r="T7" t="n">
-        <v>0.04516504956945683</v>
+        <v>0.09865972915185336</v>
       </c>
       <c r="U7" t="n">
-        <v>0.003829182619318009</v>
+        <v>0.00128444173568708</v>
       </c>
       <c r="V7" t="n">
-        <v>0.09646704094268291</v>
+        <v>0.08391131735993805</v>
       </c>
       <c r="W7" t="n">
-        <v>0.0356773015072928</v>
+        <v>0.01189141257424695</v>
       </c>
       <c r="X7" t="n">
-        <v>0.04482157082099378</v>
+        <v>0.06029344023454842</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.02016272740208545</v>
+        <v>0.0451506408085368</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.113119657085771</v>
+        <v>0.05896701580538436</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.01954589097391301</v>
+        <v>0.02270397437326195</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.1198984552710665</v>
+        <v>0.008174971856151561</v>
       </c>
       <c r="AC7" t="n">
-        <v>-0.01844930161503396</v>
+        <v>0.01782478001835862</v>
       </c>
     </row>
     <row r="8">
@@ -1165,79 +1165,79 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.1960743353491466</v>
+        <v>0.1932583078574076</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03848041309579588</v>
+        <v>0.02494326367202149</v>
       </c>
       <c r="G8" t="n">
-        <v>0.07479623267437932</v>
+        <v>0.0411230344148917</v>
       </c>
       <c r="H8" t="n">
-        <v>0.02988287658434186</v>
+        <v>0.01596576281279622</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01022463653330513</v>
+        <v>0.01641586937849568</v>
       </c>
       <c r="J8" t="n">
-        <v>0.09461762462587499</v>
+        <v>0.03707449745614731</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1000598414921423</v>
+        <v>0.08694193361092939</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01813000943977395</v>
+        <v>0.01234214952029344</v>
       </c>
       <c r="M8" t="n">
-        <v>0.02751047724025885</v>
+        <v>0.01076248811827634</v>
       </c>
       <c r="N8" t="n">
-        <v>0.02554694025378803</v>
+        <v>0.04891016837161812</v>
       </c>
       <c r="O8" t="n">
-        <v>0.04848343798573491</v>
+        <v>0.1136747918211232</v>
       </c>
       <c r="P8" t="n">
-        <v>0.002104861264269136</v>
+        <v>0.1012527152699259</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.003191238493490796</v>
+        <v>0.006858263739864479</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1015498606028027</v>
+        <v>0.03944196226067691</v>
       </c>
       <c r="S8" t="n">
-        <v>0.03725050485550727</v>
+        <v>0.01871646735079921</v>
       </c>
       <c r="T8" t="n">
-        <v>0.0324906141450287</v>
+        <v>0.06019003123802176</v>
       </c>
       <c r="U8" t="n">
-        <v>0.06134141274509319</v>
+        <v>0.04336807114270724</v>
       </c>
       <c r="V8" t="n">
-        <v>0.02553912045287691</v>
+        <v>0.0549793009234153</v>
       </c>
       <c r="W8" t="n">
-        <v>0.04905525947451377</v>
+        <v>0.09954872291744558</v>
       </c>
       <c r="X8" t="n">
-        <v>0.0408786620891284</v>
+        <v>0.007366926747159536</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.002008196434426616</v>
+        <v>0.006360828347507537</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.05137494890067361</v>
+        <v>0.1163808846843437</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.05330088280171076</v>
+        <v>0.0303931779915685</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.07218194781508297</v>
+        <v>0.006988688209971383</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0.1285538300994089</v>
+        <v>-0.1362091962515835</v>
       </c>
     </row>
     <row r="9">
@@ -1260,79 +1260,79 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.6201523804299082</v>
+        <v>0.3382783407828215</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01014530047475549</v>
+        <v>0.08324900498909345</v>
       </c>
       <c r="G9" t="n">
-        <v>0.09571651075150427</v>
+        <v>0.03724870915110973</v>
       </c>
       <c r="H9" t="n">
-        <v>0.00239903504235091</v>
+        <v>0.0177088507298701</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01204187572870776</v>
+        <v>0.02899452619579171</v>
       </c>
       <c r="J9" t="n">
-        <v>0.05701363583293464</v>
+        <v>0.01256033829719259</v>
       </c>
       <c r="K9" t="n">
-        <v>0.007310694118963017</v>
+        <v>0.001834513119029545</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01936539148923347</v>
+        <v>0.06067948948462316</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01421066109753419</v>
+        <v>0.01306104466492911</v>
       </c>
       <c r="N9" t="n">
-        <v>0.01714651656056714</v>
+        <v>0.02500951142173024</v>
       </c>
       <c r="O9" t="n">
-        <v>0.004979965383102298</v>
+        <v>0.04578500205994724</v>
       </c>
       <c r="P9" t="n">
-        <v>0.002859426469399323</v>
+        <v>0.01488955213559873</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.1099401792467413</v>
+        <v>0.02140781494926252</v>
       </c>
       <c r="R9" t="n">
-        <v>0.08708257998742561</v>
+        <v>0.02518810558368437</v>
       </c>
       <c r="S9" t="n">
-        <v>0.01663722017864619</v>
+        <v>0.04037535650028081</v>
       </c>
       <c r="T9" t="n">
-        <v>0.05744058957144381</v>
+        <v>0.05929336784407947</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1025234567750993</v>
+        <v>0.08257552502226938</v>
       </c>
       <c r="V9" t="n">
-        <v>0.09084868871846478</v>
+        <v>0.008557511380671356</v>
       </c>
       <c r="W9" t="n">
-        <v>0.01037970115871476</v>
+        <v>0.1188669137825365</v>
       </c>
       <c r="X9" t="n">
-        <v>0.0500292168952424</v>
+        <v>0.08944549497221299</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.01886060621433285</v>
+        <v>0.08661806825313796</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.04251774020608017</v>
+        <v>0.03901651609579529</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.1030182031107306</v>
+        <v>0.00554518007579448</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.06753280498802577</v>
+        <v>0.08208960329135936</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.1578205217684469</v>
+        <v>-0.1162330924337188</v>
       </c>
     </row>
     <row r="10">
@@ -1355,79 +1355,79 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.1726270135575957</v>
+        <v>0.1735915252044369</v>
       </c>
       <c r="F10" t="n">
-        <v>0.07698311277978757</v>
+        <v>0.0533409245958292</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02147338084269563</v>
+        <v>0.01565202616076127</v>
       </c>
       <c r="H10" t="n">
-        <v>0.06365539322426479</v>
+        <v>0.07358161309470274</v>
       </c>
       <c r="I10" t="n">
-        <v>0.05416669460877277</v>
+        <v>0.04868538326343958</v>
       </c>
       <c r="J10" t="n">
-        <v>0.04931307855434305</v>
+        <v>0.01016935951771213</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01312177387439916</v>
+        <v>0.02358877944041099</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03248203982413173</v>
+        <v>0.01682080614792243</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0112826776735428</v>
+        <v>0.03124857388797808</v>
       </c>
       <c r="N10" t="n">
-        <v>0.004561078864525742</v>
+        <v>0.01253933081797085</v>
       </c>
       <c r="O10" t="n">
-        <v>0.07099583704993084</v>
+        <v>0.05828083794515819</v>
       </c>
       <c r="P10" t="n">
-        <v>0.06924721336708579</v>
+        <v>0.03704190625918131</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.0033438252228305</v>
+        <v>0.01684399246322741</v>
       </c>
       <c r="R10" t="n">
-        <v>0.06122353828311942</v>
+        <v>0.0767550553475134</v>
       </c>
       <c r="S10" t="n">
-        <v>0.05323509322857859</v>
+        <v>0.04519167110020963</v>
       </c>
       <c r="T10" t="n">
-        <v>0.06592538923757775</v>
+        <v>0.03893241619343136</v>
       </c>
       <c r="U10" t="n">
-        <v>0.04694766482805007</v>
+        <v>0.06682801525807044</v>
       </c>
       <c r="V10" t="n">
-        <v>0.01609417545997369</v>
+        <v>0.05963653480144139</v>
       </c>
       <c r="W10" t="n">
-        <v>0.06282869097120534</v>
+        <v>0.06425945159251344</v>
       </c>
       <c r="X10" t="n">
-        <v>0.03547579358947874</v>
+        <v>0.07424110230889386</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.01872203484557755</v>
+        <v>0.05252884554512599</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.07252515567808716</v>
+        <v>0.06986603817192691</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.06453255470800842</v>
+        <v>0.02784823044277298</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.03186380328403274</v>
+        <v>0.02611910564380646</v>
       </c>
       <c r="AC10" t="n">
-        <v>-0.08622343307281512</v>
+        <v>-0.08234249921738504</v>
       </c>
     </row>
     <row r="11">
@@ -1450,79 +1450,79 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.2525757810560675</v>
+        <v>0.2096430452589262</v>
       </c>
       <c r="F11" t="n">
-        <v>0.006048981877171507</v>
+        <v>0.008954320698486635</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02633798533557146</v>
+        <v>0.01360115198810329</v>
       </c>
       <c r="H11" t="n">
-        <v>0.05796009115371456</v>
+        <v>0.02099712576744557</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01650268565747234</v>
+        <v>0.1048455147618149</v>
       </c>
       <c r="J11" t="n">
-        <v>0.04122174041918564</v>
+        <v>0.04378931257836381</v>
       </c>
       <c r="K11" t="n">
-        <v>0.01598989411911518</v>
+        <v>0.04505805505313137</v>
       </c>
       <c r="L11" t="n">
-        <v>0.155149861088314</v>
+        <v>0.0625335705258908</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0307817623681057</v>
+        <v>0.02184519130818639</v>
       </c>
       <c r="N11" t="n">
-        <v>0.01052467062078461</v>
+        <v>0.04131395355848939</v>
       </c>
       <c r="O11" t="n">
-        <v>0.03905902667219717</v>
+        <v>0.03467507797329607</v>
       </c>
       <c r="P11" t="n">
-        <v>0.01475325778099678</v>
+        <v>0.01456969514259582</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.02986435706098506</v>
+        <v>0.1005042897450886</v>
       </c>
       <c r="R11" t="n">
-        <v>0.04508851263777747</v>
+        <v>0.01965472467794217</v>
       </c>
       <c r="S11" t="n">
-        <v>0.0006052965415772716</v>
+        <v>0.00124974557753222</v>
       </c>
       <c r="T11" t="n">
-        <v>0.002763397209903882</v>
+        <v>0.01300141366152642</v>
       </c>
       <c r="U11" t="n">
-        <v>0.02684071600042464</v>
+        <v>0.04459807610354252</v>
       </c>
       <c r="V11" t="n">
-        <v>0.02550479764592371</v>
+        <v>0.004833529155226158</v>
       </c>
       <c r="W11" t="n">
-        <v>0.08988205117830442</v>
+        <v>0.08346953788840712</v>
       </c>
       <c r="X11" t="n">
-        <v>0.002408516568286075</v>
+        <v>0.05249028465557378</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.109630324168293</v>
+        <v>0.01896394059927999</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.0529554471570666</v>
+        <v>0.07257342175270327</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.07875589432424457</v>
+        <v>0.08504911214180626</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.1213707324145843</v>
+        <v>0.09142895468556735</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.09963493035276311</v>
+        <v>-0.09095939367564763</v>
       </c>
     </row>
     <row r="12">
@@ -1545,79 +1545,79 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.1752974230715342</v>
+        <v>0.1788904432263812</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0003025248065571748</v>
+        <v>0.06502523838034963</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03576083991522606</v>
+        <v>0.01841472482152399</v>
       </c>
       <c r="H12" t="n">
-        <v>0.09140597399188431</v>
+        <v>0.06935879261016074</v>
       </c>
       <c r="I12" t="n">
-        <v>0.06908034718492749</v>
+        <v>0.05204372911684402</v>
       </c>
       <c r="J12" t="n">
-        <v>0.08098194586110397</v>
+        <v>0.09308876826457471</v>
       </c>
       <c r="K12" t="n">
-        <v>0.03549658963543966</v>
+        <v>0.03766941681495146</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01797995947337936</v>
+        <v>0.008345450760638515</v>
       </c>
       <c r="M12" t="n">
-        <v>0.01709407124269373</v>
+        <v>0.01609167579812429</v>
       </c>
       <c r="N12" t="n">
-        <v>0.02015479304823145</v>
+        <v>0.006230487394913178</v>
       </c>
       <c r="O12" t="n">
-        <v>0.04774373853598667</v>
+        <v>0.09461582012730331</v>
       </c>
       <c r="P12" t="n">
-        <v>0.06581293176854383</v>
+        <v>0.04108724434866382</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.05288855554756965</v>
+        <v>0.04883202662179739</v>
       </c>
       <c r="R12" t="n">
-        <v>0.06833388751048351</v>
+        <v>0.0008547417670273907</v>
       </c>
       <c r="S12" t="n">
-        <v>0.08200364376222165</v>
+        <v>0.03548194329032599</v>
       </c>
       <c r="T12" t="n">
-        <v>0.02121745321300945</v>
+        <v>0.0202256030116244</v>
       </c>
       <c r="U12" t="n">
-        <v>0.02553791183768416</v>
+        <v>0.09837793175845785</v>
       </c>
       <c r="V12" t="n">
-        <v>0.03164281448678465</v>
+        <v>0.02408523252155379</v>
       </c>
       <c r="W12" t="n">
-        <v>0.07630753763792576</v>
+        <v>0.07179931958625674</v>
       </c>
       <c r="X12" t="n">
-        <v>0.06746755015705024</v>
+        <v>0.009186406278895378</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.06324592924948773</v>
+        <v>0.07019934152003578</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.02400532872901008</v>
+        <v>0.06256064348775837</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.001328482079600163</v>
+        <v>0.02498144756305871</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.004207190325199259</v>
+        <v>0.03144401415516048</v>
       </c>
       <c r="AC12" t="n">
-        <v>-0.3428913147196478</v>
+        <v>-0.3741618449121005</v>
       </c>
     </row>
     <row r="13">
@@ -1640,79 +1640,79 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.3521648418098368</v>
+        <v>0.4463829528706529</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0037901221280549</v>
+        <v>0.1065528665433445</v>
       </c>
       <c r="G13" t="n">
-        <v>0.04254938065261718</v>
+        <v>0.005899064553836777</v>
       </c>
       <c r="H13" t="n">
-        <v>0.02882940213481561</v>
+        <v>0.009198768681969918</v>
       </c>
       <c r="I13" t="n">
-        <v>0.08975949789106014</v>
+        <v>0.07854698347391878</v>
       </c>
       <c r="J13" t="n">
-        <v>0.04910916224377485</v>
+        <v>0.004877295521098671</v>
       </c>
       <c r="K13" t="n">
-        <v>0.06471932483397554</v>
+        <v>0.009779303384230078</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0963812775347945</v>
+        <v>0.08703686935891737</v>
       </c>
       <c r="M13" t="n">
-        <v>0.05608660600613143</v>
+        <v>0.01891311147142599</v>
       </c>
       <c r="N13" t="n">
-        <v>0.004869419963789953</v>
+        <v>0.009870553576176989</v>
       </c>
       <c r="O13" t="n">
-        <v>0.02602561533849366</v>
+        <v>0.07024644428108671</v>
       </c>
       <c r="P13" t="n">
-        <v>0.02886915211650922</v>
+        <v>0.007292580813059775</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.04009848598873414</v>
+        <v>0.00662857522574281</v>
       </c>
       <c r="R13" t="n">
-        <v>0.03580484971333025</v>
+        <v>0.0802684817295187</v>
       </c>
       <c r="S13" t="n">
-        <v>0.05164148608650312</v>
+        <v>0.0004908848508148146</v>
       </c>
       <c r="T13" t="n">
-        <v>0.005559023410304221</v>
+        <v>0.03737305537813126</v>
       </c>
       <c r="U13" t="n">
-        <v>0.07500750221648865</v>
+        <v>0.05348853208380309</v>
       </c>
       <c r="V13" t="n">
-        <v>0.009155661691894402</v>
+        <v>0.02101513554557261</v>
       </c>
       <c r="W13" t="n">
-        <v>0.08372449099228205</v>
+        <v>0.06020794739916997</v>
       </c>
       <c r="X13" t="n">
-        <v>0.01844331419044286</v>
+        <v>0.07917245918514372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.02557520037303252</v>
+        <v>0.009578478176161127</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.02381399009336613</v>
+        <v>0.05025021701983128</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.03290625286343551</v>
+        <v>0.0890263206156971</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.107280781536169</v>
+        <v>0.1042860711313478</v>
       </c>
       <c r="AC13" t="n">
-        <v>-0.4179487337133465</v>
+        <v>-0.4062934356010162</v>
       </c>
     </row>
     <row r="14">
@@ -1735,79 +1735,79 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.2572670161572928</v>
+        <v>0.25652209580145</v>
       </c>
       <c r="F14" t="n">
-        <v>0.07652867575351774</v>
+        <v>0.02663601725102905</v>
       </c>
       <c r="G14" t="n">
-        <v>0.002223303422482973</v>
+        <v>0.001709448949861653</v>
       </c>
       <c r="H14" t="n">
-        <v>0.05185147788054958</v>
+        <v>0.03166125769926496</v>
       </c>
       <c r="I14" t="n">
-        <v>0.04300631800299879</v>
+        <v>0.04388180886207883</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0238707788561275</v>
+        <v>0.008505110156833308</v>
       </c>
       <c r="K14" t="n">
-        <v>0.05067325608664776</v>
+        <v>0.04388719104048539</v>
       </c>
       <c r="L14" t="n">
-        <v>0.02193349754395348</v>
+        <v>0.04449878261422241</v>
       </c>
       <c r="M14" t="n">
-        <v>0.06086875310585008</v>
+        <v>0.03451563042010217</v>
       </c>
       <c r="N14" t="n">
-        <v>0.007517373150902319</v>
+        <v>0.009007571180626639</v>
       </c>
       <c r="O14" t="n">
-        <v>0.005035610333540123</v>
+        <v>0.02824949273350719</v>
       </c>
       <c r="P14" t="n">
-        <v>0.01890848513019612</v>
+        <v>0.008537227121542005</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.001766058702225001</v>
+        <v>0.04637331658579737</v>
       </c>
       <c r="R14" t="n">
-        <v>0.05998386569608573</v>
+        <v>0.1055374484773188</v>
       </c>
       <c r="S14" t="n">
-        <v>0.06523004220129901</v>
+        <v>0.08044266771367178</v>
       </c>
       <c r="T14" t="n">
-        <v>0.07276064573383244</v>
+        <v>0.05450342157805105</v>
       </c>
       <c r="U14" t="n">
-        <v>0.05500472242814646</v>
+        <v>0.03933667341278444</v>
       </c>
       <c r="V14" t="n">
-        <v>0.01605572468993922</v>
+        <v>0.04579968128053379</v>
       </c>
       <c r="W14" t="n">
-        <v>0.06572040769247789</v>
+        <v>0.08844131801864102</v>
       </c>
       <c r="X14" t="n">
-        <v>0.07263975913249579</v>
+        <v>0.09125566013061454</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.07175731211412242</v>
+        <v>0.01863368485034364</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.06726541591605086</v>
+        <v>0.06111048384269004</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.03758422128446601</v>
+        <v>0.03237009660226859</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.05181429514209277</v>
+        <v>0.05510600947773143</v>
       </c>
       <c r="AC14" t="n">
-        <v>-0.04262981171984808</v>
+        <v>-0.03086123641758959</v>
       </c>
     </row>
     <row r="15">
@@ -1830,79 +1830,79 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.3865899890442813</v>
+        <v>0.3647395497543447</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09545911969897322</v>
+        <v>0.07306206537501483</v>
       </c>
       <c r="G15" t="n">
-        <v>0.08555306824473291</v>
+        <v>0.03224677129586804</v>
       </c>
       <c r="H15" t="n">
-        <v>0.01872391997221009</v>
+        <v>0.01508529919067124</v>
       </c>
       <c r="I15" t="n">
-        <v>0.02862563131520824</v>
+        <v>0.02841604811634381</v>
       </c>
       <c r="J15" t="n">
-        <v>0.02870467651532926</v>
+        <v>0.02163536225010285</v>
       </c>
       <c r="K15" t="n">
-        <v>0.08472054218184007</v>
+        <v>0.09403733871295872</v>
       </c>
       <c r="L15" t="n">
-        <v>0.04915665205941042</v>
+        <v>0.04938194611719832</v>
       </c>
       <c r="M15" t="n">
-        <v>0.04766769483902353</v>
+        <v>0.005165536189685708</v>
       </c>
       <c r="N15" t="n">
-        <v>0.09984226601106137</v>
+        <v>0.1008295724923568</v>
       </c>
       <c r="O15" t="n">
-        <v>0.03878068415813381</v>
+        <v>0.007671239147508943</v>
       </c>
       <c r="P15" t="n">
-        <v>0.02953411078654211</v>
+        <v>0.0519918570812865</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.06573786470495505</v>
+        <v>0.1015111348934126</v>
       </c>
       <c r="R15" t="n">
-        <v>0.02285192211619451</v>
+        <v>0.04835094822492207</v>
       </c>
       <c r="S15" t="n">
-        <v>0.009291623469750919</v>
+        <v>0.02520259729404297</v>
       </c>
       <c r="T15" t="n">
-        <v>0.01928323617412286</v>
+        <v>0.04957878691858764</v>
       </c>
       <c r="U15" t="n">
-        <v>0.007490305780987127</v>
+        <v>0.02174151235416981</v>
       </c>
       <c r="V15" t="n">
-        <v>0.08998010084458501</v>
+        <v>0.06870332804346055</v>
       </c>
       <c r="W15" t="n">
-        <v>0.007337704525932931</v>
+        <v>0.01309709284638821</v>
       </c>
       <c r="X15" t="n">
-        <v>0.006709987135082456</v>
+        <v>0.04927822167592805</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.09047427527237958</v>
+        <v>0.02052655456885163</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.06155930748447416</v>
+        <v>0.09635424117019971</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.01087929707977373</v>
+        <v>0.02173898066528841</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.001636009629296587</v>
+        <v>0.004393565375752702</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.010575109525961</v>
+        <v>-0.001357785827895729</v>
       </c>
     </row>
     <row r="16">
@@ -1925,79 +1925,79 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.2675611685262928</v>
+        <v>0.2646370483641125</v>
       </c>
       <c r="F16" t="n">
-        <v>0.03445624411778509</v>
+        <v>0.01445331326710511</v>
       </c>
       <c r="G16" t="n">
-        <v>0.02372352960807097</v>
+        <v>0.01955715584782359</v>
       </c>
       <c r="H16" t="n">
-        <v>0.02002070434352299</v>
+        <v>0.05063459391277377</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0148238333826127</v>
+        <v>0.02160698306510369</v>
       </c>
       <c r="J16" t="n">
-        <v>0.002336748366662205</v>
+        <v>0.01383428787177789</v>
       </c>
       <c r="K16" t="n">
-        <v>0.08258946084832686</v>
+        <v>0.06639662816898566</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0008301365272593008</v>
+        <v>0.0345860811403382</v>
       </c>
       <c r="M16" t="n">
-        <v>0.038548909197667</v>
+        <v>0.02069171785491295</v>
       </c>
       <c r="N16" t="n">
-        <v>0.01194259236238815</v>
+        <v>0.002089425995522389</v>
       </c>
       <c r="O16" t="n">
-        <v>0.04312341360150065</v>
+        <v>0.04209598506198074</v>
       </c>
       <c r="P16" t="n">
-        <v>0.07379682984818305</v>
+        <v>0.01657744950345688</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.07618346824319726</v>
+        <v>0.07218430199244062</v>
       </c>
       <c r="R16" t="n">
-        <v>0.1023205225866188</v>
+        <v>0.09438662222500235</v>
       </c>
       <c r="S16" t="n">
-        <v>0.07577306827028568</v>
+        <v>0.1045542464682533</v>
       </c>
       <c r="T16" t="n">
-        <v>0.03005377675111437</v>
+        <v>0.02476409823332826</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08333590249462845</v>
+        <v>0.06669207829104884</v>
       </c>
       <c r="V16" t="n">
-        <v>0.009723257502173002</v>
+        <v>0.01535429322389696</v>
       </c>
       <c r="W16" t="n">
-        <v>0.01026457361410414</v>
+        <v>0.0794800263818171</v>
       </c>
       <c r="X16" t="n">
-        <v>0.06399293979853567</v>
+        <v>0.07408966423481247</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.04107273170853572</v>
+        <v>0.0256722321996223</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.1048433533461616</v>
+        <v>0.04703839433065481</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.01543017494099657</v>
+        <v>0.02172651332862421</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.04081382853966966</v>
+        <v>0.07153390740071802</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.1226285622704251</v>
+        <v>0.1208821602501296</v>
       </c>
     </row>
     <row r="17">
@@ -2020,79 +2020,79 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.4518873680578537</v>
+        <v>0.4583585188905337</v>
       </c>
       <c r="F17" t="n">
-        <v>0.006054078359647708</v>
+        <v>0.03482187329236291</v>
       </c>
       <c r="G17" t="n">
-        <v>0.02060354093540774</v>
+        <v>0.06635164339557631</v>
       </c>
       <c r="H17" t="n">
-        <v>0.006758435676465041</v>
+        <v>0.04482828155285187</v>
       </c>
       <c r="I17" t="n">
-        <v>0.04946474806346672</v>
+        <v>0.02471339206442121</v>
       </c>
       <c r="J17" t="n">
-        <v>0.007605154133669017</v>
+        <v>0.0298981018627132</v>
       </c>
       <c r="K17" t="n">
-        <v>0.011474420287612</v>
+        <v>0.03973155250637978</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0008372003322715289</v>
+        <v>0.117699247696915</v>
       </c>
       <c r="M17" t="n">
-        <v>0.1016346375137079</v>
+        <v>0.002644455510101815</v>
       </c>
       <c r="N17" t="n">
-        <v>0.1030095917441248</v>
+        <v>0.111474871946076</v>
       </c>
       <c r="O17" t="n">
-        <v>0.01660383640873841</v>
+        <v>0.0128175080521427</v>
       </c>
       <c r="P17" t="n">
-        <v>0.02683901343282173</v>
+        <v>0.009618104698539805</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.01043776258208553</v>
+        <v>0.02012913122867863</v>
       </c>
       <c r="R17" t="n">
-        <v>0.07802514438172883</v>
+        <v>0.0001409749288627098</v>
       </c>
       <c r="S17" t="n">
-        <v>0.0552000288322587</v>
+        <v>0.05642146282137671</v>
       </c>
       <c r="T17" t="n">
-        <v>0.1062144320954802</v>
+        <v>0.03647887080581796</v>
       </c>
       <c r="U17" t="n">
-        <v>0.02891327370566665</v>
+        <v>0.002123739838578781</v>
       </c>
       <c r="V17" t="n">
-        <v>0.1148230590588856</v>
+        <v>0.126281829460193</v>
       </c>
       <c r="W17" t="n">
-        <v>0.08607568413674548</v>
+        <v>0.1257820207393473</v>
       </c>
       <c r="X17" t="n">
-        <v>0.08381309114821651</v>
+        <v>0.08349639696224836</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.02613446165751285</v>
+        <v>0.01224246199487408</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.04715701522387695</v>
+        <v>0.007797113711240645</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.01230001588843233</v>
+        <v>0.008216080932545276</v>
       </c>
       <c r="AB17" t="n">
-        <v>2.137440117760795e-05</v>
+        <v>0.02629088399815587</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.1111008878412645</v>
+        <v>0.1443809287207572</v>
       </c>
     </row>
     <row r="18">
@@ -2115,79 +2115,79 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.2733924683030108</v>
+        <v>0.2748934833363836</v>
       </c>
       <c r="F18" t="n">
-        <v>0.01647022213236586</v>
+        <v>0.0198617817251458</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01006211891196905</v>
+        <v>0.002669901202352865</v>
       </c>
       <c r="H18" t="n">
-        <v>0.00509172824821637</v>
+        <v>0.0002679065926387099</v>
       </c>
       <c r="I18" t="n">
-        <v>0.06604917216423453</v>
+        <v>0.07369615461072167</v>
       </c>
       <c r="J18" t="n">
-        <v>0.005422652865025771</v>
+        <v>0.02743030293666261</v>
       </c>
       <c r="K18" t="n">
-        <v>0.01727403077899856</v>
+        <v>0.008062941187931858</v>
       </c>
       <c r="L18" t="n">
-        <v>0.001182068345274402</v>
+        <v>0.04203675692202109</v>
       </c>
       <c r="M18" t="n">
-        <v>0.01020727973881361</v>
+        <v>0.06619825675651482</v>
       </c>
       <c r="N18" t="n">
-        <v>0.02682660398923516</v>
+        <v>0.01304113806769875</v>
       </c>
       <c r="O18" t="n">
-        <v>0.06971429160366291</v>
+        <v>0.02885522464234087</v>
       </c>
       <c r="P18" t="n">
-        <v>0.05917335587843501</v>
+        <v>0.05463761199370026</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.02098978900070878</v>
+        <v>0.0419846065132888</v>
       </c>
       <c r="R18" t="n">
-        <v>0.06106054693376634</v>
+        <v>0.1007681423141239</v>
       </c>
       <c r="S18" t="n">
-        <v>0.05364122356535992</v>
+        <v>0.05256287335869525</v>
       </c>
       <c r="T18" t="n">
-        <v>0.08841209626010436</v>
+        <v>0.04493675009812472</v>
       </c>
       <c r="U18" t="n">
-        <v>0.08437545545346276</v>
+        <v>0.06658068489112698</v>
       </c>
       <c r="V18" t="n">
-        <v>0.00265527760211678</v>
+        <v>0.009458907561588119</v>
       </c>
       <c r="W18" t="n">
-        <v>0.1066317908947096</v>
+        <v>0.09888280149407008</v>
       </c>
       <c r="X18" t="n">
-        <v>0.09682604163071044</v>
+        <v>0.0818212188526809</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.08742935160958218</v>
+        <v>0.02120595631939804</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.01995640194387865</v>
+        <v>0.05315687105340783</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.04000916717856585</v>
+        <v>0.06029580616756829</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.05053933327080291</v>
+        <v>0.03158740473819793</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.1473807317572547</v>
+        <v>0.1363484186363655</v>
       </c>
     </row>
     <row r="19">
@@ -2210,79 +2210,79 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.3463235352687999</v>
+        <v>0.3733735709715322</v>
       </c>
       <c r="F19" t="n">
-        <v>0.05610877902603024</v>
+        <v>0.03158994261666309</v>
       </c>
       <c r="G19" t="n">
-        <v>0.002008883672982903</v>
+        <v>0.03760525044250949</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1105578451875303</v>
+        <v>0.1173928390568958</v>
       </c>
       <c r="I19" t="n">
-        <v>0.08628205276983056</v>
+        <v>0.1029578952405742</v>
       </c>
       <c r="J19" t="n">
-        <v>0.003514606430500365</v>
+        <v>0.01969588114375536</v>
       </c>
       <c r="K19" t="n">
-        <v>0.01880435729645598</v>
+        <v>0.05737543423747175</v>
       </c>
       <c r="L19" t="n">
-        <v>0.002040038682267876</v>
+        <v>0.03677389264671235</v>
       </c>
       <c r="M19" t="n">
-        <v>0.06151619563094943</v>
+        <v>0.09749128398252772</v>
       </c>
       <c r="N19" t="n">
-        <v>0.0529823351349541</v>
+        <v>0.05640022098147766</v>
       </c>
       <c r="O19" t="n">
-        <v>0.01806348236029503</v>
+        <v>0.036878354347289</v>
       </c>
       <c r="P19" t="n">
-        <v>0.0007540301662285665</v>
+        <v>0.03431864878058521</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.01507109026888613</v>
+        <v>0.02754542968314309</v>
       </c>
       <c r="R19" t="n">
-        <v>0.02036904038241811</v>
+        <v>0.0186075463634397</v>
       </c>
       <c r="S19" t="n">
-        <v>0.01135252813495758</v>
+        <v>0.02057447835812977</v>
       </c>
       <c r="T19" t="n">
-        <v>0.0601394929531616</v>
+        <v>0.03193674857681556</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05389645030575346</v>
+        <v>0.003681114072203053</v>
       </c>
       <c r="V19" t="n">
-        <v>0.1205194140673672</v>
+        <v>0.1258344437677499</v>
       </c>
       <c r="W19" t="n">
-        <v>0.1185103875227963</v>
+        <v>0.04953817241180236</v>
       </c>
       <c r="X19" t="n">
-        <v>0.008351343046163943</v>
+        <v>0.002668470970428207</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.0002470227833262815</v>
+        <v>0.03179512924993533</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.02833496649028296</v>
+        <v>0.05444910948575655</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.04410437423782748</v>
+        <v>0.00172922617327028</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.1064712834490336</v>
+        <v>0.003160487410864399</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.1324612766226856</v>
+        <v>0.1433937589176967</v>
       </c>
     </row>
     <row r="20">
@@ -2305,79 +2305,79 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.2959134206078271</v>
+        <v>0.2908268611498247</v>
       </c>
       <c r="F20" t="n">
-        <v>0.08399528269833335</v>
+        <v>0.01719673053395446</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02280733800442451</v>
+        <v>0.02664241875915936</v>
       </c>
       <c r="H20" t="n">
-        <v>0.07168366433315748</v>
+        <v>0.01498444579900313</v>
       </c>
       <c r="I20" t="n">
-        <v>0.05360396099489069</v>
+        <v>0.04629151199604192</v>
       </c>
       <c r="J20" t="n">
-        <v>0.01230835661298745</v>
+        <v>0.001461429808509392</v>
       </c>
       <c r="K20" t="n">
-        <v>0.02765940711642217</v>
+        <v>0.01629222223317416</v>
       </c>
       <c r="L20" t="n">
-        <v>0.01501286389207425</v>
+        <v>0.03162129706255332</v>
       </c>
       <c r="M20" t="n">
-        <v>0.05629247764464752</v>
+        <v>0.07911222070294295</v>
       </c>
       <c r="N20" t="n">
-        <v>0.003674281078992915</v>
+        <v>0.003857657033344487</v>
       </c>
       <c r="O20" t="n">
-        <v>8.20991985529408e-05</v>
+        <v>0.07829589146444543</v>
       </c>
       <c r="P20" t="n">
-        <v>0.04511036283860073</v>
+        <v>0.05754333615118549</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.0703904923371716</v>
+        <v>0.04243837971102649</v>
       </c>
       <c r="R20" t="n">
-        <v>0.06121124032413103</v>
+        <v>0.08332729855119958</v>
       </c>
       <c r="S20" t="n">
-        <v>0.08116276924238412</v>
+        <v>0.06892681363261159</v>
       </c>
       <c r="T20" t="n">
-        <v>0.01622116521770157</v>
+        <v>0.01598076530419632</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04941659724476534</v>
+        <v>0.0418964959102903</v>
       </c>
       <c r="V20" t="n">
-        <v>0.02232466663549693</v>
+        <v>0.01513607928188905</v>
       </c>
       <c r="W20" t="n">
-        <v>0.08500880507446881</v>
+        <v>0.06814232980212986</v>
       </c>
       <c r="X20" t="n">
-        <v>0.004268391232937862</v>
+        <v>0.05614386922823759</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.01848124840078666</v>
+        <v>0.06544141525577896</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.06495643835907172</v>
+        <v>0.06460353970334388</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.05367203037980715</v>
+        <v>0.01989784630434574</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.08065606113819331</v>
+        <v>0.08476600577063637</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.04549785822051627</v>
+        <v>0.01360042559572368</v>
       </c>
     </row>
     <row r="21">
@@ -2400,79 +2400,79 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.3445606782232704</v>
+        <v>0.3446420574313031</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08275115590853369</v>
+        <v>0.04953251563969433</v>
       </c>
       <c r="G21" t="n">
-        <v>0.002137823520165631</v>
+        <v>0.07604225832405928</v>
       </c>
       <c r="H21" t="n">
-        <v>0.07545946408456146</v>
+        <v>0.05946909017345412</v>
       </c>
       <c r="I21" t="n">
-        <v>0.04648949378076797</v>
+        <v>0.01263940563394555</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0258370025927666</v>
+        <v>0.006640549024986347</v>
       </c>
       <c r="K21" t="n">
-        <v>0.04597890989463772</v>
+        <v>0.02440721102378882</v>
       </c>
       <c r="L21" t="n">
-        <v>0.008002979206223461</v>
+        <v>0.0368909859168698</v>
       </c>
       <c r="M21" t="n">
-        <v>8.824483243070107e-05</v>
+        <v>0.001066000352173234</v>
       </c>
       <c r="N21" t="n">
-        <v>0.04599149832033939</v>
+        <v>0.006802015304687123</v>
       </c>
       <c r="O21" t="n">
-        <v>0.008661633399601937</v>
+        <v>0.01331367834878027</v>
       </c>
       <c r="P21" t="n">
-        <v>0.0210260433406201</v>
+        <v>0.02200420660137822</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.08771598886175724</v>
+        <v>0.1080820415559285</v>
       </c>
       <c r="R21" t="n">
-        <v>0.002707625738345344</v>
+        <v>0.0399746990767685</v>
       </c>
       <c r="S21" t="n">
-        <v>0.02069646578628599</v>
+        <v>0.006373425054500071</v>
       </c>
       <c r="T21" t="n">
-        <v>0.01808655514220728</v>
+        <v>0.1221946759262917</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1002193503173372</v>
+        <v>0.081211266279476</v>
       </c>
       <c r="V21" t="n">
-        <v>0.1004212562355448</v>
+        <v>0.1128670999021106</v>
       </c>
       <c r="W21" t="n">
-        <v>0.01955511665064459</v>
+        <v>0.09317528868100004</v>
       </c>
       <c r="X21" t="n">
-        <v>0.007190119686351693</v>
+        <v>0.04523147965379969</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.03583934546587041</v>
+        <v>0.02905997415566449</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.1030262265127783</v>
+        <v>0.02589995127910864</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.04775017095802221</v>
+        <v>0.005144596943107923</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.09436752976420618</v>
+        <v>0.02197758514842708</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.06738738007493135</v>
+        <v>0.03006223478057242</v>
       </c>
     </row>
     <row r="22">
@@ -2495,76 +2495,76 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.3527103808654091</v>
+        <v>0.3622135078456072</v>
       </c>
       <c r="F22" t="n">
-        <v>0.008725324625631239</v>
+        <v>0.04359153745114563</v>
       </c>
       <c r="G22" t="n">
-        <v>0.02976355329145794</v>
+        <v>0.09947983199135406</v>
       </c>
       <c r="H22" t="n">
-        <v>0.03749838267144303</v>
+        <v>0.03672722294529127</v>
       </c>
       <c r="I22" t="n">
-        <v>0.07058136785869532</v>
+        <v>0.02919288262516688</v>
       </c>
       <c r="J22" t="n">
-        <v>0.03600149332240642</v>
+        <v>0.02370599182828591</v>
       </c>
       <c r="K22" t="n">
-        <v>0.05516394895764958</v>
+        <v>0.0593428627017288</v>
       </c>
       <c r="L22" t="n">
-        <v>0.02306280968950999</v>
+        <v>0.04044733776746847</v>
       </c>
       <c r="M22" t="n">
-        <v>0.04830142758842514</v>
+        <v>0.01298888185166001</v>
       </c>
       <c r="N22" t="n">
-        <v>0.06344714405415983</v>
+        <v>0.02210778278352003</v>
       </c>
       <c r="O22" t="n">
-        <v>0.05995145858134084</v>
+        <v>0.08980035071589826</v>
       </c>
       <c r="P22" t="n">
-        <v>0.08598630684231434</v>
+        <v>0.05131379564631244</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.07110354479009406</v>
+        <v>0.06198447674136433</v>
       </c>
       <c r="R22" t="n">
-        <v>0.06640827922409399</v>
+        <v>0.01089439774600187</v>
       </c>
       <c r="S22" t="n">
-        <v>0.02006163407052893</v>
+        <v>0.008838776472260508</v>
       </c>
       <c r="T22" t="n">
-        <v>0.008234036933884633</v>
+        <v>0.07313705627879186</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02786605989039322</v>
+        <v>0.004693388231556753</v>
       </c>
       <c r="V22" t="n">
-        <v>0.0126654902134724</v>
+        <v>0.08382922612568612</v>
       </c>
       <c r="W22" t="n">
-        <v>0.08690696117237476</v>
+        <v>0.1021192379263089</v>
       </c>
       <c r="X22" t="n">
-        <v>0.06272917639924883</v>
+        <v>0.03169751596787067</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.03488381006269636</v>
+        <v>0.08459560920537471</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.04605616805055631</v>
+        <v>0.004965617870933772</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.02116621264821884</v>
+        <v>0.02401545628281512</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.02343540906140418</v>
+        <v>0.0005307628432036767</v>
       </c>
       <c r="AC22" t="inlineStr"/>
     </row>
@@ -2588,76 +2588,76 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.3935929454987067</v>
+        <v>0.4609865179234235</v>
       </c>
       <c r="F23" t="n">
-        <v>0.06614801026888147</v>
+        <v>0.0291832601716677</v>
       </c>
       <c r="G23" t="n">
-        <v>0.01601484877970181</v>
+        <v>0.01627107977485804</v>
       </c>
       <c r="H23" t="n">
-        <v>0.04530870410054458</v>
+        <v>0.02350662264834535</v>
       </c>
       <c r="I23" t="n">
-        <v>0.01792906907717776</v>
+        <v>0.1034379337569151</v>
       </c>
       <c r="J23" t="n">
-        <v>0.04936845278595482</v>
+        <v>0.0894876867115503</v>
       </c>
       <c r="K23" t="n">
-        <v>0.05460062648144185</v>
+        <v>0.1077902057017961</v>
       </c>
       <c r="L23" t="n">
-        <v>0.06227071787446162</v>
+        <v>0.1174619492669989</v>
       </c>
       <c r="M23" t="n">
-        <v>0.001018396966813913</v>
+        <v>0.07632498248545735</v>
       </c>
       <c r="N23" t="n">
-        <v>0.02638258674790561</v>
+        <v>0.05038727565862473</v>
       </c>
       <c r="O23" t="n">
-        <v>0.0649358591954262</v>
+        <v>0.002655067738226301</v>
       </c>
       <c r="P23" t="n">
-        <v>0.04716286038967148</v>
+        <v>0.02885234509912427</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.01295630762472376</v>
+        <v>0.02188887425696045</v>
       </c>
       <c r="R23" t="n">
-        <v>0.06220531132891654</v>
+        <v>0.02136676717978929</v>
       </c>
       <c r="S23" t="n">
-        <v>0.02419014142525001</v>
+        <v>0.0002711861764696391</v>
       </c>
       <c r="T23" t="n">
-        <v>0.03820860944182725</v>
+        <v>0.01289762627714562</v>
       </c>
       <c r="U23" t="n">
-        <v>0.01788970477004856</v>
+        <v>0.001504307065783664</v>
       </c>
       <c r="V23" t="n">
-        <v>0.09940131630212495</v>
+        <v>0.1126018039892383</v>
       </c>
       <c r="W23" t="n">
-        <v>0.08380094919584793</v>
+        <v>0.0006281692834038875</v>
       </c>
       <c r="X23" t="n">
-        <v>0.05720212167565757</v>
+        <v>0.04864045120579994</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.033929059158498</v>
+        <v>0.002942338020591692</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.002737873187308052</v>
+        <v>0.06424448336738071</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.04586863751243201</v>
+        <v>0.02104405073483754</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.0704698357093842</v>
+        <v>0.04661153342903523</v>
       </c>
       <c r="AC23" t="inlineStr"/>
     </row>
@@ -2681,79 +2681,79 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.3104667678379062</v>
+        <v>0.3154010886284645</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0666775983635199</v>
+        <v>0.04068560521442403</v>
       </c>
       <c r="G24" t="n">
-        <v>0.08264361299766178</v>
+        <v>0.04898955952115391</v>
       </c>
       <c r="H24" t="n">
-        <v>0.03662794299612302</v>
+        <v>0.0487783829162496</v>
       </c>
       <c r="I24" t="n">
-        <v>0.05682635902321097</v>
+        <v>0.05909174068482874</v>
       </c>
       <c r="J24" t="n">
-        <v>0.01944659181341059</v>
+        <v>0.007950752734589632</v>
       </c>
       <c r="K24" t="n">
-        <v>0.01973752217669831</v>
+        <v>0.01087999605016923</v>
       </c>
       <c r="L24" t="n">
-        <v>0.02818440424512043</v>
+        <v>0.07365210300027515</v>
       </c>
       <c r="M24" t="n">
-        <v>0.02318531284566816</v>
+        <v>0.009233320033228302</v>
       </c>
       <c r="N24" t="n">
-        <v>0.04876415970160435</v>
+        <v>0.02378086637509962</v>
       </c>
       <c r="O24" t="n">
-        <v>0.001788006129885371</v>
+        <v>0.02946741731713415</v>
       </c>
       <c r="P24" t="n">
-        <v>0.03357051245399796</v>
+        <v>0.04393107451730192</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.05183685271764472</v>
+        <v>0.0628377396739447</v>
       </c>
       <c r="R24" t="n">
-        <v>0.07145254691558015</v>
+        <v>0.07267269779332523</v>
       </c>
       <c r="S24" t="n">
-        <v>0.0846571293240735</v>
+        <v>0.06208259123384134</v>
       </c>
       <c r="T24" t="n">
-        <v>0.007754249652915968</v>
+        <v>0.03689020951244049</v>
       </c>
       <c r="U24" t="n">
-        <v>0.03204406321008097</v>
+        <v>0.0564404741119735</v>
       </c>
       <c r="V24" t="n">
-        <v>0.002912467750409679</v>
+        <v>0.04218339289987805</v>
       </c>
       <c r="W24" t="n">
-        <v>0.05735800161763713</v>
+        <v>0.08378668609352845</v>
       </c>
       <c r="X24" t="n">
-        <v>0.07594401413034553</v>
+        <v>0.06901604355143681</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.06211432911762783</v>
+        <v>0.05730694416783569</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.0918784242510654</v>
+        <v>0.02073872281259705</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.0005894244103345052</v>
+        <v>0.0192104284574649</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.04400647415538386</v>
+        <v>0.02039325132727943</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.07912888497988632</v>
+        <v>0.09743356845847011</v>
       </c>
     </row>
     <row r="25">
@@ -2776,79 +2776,79 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.3868125269690503</v>
+        <v>0.3688622864146764</v>
       </c>
       <c r="F25" t="n">
-        <v>0.02793063466385209</v>
+        <v>0.07773974975557198</v>
       </c>
       <c r="G25" t="n">
-        <v>0.04870021017745189</v>
+        <v>0.07180193780346163</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1118619917117313</v>
+        <v>0.05052558844919617</v>
       </c>
       <c r="I25" t="n">
-        <v>0.02503137616410742</v>
+        <v>0.07514142085890664</v>
       </c>
       <c r="J25" t="n">
-        <v>0.03289034876673919</v>
+        <v>0.001225046951481329</v>
       </c>
       <c r="K25" t="n">
-        <v>0.003440246470193694</v>
+        <v>0.01069575516796542</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0542881804593208</v>
+        <v>0.08910622917729827</v>
       </c>
       <c r="M25" t="n">
-        <v>0.03210768910017696</v>
+        <v>0.008181041691194787</v>
       </c>
       <c r="N25" t="n">
-        <v>0.05096297512921224</v>
+        <v>0.02859757465657114</v>
       </c>
       <c r="O25" t="n">
-        <v>0.02832926953924393</v>
+        <v>0.01591576367398138</v>
       </c>
       <c r="P25" t="n">
-        <v>0.05909630072630785</v>
+        <v>0.06299244938982146</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.0101083115712218</v>
+        <v>0.01234130804189625</v>
       </c>
       <c r="R25" t="n">
-        <v>0.05147290352174608</v>
+        <v>0.01839696664436683</v>
       </c>
       <c r="S25" t="n">
-        <v>0.03203843611760279</v>
+        <v>0.07574339565511261</v>
       </c>
       <c r="T25" t="n">
-        <v>0.06608057968718051</v>
+        <v>0.05836004325734418</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01544521806217026</v>
+        <v>0.05932244605075805</v>
       </c>
       <c r="V25" t="n">
-        <v>0.101364237946452</v>
+        <v>0.1012413721859409</v>
       </c>
       <c r="W25" t="n">
-        <v>0.007130866915685916</v>
+        <v>0.02426068747507141</v>
       </c>
       <c r="X25" t="n">
-        <v>0.04813304897246069</v>
+        <v>0.01144562329388331</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.01289466460170292</v>
+        <v>0.03304696457417906</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.07410874452874086</v>
+        <v>0.05123745413991446</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.0295075552468746</v>
+        <v>0.04912879872969875</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.07707620991982432</v>
+        <v>0.01355238237638418</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.1737047210155188</v>
+        <v>0.1520578091251967</v>
       </c>
     </row>
     <row r="26">
@@ -2871,79 +2871,79 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.3463278646095606</v>
+        <v>0.3738544387121369</v>
       </c>
       <c r="F26" t="n">
-        <v>0.009666017175134873</v>
+        <v>0.05763899652759745</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03191963277296232</v>
+        <v>0.07130423892832743</v>
       </c>
       <c r="H26" t="n">
-        <v>0.02343259693563183</v>
+        <v>0.04741016815149856</v>
       </c>
       <c r="I26" t="n">
-        <v>0.06774962481881992</v>
+        <v>0.05254062164860366</v>
       </c>
       <c r="J26" t="n">
-        <v>0.01822410771797111</v>
+        <v>0.003581893829923557</v>
       </c>
       <c r="K26" t="n">
-        <v>0.01086256968565366</v>
+        <v>0.06157849337529217</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0006391311953954774</v>
+        <v>0.003667443509843343</v>
       </c>
       <c r="M26" t="n">
-        <v>0.02595472319231824</v>
+        <v>0.06790640853146944</v>
       </c>
       <c r="N26" t="n">
-        <v>0.08889389077807301</v>
+        <v>0.0370028508565339</v>
       </c>
       <c r="O26" t="n">
-        <v>0.01758517922606336</v>
+        <v>0.08213535185831447</v>
       </c>
       <c r="P26" t="n">
-        <v>0.09131510028388318</v>
+        <v>0.08056938855450627</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.01947737969368439</v>
+        <v>0.04480512338377007</v>
       </c>
       <c r="R26" t="n">
-        <v>0.08824425757063446</v>
+        <v>0.008777995292995723</v>
       </c>
       <c r="S26" t="n">
-        <v>0.06827455025931194</v>
+        <v>0.04173017663140802</v>
       </c>
       <c r="T26" t="n">
-        <v>0.056633328129403</v>
+        <v>0.0341927869237305</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03116518490572036</v>
+        <v>0.08552878741439005</v>
       </c>
       <c r="V26" t="n">
-        <v>0.01440471924327057</v>
+        <v>0.0118728264313656</v>
       </c>
       <c r="W26" t="n">
-        <v>0.08151820618701951</v>
+        <v>0.0167016653750652</v>
       </c>
       <c r="X26" t="n">
-        <v>0.07568312079126126</v>
+        <v>0.06766324317904997</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.06582385251317087</v>
+        <v>0.04941655490158516</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.08903428461312086</v>
+        <v>0.03128677899220614</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.004167833842517652</v>
+        <v>0.01949384363379457</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.0193307084689781</v>
+        <v>0.02319436206872871</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.08933131092336503</v>
+        <v>0.06510234227117315</v>
       </c>
     </row>
     <row r="27">
@@ -2966,79 +2966,79 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.6119887424054614</v>
+        <v>0.4323575304172303</v>
       </c>
       <c r="F27" t="n">
-        <v>0.08431459773251498</v>
+        <v>0.09189413897270567</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02034620248111174</v>
+        <v>0.005263003870339951</v>
       </c>
       <c r="H27" t="n">
-        <v>0.02517166511743908</v>
+        <v>0.04775401151227386</v>
       </c>
       <c r="I27" t="n">
-        <v>0.05790996878768962</v>
+        <v>0.0855906814702854</v>
       </c>
       <c r="J27" t="n">
-        <v>0.0006551657152258638</v>
+        <v>0.004355799278581156</v>
       </c>
       <c r="K27" t="n">
-        <v>0.03063001220592482</v>
+        <v>0.08322566739712411</v>
       </c>
       <c r="L27" t="n">
-        <v>0.06758691080106947</v>
+        <v>0.01778483935498323</v>
       </c>
       <c r="M27" t="n">
-        <v>0.04428565686540011</v>
+        <v>0.03807029106974626</v>
       </c>
       <c r="N27" t="n">
-        <v>0.07090949804436868</v>
+        <v>0.007688845950805674</v>
       </c>
       <c r="O27" t="n">
-        <v>0.06259479823140739</v>
+        <v>0.02927488246573321</v>
       </c>
       <c r="P27" t="n">
-        <v>0.06743777382689387</v>
+        <v>0.02683612265265984</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.08292499180786818</v>
+        <v>0.06322199412024862</v>
       </c>
       <c r="R27" t="n">
-        <v>0.06272959905601157</v>
+        <v>0.06898299173998894</v>
       </c>
       <c r="S27" t="n">
-        <v>0.05784358799970353</v>
+        <v>0.03093817428588931</v>
       </c>
       <c r="T27" t="n">
-        <v>0.02486078353788707</v>
+        <v>0.03006886113712805</v>
       </c>
       <c r="U27" t="n">
-        <v>0.02506089805564107</v>
+        <v>0.07978637475377094</v>
       </c>
       <c r="V27" t="n">
-        <v>0.0001158267274282997</v>
+        <v>0.001817395944916641</v>
       </c>
       <c r="W27" t="n">
-        <v>0.0764403363992877</v>
+        <v>0.06454142156813118</v>
       </c>
       <c r="X27" t="n">
-        <v>0.05069224153480432</v>
+        <v>0.03488885752037844</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.0406000992351729</v>
+        <v>0.09487671086871056</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.001823677721776438</v>
+        <v>0.06358274253775655</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.005374801681774535</v>
+        <v>0.01292186614974943</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.03969090643359894</v>
+        <v>0.01663432537809287</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.07132575000409781</v>
+        <v>0.06249001417556976</v>
       </c>
     </row>
     <row r="28">
@@ -3061,79 +3061,79 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.2154771978752377</v>
+        <v>0.2105714396477436</v>
       </c>
       <c r="F28" t="n">
-        <v>0.07671722882384964</v>
+        <v>0.1008987785113526</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03576360154726799</v>
+        <v>0.03154093178174269</v>
       </c>
       <c r="H28" t="n">
-        <v>0.008080630284342551</v>
+        <v>0.02185811268530337</v>
       </c>
       <c r="I28" t="n">
-        <v>0.0652302188365161</v>
+        <v>0.1009621027372531</v>
       </c>
       <c r="J28" t="n">
-        <v>0.01633642753348827</v>
+        <v>0.01055818893420615</v>
       </c>
       <c r="K28" t="n">
-        <v>0.05273414254697443</v>
+        <v>0.01413831876576479</v>
       </c>
       <c r="L28" t="n">
-        <v>0.03493588888509876</v>
+        <v>0.0004378747456666172</v>
       </c>
       <c r="M28" t="n">
-        <v>0.03011904002464162</v>
+        <v>0.0373047197368639</v>
       </c>
       <c r="N28" t="n">
-        <v>0.05670318216196663</v>
+        <v>0.08787875575683948</v>
       </c>
       <c r="O28" t="n">
-        <v>0.02217694677393902</v>
+        <v>0.0007940614598699623</v>
       </c>
       <c r="P28" t="n">
-        <v>0.0658426254056915</v>
+        <v>0.03687811795300734</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.01193307330639405</v>
+        <v>0.03948712643046804</v>
       </c>
       <c r="R28" t="n">
-        <v>0.0003714846151833878</v>
+        <v>0.001843910065734583</v>
       </c>
       <c r="S28" t="n">
-        <v>0.04119643391829503</v>
+        <v>0.09206516176468631</v>
       </c>
       <c r="T28" t="n">
-        <v>0.07485908616909689</v>
+        <v>0.07244381020739331</v>
       </c>
       <c r="U28" t="n">
-        <v>0.07710148316155142</v>
+        <v>0.02633866911369164</v>
       </c>
       <c r="V28" t="n">
-        <v>0.02054310467796608</v>
+        <v>0.03240824102412736</v>
       </c>
       <c r="W28" t="n">
-        <v>0.06500092343593092</v>
+        <v>0.09716753829379808</v>
       </c>
       <c r="X28" t="n">
-        <v>0.06381045862705488</v>
+        <v>0.08377977157932776</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.03681014842254476</v>
+        <v>0.01310477304857407</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.05482209156816654</v>
+        <v>0.08477575293191289</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.05281083854840967</v>
+        <v>0.006173547922205106</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.03610094072562988</v>
+        <v>0.007161734550210872</v>
       </c>
       <c r="AC28" t="n">
-        <v>-0.2573594666503971</v>
+        <v>-0.2392594294414418</v>
       </c>
     </row>
     <row r="29">
@@ -3156,79 +3156,79 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.291938850610488</v>
+        <v>0.3469753339804856</v>
       </c>
       <c r="F29" t="n">
-        <v>0.07289641935911827</v>
+        <v>0.1029749295051972</v>
       </c>
       <c r="G29" t="n">
-        <v>0.06882912753315941</v>
+        <v>0.02504247556197292</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0047139728861435</v>
+        <v>0.02117317141256497</v>
       </c>
       <c r="I29" t="n">
-        <v>0.02718180519496542</v>
+        <v>0.009479685190937993</v>
       </c>
       <c r="J29" t="n">
-        <v>0.1005965599183845</v>
+        <v>0.1210996675212422</v>
       </c>
       <c r="K29" t="n">
-        <v>0.09968485414313741</v>
+        <v>0.1675332705324453</v>
       </c>
       <c r="L29" t="n">
-        <v>0.07410976864269082</v>
+        <v>0.0163426758733814</v>
       </c>
       <c r="M29" t="n">
-        <v>0.09370087713304702</v>
+        <v>0.005374371974730954</v>
       </c>
       <c r="N29" t="n">
-        <v>0.003340032290430391</v>
+        <v>0.04747447656449408</v>
       </c>
       <c r="O29" t="n">
-        <v>0.0364986989026424</v>
+        <v>0.003912879430859364</v>
       </c>
       <c r="P29" t="n">
-        <v>0.02189541960568715</v>
+        <v>0.06976045445337534</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.01665678364264722</v>
+        <v>0.02064711589982536</v>
       </c>
       <c r="R29" t="n">
-        <v>0.002619950178537919</v>
+        <v>0.006392245711860549</v>
       </c>
       <c r="S29" t="n">
-        <v>0.07184417168656798</v>
+        <v>0.1134166074313607</v>
       </c>
       <c r="T29" t="n">
-        <v>0.02345771677860518</v>
+        <v>0.004040973070067461</v>
       </c>
       <c r="U29" t="n">
-        <v>0.0006263164348249703</v>
+        <v>0.009262347048532323</v>
       </c>
       <c r="V29" t="n">
-        <v>0.02516617770081501</v>
+        <v>0.02771462672473041</v>
       </c>
       <c r="W29" t="n">
-        <v>0.01704723994246318</v>
+        <v>0.00798743911642308</v>
       </c>
       <c r="X29" t="n">
-        <v>0.04735890273697317</v>
+        <v>0.074049642368114</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.00834063204209369</v>
+        <v>0.003365119489312604</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.005594829606179466</v>
+        <v>0.05706504475765563</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.07541319726424293</v>
+        <v>0.04345490757200014</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.1024265463766429</v>
+        <v>0.04243587278891574</v>
       </c>
       <c r="AC29" t="n">
-        <v>-0.2338037909518537</v>
+        <v>-0.2016837271915152</v>
       </c>
     </row>
     <row r="30">
@@ -3251,79 +3251,79 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.1942475398693118</v>
+        <v>0.1964706774501187</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0281362752510762</v>
+        <v>0.04919578757075423</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0133033927819309</v>
+        <v>0.03693203613802144</v>
       </c>
       <c r="H30" t="n">
-        <v>0.08393248635523633</v>
+        <v>0.08689122291897833</v>
       </c>
       <c r="I30" t="n">
-        <v>0.07734636514878081</v>
+        <v>0.07407811359461866</v>
       </c>
       <c r="J30" t="n">
-        <v>6.15581633157001e-05</v>
+        <v>0.007989597136744893</v>
       </c>
       <c r="K30" t="n">
-        <v>0.03840423726107482</v>
+        <v>0.004103734041994897</v>
       </c>
       <c r="L30" t="n">
-        <v>0.01072111003356634</v>
+        <v>0.002910637338028853</v>
       </c>
       <c r="M30" t="n">
-        <v>0.02863811690342769</v>
+        <v>0.07756940183451445</v>
       </c>
       <c r="N30" t="n">
-        <v>0.03922306765860276</v>
+        <v>0.05479708893700463</v>
       </c>
       <c r="O30" t="n">
-        <v>0.04797472101489236</v>
+        <v>0.06159328510973741</v>
       </c>
       <c r="P30" t="n">
-        <v>0.08561650788535588</v>
+        <v>0.06350366254440973</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.03352351883601368</v>
+        <v>0.05576481952847674</v>
       </c>
       <c r="R30" t="n">
-        <v>0.06514098575360805</v>
+        <v>0.03265696329881148</v>
       </c>
       <c r="S30" t="n">
-        <v>0.05690389883981675</v>
+        <v>0.08746358288739842</v>
       </c>
       <c r="T30" t="n">
-        <v>0.07751520676292062</v>
+        <v>0.0607378287505752</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0356328389749912</v>
+        <v>0.01388777433211843</v>
       </c>
       <c r="V30" t="n">
-        <v>0.01812752869642672</v>
+        <v>0.002019706960210959</v>
       </c>
       <c r="W30" t="n">
-        <v>0.08628483307099025</v>
+        <v>0.04587031379349045</v>
       </c>
       <c r="X30" t="n">
-        <v>0.05515077317171836</v>
+        <v>0.002332957179379858</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.01666456123611557</v>
+        <v>0.04341617242387705</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.07936831412537759</v>
+        <v>0.09371943705746605</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.01194846952981639</v>
+        <v>0.005849137004348624</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.0103812325449451</v>
+        <v>0.03671673961903893</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.07063171359994788</v>
+        <v>0.06550112217549428</v>
       </c>
     </row>
     <row r="31">
@@ -3346,79 +3346,79 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.2837735524297332</v>
+        <v>0.2931043064868228</v>
       </c>
       <c r="F31" t="n">
-        <v>0.005400564065358286</v>
+        <v>0.05098924177204667</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03740522902391138</v>
+        <v>0.01327675885692034</v>
       </c>
       <c r="H31" t="n">
-        <v>0.02293358758425857</v>
+        <v>0.07521219893217157</v>
       </c>
       <c r="I31" t="n">
-        <v>0.03545225711548201</v>
+        <v>0.0152419908768049</v>
       </c>
       <c r="J31" t="n">
-        <v>0.05282650085403731</v>
+        <v>0.06202775110689051</v>
       </c>
       <c r="K31" t="n">
-        <v>0.06937591393986492</v>
+        <v>0.08222915858361701</v>
       </c>
       <c r="L31" t="n">
-        <v>0.0691060680863561</v>
+        <v>0.02035124051329859</v>
       </c>
       <c r="M31" t="n">
-        <v>0.03353268133706795</v>
+        <v>0.05114565960689266</v>
       </c>
       <c r="N31" t="n">
-        <v>0.008042797395506949</v>
+        <v>0.02583413228135431</v>
       </c>
       <c r="O31" t="n">
-        <v>0.01320962608164093</v>
+        <v>0.01848541714812916</v>
       </c>
       <c r="P31" t="n">
-        <v>0.004053441489559369</v>
+        <v>0.01236813244680204</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.01266231511157301</v>
+        <v>0.005819182435095735</v>
       </c>
       <c r="R31" t="n">
-        <v>0.0105770230002112</v>
+        <v>0.0703738392545678</v>
       </c>
       <c r="S31" t="n">
-        <v>0.08055729422947694</v>
+        <v>0.09074806228985938</v>
       </c>
       <c r="T31" t="n">
-        <v>0.07901816544751315</v>
+        <v>0.004307022387126151</v>
       </c>
       <c r="U31" t="n">
-        <v>0.02387636933590835</v>
+        <v>0.06202203042330725</v>
       </c>
       <c r="V31" t="n">
-        <v>0.09709193603494236</v>
+        <v>0.06758296782917807</v>
       </c>
       <c r="W31" t="n">
-        <v>0.07622670527320612</v>
+        <v>0.008965739066261693</v>
       </c>
       <c r="X31" t="n">
-        <v>0.02071082262897472</v>
+        <v>0.06859148840441849</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.000514473947479098</v>
+        <v>0.005454083407250366</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.09687722274601107</v>
+        <v>0.04621084497771096</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.06714867687457469</v>
+        <v>0.07678836646294318</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.08340032839708533</v>
+        <v>0.06597469093735309</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.03297166118520949</v>
+        <v>0.02752753816999139</v>
       </c>
     </row>
     <row r="32">
@@ -3441,79 +3441,79 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.199954941954702</v>
+        <v>0.2019663241133059</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1168764630332159</v>
+        <v>0.09590767678797722</v>
       </c>
       <c r="G32" t="n">
-        <v>0.01275914551327046</v>
+        <v>0.008725997801696384</v>
       </c>
       <c r="H32" t="n">
-        <v>0.02384015512116831</v>
+        <v>0.009825465140272372</v>
       </c>
       <c r="I32" t="n">
-        <v>0.06711332895510466</v>
+        <v>0.04473659869118062</v>
       </c>
       <c r="J32" t="n">
-        <v>0.03412306799487889</v>
+        <v>0.01878786439098147</v>
       </c>
       <c r="K32" t="n">
-        <v>0.000978213982687437</v>
+        <v>0.03647004752682472</v>
       </c>
       <c r="L32" t="n">
-        <v>0.05767011370004474</v>
+        <v>0.0002180149430471357</v>
       </c>
       <c r="M32" t="n">
-        <v>0.01546549709707181</v>
+        <v>0.07819235082700175</v>
       </c>
       <c r="N32" t="n">
-        <v>0.006782873295592715</v>
+        <v>0.00717784948879438</v>
       </c>
       <c r="O32" t="n">
-        <v>0.05582203302172659</v>
+        <v>0.06477467431543085</v>
       </c>
       <c r="P32" t="n">
-        <v>0.07855990557002823</v>
+        <v>0.1044981082395792</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.01694951184766629</v>
+        <v>0.0400686211988031</v>
       </c>
       <c r="R32" t="n">
-        <v>0.08558964046418614</v>
+        <v>0.08863704552696891</v>
       </c>
       <c r="S32" t="n">
-        <v>0.06300463953286778</v>
+        <v>0.08102068986774608</v>
       </c>
       <c r="T32" t="n">
-        <v>0.009075405942822126</v>
+        <v>0.03006065517701457</v>
       </c>
       <c r="U32" t="n">
-        <v>0.01487746249707296</v>
+        <v>0.0586292163715753</v>
       </c>
       <c r="V32" t="n">
-        <v>0.0421992431864729</v>
+        <v>0.02823677990667749</v>
       </c>
       <c r="W32" t="n">
-        <v>0.07886040002180039</v>
+        <v>0.0460559845294096</v>
       </c>
       <c r="X32" t="n">
-        <v>0.09860228667762548</v>
+        <v>0.02401284051587761</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.05546009009832123</v>
+        <v>0.01369908777611318</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.01876247545401613</v>
+        <v>0.03503011929923836</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.03585337596349126</v>
+        <v>0.03614926468748765</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.01077467102886759</v>
+        <v>0.04908504699030214</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.097275197777203</v>
+        <v>0.09832908843531273</v>
       </c>
     </row>
     <row r="33">
@@ -3536,79 +3536,79 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.2326373395494615</v>
+        <v>0.2843063550784687</v>
       </c>
       <c r="F33" t="n">
-        <v>0.06907131278728244</v>
+        <v>0.06428656997421101</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1142830638507892</v>
+        <v>0.03777620163194569</v>
       </c>
       <c r="H33" t="n">
-        <v>0.03286025052803621</v>
+        <v>0.03005843547612708</v>
       </c>
       <c r="I33" t="n">
-        <v>0.002907927396342326</v>
+        <v>0.03812845736605693</v>
       </c>
       <c r="J33" t="n">
-        <v>0.01119868628255847</v>
+        <v>0.08986918639342709</v>
       </c>
       <c r="K33" t="n">
-        <v>0.1017298295583026</v>
+        <v>0.1523255732837435</v>
       </c>
       <c r="L33" t="n">
-        <v>0.005910306070606844</v>
+        <v>0.002424161788737575</v>
       </c>
       <c r="M33" t="n">
-        <v>0.1250118954625936</v>
+        <v>0.01566686790024113</v>
       </c>
       <c r="N33" t="n">
-        <v>0.00205459786416423</v>
+        <v>0.0475085830813702</v>
       </c>
       <c r="O33" t="n">
-        <v>0.01887771490368691</v>
+        <v>0.002934917630482275</v>
       </c>
       <c r="P33" t="n">
-        <v>0.03887730390668023</v>
+        <v>0.06350057965087764</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.006413143447818429</v>
+        <v>0.002328914240307258</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1198969942445293</v>
+        <v>0.06472843677674528</v>
       </c>
       <c r="S33" t="n">
-        <v>0.001666899098647574</v>
+        <v>0.002653090192147601</v>
       </c>
       <c r="T33" t="n">
-        <v>0.00187948688954159</v>
+        <v>0.02294354665150953</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01677261588839514</v>
+        <v>0.02217672007600243</v>
       </c>
       <c r="V33" t="n">
-        <v>0.0831725277312895</v>
+        <v>0.146293795568972</v>
       </c>
       <c r="W33" t="n">
-        <v>0.1384197267556281</v>
+        <v>0.003785646215866596</v>
       </c>
       <c r="X33" t="n">
-        <v>0.07068783506456841</v>
+        <v>0.03886790805304356</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.01482440850290781</v>
+        <v>0.02017696589067632</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.004116934295436621</v>
+        <v>0.02817336382494415</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.003698900381872332</v>
+        <v>0.07206888568364574</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.0156676390883221</v>
+        <v>0.03132319264891922</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.1263673864480193</v>
+        <v>0.1607910243468573</v>
       </c>
     </row>
     <row r="34">
@@ -3631,79 +3631,79 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.2385492437529069</v>
+        <v>0.2421931731195343</v>
       </c>
       <c r="F34" t="n">
-        <v>0.053335016840837</v>
+        <v>0.01122116692119236</v>
       </c>
       <c r="G34" t="n">
-        <v>0.04137155432109943</v>
+        <v>0.02066729222685245</v>
       </c>
       <c r="H34" t="n">
-        <v>0.05368767883796176</v>
+        <v>0.01559102751246021</v>
       </c>
       <c r="I34" t="n">
-        <v>0.03637759567130944</v>
+        <v>0.03305584876530927</v>
       </c>
       <c r="J34" t="n">
-        <v>0.03654284905882289</v>
+        <v>0.05033039291274185</v>
       </c>
       <c r="K34" t="n">
-        <v>0.03252236554043176</v>
+        <v>0.01689983824582459</v>
       </c>
       <c r="L34" t="n">
-        <v>0.003867385345541826</v>
+        <v>0.06475403657208141</v>
       </c>
       <c r="M34" t="n">
-        <v>0.08660363333188832</v>
+        <v>0.013694027280699</v>
       </c>
       <c r="N34" t="n">
-        <v>0.00205916827260476</v>
+        <v>0.05032034672836735</v>
       </c>
       <c r="O34" t="n">
-        <v>0.06482675532708231</v>
+        <v>0.08132024580959911</v>
       </c>
       <c r="P34" t="n">
-        <v>0.08810770347846511</v>
+        <v>0.1131110219097519</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.04165971226736193</v>
+        <v>0.03845608223771329</v>
       </c>
       <c r="R34" t="n">
-        <v>0.02814170581242665</v>
+        <v>0.02368655476555593</v>
       </c>
       <c r="S34" t="n">
-        <v>0.0761559142059363</v>
+        <v>0.1132209786211964</v>
       </c>
       <c r="T34" t="n">
-        <v>0.01915358744451515</v>
+        <v>0.0003404316529800419</v>
       </c>
       <c r="U34" t="n">
-        <v>0.001523776289340896</v>
+        <v>0.01407237805470105</v>
       </c>
       <c r="V34" t="n">
-        <v>0.05729559937413729</v>
+        <v>0.03075553176866012</v>
       </c>
       <c r="W34" t="n">
-        <v>0.01138734083343191</v>
+        <v>0.009833662113383809</v>
       </c>
       <c r="X34" t="n">
-        <v>0.07193201306200531</v>
+        <v>0.07964992531870607</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.04891244348784857</v>
+        <v>0.002827482536615812</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.08972049006567964</v>
+        <v>0.08388800349589566</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.003137637892863421</v>
+        <v>0.0729685152001652</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.05167807323840826</v>
+        <v>0.05933520934954715</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.009951934715990065</v>
+        <v>0.02765813665890893</v>
       </c>
     </row>
     <row r="35">
@@ -3726,79 +3726,79 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.7141889646133686</v>
+        <v>0.7559206047756144</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1135749275726683</v>
+        <v>0.1022573089498867</v>
       </c>
       <c r="G35" t="n">
-        <v>0.004180148042184924</v>
+        <v>0.003697991932773182</v>
       </c>
       <c r="H35" t="n">
-        <v>0.02604207994212458</v>
+        <v>0.05238887285791626</v>
       </c>
       <c r="I35" t="n">
-        <v>0.0707318244047826</v>
+        <v>0.001793127380511862</v>
       </c>
       <c r="J35" t="n">
-        <v>0.07997009067949276</v>
+        <v>0.06448605053801464</v>
       </c>
       <c r="K35" t="n">
-        <v>0.0978455365527346</v>
+        <v>0.009624781398593525</v>
       </c>
       <c r="L35" t="n">
-        <v>0.0887428413606736</v>
+        <v>0.06229012299612664</v>
       </c>
       <c r="M35" t="n">
-        <v>0.05287700780319726</v>
+        <v>0.01763774633282863</v>
       </c>
       <c r="N35" t="n">
-        <v>0.02268741983641982</v>
+        <v>0.01573825215073411</v>
       </c>
       <c r="O35" t="n">
-        <v>0.07160777481705533</v>
+        <v>0.06006324271116041</v>
       </c>
       <c r="P35" t="n">
-        <v>0.06974558626880062</v>
+        <v>0.06289598910544154</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.02050588397542206</v>
+        <v>0.05801744217616948</v>
       </c>
       <c r="R35" t="n">
-        <v>0.001938468821452697</v>
+        <v>0.00402104540851497</v>
       </c>
       <c r="S35" t="n">
-        <v>0.03522142184259686</v>
+        <v>0.05909528312983243</v>
       </c>
       <c r="T35" t="n">
-        <v>0.01564881309826072</v>
+        <v>0.01034948029316646</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1083860659909461</v>
+        <v>0.08746114526026452</v>
       </c>
       <c r="V35" t="n">
-        <v>0.009571555962079335</v>
+        <v>0.00493402989087741</v>
       </c>
       <c r="W35" t="n">
-        <v>0.009355402810701526</v>
+        <v>0.1041591907255178</v>
       </c>
       <c r="X35" t="n">
-        <v>0.01850016153722967</v>
+        <v>0.01337948615156704</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.02321071800940307</v>
+        <v>0.02341131629049395</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.02978871714718053</v>
+        <v>0.08637414566150607</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.01747526692524646</v>
+        <v>0.01503347699992031</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.01239228659934641</v>
+        <v>0.08089047165818208</v>
       </c>
       <c r="AC35" t="n">
-        <v>0.01078005874187858</v>
+        <v>0.01946275077790345</v>
       </c>
     </row>
     <row r="36">
@@ -3821,79 +3821,79 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.2407604469570188</v>
+        <v>0.2476169248419658</v>
       </c>
       <c r="F36" t="n">
-        <v>0.009110212944013584</v>
+        <v>0.03443614868898923</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0489340270751281</v>
+        <v>0.05636833775656284</v>
       </c>
       <c r="H36" t="n">
-        <v>0.03392720584134849</v>
+        <v>0.06007517795435921</v>
       </c>
       <c r="I36" t="n">
-        <v>0.01287828161818209</v>
+        <v>0.04438175841085109</v>
       </c>
       <c r="J36" t="n">
-        <v>0.06053717166250959</v>
+        <v>0.02074135641653377</v>
       </c>
       <c r="K36" t="n">
-        <v>0.004903938186968639</v>
+        <v>0.02693304645065756</v>
       </c>
       <c r="L36" t="n">
-        <v>0.07271915102337806</v>
+        <v>0.008684194422331431</v>
       </c>
       <c r="M36" t="n">
-        <v>0.05979091774749169</v>
+        <v>0.07873422522026768</v>
       </c>
       <c r="N36" t="n">
-        <v>0.01908728046510901</v>
+        <v>0.005309842724773306</v>
       </c>
       <c r="O36" t="n">
-        <v>0.04739894810734611</v>
+        <v>0.02549593811344229</v>
       </c>
       <c r="P36" t="n">
-        <v>0.07824716306290656</v>
+        <v>0.07867802566144798</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.07870680986810057</v>
+        <v>0.05859343724176821</v>
       </c>
       <c r="R36" t="n">
-        <v>0.02577954042258774</v>
+        <v>0.08585310182169868</v>
       </c>
       <c r="S36" t="n">
-        <v>0.0376225552190983</v>
+        <v>0.04602781895428772</v>
       </c>
       <c r="T36" t="n">
-        <v>0.003708992565708595</v>
+        <v>0.02188354359764525</v>
       </c>
       <c r="U36" t="n">
-        <v>0.02453778235288661</v>
+        <v>0.001981378849528783</v>
       </c>
       <c r="V36" t="n">
-        <v>0.0492510056062723</v>
+        <v>0.02759073722218204</v>
       </c>
       <c r="W36" t="n">
-        <v>0.04079939062789329</v>
+        <v>0.07791342520820957</v>
       </c>
       <c r="X36" t="n">
-        <v>0.0818773055901995</v>
+        <v>0.07349010911342725</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.08112353303499321</v>
+        <v>0.06303202673477599</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.06266863378607318</v>
+        <v>0.05992183689466849</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.06021620159145057</v>
+        <v>0.02571050995806167</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.006173951600354087</v>
+        <v>0.01816402258353002</v>
       </c>
       <c r="AC36" t="n">
-        <v>0.04612902812932372</v>
+        <v>0.04525559492812234</v>
       </c>
     </row>
     <row r="37">
@@ -3916,79 +3916,79 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.354821892744216</v>
+        <v>0.350221220246642</v>
       </c>
       <c r="F37" t="n">
-        <v>0.03517371407698204</v>
+        <v>0.0894423866498622</v>
       </c>
       <c r="G37" t="n">
-        <v>0.07910897505664469</v>
+        <v>0.003106718115332272</v>
       </c>
       <c r="H37" t="n">
-        <v>0.02688456844056403</v>
+        <v>0.0009067612860630247</v>
       </c>
       <c r="I37" t="n">
-        <v>0.03582963329968053</v>
+        <v>0.08059601560729607</v>
       </c>
       <c r="J37" t="n">
-        <v>0.07059599162051954</v>
+        <v>0.01159418999880974</v>
       </c>
       <c r="K37" t="n">
-        <v>0.04035095842954455</v>
+        <v>0.007237917089171477</v>
       </c>
       <c r="L37" t="n">
-        <v>0.04416229200198703</v>
+        <v>0.0008957026034668916</v>
       </c>
       <c r="M37" t="n">
-        <v>0.01331802299475969</v>
+        <v>0.02369319291546269</v>
       </c>
       <c r="N37" t="n">
-        <v>0.00515674975558968</v>
+        <v>0.005936070905398179</v>
       </c>
       <c r="O37" t="n">
-        <v>0.06504033230078116</v>
+        <v>0.1038648824045561</v>
       </c>
       <c r="P37" t="n">
-        <v>0.01073201549500394</v>
+        <v>0.03030677229085834</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.0598409025166564</v>
+        <v>0.03166409656521443</v>
       </c>
       <c r="R37" t="n">
-        <v>0.0366871150409525</v>
+        <v>0.01164854644751906</v>
       </c>
       <c r="S37" t="n">
-        <v>0.06837254520144501</v>
+        <v>0.1049531440125876</v>
       </c>
       <c r="T37" t="n">
-        <v>0.01696817795082032</v>
+        <v>0.02831838635645218</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1102272506137849</v>
+        <v>0.02435101346057463</v>
       </c>
       <c r="V37" t="n">
-        <v>0.0660804136139596</v>
+        <v>0.0875533103189307</v>
       </c>
       <c r="W37" t="n">
-        <v>0.01468004673443762</v>
+        <v>0.08233750553160675</v>
       </c>
       <c r="X37" t="n">
-        <v>0.03350912361455891</v>
+        <v>0.0474225669941432</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.04920532086692285</v>
+        <v>0.03940694656209715</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.003361899423746718</v>
+        <v>0.07967820037269963</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.09754010660892883</v>
+        <v>0.08347883356383362</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.01717384434172944</v>
+        <v>0.02160683994806424</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.06105204567560074</v>
+        <v>0.06540431242063113</v>
       </c>
     </row>
     <row r="38">
@@ -4011,79 +4011,79 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.2457698348468555</v>
+        <v>0.2539256350008803</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0384645258003885</v>
+        <v>0.05889698977784088</v>
       </c>
       <c r="G38" t="n">
-        <v>0.05384106690570788</v>
+        <v>0.03538493334629959</v>
       </c>
       <c r="H38" t="n">
-        <v>0.07329057707757769</v>
+        <v>0.08492883994369713</v>
       </c>
       <c r="I38" t="n">
-        <v>0.001025866666392374</v>
+        <v>0.001072377321823344</v>
       </c>
       <c r="J38" t="n">
-        <v>0.02805622215308148</v>
+        <v>0.003649822841460374</v>
       </c>
       <c r="K38" t="n">
-        <v>0.008242013500076339</v>
+        <v>0.007778571510539072</v>
       </c>
       <c r="L38" t="n">
-        <v>0.04399620089105481</v>
+        <v>0.0600821440358767</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0787578949531656</v>
+        <v>0.01849238591167433</v>
       </c>
       <c r="N38" t="n">
-        <v>0.03608271429251558</v>
+        <v>0.02976856553244801</v>
       </c>
       <c r="O38" t="n">
-        <v>0.0886202516945564</v>
+        <v>0.009986187718226965</v>
       </c>
       <c r="P38" t="n">
-        <v>0.07683040968622318</v>
+        <v>0.07324728112502098</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.01063920602690778</v>
+        <v>0.04958757968319741</v>
       </c>
       <c r="R38" t="n">
-        <v>0.008132085411019908</v>
+        <v>0.06335647767683372</v>
       </c>
       <c r="S38" t="n">
-        <v>0.1023386129561836</v>
+        <v>0.06147189872473637</v>
       </c>
       <c r="T38" t="n">
-        <v>0.09933705060662341</v>
+        <v>0.03635365542780131</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04567570720505133</v>
+        <v>0.08513021351738664</v>
       </c>
       <c r="V38" t="n">
-        <v>0.02348668916010916</v>
+        <v>0.06911542953589926</v>
       </c>
       <c r="W38" t="n">
-        <v>0.004755770674555431</v>
+        <v>0.0243439036635321</v>
       </c>
       <c r="X38" t="n">
-        <v>0.002376883249237409</v>
+        <v>0.006178687134742678</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.01840235830486275</v>
+        <v>0.07660481368511146</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.07866578640555789</v>
+        <v>0.08568819846834652</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.07180052837174618</v>
+        <v>0.05246679040113081</v>
       </c>
       <c r="AB38" t="n">
-        <v>0.007181578007405476</v>
+        <v>0.006414253016374329</v>
       </c>
       <c r="AC38" t="n">
-        <v>0.02943902727003059</v>
+        <v>0.01182934197795375</v>
       </c>
     </row>
     <row r="39">
@@ -4106,79 +4106,79 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.7065145557335145</v>
+        <v>0.2785534602186651</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0004554021259370233</v>
+        <v>0.08747582159437667</v>
       </c>
       <c r="G39" t="n">
-        <v>0.05656958445359302</v>
+        <v>0.02277951103057147</v>
       </c>
       <c r="H39" t="n">
-        <v>0.0417120917064091</v>
+        <v>0.03957578927476075</v>
       </c>
       <c r="I39" t="n">
-        <v>0.006515581129257045</v>
+        <v>0.002588348101277744</v>
       </c>
       <c r="J39" t="n">
-        <v>0.05004894610814322</v>
+        <v>0.07183911260714383</v>
       </c>
       <c r="K39" t="n">
-        <v>0.01423711561352682</v>
+        <v>0.01304863682149902</v>
       </c>
       <c r="L39" t="n">
-        <v>0.04262588249955759</v>
+        <v>0.01343550390155914</v>
       </c>
       <c r="M39" t="n">
-        <v>0.09046547192978018</v>
+        <v>0.009272379137247534</v>
       </c>
       <c r="N39" t="n">
-        <v>0.05322839645806166</v>
+        <v>0.06027720050743157</v>
       </c>
       <c r="O39" t="n">
-        <v>0.0823295899898306</v>
+        <v>0.0901965091629386</v>
       </c>
       <c r="P39" t="n">
-        <v>0.006116621883921398</v>
+        <v>0.06638303102480474</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.05699419430795284</v>
+        <v>0.01864361614678525</v>
       </c>
       <c r="R39" t="n">
-        <v>0.02031258688243736</v>
+        <v>0.007932968702847893</v>
       </c>
       <c r="S39" t="n">
-        <v>0.04825355763296443</v>
+        <v>0.07928565802566544</v>
       </c>
       <c r="T39" t="n">
-        <v>0.09278271435777662</v>
+        <v>0.07418340856448798</v>
       </c>
       <c r="U39" t="n">
-        <v>0.003028534418152363</v>
+        <v>0.08978768796887389</v>
       </c>
       <c r="V39" t="n">
-        <v>0.108326272074936</v>
+        <v>0.04700271584076469</v>
       </c>
       <c r="W39" t="n">
-        <v>0.008243635148331832</v>
+        <v>0.02292376187359024</v>
       </c>
       <c r="X39" t="n">
-        <v>0.01339506016527515</v>
+        <v>0.0002629418017763078</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.009406838491111895</v>
+        <v>0.006859810875418235</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.07477086918778168</v>
+        <v>0.09358888828523512</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.003988771335894144</v>
+        <v>0.06070458449266179</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.1161922820993679</v>
+        <v>0.02195211425828229</v>
       </c>
       <c r="AC39" t="n">
-        <v>-0.006968889235226058</v>
+        <v>0.03424010456724188</v>
       </c>
     </row>
     <row r="40">
@@ -4201,79 +4201,79 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.2344152480352873</v>
+        <v>0.2325043035682357</v>
       </c>
       <c r="F40" t="n">
-        <v>0.01140538423038076</v>
+        <v>0.03885407133111345</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03925430508963586</v>
+        <v>0.007881196734412099</v>
       </c>
       <c r="H40" t="n">
-        <v>0.04059508408660718</v>
+        <v>0.05284377579666075</v>
       </c>
       <c r="I40" t="n">
-        <v>0.04490260481034411</v>
+        <v>0.01381738341336154</v>
       </c>
       <c r="J40" t="n">
-        <v>0.06286620350198142</v>
+        <v>0.04791001179021522</v>
       </c>
       <c r="K40" t="n">
-        <v>0.004957390583585661</v>
+        <v>0.04425949621920956</v>
       </c>
       <c r="L40" t="n">
-        <v>0.08652713399472108</v>
+        <v>0.07863960961636911</v>
       </c>
       <c r="M40" t="n">
-        <v>0.05004252009099312</v>
+        <v>0.07673819588289733</v>
       </c>
       <c r="N40" t="n">
-        <v>0.009961822090139157</v>
+        <v>0.02807944041382737</v>
       </c>
       <c r="O40" t="n">
-        <v>0.0233458366056178</v>
+        <v>0.05787926246803419</v>
       </c>
       <c r="P40" t="n">
-        <v>0.004597911463976975</v>
+        <v>0.02882545111876956</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.0865302633862897</v>
+        <v>0.08274317180163654</v>
       </c>
       <c r="R40" t="n">
-        <v>0.06786950453339707</v>
+        <v>0.0720324816204838</v>
       </c>
       <c r="S40" t="n">
-        <v>0.04821963105168152</v>
+        <v>0.01289388311049699</v>
       </c>
       <c r="T40" t="n">
-        <v>0.05371180873500282</v>
+        <v>0.002204182670863543</v>
       </c>
       <c r="U40" t="n">
-        <v>0.009026770387546448</v>
+        <v>0.02105155915372397</v>
       </c>
       <c r="V40" t="n">
-        <v>0.05086634005636683</v>
+        <v>0.07325700293742095</v>
       </c>
       <c r="W40" t="n">
-        <v>0.08030701298135051</v>
+        <v>0.0722977102925169</v>
       </c>
       <c r="X40" t="n">
-        <v>0.000831014026805535</v>
+        <v>0.005676515663800042</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.03901753669108592</v>
+        <v>0.06977345831521412</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.0855979574300661</v>
+        <v>0.07312561929341589</v>
       </c>
       <c r="AA40" t="n">
-        <v>0.05346394025275839</v>
+        <v>0.03748679667579253</v>
       </c>
       <c r="AB40" t="n">
-        <v>0.04610202391966592</v>
+        <v>0.001729723679764705</v>
       </c>
       <c r="AC40" t="n">
-        <v>-0.001498239553577904</v>
+        <v>0.005189021683586412</v>
       </c>
     </row>
     <row r="41">
@@ -4296,79 +4296,79 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.6504285822052692</v>
+        <v>0.2741919504728583</v>
       </c>
       <c r="F41" t="n">
-        <v>0.08569114870557232</v>
+        <v>0.002674396702226207</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1001005450662634</v>
+        <v>0.02758033355325877</v>
       </c>
       <c r="H41" t="n">
-        <v>0.0232724536079369</v>
+        <v>0.02846569300442072</v>
       </c>
       <c r="I41" t="n">
-        <v>0.07178986607319314</v>
+        <v>0.06580229927707129</v>
       </c>
       <c r="J41" t="n">
-        <v>0.05351079220707181</v>
+        <v>0.005323571270750526</v>
       </c>
       <c r="K41" t="n">
-        <v>0.05379949673522266</v>
+        <v>0.07942363848257208</v>
       </c>
       <c r="L41" t="n">
-        <v>0.00713583949642892</v>
+        <v>0.008088808089874057</v>
       </c>
       <c r="M41" t="n">
-        <v>0.04462548336144195</v>
+        <v>0.01652153713972911</v>
       </c>
       <c r="N41" t="n">
-        <v>0.03123940554457337</v>
+        <v>0.04026472224323862</v>
       </c>
       <c r="O41" t="n">
-        <v>0.03089850420212265</v>
+        <v>0.1274124289954985</v>
       </c>
       <c r="P41" t="n">
-        <v>0.08120949288042151</v>
+        <v>0.07581970305520148</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.02161086170500213</v>
+        <v>0.006740471379800669</v>
       </c>
       <c r="R41" t="n">
-        <v>0.05794886435612353</v>
+        <v>0.03214191120156447</v>
       </c>
       <c r="S41" t="n">
-        <v>0.007003669024451035</v>
+        <v>0.06773624804299284</v>
       </c>
       <c r="T41" t="n">
-        <v>0.01840754792409787</v>
+        <v>0.01424916498790739</v>
       </c>
       <c r="U41" t="n">
-        <v>0.004418340297703358</v>
+        <v>0.003158618971455379</v>
       </c>
       <c r="V41" t="n">
-        <v>0.03238622535912822</v>
+        <v>0.03985657911065949</v>
       </c>
       <c r="W41" t="n">
-        <v>0.02903735652618436</v>
+        <v>0.07493073985107562</v>
       </c>
       <c r="X41" t="n">
-        <v>0.09237807686753063</v>
+        <v>0.00260456577132281</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.01943257214951542</v>
+        <v>0.01969893398981817</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.03832707004554611</v>
+        <v>0.0966381103575616</v>
       </c>
       <c r="AA41" t="n">
-        <v>0.07958464345131362</v>
+        <v>0.04885068226661563</v>
       </c>
       <c r="AB41" t="n">
-        <v>0.0161917444131553</v>
+        <v>0.1160168422553847</v>
       </c>
       <c r="AC41" t="n">
-        <v>0.01033712871504971</v>
+        <v>0.04550105144361731</v>
       </c>
     </row>
     <row r="42">
@@ -4391,79 +4391,79 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.2283703305980061</v>
+        <v>0.2418013702850477</v>
       </c>
       <c r="F42" t="n">
-        <v>0.03430862315761803</v>
+        <v>0.04448395476952719</v>
       </c>
       <c r="G42" t="n">
-        <v>0.01056860908704696</v>
+        <v>0.05110303309890295</v>
       </c>
       <c r="H42" t="n">
-        <v>0.02527745064009609</v>
+        <v>0.03410175121292022</v>
       </c>
       <c r="I42" t="n">
-        <v>0.01276952758727325</v>
+        <v>0.03568587406478362</v>
       </c>
       <c r="J42" t="n">
-        <v>0.0567153201441567</v>
+        <v>0.06847053168705816</v>
       </c>
       <c r="K42" t="n">
-        <v>0.008670427975813627</v>
+        <v>0.008466786920311218</v>
       </c>
       <c r="L42" t="n">
-        <v>0.02774984813148727</v>
+        <v>0.032718634885899</v>
       </c>
       <c r="M42" t="n">
-        <v>0.0107343381593985</v>
+        <v>0.006023565535163995</v>
       </c>
       <c r="N42" t="n">
-        <v>0.009444578632373848</v>
+        <v>0.01492921546913725</v>
       </c>
       <c r="O42" t="n">
-        <v>0.009527395477135922</v>
+        <v>0.03973286362801592</v>
       </c>
       <c r="P42" t="n">
-        <v>0.03876881104019101</v>
+        <v>0.03483742474089462</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.06279442479844873</v>
+        <v>0.03394010300712491</v>
       </c>
       <c r="R42" t="n">
-        <v>0.06468212729279393</v>
+        <v>0.07427344970011007</v>
       </c>
       <c r="S42" t="n">
-        <v>0.09605597117388025</v>
+        <v>0.07566043072316146</v>
       </c>
       <c r="T42" t="n">
-        <v>0.02431817406531179</v>
+        <v>0.04426153872129684</v>
       </c>
       <c r="U42" t="n">
-        <v>0.02497125642456969</v>
+        <v>0.00370710748109245</v>
       </c>
       <c r="V42" t="n">
-        <v>0.09585812267890362</v>
+        <v>0.03801776057592177</v>
       </c>
       <c r="W42" t="n">
-        <v>0.05691181148158754</v>
+        <v>0.08408656708800415</v>
       </c>
       <c r="X42" t="n">
-        <v>0.08960936342701636</v>
+        <v>0.08582515034917121</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.06366083251308005</v>
+        <v>0.02531973312656629</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.06406644810134661</v>
+        <v>0.06474055106153194</v>
       </c>
       <c r="AA42" t="n">
-        <v>0.08933474572766252</v>
+        <v>0.07804204541183343</v>
       </c>
       <c r="AB42" t="n">
-        <v>0.02320179228280785</v>
+        <v>0.02157192674157121</v>
       </c>
       <c r="AC42" t="n">
-        <v>0.143523481285987</v>
+        <v>0.1399546251547427</v>
       </c>
     </row>
     <row r="43">
@@ -4486,79 +4486,79 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.516736532519693</v>
+        <v>0.3482884689525326</v>
       </c>
       <c r="F43" t="n">
-        <v>0.06946463700883901</v>
+        <v>0.08609057007285779</v>
       </c>
       <c r="G43" t="n">
-        <v>0.03536409048218662</v>
+        <v>0.06843099673845397</v>
       </c>
       <c r="H43" t="n">
-        <v>0.002320832785594674</v>
+        <v>0.06970554498824068</v>
       </c>
       <c r="I43" t="n">
-        <v>0.004130387737140209</v>
+        <v>0.06705153364208187</v>
       </c>
       <c r="J43" t="n">
-        <v>0.06552126391122169</v>
+        <v>0.05566979843434771</v>
       </c>
       <c r="K43" t="n">
-        <v>0.01201698277973765</v>
+        <v>0.06363170412765858</v>
       </c>
       <c r="L43" t="n">
-        <v>0.04144436846219397</v>
+        <v>0.04973306797114776</v>
       </c>
       <c r="M43" t="n">
-        <v>0.1079219355977011</v>
+        <v>0.003353366072788421</v>
       </c>
       <c r="N43" t="n">
-        <v>0.01663046561350933</v>
+        <v>0.0499293062354607</v>
       </c>
       <c r="O43" t="n">
-        <v>0.02440417971117541</v>
+        <v>0.03071978352372595</v>
       </c>
       <c r="P43" t="n">
-        <v>0.09410733788430851</v>
+        <v>0.01016346674346231</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.09217350569778705</v>
+        <v>0.05576608356323631</v>
       </c>
       <c r="R43" t="n">
-        <v>0.01369609402579345</v>
+        <v>0.02150209199625107</v>
       </c>
       <c r="S43" t="n">
-        <v>0.03221200726527466</v>
+        <v>0.05597737553648573</v>
       </c>
       <c r="T43" t="n">
-        <v>0.05760081533707963</v>
+        <v>0.06444164660733373</v>
       </c>
       <c r="U43" t="n">
-        <v>0.002301384933463999</v>
+        <v>0.07903540380495458</v>
       </c>
       <c r="V43" t="n">
-        <v>0.03804206739980921</v>
+        <v>0.005191483515167031</v>
       </c>
       <c r="W43" t="n">
-        <v>0.004278715616250099</v>
+        <v>0.004729639451861081</v>
       </c>
       <c r="X43" t="n">
-        <v>0.0484636353127362</v>
+        <v>0.08608936293954803</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.03747308782485136</v>
+        <v>0.009188579231940374</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.106897219970573</v>
+        <v>0.04481814369044049</v>
       </c>
       <c r="AA43" t="n">
-        <v>0.05703583564918695</v>
+        <v>0.01004859309271784</v>
       </c>
       <c r="AB43" t="n">
-        <v>0.03649914899358637</v>
+        <v>0.008732458019838102</v>
       </c>
       <c r="AC43" t="n">
-        <v>0.1416298539810153</v>
+        <v>0.1422085549869157</v>
       </c>
     </row>
     <row r="44">
@@ -4581,79 +4581,79 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.2133000196814956</v>
+        <v>0.2067978174981591</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09172021005998786</v>
+        <v>0.08523145384498336</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02300962725974889</v>
+        <v>0.05694310592392183</v>
       </c>
       <c r="H44" t="n">
-        <v>0.0917311607301815</v>
+        <v>0.07430114494064616</v>
       </c>
       <c r="I44" t="n">
-        <v>0.02813469402796579</v>
+        <v>0.04217245689369725</v>
       </c>
       <c r="J44" t="n">
-        <v>0.005650488163040631</v>
+        <v>0.009230886741370292</v>
       </c>
       <c r="K44" t="n">
-        <v>0.007985345112658691</v>
+        <v>0.008079551646822922</v>
       </c>
       <c r="L44" t="n">
-        <v>0.008883124554678917</v>
+        <v>0.0007791990868483918</v>
       </c>
       <c r="M44" t="n">
-        <v>0.04096968728262381</v>
+        <v>0.08686071089735911</v>
       </c>
       <c r="N44" t="n">
-        <v>0.03015072604853431</v>
+        <v>0.01225629133631425</v>
       </c>
       <c r="O44" t="n">
-        <v>0.05187170038426036</v>
+        <v>0.07585590077429687</v>
       </c>
       <c r="P44" t="n">
-        <v>0.004806614163230589</v>
+        <v>0.0005593181803254869</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.04493408932346658</v>
+        <v>0.08751144368368827</v>
       </c>
       <c r="R44" t="n">
-        <v>0.0800049916875866</v>
+        <v>0.08029322683787839</v>
       </c>
       <c r="S44" t="n">
-        <v>0.001785880615313014</v>
+        <v>0.0040362230719434</v>
       </c>
       <c r="T44" t="n">
-        <v>0.07452291185456458</v>
+        <v>0.08092172204504336</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03924527360623675</v>
+        <v>0.05988447771462357</v>
       </c>
       <c r="V44" t="n">
-        <v>0.07314775421745272</v>
+        <v>0.04174421189527991</v>
       </c>
       <c r="W44" t="n">
-        <v>0.01431178842424793</v>
+        <v>0.02749772777003658</v>
       </c>
       <c r="X44" t="n">
-        <v>0.04208118580322573</v>
+        <v>0.002692680910961402</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.08415942742674314</v>
+        <v>0.03497535535357505</v>
       </c>
       <c r="Z44" t="n">
-        <v>0.04137901083866698</v>
+        <v>0.07032241853617459</v>
       </c>
       <c r="AA44" t="n">
-        <v>0.07409000442613338</v>
+        <v>0.03635538204906115</v>
       </c>
       <c r="AB44" t="n">
-        <v>0.04542430398945133</v>
+        <v>0.02149510986514864</v>
       </c>
       <c r="AC44" t="n">
-        <v>0.004278316780011757</v>
+        <v>-0.007153036006435855</v>
       </c>
     </row>
     <row r="45">
@@ -4676,79 +4676,79 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.2379671423437318</v>
+        <v>0.3716355930573259</v>
       </c>
       <c r="F45" t="n">
-        <v>0.06067926490213518</v>
+        <v>0.05715049674061938</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05484385507516885</v>
+        <v>0.05274532617611033</v>
       </c>
       <c r="H45" t="n">
-        <v>0.01250790648259357</v>
+        <v>0.008376680761884005</v>
       </c>
       <c r="I45" t="n">
-        <v>0.04956510514322984</v>
+        <v>0.03659791938167875</v>
       </c>
       <c r="J45" t="n">
-        <v>0.02593628499961501</v>
+        <v>0.02634678515699997</v>
       </c>
       <c r="K45" t="n">
-        <v>0.001312802004359351</v>
+        <v>0.03513314194235779</v>
       </c>
       <c r="L45" t="n">
-        <v>0.003229472358635313</v>
+        <v>0.06215143610357857</v>
       </c>
       <c r="M45" t="n">
-        <v>0.0781187734397399</v>
+        <v>0.02171552251773726</v>
       </c>
       <c r="N45" t="n">
-        <v>0.08359060604826678</v>
+        <v>0.01626289320842216</v>
       </c>
       <c r="O45" t="n">
-        <v>0.03982473783098045</v>
+        <v>0.08682941599070146</v>
       </c>
       <c r="P45" t="n">
-        <v>0.07716579351844603</v>
+        <v>0.03805684802415846</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.05726707106879917</v>
+        <v>0.05933811785609729</v>
       </c>
       <c r="R45" t="n">
-        <v>0.05224414511532313</v>
+        <v>0.05636720127057154</v>
       </c>
       <c r="S45" t="n">
-        <v>0.0005823000468713719</v>
+        <v>0.01324665166148148</v>
       </c>
       <c r="T45" t="n">
-        <v>0.04990993808732339</v>
+        <v>0.1105889043477429</v>
       </c>
       <c r="U45" t="n">
-        <v>0.03320047329951663</v>
+        <v>0.04473398419307034</v>
       </c>
       <c r="V45" t="n">
-        <v>0.07675377698247193</v>
+        <v>0.04694705106728954</v>
       </c>
       <c r="W45" t="n">
-        <v>0.06344797153537536</v>
+        <v>0.09763109131990841</v>
       </c>
       <c r="X45" t="n">
-        <v>0.04456306185273169</v>
+        <v>0.01149355011899791</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.003270615410989857</v>
+        <v>0.01642000081055164</v>
       </c>
       <c r="Z45" t="n">
-        <v>0.002296429053669209</v>
+        <v>0.03098200838165157</v>
       </c>
       <c r="AA45" t="n">
-        <v>0.08332638549536173</v>
+        <v>0.06190589444498412</v>
       </c>
       <c r="AB45" t="n">
-        <v>0.04636323024839614</v>
+        <v>0.008979078523404861</v>
       </c>
       <c r="AC45" t="n">
-        <v>-0.01443886878337824</v>
+        <v>0.008495153769514397</v>
       </c>
     </row>
     <row r="46">
@@ -4771,79 +4771,79 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.1798765626967552</v>
+        <v>0.1807605357049778</v>
       </c>
       <c r="F46" t="n">
-        <v>0.04495186291144911</v>
+        <v>0.03430296438032049</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0705931457784232</v>
+        <v>0.06843287897547837</v>
       </c>
       <c r="H46" t="n">
-        <v>0.05809462456386375</v>
+        <v>0.04374317142612468</v>
       </c>
       <c r="I46" t="n">
-        <v>0.0835924814994229</v>
+        <v>0.08420136869377483</v>
       </c>
       <c r="J46" t="n">
-        <v>0.01133828403921831</v>
+        <v>0.01421683934932407</v>
       </c>
       <c r="K46" t="n">
-        <v>0.03535181659922228</v>
+        <v>0.05614320513738667</v>
       </c>
       <c r="L46" t="n">
-        <v>0.003877734535214184</v>
+        <v>0.02245673793600168</v>
       </c>
       <c r="M46" t="n">
-        <v>0.005828248848260738</v>
+        <v>0.0695936383735116</v>
       </c>
       <c r="N46" t="n">
-        <v>0.05417993947921914</v>
+        <v>0.0428623386057076</v>
       </c>
       <c r="O46" t="n">
-        <v>0.08415781759552594</v>
+        <v>0.07431506610738388</v>
       </c>
       <c r="P46" t="n">
-        <v>0.05809520530367297</v>
+        <v>0.07462544358198432</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.0059025649098159</v>
+        <v>0.08257387768701183</v>
       </c>
       <c r="R46" t="n">
-        <v>0.0546813289078358</v>
+        <v>0.02636232328232271</v>
       </c>
       <c r="S46" t="n">
-        <v>0.08685157401764218</v>
+        <v>0.04319035310680523</v>
       </c>
       <c r="T46" t="n">
-        <v>0.0009388523724106159</v>
+        <v>0.001734023067338526</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01568563508639052</v>
+        <v>0.01473710037462169</v>
       </c>
       <c r="V46" t="n">
-        <v>0.00614619028166263</v>
+        <v>0.009319820355620595</v>
       </c>
       <c r="W46" t="n">
-        <v>0.07579413028671356</v>
+        <v>0.06891462849678533</v>
       </c>
       <c r="X46" t="n">
-        <v>0.05918756772462515</v>
+        <v>0.01285104239930371</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.07632830913035615</v>
+        <v>0.04788737701442203</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.06469481481457538</v>
+        <v>0.0786933680985941</v>
       </c>
       <c r="AA46" t="n">
-        <v>0.0305718688937631</v>
+        <v>0.02547354316381558</v>
       </c>
       <c r="AB46" t="n">
-        <v>0.01315600242071665</v>
+        <v>0.003368890386360386</v>
       </c>
       <c r="AC46" t="n">
-        <v>-0.007487949896170274</v>
+        <v>-0.002422132313178876</v>
       </c>
     </row>
     <row r="47">
@@ -4866,79 +4866,79 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.2034842581995374</v>
+        <v>0.2103313169323044</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0593679988084112</v>
+        <v>0.01815918581761511</v>
       </c>
       <c r="G47" t="n">
-        <v>0.002673181232596366</v>
+        <v>0.07392638655893394</v>
       </c>
       <c r="H47" t="n">
-        <v>0.08864895997146803</v>
+        <v>0.02191738855932314</v>
       </c>
       <c r="I47" t="n">
-        <v>0.09141027559512861</v>
+        <v>0.06528814095848423</v>
       </c>
       <c r="J47" t="n">
-        <v>0.01598361052749585</v>
+        <v>0.01104131770606439</v>
       </c>
       <c r="K47" t="n">
-        <v>0.0997721053360721</v>
+        <v>0.08941618140527971</v>
       </c>
       <c r="L47" t="n">
-        <v>0.06327186259585892</v>
+        <v>0.07015215947325781</v>
       </c>
       <c r="M47" t="n">
-        <v>0.03422347231545281</v>
+        <v>0.003866342088835521</v>
       </c>
       <c r="N47" t="n">
-        <v>0.01940867326487377</v>
+        <v>0.01692751529489684</v>
       </c>
       <c r="O47" t="n">
-        <v>0.09623447072933444</v>
+        <v>0.07098406734355509</v>
       </c>
       <c r="P47" t="n">
-        <v>0.04171905369772454</v>
+        <v>0.08813310477479598</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.01681907827367719</v>
+        <v>0.06226304097816539</v>
       </c>
       <c r="R47" t="n">
-        <v>0.01146550262833119</v>
+        <v>0.05380509664850056</v>
       </c>
       <c r="S47" t="n">
-        <v>0.04199924509150892</v>
+        <v>0.02352946701213257</v>
       </c>
       <c r="T47" t="n">
-        <v>0.007454162303695229</v>
+        <v>0.003841630292586466</v>
       </c>
       <c r="U47" t="n">
-        <v>0.03796917884760279</v>
+        <v>0.05285904727204654</v>
       </c>
       <c r="V47" t="n">
-        <v>0.04788664209578623</v>
+        <v>0.04751013317975255</v>
       </c>
       <c r="W47" t="n">
-        <v>0.05509872873288831</v>
+        <v>0.07214288151764545</v>
       </c>
       <c r="X47" t="n">
-        <v>0.08945651467698061</v>
+        <v>0.04814272578189631</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.01582378475817403</v>
+        <v>0.02905072592846174</v>
       </c>
       <c r="Z47" t="n">
-        <v>0.03012611334716316</v>
+        <v>0.0002480715363567126</v>
       </c>
       <c r="AA47" t="n">
-        <v>0.01998431405713664</v>
+        <v>0.07152928655804591</v>
       </c>
       <c r="AB47" t="n">
-        <v>0.01320307111263895</v>
+        <v>0.005266103313368058</v>
       </c>
       <c r="AC47" t="n">
-        <v>-0.02997099399722834</v>
+        <v>0.000251761457700876</v>
       </c>
     </row>
     <row r="48">
@@ -4961,79 +4961,79 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.1476301834154049</v>
+        <v>0.1456112367453242</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06264812223998899</v>
+        <v>0.05786409673554841</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03135442863529703</v>
+        <v>0.004410719311359879</v>
       </c>
       <c r="H48" t="n">
-        <v>0.0732078742214842</v>
+        <v>0.03123389885760565</v>
       </c>
       <c r="I48" t="n">
-        <v>0.0543684358643915</v>
+        <v>0.01946212488806337</v>
       </c>
       <c r="J48" t="n">
-        <v>0.04530788998408108</v>
+        <v>0.02945854251621959</v>
       </c>
       <c r="K48" t="n">
-        <v>0.04531638409818841</v>
+        <v>0.005858356464657558</v>
       </c>
       <c r="L48" t="n">
-        <v>0.05665069296757411</v>
+        <v>0.02422357481151773</v>
       </c>
       <c r="M48" t="n">
-        <v>0.06672557894250006</v>
+        <v>0.06613898450670416</v>
       </c>
       <c r="N48" t="n">
-        <v>0.03173214429901273</v>
+        <v>0.02161609600672545</v>
       </c>
       <c r="O48" t="n">
-        <v>0.02092733566439767</v>
+        <v>0.06393950016977622</v>
       </c>
       <c r="P48" t="n">
-        <v>0.007891641211813641</v>
+        <v>0.04510651416239924</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.0001539473917122986</v>
+        <v>0.003569824117232041</v>
       </c>
       <c r="R48" t="n">
-        <v>0.08713408023349488</v>
+        <v>0.07198474386221392</v>
       </c>
       <c r="S48" t="n">
-        <v>0.06401571771054471</v>
+        <v>0.08162904480458541</v>
       </c>
       <c r="T48" t="n">
-        <v>0.05804016596577454</v>
+        <v>0.05996424849216847</v>
       </c>
       <c r="U48" t="n">
-        <v>0.008078377249623226</v>
+        <v>0.05103068311345948</v>
       </c>
       <c r="V48" t="n">
-        <v>0.03303434391304635</v>
+        <v>0.05721828232299304</v>
       </c>
       <c r="W48" t="n">
-        <v>0.01657007819346001</v>
+        <v>0.05223475900960196</v>
       </c>
       <c r="X48" t="n">
-        <v>0.05354678207158338</v>
+        <v>0.002688943590081444</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.06764249259053311</v>
+        <v>0.08170840942286511</v>
       </c>
       <c r="Z48" t="n">
-        <v>0.09063420109944179</v>
+        <v>0.05824899811291345</v>
       </c>
       <c r="AA48" t="n">
-        <v>0.009621572714014709</v>
+        <v>0.05482077611118428</v>
       </c>
       <c r="AB48" t="n">
-        <v>0.01539771273804157</v>
+        <v>0.05558887861012426</v>
       </c>
       <c r="AC48" t="n">
-        <v>0.03631718205628851</v>
+        <v>0.04620871750503409</v>
       </c>
     </row>
     <row r="49">
@@ -5056,79 +5056,79 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.1667053744264977</v>
+        <v>0.1652233310178815</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0575023763214477</v>
+        <v>0.02980347421139403</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04112727675500365</v>
+        <v>0.01232878331750726</v>
       </c>
       <c r="H49" t="n">
-        <v>0.04714741690421798</v>
+        <v>0.07281500857113202</v>
       </c>
       <c r="I49" t="n">
-        <v>0.0547045855180724</v>
+        <v>0.06264081530475256</v>
       </c>
       <c r="J49" t="n">
-        <v>0.0596771898378077</v>
+        <v>0.01385519682655649</v>
       </c>
       <c r="K49" t="n">
-        <v>0.05467460091748517</v>
+        <v>0.05623388390932996</v>
       </c>
       <c r="L49" t="n">
-        <v>0.07448773040248637</v>
+        <v>0.07107906299942091</v>
       </c>
       <c r="M49" t="n">
-        <v>0.06988588322345718</v>
+        <v>0.007725095495684111</v>
       </c>
       <c r="N49" t="n">
-        <v>0.009467601530951927</v>
+        <v>0.0008653534828676544</v>
       </c>
       <c r="O49" t="n">
-        <v>0.06324395047048431</v>
+        <v>0.1205120704651372</v>
       </c>
       <c r="P49" t="n">
-        <v>0.0749118447428674</v>
+        <v>0.04252556778429514</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.001315092580900327</v>
+        <v>0.0009818120358944147</v>
       </c>
       <c r="R49" t="n">
-        <v>0.07442141085149186</v>
+        <v>0.02494083566949995</v>
       </c>
       <c r="S49" t="n">
-        <v>0.004923030291996523</v>
+        <v>0.07346690494574983</v>
       </c>
       <c r="T49" t="n">
-        <v>0.03365423156008088</v>
+        <v>0.06309726114929819</v>
       </c>
       <c r="U49" t="n">
-        <v>0.008738846074911696</v>
+        <v>0.03047987500625619</v>
       </c>
       <c r="V49" t="n">
-        <v>0.07304814499015044</v>
+        <v>0.0171027631996472</v>
       </c>
       <c r="W49" t="n">
-        <v>0.06309047049162297</v>
+        <v>0.07412540107572867</v>
       </c>
       <c r="X49" t="n">
-        <v>0.0249784908835123</v>
+        <v>0.1108202604809252</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.01643862510379782</v>
+        <v>0.02711417466131756</v>
       </c>
       <c r="Z49" t="n">
-        <v>0.02020141598705493</v>
+        <v>0.009189492978256848</v>
       </c>
       <c r="AA49" t="n">
-        <v>0.0600835701322291</v>
+        <v>0.07208585653641135</v>
       </c>
       <c r="AB49" t="n">
-        <v>0.01227621442796943</v>
+        <v>0.006211049892937297</v>
       </c>
       <c r="AC49" t="n">
-        <v>0.05966364319624113</v>
+        <v>0.06375211059374096</v>
       </c>
     </row>
     <row r="50">
@@ -5151,79 +5151,79 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.1647435814115233</v>
+        <v>0.1616560153202548</v>
       </c>
       <c r="F50" t="n">
-        <v>0.08125239518867473</v>
+        <v>0.06129542420875364</v>
       </c>
       <c r="G50" t="n">
-        <v>0.07637407981089342</v>
+        <v>0.07650546865593617</v>
       </c>
       <c r="H50" t="n">
-        <v>0.0340835855950067</v>
+        <v>0.07153769926264078</v>
       </c>
       <c r="I50" t="n">
-        <v>0.01329613481808122</v>
+        <v>0.02123877618621131</v>
       </c>
       <c r="J50" t="n">
-        <v>0.01102272574533514</v>
+        <v>0.03967774159225326</v>
       </c>
       <c r="K50" t="n">
-        <v>0.06087322519374767</v>
+        <v>0.004821535835786995</v>
       </c>
       <c r="L50" t="n">
-        <v>0.06752821548218327</v>
+        <v>0.02334123652149091</v>
       </c>
       <c r="M50" t="n">
-        <v>0.04949072790165676</v>
+        <v>0.03309561969061246</v>
       </c>
       <c r="N50" t="n">
-        <v>0.07717599816960048</v>
+        <v>0.003197257668611895</v>
       </c>
       <c r="O50" t="n">
-        <v>0.008876588854758267</v>
+        <v>0.002627249638344905</v>
       </c>
       <c r="P50" t="n">
-        <v>0.04857629784050877</v>
+        <v>0.02771989433468126</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.06443304892188673</v>
+        <v>0.08494465885858822</v>
       </c>
       <c r="R50" t="n">
-        <v>0.0007429295403496207</v>
+        <v>0.0002652959230783137</v>
       </c>
       <c r="S50" t="n">
-        <v>0.003713444666916604</v>
+        <v>0.03071975684589822</v>
       </c>
       <c r="T50" t="n">
-        <v>0.02442008216013429</v>
+        <v>0.09306186948334876</v>
       </c>
       <c r="U50" t="n">
-        <v>0.04360433029321319</v>
+        <v>0.06333956524939838</v>
       </c>
       <c r="V50" t="n">
-        <v>0.06124432965653624</v>
+        <v>0.07692173120488907</v>
       </c>
       <c r="W50" t="n">
-        <v>0.003554392800980021</v>
+        <v>0.006531240663528675</v>
       </c>
       <c r="X50" t="n">
-        <v>0.07808963874193026</v>
+        <v>0.09269460820301693</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.0151421594640142</v>
+        <v>0.0605263608294536</v>
       </c>
       <c r="Z50" t="n">
-        <v>0.06483653554776096</v>
+        <v>0.04099986751277081</v>
       </c>
       <c r="AA50" t="n">
-        <v>0.08826321811156074</v>
+        <v>0.07715838415025215</v>
       </c>
       <c r="AB50" t="n">
-        <v>0.02340591549427044</v>
+        <v>0.007778757480453215</v>
       </c>
       <c r="AC50" t="n">
-        <v>0.1477215052010647</v>
+        <v>0.1290134155123612</v>
       </c>
     </row>
     <row r="51">
@@ -5246,79 +5246,79 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.3109993559886838</v>
+        <v>0.806055386353797</v>
       </c>
       <c r="F51" t="n">
-        <v>0.01683511809449188</v>
+        <v>0.01909832781697315</v>
       </c>
       <c r="G51" t="n">
-        <v>0.02231184763477935</v>
+        <v>0.06193064620014512</v>
       </c>
       <c r="H51" t="n">
-        <v>0.004942412795148173</v>
+        <v>0.03281265069350068</v>
       </c>
       <c r="I51" t="n">
-        <v>0.03705596437837756</v>
+        <v>0.001762899766751373</v>
       </c>
       <c r="J51" t="n">
-        <v>0.01672863719554347</v>
+        <v>0.09151466799524514</v>
       </c>
       <c r="K51" t="n">
-        <v>0.01182233400388546</v>
+        <v>0.03818908601271725</v>
       </c>
       <c r="L51" t="n">
-        <v>0.02788046721132023</v>
+        <v>0.08503379363730433</v>
       </c>
       <c r="M51" t="n">
-        <v>0.09320247100616504</v>
+        <v>0.01459156793536347</v>
       </c>
       <c r="N51" t="n">
-        <v>0.09468171658103622</v>
+        <v>0.02830635900490874</v>
       </c>
       <c r="O51" t="n">
-        <v>0.09284693860522078</v>
+        <v>0.008895829613817427</v>
       </c>
       <c r="P51" t="n">
-        <v>0.1136503598197734</v>
+        <v>0.01635497963213936</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.04384274829632987</v>
+        <v>0.01448053253950068</v>
       </c>
       <c r="R51" t="n">
-        <v>0.02188913530633248</v>
+        <v>0.1057692850485747</v>
       </c>
       <c r="S51" t="n">
-        <v>0.01485793915659618</v>
+        <v>0.07857737214527016</v>
       </c>
       <c r="T51" t="n">
-        <v>0.002724540952844358</v>
+        <v>0.04782357073000276</v>
       </c>
       <c r="U51" t="n">
-        <v>0.1134985437283539</v>
+        <v>0.06426420779671914</v>
       </c>
       <c r="V51" t="n">
-        <v>0.01179359001255765</v>
+        <v>0.01858483353949945</v>
       </c>
       <c r="W51" t="n">
-        <v>0.1214337411631928</v>
+        <v>0.08994923480517378</v>
       </c>
       <c r="X51" t="n">
-        <v>0.0009477136261007175</v>
+        <v>0.04729419561710296</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.01451305080846002</v>
+        <v>0.07193263233047935</v>
       </c>
       <c r="Z51" t="n">
-        <v>0.0001712746298060964</v>
+        <v>0.04624159640815608</v>
       </c>
       <c r="AA51" t="n">
-        <v>0.01250268195292682</v>
+        <v>0.01419456703603652</v>
       </c>
       <c r="AB51" t="n">
-        <v>0.1098667730407574</v>
+        <v>0.002397163694618367</v>
       </c>
       <c r="AC51" t="n">
-        <v>0.172421096467501</v>
+        <v>0.1587331114160908</v>
       </c>
     </row>
     <row r="52">
@@ -5341,79 +5341,79 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.3988171559016219</v>
+        <v>0.3411156308080384</v>
       </c>
       <c r="F52" t="n">
-        <v>0.05494732592620184</v>
+        <v>0.03597296383561112</v>
       </c>
       <c r="G52" t="n">
-        <v>0.001944797099829063</v>
+        <v>0.07844774296400002</v>
       </c>
       <c r="H52" t="n">
-        <v>0.03804295025635318</v>
+        <v>0.05556296138698747</v>
       </c>
       <c r="I52" t="n">
-        <v>0.0963562365310859</v>
+        <v>0.02437056182358937</v>
       </c>
       <c r="J52" t="n">
-        <v>0.05066954576019729</v>
+        <v>0.05631268706998389</v>
       </c>
       <c r="K52" t="n">
-        <v>0.05857572782142126</v>
+        <v>0.06218791228478292</v>
       </c>
       <c r="L52" t="n">
-        <v>0.006041950529084932</v>
+        <v>0.001752263644729787</v>
       </c>
       <c r="M52" t="n">
-        <v>0.001430346351981159</v>
+        <v>0.01752911786490716</v>
       </c>
       <c r="N52" t="n">
-        <v>0.004971048397157935</v>
+        <v>0.02622138198023633</v>
       </c>
       <c r="O52" t="n">
-        <v>0.08830086402353701</v>
+        <v>0.0688443131417083</v>
       </c>
       <c r="P52" t="n">
-        <v>0.008175613374275326</v>
+        <v>0.03367738091322591</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.05829487370157427</v>
+        <v>0.0603411610203179</v>
       </c>
       <c r="R52" t="n">
-        <v>0.05361986346746481</v>
+        <v>0.01559816780810647</v>
       </c>
       <c r="S52" t="n">
-        <v>0.04592626473565863</v>
+        <v>0.1011415740878491</v>
       </c>
       <c r="T52" t="n">
-        <v>0.1022539730176618</v>
+        <v>0.05237215129258922</v>
       </c>
       <c r="U52" t="n">
-        <v>0.01289283805752358</v>
+        <v>0.03509843519208238</v>
       </c>
       <c r="V52" t="n">
-        <v>0.005032587843399257</v>
+        <v>0.007857415870643291</v>
       </c>
       <c r="W52" t="n">
-        <v>0.005904418680771419</v>
+        <v>0.007456899824925663</v>
       </c>
       <c r="X52" t="n">
-        <v>0.0976070601125161</v>
+        <v>0.06663600991354543</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.05958260581611799</v>
+        <v>0.04039036287707493</v>
       </c>
       <c r="Z52" t="n">
-        <v>0.0537019999623365</v>
+        <v>0.02092094939817532</v>
       </c>
       <c r="AA52" t="n">
-        <v>0.08582474857772665</v>
+        <v>0.05532646563412572</v>
       </c>
       <c r="AB52" t="n">
-        <v>0.009902359956124202</v>
+        <v>0.07598112017080215</v>
       </c>
       <c r="AC52" t="n">
-        <v>-0.1686432639670065</v>
+        <v>-0.1634145080841927</v>
       </c>
     </row>
     <row r="53">
@@ -5436,79 +5436,79 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>1.115837492353913</v>
+        <v>0.707768213311886</v>
       </c>
       <c r="F53" t="n">
-        <v>0.01819122472292821</v>
+        <v>0.009861791722828304</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0009694070510876815</v>
+        <v>0.05715002480606457</v>
       </c>
       <c r="H53" t="n">
-        <v>0.004918425175785125</v>
+        <v>0.05254853076915229</v>
       </c>
       <c r="I53" t="n">
-        <v>0.09883310778427822</v>
+        <v>0.07384029033028824</v>
       </c>
       <c r="J53" t="n">
-        <v>0.07939605711437475</v>
+        <v>0.03521282981367028</v>
       </c>
       <c r="K53" t="n">
-        <v>0.007799315610650722</v>
+        <v>0.07552572030002064</v>
       </c>
       <c r="L53" t="n">
-        <v>0.03530454684500155</v>
+        <v>0.03716876580757814</v>
       </c>
       <c r="M53" t="n">
-        <v>0.06694334496352047</v>
+        <v>0.02645817117476633</v>
       </c>
       <c r="N53" t="n">
-        <v>0.02422426099991779</v>
+        <v>0.004000683724698923</v>
       </c>
       <c r="O53" t="n">
-        <v>0.01539515936092714</v>
+        <v>0.08870876751106704</v>
       </c>
       <c r="P53" t="n">
-        <v>0.1096256110418764</v>
+        <v>0.09725284396901983</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.02381712716403668</v>
+        <v>0.03662188339002507</v>
       </c>
       <c r="R53" t="n">
-        <v>0.09225688290696024</v>
+        <v>0.07332923206731945</v>
       </c>
       <c r="S53" t="n">
-        <v>0.1023281664564821</v>
+        <v>0.01918412519546447</v>
       </c>
       <c r="T53" t="n">
-        <v>0.06146709431667172</v>
+        <v>0.09432253571756451</v>
       </c>
       <c r="U53" t="n">
-        <v>0.06208338623570417</v>
+        <v>0.068692704633811</v>
       </c>
       <c r="V53" t="n">
-        <v>0.001525368636851403</v>
+        <v>0.01789313527848367</v>
       </c>
       <c r="W53" t="n">
-        <v>0.08334460897178529</v>
+        <v>0.02009873618650262</v>
       </c>
       <c r="X53" t="n">
-        <v>0.001502182062678395</v>
+        <v>0.03427075748153376</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.00602744401889671</v>
+        <v>0.02410936414479043</v>
       </c>
       <c r="Z53" t="n">
-        <v>0.04468763881493824</v>
+        <v>0.03502887425126995</v>
       </c>
       <c r="AA53" t="n">
-        <v>0.007835475556249801</v>
+        <v>0.00540773736779217</v>
       </c>
       <c r="AB53" t="n">
-        <v>0.05152416418839718</v>
+        <v>0.0133124943562881</v>
       </c>
       <c r="AC53" t="n">
-        <v>-0.1317493171948181</v>
+        <v>-0.1585205914821631</v>
       </c>
     </row>
     <row r="54">
@@ -5531,79 +5531,79 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.1749070979960163</v>
+        <v>0.1752097535139691</v>
       </c>
       <c r="F54" t="n">
-        <v>0.008292114885615091</v>
+        <v>0.04969913392969662</v>
       </c>
       <c r="G54" t="n">
-        <v>0.07898351158916908</v>
+        <v>0.05747502158693824</v>
       </c>
       <c r="H54" t="n">
-        <v>0.08347050037910621</v>
+        <v>0.06970032414867733</v>
       </c>
       <c r="I54" t="n">
-        <v>0.06778811377647954</v>
+        <v>0.05207375361092352</v>
       </c>
       <c r="J54" t="n">
-        <v>0.01402640218918891</v>
+        <v>0.002986052209518024</v>
       </c>
       <c r="K54" t="n">
-        <v>0.01171827589730732</v>
+        <v>0.001786534814632327</v>
       </c>
       <c r="L54" t="n">
-        <v>0.04139381125668838</v>
+        <v>0.05443371536907287</v>
       </c>
       <c r="M54" t="n">
-        <v>0.08153982294453153</v>
+        <v>0.0666374455717294</v>
       </c>
       <c r="N54" t="n">
-        <v>0.001711664821724219</v>
+        <v>0.002818052325783008</v>
       </c>
       <c r="O54" t="n">
-        <v>0.0474805532620397</v>
+        <v>0.06590603044566612</v>
       </c>
       <c r="P54" t="n">
-        <v>0.02559835346521848</v>
+        <v>0.03378815416249412</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.0651636738309246</v>
+        <v>0.01121006906111936</v>
       </c>
       <c r="R54" t="n">
-        <v>0.05576912551066027</v>
+        <v>0.04567307025609248</v>
       </c>
       <c r="S54" t="n">
-        <v>0.03384154312520272</v>
+        <v>0.03718528655584826</v>
       </c>
       <c r="T54" t="n">
-        <v>0.01200733945980264</v>
+        <v>0.02909758610442773</v>
       </c>
       <c r="U54" t="n">
-        <v>0.06631971270622801</v>
+        <v>0.06983501900240154</v>
       </c>
       <c r="V54" t="n">
-        <v>0.04613147719950959</v>
+        <v>0.07499076828548731</v>
       </c>
       <c r="W54" t="n">
-        <v>0.03984208124906786</v>
+        <v>0.03281871232950871</v>
       </c>
       <c r="X54" t="n">
-        <v>0.05631252399195531</v>
+        <v>0.05283478924076376</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.007587763890066973</v>
+        <v>0.02590029855839007</v>
       </c>
       <c r="Z54" t="n">
-        <v>0.07570149581308416</v>
+        <v>0.07178404347076227</v>
       </c>
       <c r="AA54" t="n">
-        <v>0.0643283910195267</v>
+        <v>0.07577175769566732</v>
       </c>
       <c r="AB54" t="n">
-        <v>0.01499174773690281</v>
+        <v>0.01559438126439962</v>
       </c>
       <c r="AC54" t="n">
-        <v>0.09058584982275487</v>
+        <v>0.1129299203335908</v>
       </c>
     </row>
     <row r="55">
@@ -5626,79 +5626,79 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.2070530941457587</v>
+        <v>0.2061443787375984</v>
       </c>
       <c r="F55" t="n">
-        <v>0.06834344721375178</v>
+        <v>0.003879202984393022</v>
       </c>
       <c r="G55" t="n">
-        <v>0.08167275467241156</v>
+        <v>0.005596951031396207</v>
       </c>
       <c r="H55" t="n">
-        <v>0.02097534388268351</v>
+        <v>0.0222695630483834</v>
       </c>
       <c r="I55" t="n">
-        <v>0.09180151894938393</v>
+        <v>0.07377581168480862</v>
       </c>
       <c r="J55" t="n">
-        <v>0.01072363607892908</v>
+        <v>0.05098860703610823</v>
       </c>
       <c r="K55" t="n">
-        <v>0.04633787154849528</v>
+        <v>0.00743769224224443</v>
       </c>
       <c r="L55" t="n">
-        <v>0.07972262998995576</v>
+        <v>0.1006064412804255</v>
       </c>
       <c r="M55" t="n">
-        <v>0.07438830284007605</v>
+        <v>0.08299635565773397</v>
       </c>
       <c r="N55" t="n">
-        <v>0.01344610772004127</v>
+        <v>0.01903430104711351</v>
       </c>
       <c r="O55" t="n">
-        <v>0.01859150992736094</v>
+        <v>0.049075811143957</v>
       </c>
       <c r="P55" t="n">
-        <v>0.02903146831288898</v>
+        <v>0.085167059412559</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.0149118130957484</v>
+        <v>0.001583436622289925</v>
       </c>
       <c r="R55" t="n">
-        <v>0.08409100655457108</v>
+        <v>0.0830730263904596</v>
       </c>
       <c r="S55" t="n">
-        <v>0.000427396145022737</v>
+        <v>0.0239734041192076</v>
       </c>
       <c r="T55" t="n">
-        <v>0.01628079905016339</v>
+        <v>0.07963961761710789</v>
       </c>
       <c r="U55" t="n">
-        <v>0.08412522665710299</v>
+        <v>0.05777074710739253</v>
       </c>
       <c r="V55" t="n">
-        <v>0.01513080569747932</v>
+        <v>0.06104627646042704</v>
       </c>
       <c r="W55" t="n">
-        <v>0.09673746159671351</v>
+        <v>0.04944146889269969</v>
       </c>
       <c r="X55" t="n">
-        <v>0.08747899090785795</v>
+        <v>0.02122303886525567</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.02415214750213689</v>
+        <v>0.008407287117707744</v>
       </c>
       <c r="Z55" t="n">
-        <v>0.02791714227625947</v>
+        <v>0.0317647942082082</v>
       </c>
       <c r="AA55" t="n">
-        <v>0.004494903897288603</v>
+        <v>0.01420407413519535</v>
       </c>
       <c r="AB55" t="n">
-        <v>0.009217715483677297</v>
+        <v>0.06704503189492589</v>
       </c>
       <c r="AC55" t="n">
-        <v>0.1089275019187739</v>
+        <v>0.0919386737899725</v>
       </c>
     </row>
     <row r="56">
@@ -5721,79 +5721,79 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0.1911419471896348</v>
+        <v>0.1896923813570529</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0714932851389551</v>
+        <v>0.07630097591330247</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05459180852216347</v>
+        <v>0.07224229173786735</v>
       </c>
       <c r="H56" t="n">
-        <v>0.06164731053793635</v>
+        <v>0.07379538839795087</v>
       </c>
       <c r="I56" t="n">
-        <v>0.02990953316122299</v>
+        <v>0.08641249639474496</v>
       </c>
       <c r="J56" t="n">
-        <v>0.05482346253793377</v>
+        <v>0.0206155593591467</v>
       </c>
       <c r="K56" t="n">
-        <v>0.003062474409591501</v>
+        <v>0.0128949599234938</v>
       </c>
       <c r="L56" t="n">
-        <v>0.005057851450306024</v>
+        <v>0.005591638928136464</v>
       </c>
       <c r="M56" t="n">
-        <v>0.01107660652924104</v>
+        <v>0.01122685656761832</v>
       </c>
       <c r="N56" t="n">
-        <v>0.03882142440426548</v>
+        <v>0.08022456500981319</v>
       </c>
       <c r="O56" t="n">
-        <v>0.07005395945059889</v>
+        <v>0.05387983838518474</v>
       </c>
       <c r="P56" t="n">
-        <v>0.02490353524208337</v>
+        <v>0.0009049279699977306</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.06475403230489699</v>
+        <v>0.02349469563682283</v>
       </c>
       <c r="R56" t="n">
-        <v>0.05411583404680382</v>
+        <v>0.04042642898391587</v>
       </c>
       <c r="S56" t="n">
-        <v>0.08123247938148392</v>
+        <v>0.03699272053916021</v>
       </c>
       <c r="T56" t="n">
-        <v>0.03187678650274142</v>
+        <v>0.01365725646875737</v>
       </c>
       <c r="U56" t="n">
-        <v>0.07340209445780889</v>
+        <v>0.05808215487259227</v>
       </c>
       <c r="V56" t="n">
-        <v>0.01645782711415433</v>
+        <v>0.01321733922414188</v>
       </c>
       <c r="W56" t="n">
-        <v>0.06603369215837269</v>
+        <v>0.07397251745690159</v>
       </c>
       <c r="X56" t="n">
-        <v>0.06709708183109994</v>
+        <v>0.08869847856069833</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.03594507938664025</v>
+        <v>0.04876493151762287</v>
       </c>
       <c r="Z56" t="n">
-        <v>0.00398690760233894</v>
+        <v>0.08388982288635513</v>
       </c>
       <c r="AA56" t="n">
-        <v>0.06286061571190471</v>
+        <v>0.008235902394298078</v>
       </c>
       <c r="AB56" t="n">
-        <v>0.01679631811745611</v>
+        <v>0.01647825287147696</v>
       </c>
       <c r="AC56" t="n">
-        <v>0.004812471240225346</v>
+        <v>-0.01697517127572675</v>
       </c>
     </row>
     <row r="57">
@@ -5816,79 +5816,79 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.3590396385719408</v>
+        <v>0.3405791569934816</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1184057290664361</v>
+        <v>0.09677501871547373</v>
       </c>
       <c r="G57" t="n">
-        <v>0.003373344922648914</v>
+        <v>0.06055011555920771</v>
       </c>
       <c r="H57" t="n">
-        <v>0.0002685777011484417</v>
+        <v>0.002891487014164276</v>
       </c>
       <c r="I57" t="n">
-        <v>0.02073954039266312</v>
+        <v>0.08556778025940641</v>
       </c>
       <c r="J57" t="n">
-        <v>0.09181375223689367</v>
+        <v>0.03440380070446004</v>
       </c>
       <c r="K57" t="n">
-        <v>0.09296712026543588</v>
+        <v>0.08146829695016403</v>
       </c>
       <c r="L57" t="n">
-        <v>0.1077911382362489</v>
+        <v>0.01251296473651713</v>
       </c>
       <c r="M57" t="n">
-        <v>0.0437170458138618</v>
+        <v>0.003953311705659713</v>
       </c>
       <c r="N57" t="n">
-        <v>0.01623472964468929</v>
+        <v>0.02288819130199677</v>
       </c>
       <c r="O57" t="n">
-        <v>0.01135269941283285</v>
+        <v>0.02611113794346048</v>
       </c>
       <c r="P57" t="n">
-        <v>0.0387933419908466</v>
+        <v>0.02853903380443171</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.01667466890060786</v>
+        <v>0.01723002392029771</v>
       </c>
       <c r="R57" t="n">
-        <v>0.09605483521485296</v>
+        <v>0.02809256750919327</v>
       </c>
       <c r="S57" t="n">
-        <v>0.01006582329622409</v>
+        <v>0.0764668269701639</v>
       </c>
       <c r="T57" t="n">
-        <v>0.00061561497575791</v>
+        <v>0.0441340503586707</v>
       </c>
       <c r="U57" t="n">
-        <v>0.04240092031085188</v>
+        <v>0.06716799382400684</v>
       </c>
       <c r="V57" t="n">
-        <v>0.07244979295318735</v>
+        <v>0.03606260707237233</v>
       </c>
       <c r="W57" t="n">
-        <v>0.05223191387233902</v>
+        <v>0.08936281958890722</v>
       </c>
       <c r="X57" t="n">
-        <v>0.09611564197318259</v>
+        <v>0.07138045608754182</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.007065268411167595</v>
+        <v>0.0186971874098103</v>
       </c>
       <c r="Z57" t="n">
-        <v>0.04537798081788844</v>
+        <v>0.02799376878745374</v>
       </c>
       <c r="AA57" t="n">
-        <v>0.01181995261999655</v>
+        <v>0.03203150033077577</v>
       </c>
       <c r="AB57" t="n">
-        <v>0.003670566970237949</v>
+        <v>0.03571905944586425</v>
       </c>
       <c r="AC57" t="n">
-        <v>-0.03797900105718639</v>
+        <v>-0.01399544675128893</v>
       </c>
     </row>
     <row r="58">
@@ -5911,79 +5911,79 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>0.2016319521656291</v>
+        <v>0.1993185144350848</v>
       </c>
       <c r="F58" t="n">
-        <v>0.001465609806863712</v>
+        <v>0.001572877636568624</v>
       </c>
       <c r="G58" t="n">
-        <v>0.05628739021915955</v>
+        <v>0.07969030879928007</v>
       </c>
       <c r="H58" t="n">
-        <v>0.07036925923802183</v>
+        <v>0.03307813088227925</v>
       </c>
       <c r="I58" t="n">
-        <v>0.06989104918288754</v>
+        <v>0.04291669206957426</v>
       </c>
       <c r="J58" t="n">
-        <v>0.01748046083530414</v>
+        <v>0.02833203368586885</v>
       </c>
       <c r="K58" t="n">
-        <v>0.05095225136731839</v>
+        <v>0.03239715089417895</v>
       </c>
       <c r="L58" t="n">
-        <v>0.06527627009592062</v>
+        <v>0.01388509142848557</v>
       </c>
       <c r="M58" t="n">
-        <v>0.07259037372794189</v>
+        <v>0.09839103193852652</v>
       </c>
       <c r="N58" t="n">
-        <v>0.002180196479578774</v>
+        <v>0.003905829911178893</v>
       </c>
       <c r="O58" t="n">
-        <v>0.07266486393252428</v>
+        <v>0.0301097674899321</v>
       </c>
       <c r="P58" t="n">
-        <v>0.01315899981441996</v>
+        <v>0.06044016575849835</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.02627437002342579</v>
+        <v>0.04690155879177117</v>
       </c>
       <c r="R58" t="n">
-        <v>0.01353315392420031</v>
+        <v>0.01798315588388356</v>
       </c>
       <c r="S58" t="n">
-        <v>0.03224296298938611</v>
+        <v>0.04911594482374579</v>
       </c>
       <c r="T58" t="n">
-        <v>0.005962454484109928</v>
+        <v>0.01527763333371399</v>
       </c>
       <c r="U58" t="n">
-        <v>0.05671863954205048</v>
+        <v>0.07504480686985378</v>
       </c>
       <c r="V58" t="n">
-        <v>0.0548732804794315</v>
+        <v>0.01872214413857257</v>
       </c>
       <c r="W58" t="n">
-        <v>0.07449215053135098</v>
+        <v>0.0750985959959739</v>
       </c>
       <c r="X58" t="n">
-        <v>0.07481793216730649</v>
+        <v>0.06036989446817038</v>
       </c>
       <c r="Y58" t="n">
-        <v>0.04867279796832852</v>
+        <v>0.06534102799211479</v>
       </c>
       <c r="Z58" t="n">
-        <v>0.07376603027315358</v>
+        <v>0.05827710730682986</v>
       </c>
       <c r="AA58" t="n">
-        <v>0.03366886013000881</v>
+        <v>0.05098733833230601</v>
       </c>
       <c r="AB58" t="n">
-        <v>0.01266064278730704</v>
+        <v>0.04216171156869275</v>
       </c>
       <c r="AC58" t="n">
-        <v>0.04343918477082789</v>
+        <v>0.03136438773211132</v>
       </c>
     </row>
     <row r="59">
@@ -6006,79 +6006,79 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>0.3222791729281901</v>
+        <v>0.5495506560008985</v>
       </c>
       <c r="F59" t="n">
-        <v>0.02080556840034753</v>
+        <v>0.1103529605264839</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03989780137398138</v>
+        <v>0.01423614390512361</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1055565089028909</v>
+        <v>0.01990213825296782</v>
       </c>
       <c r="I59" t="n">
-        <v>0.009171534552676329</v>
+        <v>0.01629770151970282</v>
       </c>
       <c r="J59" t="n">
-        <v>0.002262277081717413</v>
+        <v>0.01035639671294998</v>
       </c>
       <c r="K59" t="n">
-        <v>0.03185327358767517</v>
+        <v>0.00031974745440689</v>
       </c>
       <c r="L59" t="n">
-        <v>0.02869003529078084</v>
+        <v>0.03324210764660263</v>
       </c>
       <c r="M59" t="n">
-        <v>0.05711396897234723</v>
+        <v>0.004533841500780319</v>
       </c>
       <c r="N59" t="n">
-        <v>0.008307897029443444</v>
+        <v>0.05402308336222957</v>
       </c>
       <c r="O59" t="n">
-        <v>0.05122223097249601</v>
+        <v>0.05142890900931969</v>
       </c>
       <c r="P59" t="n">
-        <v>0.09544627325686272</v>
+        <v>0.03285701528321876</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.04118337586915345</v>
+        <v>0.0004263384678573095</v>
       </c>
       <c r="R59" t="n">
-        <v>0.0006022736587124678</v>
+        <v>0.01411236397931028</v>
       </c>
       <c r="S59" t="n">
-        <v>0.03444734309021283</v>
+        <v>0.1065074984521527</v>
       </c>
       <c r="T59" t="n">
-        <v>0.00929531148702371</v>
+        <v>0.01778217758390131</v>
       </c>
       <c r="U59" t="n">
-        <v>0.08885887071774549</v>
+        <v>0.02777318524213719</v>
       </c>
       <c r="V59" t="n">
-        <v>0.1157300846739718</v>
+        <v>0.1098386273087772</v>
       </c>
       <c r="W59" t="n">
-        <v>0.007227670643060635</v>
+        <v>0.02876504213322619</v>
       </c>
       <c r="X59" t="n">
-        <v>0.02878448445376711</v>
+        <v>0.09038786028708927</v>
       </c>
       <c r="Y59" t="n">
-        <v>0.02123595873043838</v>
+        <v>0.06493503856628152</v>
       </c>
       <c r="Z59" t="n">
-        <v>0.08369367938446259</v>
+        <v>0.1057139510436488</v>
       </c>
       <c r="AA59" t="n">
-        <v>0.09945104236146192</v>
+        <v>0.05935713023935332</v>
       </c>
       <c r="AB59" t="n">
-        <v>0.01916253550877041</v>
+        <v>0.02685074152247892</v>
       </c>
       <c r="AC59" t="n">
-        <v>0.06198573640409088</v>
+        <v>0.07474663768395225</v>
       </c>
     </row>
     <row r="60">
@@ -6101,79 +6101,79 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>0.2326542265422616</v>
+        <v>0.2288083979778131</v>
       </c>
       <c r="F60" t="n">
-        <v>0.005753173113807085</v>
+        <v>0.001551963401527206</v>
       </c>
       <c r="G60" t="n">
-        <v>0.006494589442421207</v>
+        <v>0.01256153716470505</v>
       </c>
       <c r="H60" t="n">
-        <v>0.0508922215096725</v>
+        <v>0.01292965162676331</v>
       </c>
       <c r="I60" t="n">
-        <v>0.04391920860543529</v>
+        <v>0.04764464065905107</v>
       </c>
       <c r="J60" t="n">
-        <v>0.007939086483875655</v>
+        <v>0.08676847014739007</v>
       </c>
       <c r="K60" t="n">
-        <v>0.0601430311313965</v>
+        <v>0.04877215292929086</v>
       </c>
       <c r="L60" t="n">
-        <v>0.06589276639207138</v>
+        <v>0.02403396159116124</v>
       </c>
       <c r="M60" t="n">
-        <v>0.08603748687129555</v>
+        <v>0.05896697703896799</v>
       </c>
       <c r="N60" t="n">
-        <v>0.01347133919913203</v>
+        <v>0.03075545954658652</v>
       </c>
       <c r="O60" t="n">
-        <v>0.01847771564900709</v>
+        <v>0.06943992500512636</v>
       </c>
       <c r="P60" t="n">
-        <v>0.08742598897854577</v>
+        <v>0.05074924841297267</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.07198294183505805</v>
+        <v>0.05814431644212621</v>
       </c>
       <c r="R60" t="n">
-        <v>0.00988662759149268</v>
+        <v>0.006072384520349738</v>
       </c>
       <c r="S60" t="n">
-        <v>0.06697924120359228</v>
+        <v>0.0009047088154336113</v>
       </c>
       <c r="T60" t="n">
-        <v>0.04235560677547955</v>
+        <v>0.02615607269697648</v>
       </c>
       <c r="U60" t="n">
-        <v>0.04740070595665914</v>
+        <v>0.08918606985852028</v>
       </c>
       <c r="V60" t="n">
-        <v>0.0132962813130655</v>
+        <v>0.006581963361864189</v>
       </c>
       <c r="W60" t="n">
-        <v>0.08230513272023858</v>
+        <v>0.08385085617385019</v>
       </c>
       <c r="X60" t="n">
-        <v>0.09031093169753697</v>
+        <v>0.08179216091313711</v>
       </c>
       <c r="Y60" t="n">
-        <v>0.00464652858598304</v>
+        <v>0.06006516678688268</v>
       </c>
       <c r="Z60" t="n">
-        <v>0.03311941422372717</v>
+        <v>0.01408552135228829</v>
       </c>
       <c r="AA60" t="n">
-        <v>0.03891703527810194</v>
+        <v>0.07295852074966368</v>
       </c>
       <c r="AB60" t="n">
-        <v>0.05235294544240518</v>
+        <v>0.05602827080536496</v>
       </c>
       <c r="AC60" t="n">
-        <v>0.06911924485010899</v>
+        <v>0.05278052175225122</v>
       </c>
     </row>
     <row r="61">
@@ -6196,79 +6196,79 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>0.2921581154985051</v>
+        <v>0.2753950835372133</v>
       </c>
       <c r="F61" t="n">
-        <v>0.005409811015911004</v>
+        <v>0.005755261640244344</v>
       </c>
       <c r="G61" t="n">
-        <v>0.04379684903957554</v>
+        <v>0.04381961782323742</v>
       </c>
       <c r="H61" t="n">
-        <v>0.01844580954527076</v>
+        <v>0.08287713392959617</v>
       </c>
       <c r="I61" t="n">
-        <v>0.02054730709395466</v>
+        <v>0.05645191947596671</v>
       </c>
       <c r="J61" t="n">
-        <v>0.06379385752728398</v>
+        <v>0.01730963482677643</v>
       </c>
       <c r="K61" t="n">
-        <v>0.1113637263434375</v>
+        <v>0.01515453605387094</v>
       </c>
       <c r="L61" t="n">
-        <v>0.02885968666010475</v>
+        <v>0.06500841064463488</v>
       </c>
       <c r="M61" t="n">
-        <v>0.02716385934368157</v>
+        <v>0.0373822670272644</v>
       </c>
       <c r="N61" t="n">
-        <v>0.004982267642223846</v>
+        <v>0.02524634641528163</v>
       </c>
       <c r="O61" t="n">
-        <v>0.01508820547300324</v>
+        <v>0.04373614511772478</v>
       </c>
       <c r="P61" t="n">
-        <v>0.003863699094186705</v>
+        <v>0.03064385052792482</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.0691712711456362</v>
+        <v>0.01347694350852146</v>
       </c>
       <c r="R61" t="n">
-        <v>0.01394775515676719</v>
+        <v>0.006315550399109023</v>
       </c>
       <c r="S61" t="n">
-        <v>0.07194203442943814</v>
+        <v>0.08227719376636174</v>
       </c>
       <c r="T61" t="n">
-        <v>0.00810745424189842</v>
+        <v>0.004698524719844907</v>
       </c>
       <c r="U61" t="n">
-        <v>0.09647700925791104</v>
+        <v>0.1116413730449988</v>
       </c>
       <c r="V61" t="n">
-        <v>0.11424343379429</v>
+        <v>0.1054464581494553</v>
       </c>
       <c r="W61" t="n">
-        <v>0.02769499536225743</v>
+        <v>0.05860600140749871</v>
       </c>
       <c r="X61" t="n">
-        <v>0.04588679134832167</v>
+        <v>0.07886845997997488</v>
       </c>
       <c r="Y61" t="n">
-        <v>0.02728159376526985</v>
+        <v>0.07769435179434074</v>
       </c>
       <c r="Z61" t="n">
-        <v>0.02234025129135157</v>
+        <v>0.006239696237628007</v>
       </c>
       <c r="AA61" t="n">
-        <v>0.1028846939523502</v>
+        <v>0.002876772496996987</v>
       </c>
       <c r="AB61" t="n">
-        <v>0.0567076374758747</v>
+        <v>0.02847355101274691</v>
       </c>
       <c r="AC61" t="n">
-        <v>0.05555100145432924</v>
+        <v>0.07197855302671317</v>
       </c>
     </row>
     <row r="62">
@@ -6291,79 +6291,79 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>0.2180660668450117</v>
+        <v>0.2188703766836397</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0131955831700368</v>
+        <v>0.03007455114897977</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03599175143061097</v>
+        <v>0.04869421030394012</v>
       </c>
       <c r="H62" t="n">
-        <v>0.03795747520797841</v>
+        <v>0.00340410402696467</v>
       </c>
       <c r="I62" t="n">
-        <v>0.005278145867876521</v>
+        <v>0.02345403095858286</v>
       </c>
       <c r="J62" t="n">
-        <v>0.00254645096633092</v>
+        <v>0.01956788387569774</v>
       </c>
       <c r="K62" t="n">
-        <v>0.01684125513701272</v>
+        <v>0.01138765514878598</v>
       </c>
       <c r="L62" t="n">
-        <v>0.08532707218953869</v>
+        <v>0.02985071810646008</v>
       </c>
       <c r="M62" t="n">
-        <v>0.08954849746227093</v>
+        <v>0.1017038185273721</v>
       </c>
       <c r="N62" t="n">
-        <v>0.01123239108274761</v>
+        <v>0.06516543407165371</v>
       </c>
       <c r="O62" t="n">
-        <v>0.006541670598852335</v>
+        <v>0.02230727481092065</v>
       </c>
       <c r="P62" t="n">
-        <v>0.03786859382781795</v>
+        <v>0.0897770978423944</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.08850486302730819</v>
+        <v>0.1046534310709362</v>
       </c>
       <c r="R62" t="n">
-        <v>0.0905374189580245</v>
+        <v>0.02982143547705865</v>
       </c>
       <c r="S62" t="n">
-        <v>0.09197758812870323</v>
+        <v>0.07535046791442028</v>
       </c>
       <c r="T62" t="n">
-        <v>0.01159211553479352</v>
+        <v>0.02327671997705698</v>
       </c>
       <c r="U62" t="n">
-        <v>0.06163313130247815</v>
+        <v>0.03704734605216168</v>
       </c>
       <c r="V62" t="n">
-        <v>0.005248477544290445</v>
+        <v>0.002260010680125926</v>
       </c>
       <c r="W62" t="n">
-        <v>0.0530487788855469</v>
+        <v>0.00282394717486607</v>
       </c>
       <c r="X62" t="n">
-        <v>0.0356000578651061</v>
+        <v>0.07605861914870771</v>
       </c>
       <c r="Y62" t="n">
-        <v>0.04212838208608381</v>
+        <v>0.01977459536493517</v>
       </c>
       <c r="Z62" t="n">
-        <v>0.08892194130036177</v>
+        <v>0.08711008472748991</v>
       </c>
       <c r="AA62" t="n">
-        <v>0.0833181602566469</v>
+        <v>0.07810340197932934</v>
       </c>
       <c r="AB62" t="n">
-        <v>0.005160198169582861</v>
+        <v>0.01833316161115993</v>
       </c>
       <c r="AC62" t="n">
-        <v>0.05800430210312708</v>
+        <v>0.05945020004304512</v>
       </c>
     </row>
     <row r="63">
@@ -6386,79 +6386,79 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>0.3248326255972837</v>
+        <v>0.2934729531905447</v>
       </c>
       <c r="F63" t="n">
-        <v>0.113418845423026</v>
+        <v>0.1071342766348293</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0006793911986712831</v>
+        <v>0.060859107911084</v>
       </c>
       <c r="H63" t="n">
-        <v>0.01846513534346845</v>
+        <v>0.01827005040728671</v>
       </c>
       <c r="I63" t="n">
-        <v>0.03955628977331686</v>
+        <v>0.007840992573921167</v>
       </c>
       <c r="J63" t="n">
-        <v>0.04287854914103568</v>
+        <v>0.00398196763358767</v>
       </c>
       <c r="K63" t="n">
-        <v>0.07965608414537026</v>
+        <v>0.02058757562530917</v>
       </c>
       <c r="L63" t="n">
-        <v>0.04716023197116612</v>
+        <v>0.04867229023846678</v>
       </c>
       <c r="M63" t="n">
-        <v>0.03575435467638037</v>
+        <v>0.05384246910071168</v>
       </c>
       <c r="N63" t="n">
-        <v>0.001928777894948775</v>
+        <v>0.02322102441800743</v>
       </c>
       <c r="O63" t="n">
-        <v>0.1152720247925341</v>
+        <v>0.1077934194963121</v>
       </c>
       <c r="P63" t="n">
-        <v>0.05418376149451661</v>
+        <v>0.03138617083716794</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.009710752962535013</v>
+        <v>0.07771260594456206</v>
       </c>
       <c r="R63" t="n">
-        <v>0.08127403920147115</v>
+        <v>0.09913494558185078</v>
       </c>
       <c r="S63" t="n">
-        <v>0.03944190476944868</v>
+        <v>0.09502967770611642</v>
       </c>
       <c r="T63" t="n">
-        <v>0.07140484808767593</v>
+        <v>0.02825275239577252</v>
       </c>
       <c r="U63" t="n">
-        <v>0.01371419944598445</v>
+        <v>0.08484440536636202</v>
       </c>
       <c r="V63" t="n">
-        <v>0.0760637870095814</v>
+        <v>0.04009274995933404</v>
       </c>
       <c r="W63" t="n">
-        <v>0.05360687168252118</v>
+        <v>0.002229731081186903</v>
       </c>
       <c r="X63" t="n">
-        <v>0.03233807388261937</v>
+        <v>0.006201942666266238</v>
       </c>
       <c r="Y63" t="n">
-        <v>0.01970486855667205</v>
+        <v>0.01375252159669351</v>
       </c>
       <c r="Z63" t="n">
-        <v>0.01708683270993909</v>
+        <v>0.06458313938970911</v>
       </c>
       <c r="AA63" t="n">
-        <v>0.00498973443245735</v>
+        <v>0.001899134923399962</v>
       </c>
       <c r="AB63" t="n">
-        <v>0.03171064140465995</v>
+        <v>0.002677048512062543</v>
       </c>
       <c r="AC63" t="n">
-        <v>0.06075397396511949</v>
+        <v>0.0661072257244885</v>
       </c>
     </row>
     <row r="64">
@@ -6481,79 +6481,79 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>0.2220073966143828</v>
+        <v>0.2282150878941661</v>
       </c>
       <c r="F64" t="n">
-        <v>0.08629919445622822</v>
+        <v>0.05892898667757564</v>
       </c>
       <c r="G64" t="n">
-        <v>0.01512347240469016</v>
+        <v>0.072232580806336</v>
       </c>
       <c r="H64" t="n">
-        <v>0.001293363846420727</v>
+        <v>0.02729959951013918</v>
       </c>
       <c r="I64" t="n">
-        <v>0.09262750963243717</v>
+        <v>0.0651383424497986</v>
       </c>
       <c r="J64" t="n">
-        <v>0.03626629884423854</v>
+        <v>0.01604452769405548</v>
       </c>
       <c r="K64" t="n">
-        <v>0.01551151274161077</v>
+        <v>0.04478646720228145</v>
       </c>
       <c r="L64" t="n">
-        <v>0.06503332445612117</v>
+        <v>0.05192438318966353</v>
       </c>
       <c r="M64" t="n">
-        <v>0.05030603064936224</v>
+        <v>0.04600480714272417</v>
       </c>
       <c r="N64" t="n">
-        <v>0.06052044026228577</v>
+        <v>0.06371999539090947</v>
       </c>
       <c r="O64" t="n">
-        <v>0.01477676092239419</v>
+        <v>0.002593710107895378</v>
       </c>
       <c r="P64" t="n">
-        <v>0.09086109979552268</v>
+        <v>0.02650647478975852</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.04908291948510431</v>
+        <v>0.0207690461395084</v>
       </c>
       <c r="R64" t="n">
-        <v>0.07294590990794114</v>
+        <v>0.1016862595584783</v>
       </c>
       <c r="S64" t="n">
-        <v>0.02686048140960597</v>
+        <v>0.06464037377617969</v>
       </c>
       <c r="T64" t="n">
-        <v>0.04855074431765248</v>
+        <v>0.0762642403608603</v>
       </c>
       <c r="U64" t="n">
-        <v>0.07750018374678191</v>
+        <v>0.006440266614453197</v>
       </c>
       <c r="V64" t="n">
-        <v>0.007174743991013414</v>
+        <v>0.01198255109330923</v>
       </c>
       <c r="W64" t="n">
-        <v>0.007117242239112962</v>
+        <v>0.007008519821393705</v>
       </c>
       <c r="X64" t="n">
-        <v>0.06528277726030317</v>
+        <v>0.09906910317186693</v>
       </c>
       <c r="Y64" t="n">
-        <v>0.041412562835935</v>
+        <v>0.05116511396890633</v>
       </c>
       <c r="Z64" t="n">
-        <v>0.003023493346703931</v>
+        <v>0.003055726264515028</v>
       </c>
       <c r="AA64" t="n">
-        <v>0.03862580004607503</v>
+        <v>0.02213686556892247</v>
       </c>
       <c r="AB64" t="n">
-        <v>0.03380413340245907</v>
+        <v>0.06060205870046907</v>
       </c>
       <c r="AC64" t="n">
-        <v>-0.03076785143736567</v>
+        <v>-0.03198310920447313</v>
       </c>
     </row>
     <row r="65">
@@ -6576,79 +6576,79 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>0.3638204171066392</v>
+        <v>0.2757748390194638</v>
       </c>
       <c r="F65" t="n">
-        <v>0.09227877401361663</v>
+        <v>0.0493402866392169</v>
       </c>
       <c r="G65" t="n">
-        <v>0.01534838864534029</v>
+        <v>0.08783210494912787</v>
       </c>
       <c r="H65" t="n">
-        <v>0.03316570075349076</v>
+        <v>0.1013953367076219</v>
       </c>
       <c r="I65" t="n">
-        <v>0.03666050319910728</v>
+        <v>0.009125307618722685</v>
       </c>
       <c r="J65" t="n">
-        <v>0.01988458969829734</v>
+        <v>0.03959813059861795</v>
       </c>
       <c r="K65" t="n">
-        <v>0.02760227082188618</v>
+        <v>0.0105163574472952</v>
       </c>
       <c r="L65" t="n">
-        <v>0.007350284828897572</v>
+        <v>0.03651150263093546</v>
       </c>
       <c r="M65" t="n">
-        <v>0.0007260421700660089</v>
+        <v>0.0540664955468125</v>
       </c>
       <c r="N65" t="n">
-        <v>0.003015005497801398</v>
+        <v>0.02606871270586478</v>
       </c>
       <c r="O65" t="n">
-        <v>0.08473522289612517</v>
+        <v>0.06498074949937956</v>
       </c>
       <c r="P65" t="n">
-        <v>0.06034914309410754</v>
+        <v>0.01484927969566329</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.009439198411304493</v>
+        <v>0.002160361828505487</v>
       </c>
       <c r="R65" t="n">
-        <v>0.03658698251831824</v>
+        <v>0.01286115584387345</v>
       </c>
       <c r="S65" t="n">
-        <v>0.1117612463551381</v>
+        <v>0.02375846127025053</v>
       </c>
       <c r="T65" t="n">
-        <v>0.09980966625029578</v>
+        <v>0.02963809034012415</v>
       </c>
       <c r="U65" t="n">
-        <v>0.01422241926826317</v>
+        <v>0.03665456818908473</v>
       </c>
       <c r="V65" t="n">
-        <v>0.07234909985160089</v>
+        <v>0.01375159419106411</v>
       </c>
       <c r="W65" t="n">
-        <v>0.08032317519208387</v>
+        <v>0.03443348630687056</v>
       </c>
       <c r="X65" t="n">
-        <v>0.004529428891688751</v>
+        <v>0.08725475740015512</v>
       </c>
       <c r="Y65" t="n">
-        <v>0.09141160754820801</v>
+        <v>0.113794032540338</v>
       </c>
       <c r="Z65" t="n">
-        <v>0.04705510464942609</v>
+        <v>0.01024467904671872</v>
       </c>
       <c r="AA65" t="n">
-        <v>0.04012102057610423</v>
+        <v>0.06832199947028521</v>
       </c>
       <c r="AB65" t="n">
-        <v>0.0112751248688322</v>
+        <v>0.07284254953347195</v>
       </c>
       <c r="AC65" t="n">
-        <v>-0.00724295378970915</v>
+        <v>-0.01380218701311709</v>
       </c>
     </row>
     <row r="66">
@@ -6671,79 +6671,79 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>0.1801437041092235</v>
+        <v>0.1784384635014252</v>
       </c>
       <c r="F66" t="n">
-        <v>0.06570371642704327</v>
+        <v>0.045880237674524</v>
       </c>
       <c r="G66" t="n">
-        <v>0.00592976476366024</v>
+        <v>0.04326982730341043</v>
       </c>
       <c r="H66" t="n">
-        <v>0.04970008108202327</v>
+        <v>0.07351741639377291</v>
       </c>
       <c r="I66" t="n">
-        <v>0.03709419664394991</v>
+        <v>0.03982829863551411</v>
       </c>
       <c r="J66" t="n">
-        <v>0.08148194248228646</v>
+        <v>0.07257922383982843</v>
       </c>
       <c r="K66" t="n">
-        <v>0.08777371911101761</v>
+        <v>0.066689056801716</v>
       </c>
       <c r="L66" t="n">
-        <v>0.0206103969770078</v>
+        <v>0.01850106318328407</v>
       </c>
       <c r="M66" t="n">
-        <v>0.04694503899326691</v>
+        <v>0.05905293226406395</v>
       </c>
       <c r="N66" t="n">
-        <v>0.007900865111981565</v>
+        <v>0.02854900085476986</v>
       </c>
       <c r="O66" t="n">
-        <v>0.006157184666623333</v>
+        <v>0.007419982052887692</v>
       </c>
       <c r="P66" t="n">
-        <v>0.05290124863654579</v>
+        <v>0.01056463177340442</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.05302708681674348</v>
+        <v>0.01210992815201237</v>
       </c>
       <c r="R66" t="n">
-        <v>0.06342953613251065</v>
+        <v>0.08676845485296342</v>
       </c>
       <c r="S66" t="n">
-        <v>0.03315513054269829</v>
+        <v>0.06296816283129612</v>
       </c>
       <c r="T66" t="n">
-        <v>0.04501213656259478</v>
+        <v>0.01706608949279629</v>
       </c>
       <c r="U66" t="n">
-        <v>0.08829516861034296</v>
+        <v>0.06356763190497781</v>
       </c>
       <c r="V66" t="n">
-        <v>0.01310821458635345</v>
+        <v>0.01291620167587926</v>
       </c>
       <c r="W66" t="n">
-        <v>0.04499934991533225</v>
+        <v>0.06935563897137494</v>
       </c>
       <c r="X66" t="n">
-        <v>0.0660398870257642</v>
+        <v>0.06592871641819943</v>
       </c>
       <c r="Y66" t="n">
-        <v>0.007813445411578673</v>
+        <v>0.01858335311424227</v>
       </c>
       <c r="Z66" t="n">
-        <v>0.07984935681435579</v>
+        <v>0.08195393919121186</v>
       </c>
       <c r="AA66" t="n">
-        <v>0.0106760696374997</v>
+        <v>0.002678074451142366</v>
       </c>
       <c r="AB66" t="n">
-        <v>0.03239646304881969</v>
+        <v>0.04025213816672806</v>
       </c>
       <c r="AC66" t="n">
-        <v>0.04269997272669277</v>
+        <v>0.04908219371731174</v>
       </c>
     </row>
     <row r="67">
@@ -6766,79 +6766,79 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>0.3039537540672959</v>
+        <v>0.295329321466931</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09479853061993852</v>
+        <v>0.06644158947617571</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0467773466110482</v>
+        <v>0.06975680601717045</v>
       </c>
       <c r="H67" t="n">
-        <v>0.07012399641211389</v>
+        <v>0.101922466697931</v>
       </c>
       <c r="I67" t="n">
-        <v>0.02490058264229274</v>
+        <v>0.06405325219079434</v>
       </c>
       <c r="J67" t="n">
-        <v>0.01079888701906946</v>
+        <v>0.01178216750814612</v>
       </c>
       <c r="K67" t="n">
-        <v>0.04421722516734096</v>
+        <v>0.006299303422059603</v>
       </c>
       <c r="L67" t="n">
-        <v>0.03548556628623102</v>
+        <v>0.02158348254334163</v>
       </c>
       <c r="M67" t="n">
-        <v>0.04633184276879073</v>
+        <v>0.007874073100285513</v>
       </c>
       <c r="N67" t="n">
-        <v>0.004226934178551144</v>
+        <v>0.0122065221562968</v>
       </c>
       <c r="O67" t="n">
-        <v>0.1106173975487613</v>
+        <v>0.003639663213096592</v>
       </c>
       <c r="P67" t="n">
-        <v>0.03567737396791112</v>
+        <v>0.0337300807674139</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.009434501120474295</v>
+        <v>0.06413363770767974</v>
       </c>
       <c r="R67" t="n">
-        <v>0.01100347861733706</v>
+        <v>0.05627768394906959</v>
       </c>
       <c r="S67" t="n">
-        <v>0.1036752846912097</v>
+        <v>0.06371785501036271</v>
       </c>
       <c r="T67" t="n">
-        <v>0.02250338309732943</v>
+        <v>0.0607517764328936</v>
       </c>
       <c r="U67" t="n">
-        <v>0.04706065487558843</v>
+        <v>0.04975377978223267</v>
       </c>
       <c r="V67" t="n">
-        <v>0.01138198958353503</v>
+        <v>0.01886032681855648</v>
       </c>
       <c r="W67" t="n">
-        <v>0.06596330296736588</v>
+        <v>0.05517350935646747</v>
       </c>
       <c r="X67" t="n">
-        <v>0.07879861831932153</v>
+        <v>0.03145900669663319</v>
       </c>
       <c r="Y67" t="n">
-        <v>0.01954703760832539</v>
+        <v>0.1021909308461206</v>
       </c>
       <c r="Z67" t="n">
-        <v>0.0166112460189868</v>
+        <v>0.05246424325053571</v>
       </c>
       <c r="AA67" t="n">
-        <v>0.06503300632082733</v>
+        <v>0.003086687015430918</v>
       </c>
       <c r="AB67" t="n">
-        <v>0.02503181355765012</v>
+        <v>0.0428411560413056</v>
       </c>
       <c r="AC67" t="n">
-        <v>0.0284804414586097</v>
+        <v>0.00761273890300986</v>
       </c>
     </row>
     <row r="68">
@@ -6861,79 +6861,79 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>0.1681718125814957</v>
+        <v>0.1679908798407753</v>
       </c>
       <c r="F68" t="n">
-        <v>0.02152037528037096</v>
+        <v>0.04140536774579076</v>
       </c>
       <c r="G68" t="n">
-        <v>0.002574631500835448</v>
+        <v>0.06554369298809244</v>
       </c>
       <c r="H68" t="n">
-        <v>0.0487864773215184</v>
+        <v>0.01446609816019451</v>
       </c>
       <c r="I68" t="n">
-        <v>0.08148270081730623</v>
+        <v>0.0495374463191297</v>
       </c>
       <c r="J68" t="n">
-        <v>0.03901676753062722</v>
+        <v>0.05417417232104934</v>
       </c>
       <c r="K68" t="n">
-        <v>0.002746683395657527</v>
+        <v>0.009288053837963727</v>
       </c>
       <c r="L68" t="n">
-        <v>0.03260492803091718</v>
+        <v>0.06451493240852081</v>
       </c>
       <c r="M68" t="n">
-        <v>0.08342105143943522</v>
+        <v>0.07444478318793683</v>
       </c>
       <c r="N68" t="n">
-        <v>0.01936663790806428</v>
+        <v>0.02746273454952023</v>
       </c>
       <c r="O68" t="n">
-        <v>0.01636955714324458</v>
+        <v>0.004142091765012863</v>
       </c>
       <c r="P68" t="n">
-        <v>0.03698043355516897</v>
+        <v>0.02772505979352447</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.01258747266177559</v>
+        <v>0.04491339466954126</v>
       </c>
       <c r="R68" t="n">
-        <v>0.07403718639094543</v>
+        <v>0.07369704907746794</v>
       </c>
       <c r="S68" t="n">
-        <v>0.05055494034212513</v>
+        <v>0.0561177146948881</v>
       </c>
       <c r="T68" t="n">
-        <v>0.05551840424445927</v>
+        <v>0.08138306342534059</v>
       </c>
       <c r="U68" t="n">
-        <v>0.06913460712653469</v>
+        <v>0.03944781626162385</v>
       </c>
       <c r="V68" t="n">
-        <v>0.007748670311109374</v>
+        <v>0.001758963340921724</v>
       </c>
       <c r="W68" t="n">
-        <v>0.08114681967329267</v>
+        <v>0.08189425122371197</v>
       </c>
       <c r="X68" t="n">
-        <v>0.07632099631250495</v>
+        <v>0.02961895429259933</v>
       </c>
       <c r="Y68" t="n">
-        <v>0.06102035466332316</v>
+        <v>0.06939245308506665</v>
       </c>
       <c r="Z68" t="n">
-        <v>0.03589031215293476</v>
+        <v>0.02780746056694757</v>
       </c>
       <c r="AA68" t="n">
-        <v>0.08510175820010692</v>
+        <v>0.04284756625154582</v>
       </c>
       <c r="AB68" t="n">
-        <v>0.006068233997741803</v>
+        <v>0.01841688003360937</v>
       </c>
       <c r="AC68" t="n">
-        <v>-0.01210071706313794</v>
+        <v>-0.006687354134776244</v>
       </c>
     </row>
     <row r="69">
@@ -6956,79 +6956,79 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0.3117246892193802</v>
+        <v>0.2213157298557156</v>
       </c>
       <c r="F69" t="n">
-        <v>0.01243297450524349</v>
+        <v>0.03199230546760296</v>
       </c>
       <c r="G69" t="n">
-        <v>0.1218749769740568</v>
+        <v>0.05308926529184886</v>
       </c>
       <c r="H69" t="n">
-        <v>0.01049248489916147</v>
+        <v>0.0530924239370138</v>
       </c>
       <c r="I69" t="n">
-        <v>0.02180838464810279</v>
+        <v>0.006003153251801118</v>
       </c>
       <c r="J69" t="n">
-        <v>0.06436585566097645</v>
+        <v>0.009627378177377743</v>
       </c>
       <c r="K69" t="n">
-        <v>0.1289661453438448</v>
+        <v>0.03556289001811967</v>
       </c>
       <c r="L69" t="n">
-        <v>0.01531660321921116</v>
+        <v>0.04498164453869896</v>
       </c>
       <c r="M69" t="n">
-        <v>0.04575907537112073</v>
+        <v>0.1313546517449022</v>
       </c>
       <c r="N69" t="n">
-        <v>0.0558656087904293</v>
+        <v>0.03391535654024751</v>
       </c>
       <c r="O69" t="n">
-        <v>0.009043454697606722</v>
+        <v>0.003096718007951789</v>
       </c>
       <c r="P69" t="n">
-        <v>0.06300551546306726</v>
+        <v>0.008264794415720679</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.07631481529049854</v>
+        <v>0.06383994468073047</v>
       </c>
       <c r="R69" t="n">
-        <v>0.0008913771673889289</v>
+        <v>0.01259787330723173</v>
       </c>
       <c r="S69" t="n">
-        <v>0.01831753512782087</v>
+        <v>0.02512640928999909</v>
       </c>
       <c r="T69" t="n">
-        <v>0.003154057059207232</v>
+        <v>0.007631864382924799</v>
       </c>
       <c r="U69" t="n">
-        <v>0.01100699438404059</v>
+        <v>0.03190810533197079</v>
       </c>
       <c r="V69" t="n">
-        <v>0.006850990309541881</v>
+        <v>0.04299722441189435</v>
       </c>
       <c r="W69" t="n">
-        <v>0.001001925516734785</v>
+        <v>0.01309902645297935</v>
       </c>
       <c r="X69" t="n">
-        <v>0.03871267746370498</v>
+        <v>0.1214281451407706</v>
       </c>
       <c r="Y69" t="n">
-        <v>0.04955962448653983</v>
+        <v>0.09663895007956316</v>
       </c>
       <c r="Z69" t="n">
-        <v>0.05781129179151634</v>
+        <v>0.0206875736777529</v>
       </c>
       <c r="AA69" t="n">
-        <v>0.08009279652016263</v>
+        <v>0.03393357990981086</v>
       </c>
       <c r="AB69" t="n">
-        <v>0.1073548353100224</v>
+        <v>0.1191307219430866</v>
       </c>
       <c r="AC69" t="n">
-        <v>-0.005801458495430863</v>
+        <v>0.02249636686908364</v>
       </c>
     </row>
     <row r="70">
@@ -7051,79 +7051,79 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0.1618679027237789</v>
+        <v>0.156966254483846</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09636642200795532</v>
+        <v>0.03087066953332432</v>
       </c>
       <c r="G70" t="n">
-        <v>0.05058733761491128</v>
+        <v>0.07392676330276746</v>
       </c>
       <c r="H70" t="n">
-        <v>0.06016078980555399</v>
+        <v>0.03854391654320502</v>
       </c>
       <c r="I70" t="n">
-        <v>0.03139023794128967</v>
+        <v>0.06437792803589766</v>
       </c>
       <c r="J70" t="n">
-        <v>0.06972513360999978</v>
+        <v>0.03188908457354385</v>
       </c>
       <c r="K70" t="n">
-        <v>0.02624916737587153</v>
+        <v>0.005070042493829393</v>
       </c>
       <c r="L70" t="n">
-        <v>0.0007635203282651918</v>
+        <v>0.04698333361906007</v>
       </c>
       <c r="M70" t="n">
-        <v>0.002019512846243898</v>
+        <v>0.01317794917841024</v>
       </c>
       <c r="N70" t="n">
-        <v>0.007549482020953852</v>
+        <v>0.03363623559310708</v>
       </c>
       <c r="O70" t="n">
-        <v>0.04089932353768812</v>
+        <v>0.07659600491257096</v>
       </c>
       <c r="P70" t="n">
-        <v>0.05126169556988814</v>
+        <v>0.04037455555062836</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.05001432610136931</v>
+        <v>0.05076468196459866</v>
       </c>
       <c r="R70" t="n">
-        <v>0.06424639767925143</v>
+        <v>0.05562767260103188</v>
       </c>
       <c r="S70" t="n">
-        <v>0.04675251457713947</v>
+        <v>0.07655954346230999</v>
       </c>
       <c r="T70" t="n">
-        <v>0.1027213433215234</v>
+        <v>0.05758728929920236</v>
       </c>
       <c r="U70" t="n">
-        <v>0.06439954235095274</v>
+        <v>0.07096615868247305</v>
       </c>
       <c r="V70" t="n">
-        <v>0.01321499625549986</v>
+        <v>0.04522620638344664</v>
       </c>
       <c r="W70" t="n">
-        <v>0.08578544970507819</v>
+        <v>0.07943895979637178</v>
       </c>
       <c r="X70" t="n">
-        <v>0.01693276386179345</v>
+        <v>0.01009778583703165</v>
       </c>
       <c r="Y70" t="n">
-        <v>0.009781129766917841</v>
+        <v>0.02044797380499465</v>
       </c>
       <c r="Z70" t="n">
-        <v>0.05518838541738965</v>
+        <v>0.0292709609607475</v>
       </c>
       <c r="AA70" t="n">
-        <v>0.0001041340827513341</v>
+        <v>0.04789341039740732</v>
       </c>
       <c r="AB70" t="n">
-        <v>0.05388639422171265</v>
+        <v>0.0006728734740400505</v>
       </c>
       <c r="AC70" t="n">
-        <v>-0.05202482494236257</v>
+        <v>-0.0457433628228579</v>
       </c>
     </row>
     <row r="71">
@@ -7146,79 +7146,79 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>0.2726808232554859</v>
+        <v>0.3461648865619807</v>
       </c>
       <c r="F71" t="n">
-        <v>0.06694332503407152</v>
+        <v>0.02750103564665013</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0909254947101566</v>
+        <v>0.00468322423619286</v>
       </c>
       <c r="H71" t="n">
-        <v>0.006282021271784712</v>
+        <v>0.00760086860411226</v>
       </c>
       <c r="I71" t="n">
-        <v>0.05673026804575308</v>
+        <v>0.008209492235631452</v>
       </c>
       <c r="J71" t="n">
-        <v>0.04188877204541096</v>
+        <v>0.0478714252237358</v>
       </c>
       <c r="K71" t="n">
-        <v>0.05191725753932259</v>
+        <v>0.09354498464951663</v>
       </c>
       <c r="L71" t="n">
-        <v>0.04369103541803485</v>
+        <v>0.02636109243962041</v>
       </c>
       <c r="M71" t="n">
-        <v>0.0006488047386902356</v>
+        <v>0.07469985271976279</v>
       </c>
       <c r="N71" t="n">
-        <v>0.02166309584029092</v>
+        <v>0.007995580836358051</v>
       </c>
       <c r="O71" t="n">
-        <v>0.107679510878118</v>
+        <v>0.01560221282806554</v>
       </c>
       <c r="P71" t="n">
-        <v>0.02590976227450926</v>
+        <v>0.0374113108803836</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.01514610698946124</v>
+        <v>0.100531085732061</v>
       </c>
       <c r="R71" t="n">
-        <v>0.02754630432897359</v>
+        <v>0.04233486151743911</v>
       </c>
       <c r="S71" t="n">
-        <v>0.06485894537793921</v>
+        <v>0.08312085182159409</v>
       </c>
       <c r="T71" t="n">
-        <v>0.007738567242291953</v>
+        <v>0.01060713668330733</v>
       </c>
       <c r="U71" t="n">
-        <v>0.04730430292029893</v>
+        <v>0.008859927430714312</v>
       </c>
       <c r="V71" t="n">
-        <v>0.01832137775002592</v>
+        <v>0.1000165774751625</v>
       </c>
       <c r="W71" t="n">
-        <v>0.08057575704017507</v>
+        <v>0.01942580255420649</v>
       </c>
       <c r="X71" t="n">
-        <v>0.1053476729593965</v>
+        <v>0.07877634579207424</v>
       </c>
       <c r="Y71" t="n">
-        <v>0.02073793275569773</v>
+        <v>0.06146979385494306</v>
       </c>
       <c r="Z71" t="n">
-        <v>0.03364744457884034</v>
+        <v>0.05322740182726031</v>
       </c>
       <c r="AA71" t="n">
-        <v>0.02717907757291879</v>
+        <v>0.004159367678075784</v>
       </c>
       <c r="AB71" t="n">
-        <v>0.03731716268783806</v>
+        <v>0.08598976733313225</v>
       </c>
       <c r="AC71" t="n">
-        <v>-0.0648519845702232</v>
+        <v>-0.06137741277376518</v>
       </c>
     </row>
     <row r="72">
@@ -7241,79 +7241,79 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>0.131807582070078</v>
+        <v>0.1324451895445604</v>
       </c>
       <c r="F72" t="n">
-        <v>0.02672308084295389</v>
+        <v>0.02934471405148406</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0007205862223525569</v>
+        <v>0.0006577850946624795</v>
       </c>
       <c r="H72" t="n">
-        <v>0.003476514812091806</v>
+        <v>0.002327055518731459</v>
       </c>
       <c r="I72" t="n">
-        <v>0.06361276423525275</v>
+        <v>0.06659510013893361</v>
       </c>
       <c r="J72" t="n">
-        <v>0.03823894524700697</v>
+        <v>0.07472595048903506</v>
       </c>
       <c r="K72" t="n">
-        <v>0.08028860434515846</v>
+        <v>0.04640510377807586</v>
       </c>
       <c r="L72" t="n">
-        <v>0.07457978633083971</v>
+        <v>0.03314371962188447</v>
       </c>
       <c r="M72" t="n">
-        <v>0.01387528682398775</v>
+        <v>0.003200940804103248</v>
       </c>
       <c r="N72" t="n">
-        <v>0.03144218383258109</v>
+        <v>0.05869526569594066</v>
       </c>
       <c r="O72" t="n">
-        <v>0.05497833516863119</v>
+        <v>0.07526613930394087</v>
       </c>
       <c r="P72" t="n">
-        <v>0.07310484773319204</v>
+        <v>0.005216260296525499</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.04081545190590791</v>
+        <v>0.0006714730397760053</v>
       </c>
       <c r="R72" t="n">
-        <v>0.005232014166429716</v>
+        <v>0.008892004985629524</v>
       </c>
       <c r="S72" t="n">
-        <v>0.02563970794159504</v>
+        <v>0.04393990064599034</v>
       </c>
       <c r="T72" t="n">
-        <v>0.09359052028360432</v>
+        <v>0.08404011179061395</v>
       </c>
       <c r="U72" t="n">
-        <v>0.0675388797637593</v>
+        <v>0.06671055154396689</v>
       </c>
       <c r="V72" t="n">
-        <v>0.003251627438184617</v>
+        <v>0.01242907333018494</v>
       </c>
       <c r="W72" t="n">
-        <v>0.06344613193838844</v>
+        <v>0.06963676856819451</v>
       </c>
       <c r="X72" t="n">
-        <v>0.07428774015364474</v>
+        <v>0.07230534185271995</v>
       </c>
       <c r="Y72" t="n">
-        <v>0.01151766869516464</v>
+        <v>0.01450791614581021</v>
       </c>
       <c r="Z72" t="n">
-        <v>0.03612990164656449</v>
+        <v>0.05582511480107269</v>
       </c>
       <c r="AA72" t="n">
-        <v>0.05324866950863138</v>
+        <v>0.09427719345633133</v>
       </c>
       <c r="AB72" t="n">
-        <v>0.0642607509640771</v>
+        <v>0.08118651504639243</v>
       </c>
       <c r="AC72" t="n">
-        <v>-0.1502832689040412</v>
+        <v>-0.1740632958065455</v>
       </c>
     </row>
     <row r="73">
@@ -7336,79 +7336,79 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>0.2172915829292472</v>
+        <v>0.2047175822336651</v>
       </c>
       <c r="F73" t="n">
-        <v>0.03108375494103302</v>
+        <v>0.06069627831997784</v>
       </c>
       <c r="G73" t="n">
-        <v>0.01900564768146305</v>
+        <v>0.0493233421842223</v>
       </c>
       <c r="H73" t="n">
-        <v>0.0001609212043083823</v>
+        <v>0.06237379528616067</v>
       </c>
       <c r="I73" t="n">
-        <v>0.008932171470383497</v>
+        <v>0.002336095968777955</v>
       </c>
       <c r="J73" t="n">
-        <v>0.03382833636458262</v>
+        <v>0.01797704852045138</v>
       </c>
       <c r="K73" t="n">
-        <v>0.02157102994432311</v>
+        <v>0.01796729303321074</v>
       </c>
       <c r="L73" t="n">
-        <v>0.04481432658644239</v>
+        <v>0.00151190241643934</v>
       </c>
       <c r="M73" t="n">
-        <v>0.05920935030288639</v>
+        <v>0.07202212263684926</v>
       </c>
       <c r="N73" t="n">
-        <v>0.04324517962910955</v>
+        <v>0.03660316161099038</v>
       </c>
       <c r="O73" t="n">
-        <v>0.0129824017014809</v>
+        <v>0.05868693965894597</v>
       </c>
       <c r="P73" t="n">
-        <v>0.07533517668157388</v>
+        <v>0.003031073943025853</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.101738099334797</v>
+        <v>0.067070158807561</v>
       </c>
       <c r="R73" t="n">
-        <v>0.07895618589534711</v>
+        <v>0.07200346170105003</v>
       </c>
       <c r="S73" t="n">
-        <v>0.005251199192052296</v>
+        <v>0.007295380488448559</v>
       </c>
       <c r="T73" t="n">
-        <v>0.01681396839712717</v>
+        <v>0.01674396456337483</v>
       </c>
       <c r="U73" t="n">
-        <v>0.02084100525909067</v>
+        <v>0.0007738199761125643</v>
       </c>
       <c r="V73" t="n">
-        <v>0.03305673348901023</v>
+        <v>0.07654450817230368</v>
       </c>
       <c r="W73" t="n">
-        <v>0.0265298812635508</v>
+        <v>0.03429728348642394</v>
       </c>
       <c r="X73" t="n">
-        <v>0.007648225737834938</v>
+        <v>0.07279325656625137</v>
       </c>
       <c r="Y73" t="n">
-        <v>0.1287733250220062</v>
+        <v>0.08234651360263648</v>
       </c>
       <c r="Z73" t="n">
-        <v>0.02739457387543871</v>
+        <v>0.0777540521300287</v>
       </c>
       <c r="AA73" t="n">
-        <v>0.07278784913073046</v>
+        <v>0.07856406516937707</v>
       </c>
       <c r="AB73" t="n">
-        <v>0.1300406568954278</v>
+        <v>0.03128448175738014</v>
       </c>
       <c r="AC73" t="n">
-        <v>-0.1390408027452464</v>
+        <v>-0.1705668012824217</v>
       </c>
     </row>
     <row r="74">
@@ -7431,79 +7431,79 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.1250818706310367</v>
+        <v>0.1238271413683929</v>
       </c>
       <c r="F74" t="n">
-        <v>0.03005973653269939</v>
+        <v>0.0789530649030105</v>
       </c>
       <c r="G74" t="n">
-        <v>0.08753397933765183</v>
+        <v>0.03655822052549859</v>
       </c>
       <c r="H74" t="n">
-        <v>0.05534631241366413</v>
+        <v>0.03834261750035491</v>
       </c>
       <c r="I74" t="n">
-        <v>0.0305067710880577</v>
+        <v>0.002638796962640088</v>
       </c>
       <c r="J74" t="n">
-        <v>0.05994323213013233</v>
+        <v>0.07354256188114836</v>
       </c>
       <c r="K74" t="n">
-        <v>0.02698920672652712</v>
+        <v>0.03683821360516413</v>
       </c>
       <c r="L74" t="n">
-        <v>0.05617568833025376</v>
+        <v>0.01035500133700302</v>
       </c>
       <c r="M74" t="n">
-        <v>0.01455594852904883</v>
+        <v>0.0595246508451767</v>
       </c>
       <c r="N74" t="n">
-        <v>0.0157978984757759</v>
+        <v>0.02006632200601297</v>
       </c>
       <c r="O74" t="n">
-        <v>0.02278111776328346</v>
+        <v>0.05972962628603513</v>
       </c>
       <c r="P74" t="n">
-        <v>0.08638620901282107</v>
+        <v>0.05246940090062085</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.03854868756511762</v>
+        <v>0.02615399975929307</v>
       </c>
       <c r="R74" t="n">
-        <v>0.02831961156944582</v>
+        <v>0.03101801008502235</v>
       </c>
       <c r="S74" t="n">
-        <v>0.02165715859920173</v>
+        <v>0.006231675129073746</v>
       </c>
       <c r="T74" t="n">
-        <v>0.03882333038638716</v>
+        <v>0.03993515374741668</v>
       </c>
       <c r="U74" t="n">
-        <v>0.08746063957701979</v>
+        <v>0.05504017585185102</v>
       </c>
       <c r="V74" t="n">
-        <v>0.03189629273282886</v>
+        <v>0.02336099017650136</v>
       </c>
       <c r="W74" t="n">
-        <v>0.07419747248191512</v>
+        <v>0.07900221236262354</v>
       </c>
       <c r="X74" t="n">
-        <v>0.07042249502976068</v>
+        <v>0.07929226130058031</v>
       </c>
       <c r="Y74" t="n">
-        <v>0.06675382723525602</v>
+        <v>0.07556747503737997</v>
       </c>
       <c r="Z74" t="n">
-        <v>0.03452578186941226</v>
+        <v>0.07683549323583524</v>
       </c>
       <c r="AA74" t="n">
-        <v>0.01389458043866756</v>
+        <v>0.02839222677618903</v>
       </c>
       <c r="AB74" t="n">
-        <v>0.007424022175071985</v>
+        <v>0.01015184978556836</v>
       </c>
       <c r="AC74" t="n">
-        <v>0.131317032404888</v>
+        <v>0.1495384657514329</v>
       </c>
     </row>
     <row r="75">
@@ -7526,79 +7526,79 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>0.1639254509414888</v>
+        <v>0.1644828664682935</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1014817952633994</v>
+        <v>0.07027344866691101</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03033003586332883</v>
+        <v>0.004499106175756928</v>
       </c>
       <c r="H75" t="n">
-        <v>0.001902289963621591</v>
+        <v>5.089695169485071e-05</v>
       </c>
       <c r="I75" t="n">
-        <v>0.01065305852745695</v>
+        <v>0.05631332150277257</v>
       </c>
       <c r="J75" t="n">
-        <v>0.08209634519382206</v>
+        <v>0.08810001717506119</v>
       </c>
       <c r="K75" t="n">
-        <v>0.06104491874993777</v>
+        <v>0.01826135017920909</v>
       </c>
       <c r="L75" t="n">
-        <v>0.05807687443799076</v>
+        <v>0.003504114443927025</v>
       </c>
       <c r="M75" t="n">
-        <v>0.1077133862066159</v>
+        <v>0.09454881731652769</v>
       </c>
       <c r="N75" t="n">
-        <v>0.01320245714332619</v>
+        <v>0.007676545217060029</v>
       </c>
       <c r="O75" t="n">
-        <v>0.008580076484319972</v>
+        <v>0.02449778203461062</v>
       </c>
       <c r="P75" t="n">
-        <v>0.02584403674692099</v>
+        <v>0.003090586518054894</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.02246737361318648</v>
+        <v>0.08044805203314515</v>
       </c>
       <c r="R75" t="n">
-        <v>0.03401849194213658</v>
+        <v>0.04226198745288971</v>
       </c>
       <c r="S75" t="n">
-        <v>0.01669794137046775</v>
+        <v>0.003843678219998081</v>
       </c>
       <c r="T75" t="n">
-        <v>0.02873926530982527</v>
+        <v>0.0552716755472658</v>
       </c>
       <c r="U75" t="n">
-        <v>0.004281898678488496</v>
+        <v>0.002075905887754905</v>
       </c>
       <c r="V75" t="n">
-        <v>0.06498259984346878</v>
+        <v>0.05913548293145628</v>
       </c>
       <c r="W75" t="n">
-        <v>0.0493846948809323</v>
+        <v>0.01298246295864539</v>
       </c>
       <c r="X75" t="n">
-        <v>0.05134309221727768</v>
+        <v>0.06958759988818185</v>
       </c>
       <c r="Y75" t="n">
-        <v>0.03112367962356457</v>
+        <v>0.07917455313304504</v>
       </c>
       <c r="Z75" t="n">
-        <v>0.05051405344829094</v>
+        <v>0.05044442814240566</v>
       </c>
       <c r="AA75" t="n">
-        <v>0.1056160908509003</v>
+        <v>0.08022156624115205</v>
       </c>
       <c r="AB75" t="n">
-        <v>0.03990554364072062</v>
+        <v>0.09373662138247434</v>
       </c>
       <c r="AC75" t="n">
-        <v>0.1557779351866707</v>
+        <v>0.1479259838466666</v>
       </c>
     </row>
     <row r="76">
@@ -7621,79 +7621,79 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>0.1318247499285172</v>
+        <v>0.1327859407889923</v>
       </c>
       <c r="F76" t="n">
-        <v>0.06636977177085822</v>
+        <v>0.02762435871704496</v>
       </c>
       <c r="G76" t="n">
-        <v>0.05576122289242865</v>
+        <v>0.08940828112076958</v>
       </c>
       <c r="H76" t="n">
-        <v>0.00670375946908442</v>
+        <v>0.02080231504171912</v>
       </c>
       <c r="I76" t="n">
-        <v>0.06933585275944142</v>
+        <v>0.05743497533215649</v>
       </c>
       <c r="J76" t="n">
-        <v>0.0269594784156984</v>
+        <v>0.008303679330904323</v>
       </c>
       <c r="K76" t="n">
-        <v>0.02164696809847374</v>
+        <v>0.0332624374310211</v>
       </c>
       <c r="L76" t="n">
-        <v>0.02635896391474738</v>
+        <v>0.03393874077746922</v>
       </c>
       <c r="M76" t="n">
-        <v>0.06597544208595411</v>
+        <v>0.06975101303381767</v>
       </c>
       <c r="N76" t="n">
-        <v>0.05406152913235422</v>
+        <v>0.002799901360954842</v>
       </c>
       <c r="O76" t="n">
-        <v>0.0641887283189784</v>
+        <v>0.02859844473734508</v>
       </c>
       <c r="P76" t="n">
-        <v>0.0630844172185251</v>
+        <v>0.1021774993170863</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.06534492600148174</v>
+        <v>0.07571971281789069</v>
       </c>
       <c r="R76" t="n">
-        <v>0.03937659106022039</v>
+        <v>0.06423180315953007</v>
       </c>
       <c r="S76" t="n">
-        <v>0.05810605453504834</v>
+        <v>0.009654408787777534</v>
       </c>
       <c r="T76" t="n">
-        <v>0.01284770167838344</v>
+        <v>0.006755611882911848</v>
       </c>
       <c r="U76" t="n">
-        <v>0.04980040273262802</v>
+        <v>0.07529699243735141</v>
       </c>
       <c r="V76" t="n">
-        <v>0.01331589964672961</v>
+        <v>0.004985974435850375</v>
       </c>
       <c r="W76" t="n">
-        <v>0.05455973383930435</v>
+        <v>0.05157996391265757</v>
       </c>
       <c r="X76" t="n">
-        <v>0.001546665867107341</v>
+        <v>0.0006006504980103946</v>
       </c>
       <c r="Y76" t="n">
-        <v>0.009498027341283917</v>
+        <v>0.07703841213678786</v>
       </c>
       <c r="Z76" t="n">
-        <v>0.06071155007696731</v>
+        <v>0.04636799133249674</v>
       </c>
       <c r="AA76" t="n">
-        <v>0.04470856333503914</v>
+        <v>0.07898249925043949</v>
       </c>
       <c r="AB76" t="n">
-        <v>0.06973774980926239</v>
+        <v>0.0346843331480071</v>
       </c>
       <c r="AC76" t="n">
-        <v>-0.05050397108185651</v>
+        <v>-0.04372318294825396</v>
       </c>
     </row>
     <row r="77">
@@ -7716,79 +7716,79 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>0.3713087793402865</v>
+        <v>0.3894543359118986</v>
       </c>
       <c r="F77" t="n">
-        <v>0.03193992460105397</v>
+        <v>0.08960277808884271</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01367785716560877</v>
+        <v>0.06919762458432685</v>
       </c>
       <c r="H77" t="n">
-        <v>0.1107784238266481</v>
+        <v>0.01857246755542585</v>
       </c>
       <c r="I77" t="n">
-        <v>0.009349911149301591</v>
+        <v>0.0002383965516175629</v>
       </c>
       <c r="J77" t="n">
-        <v>0.07794016774015625</v>
+        <v>0.03910068651959141</v>
       </c>
       <c r="K77" t="n">
-        <v>0.01840185557091721</v>
+        <v>0.005500697903594811</v>
       </c>
       <c r="L77" t="n">
-        <v>0.02945200932223957</v>
+        <v>0.01257398815898656</v>
       </c>
       <c r="M77" t="n">
-        <v>0.01235344025703631</v>
+        <v>0.08956433393847459</v>
       </c>
       <c r="N77" t="n">
-        <v>0.007508868395436606</v>
+        <v>0.01326514630767497</v>
       </c>
       <c r="O77" t="n">
-        <v>0.02770176098447706</v>
+        <v>0.03327727606300792</v>
       </c>
       <c r="P77" t="n">
-        <v>0.09999793099787921</v>
+        <v>0.01885116787147012</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.077730399824395</v>
+        <v>0.0591895181232228</v>
       </c>
       <c r="R77" t="n">
-        <v>0.001753820365832856</v>
+        <v>0.03684918399259911</v>
       </c>
       <c r="S77" t="n">
-        <v>0.02018852097428728</v>
+        <v>0.008681163355996953</v>
       </c>
       <c r="T77" t="n">
-        <v>0.0526785755675161</v>
+        <v>0.07800524314090979</v>
       </c>
       <c r="U77" t="n">
-        <v>0.1060142810693131</v>
+        <v>0.07295742180510788</v>
       </c>
       <c r="V77" t="n">
-        <v>0.01205980372895363</v>
+        <v>0.03740334505199705</v>
       </c>
       <c r="W77" t="n">
-        <v>0.07772602807753945</v>
+        <v>0.04887878811456877</v>
       </c>
       <c r="X77" t="n">
-        <v>0.08088241823187325</v>
+        <v>0.09138911612935266</v>
       </c>
       <c r="Y77" t="n">
-        <v>0.04033913716904194</v>
+        <v>0.05717790002554105</v>
       </c>
       <c r="Z77" t="n">
-        <v>0.01473836769848513</v>
+        <v>0.07910014964883653</v>
       </c>
       <c r="AA77" t="n">
-        <v>0.03981474439448195</v>
+        <v>0.03119939503680829</v>
       </c>
       <c r="AB77" t="n">
-        <v>0.0369717528875256</v>
+        <v>0.009424212032045805</v>
       </c>
       <c r="AC77" t="n">
-        <v>-0.06871238910363191</v>
+        <v>-0.03329774771581427</v>
       </c>
     </row>
     <row r="78">
@@ -7811,79 +7811,79 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>0.1306487772681302</v>
+        <v>0.1320724801239321</v>
       </c>
       <c r="F78" t="n">
-        <v>0.02788966503722053</v>
+        <v>0.04350203165837929</v>
       </c>
       <c r="G78" t="n">
-        <v>0.08653663233841206</v>
+        <v>0.0930848756405402</v>
       </c>
       <c r="H78" t="n">
-        <v>0.0502912963409504</v>
+        <v>0.02501444247724643</v>
       </c>
       <c r="I78" t="n">
-        <v>0.008318442309923919</v>
+        <v>0.03358535116130867</v>
       </c>
       <c r="J78" t="n">
-        <v>0.04738179242583831</v>
+        <v>0.04227759914665805</v>
       </c>
       <c r="K78" t="n">
-        <v>0.067296979812105</v>
+        <v>0.03538238425404384</v>
       </c>
       <c r="L78" t="n">
-        <v>0.01088447153897314</v>
+        <v>0.04143588670382013</v>
       </c>
       <c r="M78" t="n">
-        <v>0.008231575311940629</v>
+        <v>0.02745844689030186</v>
       </c>
       <c r="N78" t="n">
-        <v>0.05737606095109062</v>
+        <v>0.02525963344148968</v>
       </c>
       <c r="O78" t="n">
-        <v>0.000825069876137621</v>
+        <v>0.09020847156276499</v>
       </c>
       <c r="P78" t="n">
-        <v>0.08574093215716697</v>
+        <v>0.08218671463229479</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.08519068173184578</v>
+        <v>0.03776731298567891</v>
       </c>
       <c r="R78" t="n">
-        <v>0.06536428959467261</v>
+        <v>0.09055102904353149</v>
       </c>
       <c r="S78" t="n">
-        <v>0.03998156424830545</v>
+        <v>0.01410711263252397</v>
       </c>
       <c r="T78" t="n">
-        <v>0.02642147965456725</v>
+        <v>0.003509540306664341</v>
       </c>
       <c r="U78" t="n">
-        <v>0.07633480353585384</v>
+        <v>0.09345788817405841</v>
       </c>
       <c r="V78" t="n">
-        <v>0.002365269166905351</v>
+        <v>0.008179577646538556</v>
       </c>
       <c r="W78" t="n">
-        <v>0.08567266829397162</v>
+        <v>0.05930645868085098</v>
       </c>
       <c r="X78" t="n">
-        <v>0.07893913825492703</v>
+        <v>0.07170998162492545</v>
       </c>
       <c r="Y78" t="n">
-        <v>0.00822020922076188</v>
+        <v>0.007594500630928092</v>
       </c>
       <c r="Z78" t="n">
-        <v>0.05390952847997622</v>
+        <v>0.02695482235094679</v>
       </c>
       <c r="AA78" t="n">
-        <v>0.001767663005553604</v>
+        <v>0.04136955912440722</v>
       </c>
       <c r="AB78" t="n">
-        <v>0.02505978671290004</v>
+        <v>0.006096379230097859</v>
       </c>
       <c r="AC78" t="n">
-        <v>0.08092177855064224</v>
+        <v>0.08852303452429428</v>
       </c>
     </row>
     <row r="79">
@@ -7906,79 +7906,79 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>0.1687743165317377</v>
+        <v>0.1652568397707479</v>
       </c>
       <c r="F79" t="n">
-        <v>0.04927118288038695</v>
+        <v>0.08867363036474077</v>
       </c>
       <c r="G79" t="n">
-        <v>0.04134324338747993</v>
+        <v>0.08071863958079956</v>
       </c>
       <c r="H79" t="n">
-        <v>0.09476165316660748</v>
+        <v>0.06501043564038538</v>
       </c>
       <c r="I79" t="n">
-        <v>0.002097479167308147</v>
+        <v>0.006637415109264498</v>
       </c>
       <c r="J79" t="n">
-        <v>0.02208907093129274</v>
+        <v>0.007762713975105843</v>
       </c>
       <c r="K79" t="n">
-        <v>0.008450954913951932</v>
+        <v>0.04355595292619881</v>
       </c>
       <c r="L79" t="n">
-        <v>0.04132141292062659</v>
+        <v>0.004084914353518236</v>
       </c>
       <c r="M79" t="n">
-        <v>0.1219148366569361</v>
+        <v>0.1263370031512233</v>
       </c>
       <c r="N79" t="n">
-        <v>0.03115779945579284</v>
+        <v>0.003582171780551827</v>
       </c>
       <c r="O79" t="n">
-        <v>0.02301109283916959</v>
+        <v>0.01410393998428587</v>
       </c>
       <c r="P79" t="n">
-        <v>0.08979017072920951</v>
+        <v>0.105744572558406</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.0716180876966352</v>
+        <v>0.02944611990753341</v>
       </c>
       <c r="R79" t="n">
-        <v>0.003359812053358137</v>
+        <v>0.03628247377307717</v>
       </c>
       <c r="S79" t="n">
-        <v>0.006382557863807556</v>
+        <v>0.03248860918499166</v>
       </c>
       <c r="T79" t="n">
-        <v>0.03854605977966905</v>
+        <v>0.01252087240954463</v>
       </c>
       <c r="U79" t="n">
-        <v>0.02289917068396279</v>
+        <v>0.05099449224903661</v>
       </c>
       <c r="V79" t="n">
-        <v>0.007779602386666656</v>
+        <v>0.01307083060064424</v>
       </c>
       <c r="W79" t="n">
-        <v>0.01611632831773296</v>
+        <v>0.001759103920726913</v>
       </c>
       <c r="X79" t="n">
-        <v>0.06416620275761624</v>
+        <v>0.02998045218272346</v>
       </c>
       <c r="Y79" t="n">
-        <v>0.03793273759510821</v>
+        <v>0.03357852867043359</v>
       </c>
       <c r="Z79" t="n">
-        <v>0.06549386999104716</v>
+        <v>0.02693358169170322</v>
       </c>
       <c r="AA79" t="n">
-        <v>0.1003608272752384</v>
+        <v>0.08583053006303283</v>
       </c>
       <c r="AB79" t="n">
-        <v>0.04013584655039596</v>
+        <v>0.1009030159220722</v>
       </c>
       <c r="AC79" t="n">
-        <v>0.09686152802431476</v>
+        <v>0.0882313592585698</v>
       </c>
     </row>
     <row r="80">
@@ -8001,79 +8001,79 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>0.1788027211598396</v>
+        <v>0.1909614512327871</v>
       </c>
       <c r="F80" t="n">
-        <v>0.03440269761809352</v>
+        <v>0.0009152770233550783</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02045866846400035</v>
+        <v>0.01830426472088644</v>
       </c>
       <c r="H80" t="n">
-        <v>0.08485767613117724</v>
+        <v>0.07792132179707405</v>
       </c>
       <c r="I80" t="n">
-        <v>0.06414036142529984</v>
+        <v>0.05500844713553169</v>
       </c>
       <c r="J80" t="n">
-        <v>0.03914583518279284</v>
+        <v>0.06870621434989468</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01020428968879864</v>
+        <v>0.049938836309743</v>
       </c>
       <c r="L80" t="n">
-        <v>0.04355820295173631</v>
+        <v>0.07258236662668663</v>
       </c>
       <c r="M80" t="n">
-        <v>0.08605226494688333</v>
+        <v>0.03133817457087339</v>
       </c>
       <c r="N80" t="n">
-        <v>0.04274300528915193</v>
+        <v>0.05156347184365549</v>
       </c>
       <c r="O80" t="n">
-        <v>0.004369484026026221</v>
+        <v>0.03656676224471668</v>
       </c>
       <c r="P80" t="n">
-        <v>0.07763699853446708</v>
+        <v>0.06598275222151594</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.08688205421472245</v>
+        <v>0.08631682723863331</v>
       </c>
       <c r="R80" t="n">
-        <v>0.03637437673343592</v>
+        <v>0.02710155717213386</v>
       </c>
       <c r="S80" t="n">
-        <v>0.05732969018973992</v>
+        <v>0.003535421129707717</v>
       </c>
       <c r="T80" t="n">
-        <v>0.01722960987696555</v>
+        <v>0.02817443975947287</v>
       </c>
       <c r="U80" t="n">
-        <v>0.07245769606171919</v>
+        <v>0.07720709161475188</v>
       </c>
       <c r="V80" t="n">
-        <v>0.02412396274695425</v>
+        <v>0.008371782658924302</v>
       </c>
       <c r="W80" t="n">
-        <v>0.04565990255081238</v>
+        <v>0.07912422351098634</v>
       </c>
       <c r="X80" t="n">
-        <v>0.0008073217571121566</v>
+        <v>0.04157805195036666</v>
       </c>
       <c r="Y80" t="n">
-        <v>0.06621235318949081</v>
+        <v>0.02343375695994671</v>
       </c>
       <c r="Z80" t="n">
-        <v>0.0822239194190761</v>
+        <v>0.07716129053811126</v>
       </c>
       <c r="AA80" t="n">
-        <v>0.002087660798258172</v>
+        <v>0.01458789534150026</v>
       </c>
       <c r="AB80" t="n">
-        <v>0.001041968203286058</v>
+        <v>0.004579773281532079</v>
       </c>
       <c r="AC80" t="n">
-        <v>-0.1572107916526153</v>
+        <v>-0.1927557997519705</v>
       </c>
     </row>
     <row r="81">
@@ -8096,79 +8096,79 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>0.4375576886785035</v>
+        <v>0.5365735428665138</v>
       </c>
       <c r="F81" t="n">
-        <v>0.03522383061011596</v>
+        <v>0.05450177311466551</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01421513705704247</v>
+        <v>0.03422279667800057</v>
       </c>
       <c r="H81" t="n">
-        <v>0.01253395660875146</v>
+        <v>0.002195002949057367</v>
       </c>
       <c r="I81" t="n">
-        <v>0.09864461568302149</v>
+        <v>0.04448425972903548</v>
       </c>
       <c r="J81" t="n">
-        <v>0.03641911053557941</v>
+        <v>0.04469778857991893</v>
       </c>
       <c r="K81" t="n">
-        <v>0.02091496069665555</v>
+        <v>0.01787954574273952</v>
       </c>
       <c r="L81" t="n">
-        <v>0.06102779043145678</v>
+        <v>0.04828126878827261</v>
       </c>
       <c r="M81" t="n">
-        <v>0.07350513482777916</v>
+        <v>0.008292642580942193</v>
       </c>
       <c r="N81" t="n">
-        <v>0.008390637314456148</v>
+        <v>0.09556323411317025</v>
       </c>
       <c r="O81" t="n">
-        <v>0.08180931662804369</v>
+        <v>0.01589769431563704</v>
       </c>
       <c r="P81" t="n">
-        <v>0.07366439298071517</v>
+        <v>0.05950651101445891</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.042075711921748</v>
+        <v>0.01295951976162022</v>
       </c>
       <c r="R81" t="n">
-        <v>0.04023564183307848</v>
+        <v>0.07044607704357941</v>
       </c>
       <c r="S81" t="n">
-        <v>0.006662276911466844</v>
+        <v>0.01165969597184634</v>
       </c>
       <c r="T81" t="n">
-        <v>0.01983795019966504</v>
+        <v>0.01787481824068359</v>
       </c>
       <c r="U81" t="n">
-        <v>0.00611221306289198</v>
+        <v>0.03654163667862387</v>
       </c>
       <c r="V81" t="n">
-        <v>0.003085344991638478</v>
+        <v>0.04536509332120909</v>
       </c>
       <c r="W81" t="n">
-        <v>0.04652017802844709</v>
+        <v>0.01405241323855794</v>
       </c>
       <c r="X81" t="n">
-        <v>0.01167886111394334</v>
+        <v>0.03896930169059957</v>
       </c>
       <c r="Y81" t="n">
-        <v>0.0848332730182097</v>
+        <v>0.08608423540371739</v>
       </c>
       <c r="Z81" t="n">
-        <v>0.06991075529105163</v>
+        <v>0.1208288950194962</v>
       </c>
       <c r="AA81" t="n">
-        <v>0.04860325475342887</v>
+        <v>0.006009879815582601</v>
       </c>
       <c r="AB81" t="n">
-        <v>0.1040956555008131</v>
+        <v>0.1136859162085853</v>
       </c>
       <c r="AC81" t="n">
-        <v>-0.1896877460649929</v>
+        <v>-0.1836457056487156</v>
       </c>
     </row>
     <row r="82">
@@ -8191,79 +8191,79 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>0.2021984923997237</v>
+        <v>0.2016581217688662</v>
       </c>
       <c r="F82" t="n">
-        <v>0.0991836051553948</v>
+        <v>0.06717257731417756</v>
       </c>
       <c r="G82" t="n">
-        <v>0.03375316841925734</v>
+        <v>0.05010267613730573</v>
       </c>
       <c r="H82" t="n">
-        <v>0.06427795993828912</v>
+        <v>0.003455282435474309</v>
       </c>
       <c r="I82" t="n">
-        <v>0.0224402869510316</v>
+        <v>0.08421706323073146</v>
       </c>
       <c r="J82" t="n">
-        <v>0.01549283163845746</v>
+        <v>0.028321234329675</v>
       </c>
       <c r="K82" t="n">
-        <v>0.005694134057981834</v>
+        <v>0.05363416533438566</v>
       </c>
       <c r="L82" t="n">
-        <v>0.04688536442187336</v>
+        <v>0.003868756643581203</v>
       </c>
       <c r="M82" t="n">
-        <v>0.02939277270316487</v>
+        <v>0.0457636903259477</v>
       </c>
       <c r="N82" t="n">
-        <v>0.009216580626796695</v>
+        <v>0.02617484422246137</v>
       </c>
       <c r="O82" t="n">
-        <v>0.0009031926958789582</v>
+        <v>0.06168729826655275</v>
       </c>
       <c r="P82" t="n">
-        <v>0.05288472557756373</v>
+        <v>0.08644372458053931</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.07583146237971024</v>
+        <v>0.07074757998366334</v>
       </c>
       <c r="R82" t="n">
-        <v>0.1013126748388036</v>
+        <v>0.06110146139557601</v>
       </c>
       <c r="S82" t="n">
-        <v>0.04312542714566298</v>
+        <v>0.05314603476428933</v>
       </c>
       <c r="T82" t="n">
-        <v>0.01669310353114026</v>
+        <v>0.03416901509315772</v>
       </c>
       <c r="U82" t="n">
-        <v>0.09153747601969757</v>
+        <v>0.07700218248784882</v>
       </c>
       <c r="V82" t="n">
-        <v>0.001529196290054477</v>
+        <v>0.002472649327433174</v>
       </c>
       <c r="W82" t="n">
-        <v>0.04866245148825413</v>
+        <v>0.04533940807217966</v>
       </c>
       <c r="X82" t="n">
-        <v>0.0545262672638241</v>
+        <v>0.02628179974361353</v>
       </c>
       <c r="Y82" t="n">
-        <v>0.08023013428373432</v>
+        <v>0.04969763915356283</v>
       </c>
       <c r="Z82" t="n">
-        <v>0.07966714796705214</v>
+        <v>0.0168631219562872</v>
       </c>
       <c r="AA82" t="n">
-        <v>0.02255847056383933</v>
+        <v>0.03099336006429157</v>
       </c>
       <c r="AB82" t="n">
-        <v>0.004201566042536946</v>
+        <v>0.02134443513726494</v>
       </c>
       <c r="AC82" t="n">
-        <v>0.1614688025380438</v>
+        <v>0.1515716080431263</v>
       </c>
     </row>
     <row r="83">
@@ -8286,79 +8286,79 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>0.2421274728068334</v>
+        <v>0.2222694048494356</v>
       </c>
       <c r="F83" t="n">
-        <v>0.04696256723940189</v>
+        <v>0.09557702835101189</v>
       </c>
       <c r="G83" t="n">
-        <v>0.001841627183312507</v>
+        <v>0.04649526958547973</v>
       </c>
       <c r="H83" t="n">
-        <v>0.03185167479139998</v>
+        <v>0.03504353740894087</v>
       </c>
       <c r="I83" t="n">
-        <v>0.0546401621258892</v>
+        <v>0.03388949828366588</v>
       </c>
       <c r="J83" t="n">
-        <v>0.06177720469067053</v>
+        <v>0.01178351681393243</v>
       </c>
       <c r="K83" t="n">
-        <v>0.08707558717530536</v>
+        <v>0.01262550620640991</v>
       </c>
       <c r="L83" t="n">
-        <v>0.05200324789965451</v>
+        <v>0.01963040722414694</v>
       </c>
       <c r="M83" t="n">
-        <v>0.06093477228128732</v>
+        <v>0.1090051801221913</v>
       </c>
       <c r="N83" t="n">
-        <v>0.00308357918795835</v>
+        <v>0.02757545314133765</v>
       </c>
       <c r="O83" t="n">
-        <v>0.02880858796947281</v>
+        <v>0.03104869862559177</v>
       </c>
       <c r="P83" t="n">
-        <v>0.03404557838734086</v>
+        <v>0.0292838502774936</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.06778770354286601</v>
+        <v>0.01957273742612044</v>
       </c>
       <c r="R83" t="n">
-        <v>0.0339530549008918</v>
+        <v>0.00811071933300433</v>
       </c>
       <c r="S83" t="n">
-        <v>4.525715595453532e-06</v>
+        <v>0.01491827252579736</v>
       </c>
       <c r="T83" t="n">
-        <v>0.07055253029927541</v>
+        <v>0.01549117620144343</v>
       </c>
       <c r="U83" t="n">
-        <v>0.04088671745514991</v>
+        <v>0.02584605151463791</v>
       </c>
       <c r="V83" t="n">
-        <v>0.0466328487874058</v>
+        <v>0.01874707166390745</v>
       </c>
       <c r="W83" t="n">
-        <v>0.01519670373558914</v>
+        <v>0.06902898251887495</v>
       </c>
       <c r="X83" t="n">
-        <v>0.01455890592633742</v>
+        <v>0.1042118908145617</v>
       </c>
       <c r="Y83" t="n">
-        <v>0.05322603124392111</v>
+        <v>0.1038503689921969</v>
       </c>
       <c r="Z83" t="n">
-        <v>0.0717110830978953</v>
+        <v>0.1130839128288924</v>
       </c>
       <c r="AA83" t="n">
-        <v>0.07837386296462318</v>
+        <v>0.05121223371231144</v>
       </c>
       <c r="AB83" t="n">
-        <v>0.04409144339875605</v>
+        <v>0.003968636428049738</v>
       </c>
       <c r="AC83" t="n">
-        <v>0.2027966317101158</v>
+        <v>0.2034107166727244</v>
       </c>
     </row>
     <row r="84">
@@ -8381,79 +8381,79 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>0.2506411093528227</v>
+        <v>0.2417861321479746</v>
       </c>
       <c r="F84" t="n">
-        <v>0.03517917694755512</v>
+        <v>0.05146198679641538</v>
       </c>
       <c r="G84" t="n">
-        <v>0.06038050831887696</v>
+        <v>0.01573960965215064</v>
       </c>
       <c r="H84" t="n">
-        <v>0.06212986692728236</v>
+        <v>0.08112617799518131</v>
       </c>
       <c r="I84" t="n">
-        <v>0.002792894355847344</v>
+        <v>0.02679171870438046</v>
       </c>
       <c r="J84" t="n">
-        <v>0.04365803822350464</v>
+        <v>0.04366131450300397</v>
       </c>
       <c r="K84" t="n">
-        <v>0.080598138186665</v>
+        <v>0.01382994773714279</v>
       </c>
       <c r="L84" t="n">
-        <v>0.01080707230148647</v>
+        <v>0.005793964167468258</v>
       </c>
       <c r="M84" t="n">
-        <v>0.009479860182195229</v>
+        <v>0.04740051828237711</v>
       </c>
       <c r="N84" t="n">
-        <v>0.00704473863743498</v>
+        <v>0.07660821446883381</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01178631615891532</v>
+        <v>0.004506507335341308</v>
       </c>
       <c r="P84" t="n">
-        <v>0.07100974401844343</v>
+        <v>0.07257975531875631</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.0931388811890614</v>
+        <v>0.07101787086892965</v>
       </c>
       <c r="R84" t="n">
-        <v>0.09364127979764539</v>
+        <v>0.08410285675797823</v>
       </c>
       <c r="S84" t="n">
-        <v>0.002123939441189978</v>
+        <v>0.05083735623949322</v>
       </c>
       <c r="T84" t="n">
-        <v>0.06885348183969883</v>
+        <v>0.08304494734335006</v>
       </c>
       <c r="U84" t="n">
-        <v>0.08408522344561604</v>
+        <v>0.0672091265945116</v>
       </c>
       <c r="V84" t="n">
-        <v>0.01321693391640145</v>
+        <v>0.009914753192502554</v>
       </c>
       <c r="W84" t="n">
-        <v>0.09346528485000506</v>
+        <v>0.05026467553410329</v>
       </c>
       <c r="X84" t="n">
-        <v>0.02130720511233511</v>
+        <v>0.001839614641480223</v>
       </c>
       <c r="Y84" t="n">
-        <v>0.05718094225560095</v>
+        <v>0.06148037261038</v>
       </c>
       <c r="Z84" t="n">
-        <v>0.0248158175944292</v>
+        <v>0.04624756027059932</v>
       </c>
       <c r="AA84" t="n">
-        <v>0.04291231508979571</v>
+        <v>0.02890850056091337</v>
       </c>
       <c r="AB84" t="n">
-        <v>0.01039234121001409</v>
+        <v>0.005632650424707131</v>
       </c>
       <c r="AC84" t="n">
-        <v>0.08727317799695559</v>
+        <v>0.05423850344719331</v>
       </c>
     </row>
     <row r="85">
@@ -8476,82 +8476,82 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>0.3329584404976331</v>
+        <v>0.2830914477460257</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0749748768262513</v>
+        <v>0.01883239135224204</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05167977311539999</v>
+        <v>0.1110224426747825</v>
       </c>
       <c r="H85" t="n">
-        <v>0.04298024775842322</v>
+        <v>0.0101949298933614</v>
       </c>
       <c r="I85" t="n">
-        <v>0.02677152191451702</v>
+        <v>0.001137738768150568</v>
       </c>
       <c r="J85" t="n">
-        <v>0.008526451550286978</v>
+        <v>0.005509094136338865</v>
       </c>
       <c r="K85" t="n">
-        <v>0.05487067177972164</v>
+        <v>0.02895633828290247</v>
       </c>
       <c r="L85" t="n">
-        <v>0.02611757009368831</v>
+        <v>0.01952813408332045</v>
       </c>
       <c r="M85" t="n">
-        <v>0.07877833272049702</v>
+        <v>0.02217729818607006</v>
       </c>
       <c r="N85" t="n">
-        <v>0.07628983887661928</v>
+        <v>0.01675245591515553</v>
       </c>
       <c r="O85" t="n">
-        <v>0.006962595354083303</v>
+        <v>0.04243679228630877</v>
       </c>
       <c r="P85" t="n">
-        <v>0.004217441689136521</v>
+        <v>0.0197397963212514</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.07544803573446067</v>
+        <v>0.07992814252859193</v>
       </c>
       <c r="R85" t="n">
-        <v>0.007194162449638688</v>
+        <v>0.03006456126076898</v>
       </c>
       <c r="S85" t="n">
-        <v>3.81925577238015e-06</v>
+        <v>0.02472389842752824</v>
       </c>
       <c r="T85" t="n">
-        <v>0.06848269417098807</v>
+        <v>0.01910677246713073</v>
       </c>
       <c r="U85" t="n">
-        <v>0.05512421250326797</v>
+        <v>0.03256395749199265</v>
       </c>
       <c r="V85" t="n">
-        <v>0.07510392236765993</v>
+        <v>0.05927720010481548</v>
       </c>
       <c r="W85" t="n">
-        <v>0.04661953899280796</v>
+        <v>0.1097195318411828</v>
       </c>
       <c r="X85" t="n">
-        <v>0.06500613046078541</v>
+        <v>0.03788488998594847</v>
       </c>
       <c r="Y85" t="n">
-        <v>0.01742347976545804</v>
+        <v>0.1107455936379785</v>
       </c>
       <c r="Z85" t="n">
-        <v>0.03026044666421184</v>
+        <v>0.105242476482599</v>
       </c>
       <c r="AA85" t="n">
-        <v>0.0594918913432713</v>
+        <v>0.004880878639957916</v>
       </c>
       <c r="AB85" t="n">
-        <v>0.04767234461305328</v>
+        <v>0.08957468523162118</v>
       </c>
       <c r="AC85" t="n">
-        <v>0.08356361445977097</v>
+        <v>0.05490533035735638</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>